--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D3D807-158E-41B4-B533-501AC013F0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5AF19D-F668-471E-B4D7-87430E2BF144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="13260" yWindow="570" windowWidth="23625" windowHeight="20445" activeTab="2" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100002, 100002, 100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지 데이터 규칙 작성 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,11 +129,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100001, 100002, 100003, 100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001, 100002, 100003</t>
+    <t>100001, 100002, 100003, 100004, 100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100002, 100003, 100004, 100006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +607,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +670,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -707,7 +703,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -716,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -755,7 +751,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -763,14 +759,14 @@
     <col min="1" max="1" width="19.25" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -809,7 +805,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -835,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8">
         <v>100</v>
@@ -852,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6" s="8">
         <v>100</v>
@@ -869,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="8">
         <v>100</v>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5AF19D-F668-471E-B4D7-87430E2BF144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE2EE00-8678-4F35-A36F-8CB0D40757A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="570" windowWidth="23625" windowHeight="20445" activeTab="2" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="2715" yWindow="2655" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100001, 100002, 100003, 100004, 100006</t>
+    <t>100001, 100002, 100003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,7 +751,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -845,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>22</v>
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>22</v>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE2EE00-8678-4F35-A36F-8CB0D40757A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD688FF9-1393-477C-B36F-18C88F2952BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="2655" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
-    <sheet name="stage_data" sheetId="2" r:id="rId2"/>
-    <sheet name="wave_data" sheetId="5" r:id="rId3"/>
+    <sheet name="!참조_ENUM" sheetId="7" r:id="rId2"/>
+    <sheet name="stage_data" sheetId="2" r:id="rId3"/>
+    <sheet name="wave_data" sheetId="5" r:id="rId4"/>
+    <sheet name="stage_reward" sheetId="6" r:id="rId5"/>
+    <sheet name="star_reward" sheetId="8" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +43,297 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>전홍림</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{22E79AA0-0AF4-48DB-9121-442DB1FD5E57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확률은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개별</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확률로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정한다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템별</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확률</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+백만분율</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">사용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만분율로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변경</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,19 +343,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stage_star_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 별 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 웨이브 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,6 +417,142 @@
   </si>
   <si>
     <t>100001, 100002, 100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Reward_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_reward_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:ITEM_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 타입(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 개수 최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 개수 최최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#item_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward group id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage reward id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star_Reward_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star reward id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_reward_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 리워드 group id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 보상 group id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +612,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +653,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,13 +683,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +747,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -298,6 +777,200 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="@tribe"/>
+      <sheetName val="@position"/>
+      <sheetName val="@role"/>
+      <sheetName val="@npc"/>
+      <sheetName val="@target_rule"/>
+      <sheetName val="@character_sort"/>
+      <sheetName val="@stage_common"/>
+      <sheetName val="@second_target_rule"/>
+      <sheetName val="@effect"/>
+      <sheetName val="@stat"/>
+      <sheetName val="@team_type"/>
+      <sheetName val="@touch_body_type"/>
+      <sheetName val="@touch_gesture_type"/>
+      <sheetName val="@target_type"/>
+      <sheetName val="@onetime_effect_type"/>
+      <sheetName val="@duration_effect_type"/>
+      <sheetName val="@persistence_type"/>
+      <sheetName val="@projectile_type"/>
+      <sheetName val="@inequality_type"/>
+      <sheetName val="@skill_type"/>
+      <sheetName val="@item_type"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>GOLD</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>금화(게임내 사용되는 재화)</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>DIA</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>보석(게임내 사용되는 유료 재화)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>DUNGEON_TICKET</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>던전 입장 티켓</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>CHARACTER_PIECE</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>캐릭터 조각</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>EXP_POTION</v>
+          </cell>
+          <cell r="B9">
+            <v>5</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>경험치 물약</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>STA_POTION</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>스테미나 회복 물약</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>MEMORIAL_ITEM</v>
+          </cell>
+          <cell r="B11">
+            <v>7</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>메모리얼에서 사용될 아이템</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>CHARACTER</v>
+          </cell>
+          <cell r="B12">
+            <v>8</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>캐릭터 완전체</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>EXPENDABLE_ITEM</v>
+          </cell>
+          <cell r="B13">
+            <v>9</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>각종 소모용 아이템</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>EQUIPMENT_ITEM</v>
+          </cell>
+          <cell r="B14">
+            <v>10</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>장비</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,7 +1280,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -653,74 +1326,289 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111FEE21-2083-4AD8-8714-33CBDCF12BAB}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>'[1]@item_type'!$A$1</f>
+        <v>ITEM_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="str">
+        <f>'[1]@item_type'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="B2" s="11" t="str">
+        <f>'[1]@item_type'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>'[1]@item_type'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="str">
+        <f>'[1]@item_type'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'[1]@item_type'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f>'[1]@item_type'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="str">
+        <f>'[1]@item_type'!$A5</f>
+        <v>GOLD</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'[1]@item_type'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f>'[1]@item_type'!$C5</f>
+        <v>금화(게임내 사용되는 재화)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="str">
+        <f>'[1]@item_type'!$A6</f>
+        <v>DIA</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'[1]@item_type'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>'[1]@item_type'!$C6</f>
+        <v>보석(게임내 사용되는 유료 재화)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="str">
+        <f>'[1]@item_type'!$A7</f>
+        <v>DUNGEON_TICKET</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'[1]@item_type'!$B7</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f>'[1]@item_type'!$C7</f>
+        <v>던전 입장 티켓</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="str">
+        <f>'[1]@item_type'!$A8</f>
+        <v>CHARACTER_PIECE</v>
+      </c>
+      <c r="B7" s="4">
+        <f>'[1]@item_type'!$B8</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>'[1]@item_type'!$C8</f>
+        <v>캐릭터 조각</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="str">
+        <f>'[1]@item_type'!$A9</f>
+        <v>EXP_POTION</v>
+      </c>
+      <c r="B8" s="4">
+        <f>'[1]@item_type'!$B9</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f>'[1]@item_type'!$C9</f>
+        <v>경험치 물약</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="str">
+        <f>'[1]@item_type'!$A10</f>
+        <v>STA_POTION</v>
+      </c>
+      <c r="B9" s="4">
+        <f>'[1]@item_type'!$B10</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>'[1]@item_type'!$C10</f>
+        <v>스테미나 회복 물약</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="str">
+        <f>'[1]@item_type'!$A11</f>
+        <v>MEMORIAL_ITEM</v>
+      </c>
+      <c r="B10" s="4">
+        <f>'[1]@item_type'!$B11</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>'[1]@item_type'!$C11</f>
+        <v>메모리얼에서 사용될 아이템</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="str">
+        <f>'[1]@item_type'!$A12</f>
+        <v>CHARACTER</v>
+      </c>
+      <c r="B11" s="4">
+        <f>'[1]@item_type'!$B12</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f>'[1]@item_type'!$C12</f>
+        <v>캐릭터 완전체</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="str">
+        <f>'[1]@item_type'!$A13</f>
+        <v>EXPENDABLE_ITEM</v>
+      </c>
+      <c r="B12" s="4">
+        <f>'[1]@item_type'!$B13</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>'[1]@item_type'!$C13</f>
+        <v>각종 소모용 아이템</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="str">
+        <f>'[1]@item_type'!$A14</f>
+        <v>EQUIPMENT_ITEM</v>
+      </c>
+      <c r="B13" s="4">
+        <f>'[1]@item_type'!$B14</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>'[1]@item_type'!$C14</f>
+        <v>장비</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -728,30 +1616,205 @@
       <c r="D5" s="4">
         <v>100001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="E5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>100002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>100003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>100004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1002</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>100005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>100006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1002</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>100008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1002</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>100010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>100001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1002</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1002</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{CB1BCE71-3EAB-4590-9217-600A06D14B9E}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -766,24 +1829,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -805,19 +1868,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -831,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8">
         <v>100</v>
@@ -848,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="8">
         <v>100</v>
@@ -865,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="8">
         <v>100</v>
@@ -878,4 +1941,509 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE33D5FA-B1E6-44D8-A784-9AE4513AAAED}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>100101</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(C5,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <v>금화(게임내 사용되는 재화)</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>100102</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(C6,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <v>캐릭터 조각</v>
+      </c>
+      <c r="E6" s="4">
+        <v>100001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>100201</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(C7,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <v>금화(게임내 사용되는 재화)</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>100202</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(C8,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <v>메모리얼에서 사용될 아이템</v>
+      </c>
+      <c r="E8" s="4">
+        <v>70001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E4C65EB-5CD4-4A2A-8C46-352671E167B5}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$B$3:$B$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890DE066-F72C-4DE8-963E-76E419CCD8AB}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>100101</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D5,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <v>보석(게임내 사용되는 유료 재화)</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>100102</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D6,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <v>캐릭터 조각</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>100103</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D7,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <v>경험치 물약</v>
+      </c>
+      <c r="F7" s="4">
+        <v>50001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>100201</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D8,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <v>보석(게임내 사용되는 유료 재화)</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>100202</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D9,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <v>스테미나 회복 물약</v>
+      </c>
+      <c r="F9" s="4">
+        <v>60001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>100203</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D10,'!참조_ENUM'!$B$3:$B$13,0))</f>
+        <v>각종 소모용 아이템</v>
+      </c>
+      <c r="F10" s="4">
+        <v>90001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B78AB9ED-EFD6-4026-B080-2169A498872C}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$B$3:$B$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD688FF9-1393-477C-B36F-18C88F2952BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5603AA49-3BA7-41AC-A60C-6B49EEBBC6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +553,42 @@
   </si>
   <si>
     <t>zone_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC 스탯 증가 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_stat_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC 레벨 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030101,2030101,2030101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030101,2030101,2030101,2030201,2030201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +796,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1524,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1811,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1823,16 +1865,17 @@
     <col min="2" max="2" width="15.625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="5" max="6" width="38.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1846,10 +1889,16 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1863,10 +1912,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1880,10 +1935,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>100001</v>
       </c>
@@ -1896,11 +1957,17 @@
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>100001</v>
       </c>
@@ -1913,11 +1980,17 @@
       <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>100001</v>
       </c>
@@ -1930,12 +2003,20 @@
       <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" s="8"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5603AA49-3BA7-41AC-A60C-6B49EEBBC6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDD8AEB-2AFD-47FD-9C75-AC9715B4535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="42645" yWindow="1530" windowWidth="23460" windowHeight="18420" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
     <sheet name="!참조_ENUM" sheetId="7" r:id="rId2"/>
-    <sheet name="stage_data" sheetId="2" r:id="rId3"/>
-    <sheet name="wave_data" sheetId="5" r:id="rId4"/>
-    <sheet name="stage_reward" sheetId="6" r:id="rId5"/>
-    <sheet name="star_reward" sheetId="8" r:id="rId6"/>
+    <sheet name="world_data" sheetId="10" r:id="rId3"/>
+    <sheet name="zone_data" sheetId="9" r:id="rId4"/>
+    <sheet name="stage_data" sheetId="2" r:id="rId5"/>
+    <sheet name="wave_data" sheetId="5" r:id="rId6"/>
+    <sheet name="stage_reward" sheetId="6" r:id="rId7"/>
+    <sheet name="star_reward" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -333,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="116">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,14 +346,6 @@
   </si>
   <si>
     <t>스테이지 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage_wave_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브 연결 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -532,14 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 리워드 group id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별 보상 group id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stage_reward_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -548,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>웨이브 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zone_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,6 +571,220 @@
   </si>
   <si>
     <t>2,2,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속한 월드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_world_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone_img_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone_tooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1존 노말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1존 하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1존 베리 하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오더링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone_odering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone_difficulty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아스텔지어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 스태미나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 넘버링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_odering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 진행 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 스테이지</t>
+  </si>
+  <si>
+    <t>3번 스테이지</t>
+  </si>
+  <si>
+    <t>4번 스테이지</t>
+  </si>
+  <si>
+    <t>5번 스테이지</t>
+  </si>
+  <si>
+    <t>6번 스테이지</t>
+  </si>
+  <si>
+    <t>7번 스테이지</t>
+  </si>
+  <si>
+    <t>8번 스테이지</t>
+  </si>
+  <si>
+    <t>9번 스테이지</t>
+  </si>
+  <si>
+    <t>10번 스테이지</t>
+  </si>
+  <si>
+    <t>11번 스테이지</t>
+  </si>
+  <si>
+    <t>12번 스테이지</t>
+  </si>
+  <si>
+    <t>13번 스테이지</t>
+  </si>
+  <si>
+    <t>14번 스테이지</t>
+  </si>
+  <si>
+    <t>15번 스테이지</t>
+  </si>
+  <si>
+    <t>클리어 시 캐릭터 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destiny_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:STAGE_DIFFICULTY_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초회 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통상 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_reward_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>always_reward_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +792,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,8 +859,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +895,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,11 +1007,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,6 +1053,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="@tribe"/>
+      <sheetName val="@stage"/>
       <sheetName val="@position"/>
       <sheetName val="@role"/>
       <sheetName val="@npc"/>
@@ -871,7 +1096,8 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
             <v>ITEM_TYPE</v>
@@ -1318,47 +1544,47 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="6"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="6"/>
     </row>
   </sheetData>
@@ -1372,23 +1598,23 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="str">
         <f>'[1]@item_type'!$A$1</f>
         <v>ITEM_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="11" t="str">
         <f>'[1]@item_type'!$A3</f>
         <v>type</v>
@@ -1402,7 +1628,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="str">
         <f>'[1]@item_type'!$A4</f>
         <v>NONE</v>
@@ -1416,7 +1642,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="str">
         <f>'[1]@item_type'!$A5</f>
         <v>GOLD</v>
@@ -1430,7 +1656,7 @@
         <v>금화(게임내 사용되는 재화)</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="str">
         <f>'[1]@item_type'!$A6</f>
         <v>DIA</v>
@@ -1444,7 +1670,7 @@
         <v>보석(게임내 사용되는 유료 재화)</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="str">
         <f>'[1]@item_type'!$A7</f>
         <v>DUNGEON_TICKET</v>
@@ -1458,7 +1684,7 @@
         <v>던전 입장 티켓</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="str">
         <f>'[1]@item_type'!$A8</f>
         <v>CHARACTER_PIECE</v>
@@ -1472,7 +1698,7 @@
         <v>캐릭터 조각</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="str">
         <f>'[1]@item_type'!$A9</f>
         <v>EXP_POTION</v>
@@ -1486,7 +1712,7 @@
         <v>경험치 물약</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="str">
         <f>'[1]@item_type'!$A10</f>
         <v>STA_POTION</v>
@@ -1500,7 +1726,7 @@
         <v>스테미나 회복 물약</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="str">
         <f>'[1]@item_type'!$A11</f>
         <v>MEMORIAL_ITEM</v>
@@ -1514,7 +1740,7 @@
         <v>메모리얼에서 사용될 아이템</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="str">
         <f>'[1]@item_type'!$A12</f>
         <v>CHARACTER</v>
@@ -1528,7 +1754,7 @@
         <v>캐릭터 완전체</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="str">
         <f>'[1]@item_type'!$A13</f>
         <v>EXPENDABLE_ITEM</v>
@@ -1542,7 +1768,7 @@
         <v>각종 소모용 아이템</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="str">
         <f>'[1]@item_type'!$A14</f>
         <v>EQUIPMENT_ITEM</v>
@@ -1563,286 +1789,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F748694-46FB-462D-ABEF-B5CE7CAEE9F7}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
-        <v>100001</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>100002</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1002</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>100003</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>100004</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1002</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>100005</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>100006</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1002</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>100007</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>100008</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1002</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>100009</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1001</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>100010</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>100001</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1002</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1002</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1852,171 +1846,166 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A2:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="38.25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>100001</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>101101</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>101201</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>101301</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>100001</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>100001</v>
-      </c>
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="F7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2025,6 +2014,1895 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
+        <v>100001</v>
+      </c>
+      <c r="B5" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="18">
+        <v>12</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18">
+        <v>100</v>
+      </c>
+      <c r="I5" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>100002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="18">
+        <v>12</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>100</v>
+      </c>
+      <c r="I6" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
+        <v>100003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C7" s="17">
+        <v>3</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="18">
+        <v>12</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>100</v>
+      </c>
+      <c r="I7" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
+        <v>100004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C8" s="17">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18">
+        <v>12</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18">
+        <v>100</v>
+      </c>
+      <c r="I8" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J8" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>100005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C9" s="17">
+        <v>5</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="18">
+        <v>12</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18">
+        <v>200</v>
+      </c>
+      <c r="I9" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
+        <v>100006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="18">
+        <v>12</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2</v>
+      </c>
+      <c r="H10" s="18">
+        <v>100</v>
+      </c>
+      <c r="I10" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J10" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C11" s="17">
+        <v>7</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="18">
+        <v>12</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
+        <v>100</v>
+      </c>
+      <c r="I11" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4">
+        <v>100008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C12" s="17">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="18">
+        <v>12</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <v>100</v>
+      </c>
+      <c r="I12" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C13" s="17">
+        <v>9</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="18">
+        <v>12</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18">
+        <v>100</v>
+      </c>
+      <c r="I13" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
+        <v>100010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C14" s="17">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="18">
+        <v>12</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18">
+        <v>100</v>
+      </c>
+      <c r="I14" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J14" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4">
+        <v>100011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C15" s="17">
+        <v>11</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10</v>
+      </c>
+      <c r="F15" s="18">
+        <v>12</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2</v>
+      </c>
+      <c r="H15" s="18">
+        <v>100</v>
+      </c>
+      <c r="I15" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J15" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4">
+        <v>100012</v>
+      </c>
+      <c r="B16" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C16" s="17">
+        <v>12</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="18">
+        <v>12</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18">
+        <v>200</v>
+      </c>
+      <c r="I16" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J16" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4">
+        <v>100013</v>
+      </c>
+      <c r="B17" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C17" s="17">
+        <v>13</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="18">
+        <v>12</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18">
+        <v>200</v>
+      </c>
+      <c r="I17" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J17" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4">
+        <v>100014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C18" s="17">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="18">
+        <v>12</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="18">
+        <v>200</v>
+      </c>
+      <c r="I18" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J18" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4">
+        <v>100015</v>
+      </c>
+      <c r="B19" s="4">
+        <v>101101</v>
+      </c>
+      <c r="C19" s="17">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="18">
+        <v>12</v>
+      </c>
+      <c r="G19" s="18">
+        <v>2</v>
+      </c>
+      <c r="H19" s="18">
+        <v>200</v>
+      </c>
+      <c r="I19" s="22">
+        <v>100001</v>
+      </c>
+      <c r="J19" s="4">
+        <v>200001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="33">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8">
+        <v>100001</v>
+      </c>
+      <c r="B5" s="8">
+        <v>100001</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8">
+        <v>100001</v>
+      </c>
+      <c r="B6" s="8">
+        <v>100001</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8">
+        <v>100001</v>
+      </c>
+      <c r="B7" s="8">
+        <v>100001</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="21" customFormat="1">
+      <c r="A8" s="19">
+        <v>100002</v>
+      </c>
+      <c r="B8" s="19">
+        <v>100002</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="21" customFormat="1">
+      <c r="A9" s="19">
+        <v>100002</v>
+      </c>
+      <c r="B9" s="19">
+        <v>100002</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2</v>
+      </c>
+      <c r="D9" s="19">
+        <v>5</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="21" customFormat="1">
+      <c r="A10" s="19">
+        <v>100002</v>
+      </c>
+      <c r="B10" s="19">
+        <v>100002</v>
+      </c>
+      <c r="C10" s="19">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8">
+        <v>100003</v>
+      </c>
+      <c r="B11" s="8">
+        <v>100003</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8">
+        <v>100003</v>
+      </c>
+      <c r="B12" s="8">
+        <v>100003</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="8">
+        <v>100003</v>
+      </c>
+      <c r="B13" s="8">
+        <v>100003</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="21" customFormat="1">
+      <c r="A14" s="19">
+        <v>100004</v>
+      </c>
+      <c r="B14" s="19">
+        <v>100004</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="21" customFormat="1">
+      <c r="A15" s="19">
+        <v>100004</v>
+      </c>
+      <c r="B15" s="19">
+        <v>100004</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="19">
+        <v>5</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="21" customFormat="1">
+      <c r="A16" s="19">
+        <v>100004</v>
+      </c>
+      <c r="B16" s="19">
+        <v>100004</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8">
+        <v>100005</v>
+      </c>
+      <c r="B17" s="8">
+        <v>100005</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8">
+        <v>100005</v>
+      </c>
+      <c r="B18" s="8">
+        <v>100005</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8">
+        <v>100005</v>
+      </c>
+      <c r="B19" s="8">
+        <v>100005</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="21" customFormat="1">
+      <c r="A20" s="19">
+        <v>100006</v>
+      </c>
+      <c r="B20" s="19">
+        <v>100006</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="21" customFormat="1">
+      <c r="A21" s="19">
+        <v>100006</v>
+      </c>
+      <c r="B21" s="19">
+        <v>100006</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2</v>
+      </c>
+      <c r="D21" s="19">
+        <v>5</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="21" customFormat="1">
+      <c r="A22" s="19">
+        <v>100006</v>
+      </c>
+      <c r="B22" s="19">
+        <v>100006</v>
+      </c>
+      <c r="C22" s="19">
+        <v>3</v>
+      </c>
+      <c r="D22" s="19">
+        <v>5</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8">
+        <v>100007</v>
+      </c>
+      <c r="B23" s="8">
+        <v>100007</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8">
+        <v>100007</v>
+      </c>
+      <c r="B24" s="8">
+        <v>100007</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8">
+        <v>100007</v>
+      </c>
+      <c r="B25" s="8">
+        <v>100007</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="21" customFormat="1">
+      <c r="A26" s="19">
+        <v>100008</v>
+      </c>
+      <c r="B26" s="19">
+        <v>100008</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1</v>
+      </c>
+      <c r="D26" s="19">
+        <v>3</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="21" customFormat="1">
+      <c r="A27" s="19">
+        <v>100008</v>
+      </c>
+      <c r="B27" s="19">
+        <v>100008</v>
+      </c>
+      <c r="C27" s="19">
+        <v>2</v>
+      </c>
+      <c r="D27" s="19">
+        <v>5</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="21" customFormat="1">
+      <c r="A28" s="19">
+        <v>100008</v>
+      </c>
+      <c r="B28" s="19">
+        <v>100008</v>
+      </c>
+      <c r="C28" s="19">
+        <v>3</v>
+      </c>
+      <c r="D28" s="19">
+        <v>5</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8">
+        <v>100009</v>
+      </c>
+      <c r="B29" s="8">
+        <v>100009</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8">
+        <v>100009</v>
+      </c>
+      <c r="B30" s="8">
+        <v>100009</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8">
+        <v>100009</v>
+      </c>
+      <c r="B31" s="8">
+        <v>100009</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>5</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="21" customFormat="1">
+      <c r="A32" s="19">
+        <v>100010</v>
+      </c>
+      <c r="B32" s="19">
+        <v>100010</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="21" customFormat="1">
+      <c r="A33" s="19">
+        <v>100010</v>
+      </c>
+      <c r="B33" s="19">
+        <v>100010</v>
+      </c>
+      <c r="C33" s="19">
+        <v>2</v>
+      </c>
+      <c r="D33" s="19">
+        <v>5</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="21" customFormat="1">
+      <c r="A34" s="19">
+        <v>100010</v>
+      </c>
+      <c r="B34" s="19">
+        <v>100010</v>
+      </c>
+      <c r="C34" s="19">
+        <v>3</v>
+      </c>
+      <c r="D34" s="19">
+        <v>5</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="8">
+        <v>100011</v>
+      </c>
+      <c r="B35" s="8">
+        <v>100011</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
+        <v>3</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8">
+        <v>100011</v>
+      </c>
+      <c r="B36" s="8">
+        <v>100011</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" s="8">
+        <v>5</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8">
+        <v>100011</v>
+      </c>
+      <c r="B37" s="8">
+        <v>100011</v>
+      </c>
+      <c r="C37" s="8">
+        <v>3</v>
+      </c>
+      <c r="D37" s="8">
+        <v>5</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="21" customFormat="1">
+      <c r="A38" s="19">
+        <v>100012</v>
+      </c>
+      <c r="B38" s="19">
+        <v>100012</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="21" customFormat="1">
+      <c r="A39" s="19">
+        <v>100012</v>
+      </c>
+      <c r="B39" s="19">
+        <v>100012</v>
+      </c>
+      <c r="C39" s="19">
+        <v>2</v>
+      </c>
+      <c r="D39" s="19">
+        <v>5</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="21" customFormat="1">
+      <c r="A40" s="19">
+        <v>100012</v>
+      </c>
+      <c r="B40" s="19">
+        <v>100012</v>
+      </c>
+      <c r="C40" s="19">
+        <v>3</v>
+      </c>
+      <c r="D40" s="19">
+        <v>5</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8">
+        <v>100013</v>
+      </c>
+      <c r="B41" s="8">
+        <v>100013</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>3</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8">
+        <v>100013</v>
+      </c>
+      <c r="B42" s="8">
+        <v>100013</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2</v>
+      </c>
+      <c r="D42" s="8">
+        <v>5</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8">
+        <v>100013</v>
+      </c>
+      <c r="B43" s="8">
+        <v>100013</v>
+      </c>
+      <c r="C43" s="8">
+        <v>3</v>
+      </c>
+      <c r="D43" s="8">
+        <v>5</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="21" customFormat="1">
+      <c r="A44" s="19">
+        <v>100014</v>
+      </c>
+      <c r="B44" s="19">
+        <v>100014</v>
+      </c>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="19">
+        <v>3</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="21" customFormat="1">
+      <c r="A45" s="19">
+        <v>100014</v>
+      </c>
+      <c r="B45" s="19">
+        <v>100014</v>
+      </c>
+      <c r="C45" s="19">
+        <v>2</v>
+      </c>
+      <c r="D45" s="19">
+        <v>5</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="21" customFormat="1">
+      <c r="A46" s="19">
+        <v>100014</v>
+      </c>
+      <c r="B46" s="19">
+        <v>100014</v>
+      </c>
+      <c r="C46" s="19">
+        <v>3</v>
+      </c>
+      <c r="D46" s="19">
+        <v>5</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8">
+        <v>100015</v>
+      </c>
+      <c r="B47" s="8">
+        <v>100015</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
+        <v>3</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8">
+        <v>100015</v>
+      </c>
+      <c r="B48" s="8">
+        <v>100015</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2</v>
+      </c>
+      <c r="D48" s="8">
+        <v>5</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8">
+        <v>100015</v>
+      </c>
+      <c r="B49" s="8">
+        <v>100015</v>
+      </c>
+      <c r="C49" s="8">
+        <v>3</v>
+      </c>
+      <c r="D49" s="8">
+        <v>5</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" s="8">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE33D5FA-B1E6-44D8-A784-9AE4513AAAED}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -2032,7 +3910,7 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
@@ -2043,41 +3921,41 @@
     <col min="8" max="8" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2085,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>0</v>
@@ -2106,36 +3984,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>100101</v>
       </c>
@@ -2165,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>100102</v>
       </c>
@@ -2195,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>100201</v>
       </c>
@@ -2225,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>100202</v>
       </c>
@@ -2274,15 +4152,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890DE066-F72C-4DE8-963E-76E419CCD8AB}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -2293,35 +4171,35 @@
     <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2332,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -2344,30 +4222,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="8">
         <v>100101</v>
       </c>
@@ -2391,7 +4269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="8">
         <v>100102</v>
       </c>
@@ -2415,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="8">
         <v>100103</v>
       </c>
@@ -2439,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="8">
         <v>100201</v>
       </c>
@@ -2463,7 +4341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="8">
         <v>100202</v>
       </c>
@@ -2487,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="8">
         <v>100203</v>
       </c>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDD8AEB-2AFD-47FD-9C75-AC9715B4535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA6AAA-0735-4A57-9A65-0A621F63CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42645" yWindow="1530" windowWidth="23460" windowHeight="18420" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -19,11 +19,9 @@
     <sheet name="zone_data" sheetId="9" r:id="rId4"/>
     <sheet name="stage_data" sheetId="2" r:id="rId5"/>
     <sheet name="wave_data" sheetId="5" r:id="rId6"/>
-    <sheet name="stage_reward" sheetId="6" r:id="rId7"/>
-    <sheet name="star_reward" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,297 +43,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>전홍림</author>
-  </authors>
-  <commentList>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{22E79AA0-0AF4-48DB-9121-442DB1FD5E57}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>확률은</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>개별</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>확률로</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>정한다</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>각</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>아이템별</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>확률</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-백만분율</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">사용
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필요시</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>만분율로</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>변경</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>가능</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="88">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,122 +123,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stage_Reward_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage_reward_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:ITEM_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 타입(기획)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 개수 최소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 개수 최최대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#item_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward group id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage reward id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Star_Reward_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star reward id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star_reward_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star_reward_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage_reward_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지역 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zone_odering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zone_difficulty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stage_odering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웨이브 진행 스테이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,7 +373,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>always_reward_id</t>
+    <t>repeat_reward_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_ordering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone_ordering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,21 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -905,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -939,26 +521,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,13 +573,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1024,9 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,6 +796,28 @@
           </cell>
           <cell r="C14" t="str">
             <v>장비</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FAVORITE_ITEM</v>
+          </cell>
+          <cell r="B15">
+            <v>11</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>호감도 아이템</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>STAMINA</v>
+          </cell>
+          <cell r="B16">
+            <v>12</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>스태미나</v>
           </cell>
         </row>
       </sheetData>
@@ -1595,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111FEE21-2083-4AD8-8714-33CBDCF12BAB}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A12" sqref="A12:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1780,6 +1365,34 @@
       <c r="C13" s="4" t="str">
         <f>'[1]@item_type'!$C14</f>
         <v>장비</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="str">
+        <f>'[1]@item_type'!$A15</f>
+        <v>FAVORITE_ITEM</v>
+      </c>
+      <c r="B14" s="4">
+        <f>'[1]@item_type'!$B15</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>'[1]@item_type'!$C15</f>
+        <v>호감도 아이템</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="str">
+        <f>'[1]@item_type'!$A16</f>
+        <v>STAMINA</v>
+      </c>
+      <c r="B15" s="4">
+        <f>'[1]@item_type'!$B16</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>'[1]@item_type'!$C16</f>
+        <v>스태미나</v>
       </c>
     </row>
   </sheetData>
@@ -1804,15 +1417,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1820,15 +1433,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1836,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1849,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1866,30 +1479,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1897,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1906,36 +1519,36 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1943,7 +1556,7 @@
         <v>101101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1955,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1966,7 +1579,7 @@
         <v>101201</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1978,10 +1591,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1989,7 +1602,7 @@
         <v>101301</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -2001,10 +1614,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2017,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2042,31 +1655,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2080,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
@@ -2106,31 +1719,31 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2140,25 +1753,25 @@
       <c r="B5" s="4">
         <v>101101</v>
       </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>90</v>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>12</v>
       </c>
-      <c r="G5" s="18">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
-        <v>100</v>
-      </c>
-      <c r="I5" s="22">
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>100</v>
+      </c>
+      <c r="I5" s="17">
         <v>100001</v>
       </c>
       <c r="J5" s="4">
@@ -2172,25 +1785,25 @@
       <c r="B6" s="4">
         <v>101101</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>91</v>
+      <c r="D6" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>12</v>
       </c>
-      <c r="G6" s="18">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18">
-        <v>100</v>
-      </c>
-      <c r="I6" s="22">
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>100</v>
+      </c>
+      <c r="I6" s="17">
         <v>100001</v>
       </c>
       <c r="J6" s="4">
@@ -2204,25 +1817,25 @@
       <c r="B7" s="4">
         <v>101101</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>3</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>92</v>
+      <c r="D7" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>12</v>
       </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18">
-        <v>100</v>
-      </c>
-      <c r="I7" s="22">
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>100</v>
+      </c>
+      <c r="I7" s="17">
         <v>100001</v>
       </c>
       <c r="J7" s="4">
@@ -2236,25 +1849,25 @@
       <c r="B8" s="4">
         <v>101101</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>4</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>93</v>
+      <c r="D8" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>12</v>
       </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18">
-        <v>100</v>
-      </c>
-      <c r="I8" s="22">
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>100</v>
+      </c>
+      <c r="I8" s="17">
         <v>100001</v>
       </c>
       <c r="J8" s="4">
@@ -2268,25 +1881,25 @@
       <c r="B9" s="4">
         <v>101101</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>5</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>94</v>
+      <c r="D9" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>12</v>
       </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
         <v>200</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="17">
         <v>100001</v>
       </c>
       <c r="J9" s="4">
@@ -2300,25 +1913,25 @@
       <c r="B10" s="4">
         <v>101101</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>6</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>95</v>
+      <c r="D10" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>12</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>2</v>
       </c>
-      <c r="H10" s="18">
-        <v>100</v>
-      </c>
-      <c r="I10" s="22">
+      <c r="H10" s="17">
+        <v>100</v>
+      </c>
+      <c r="I10" s="17">
         <v>100001</v>
       </c>
       <c r="J10" s="4">
@@ -2332,25 +1945,25 @@
       <c r="B11" s="4">
         <v>101101</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>7</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>96</v>
+      <c r="D11" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>12</v>
       </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18">
-        <v>100</v>
-      </c>
-      <c r="I11" s="22">
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <v>100</v>
+      </c>
+      <c r="I11" s="17">
         <v>100001</v>
       </c>
       <c r="J11" s="4">
@@ -2364,25 +1977,25 @@
       <c r="B12" s="4">
         <v>101101</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>8</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>97</v>
+      <c r="D12" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>12</v>
       </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18">
-        <v>100</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <v>100</v>
+      </c>
+      <c r="I12" s="17">
         <v>100001</v>
       </c>
       <c r="J12" s="4">
@@ -2396,25 +2009,25 @@
       <c r="B13" s="4">
         <v>101101</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>9</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>98</v>
+      <c r="D13" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="E13" s="4">
         <v>10</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>12</v>
       </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
-        <v>100</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
+        <v>100</v>
+      </c>
+      <c r="I13" s="17">
         <v>100001</v>
       </c>
       <c r="J13" s="4">
@@ -2428,25 +2041,25 @@
       <c r="B14" s="4">
         <v>101101</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>10</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>99</v>
+      <c r="D14" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>12</v>
       </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18">
-        <v>100</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <v>100</v>
+      </c>
+      <c r="I14" s="17">
         <v>100001</v>
       </c>
       <c r="J14" s="4">
@@ -2460,25 +2073,25 @@
       <c r="B15" s="4">
         <v>101101</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>11</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>100</v>
+      <c r="D15" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="4">
         <v>10</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>12</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>2</v>
       </c>
-      <c r="H15" s="18">
-        <v>100</v>
-      </c>
-      <c r="I15" s="22">
+      <c r="H15" s="17">
+        <v>100</v>
+      </c>
+      <c r="I15" s="17">
         <v>100001</v>
       </c>
       <c r="J15" s="4">
@@ -2492,25 +2105,25 @@
       <c r="B16" s="4">
         <v>101101</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>12</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>101</v>
+      <c r="D16" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="4">
         <v>10</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <v>12</v>
       </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18">
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
         <v>200</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="17">
         <v>100001</v>
       </c>
       <c r="J16" s="4">
@@ -2524,25 +2137,25 @@
       <c r="B17" s="4">
         <v>101101</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>13</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>102</v>
+      <c r="D17" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <v>12</v>
       </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
         <v>200</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="17">
         <v>100001</v>
       </c>
       <c r="J17" s="4">
@@ -2556,25 +2169,25 @@
       <c r="B18" s="4">
         <v>101101</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>103</v>
+      <c r="D18" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="E18" s="4">
         <v>10</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>12</v>
       </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
         <v>200</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="17">
         <v>100001</v>
       </c>
       <c r="J18" s="4">
@@ -2588,25 +2201,25 @@
       <c r="B19" s="4">
         <v>101101</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>15</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>104</v>
+      <c r="D19" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="E19" s="4">
         <v>10</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <v>12</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <v>2</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <v>200</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="17">
         <v>100001</v>
       </c>
       <c r="J19" s="4">
@@ -2614,7 +2227,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="F20" s="18"/>
+      <c r="F20" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2627,7 +2240,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2653,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -2665,10 +2278,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -2717,10 +2330,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>10</v>
@@ -2743,10 +2356,10 @@
         <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H5" s="8">
         <v>100</v>
@@ -2769,10 +2382,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H6" s="8">
         <v>100</v>
@@ -2795,90 +2408,90 @@
         <v>17</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H7" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="21" customFormat="1">
-      <c r="A8" s="19">
+    <row r="8" spans="1:8" s="20" customFormat="1">
+      <c r="A8" s="18">
         <v>100002</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>100002</v>
       </c>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
         <v>3</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="21" customFormat="1">
-      <c r="A9" s="19">
+      <c r="F8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="20" customFormat="1">
+      <c r="A9" s="18">
         <v>100002</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>100002</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>5</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="21" customFormat="1">
-      <c r="A10" s="19">
+      <c r="F9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="20" customFormat="1">
+      <c r="A10" s="18">
         <v>100002</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>100002</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>5</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="19">
+      <c r="F10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="18">
         <v>100</v>
       </c>
     </row>
@@ -2899,10 +2512,10 @@
         <v>18</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H11" s="8">
         <v>100</v>
@@ -2925,10 +2538,10 @@
         <v>17</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H12" s="8">
         <v>100</v>
@@ -2951,90 +2564,90 @@
         <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H13" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1">
-      <c r="A14" s="19">
+    <row r="14" spans="1:8" s="20" customFormat="1">
+      <c r="A14" s="18">
         <v>100004</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>100004</v>
       </c>
-      <c r="C14" s="19">
-        <v>1</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
         <v>3</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="21" customFormat="1">
-      <c r="A15" s="19">
+      <c r="F14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="20" customFormat="1">
+      <c r="A15" s="18">
         <v>100004</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>100004</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>2</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>5</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="21" customFormat="1">
-      <c r="A16" s="19">
+      <c r="F15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="20" customFormat="1">
+      <c r="A16" s="18">
         <v>100004</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>100004</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>3</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>5</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="F16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="18">
         <v>100</v>
       </c>
     </row>
@@ -3055,10 +2668,10 @@
         <v>18</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H17" s="8">
         <v>100</v>
@@ -3081,10 +2694,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H18" s="8">
         <v>100</v>
@@ -3107,90 +2720,90 @@
         <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H19" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="21" customFormat="1">
-      <c r="A20" s="19">
+    <row r="20" spans="1:8" s="20" customFormat="1">
+      <c r="A20" s="18">
         <v>100006</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>100006</v>
       </c>
-      <c r="C20" s="19">
-        <v>1</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18">
         <v>3</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="21" customFormat="1">
-      <c r="A21" s="19">
+      <c r="F20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="20" customFormat="1">
+      <c r="A21" s="18">
         <v>100006</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>100006</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>2</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>5</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="21" customFormat="1">
-      <c r="A22" s="19">
+      <c r="F21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="20" customFormat="1">
+      <c r="A22" s="18">
         <v>100006</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>100006</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>3</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>5</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="F22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="18">
         <v>100</v>
       </c>
     </row>
@@ -3211,10 +2824,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H23" s="8">
         <v>100</v>
@@ -3237,10 +2850,10 @@
         <v>17</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H24" s="8">
         <v>100</v>
@@ -3263,90 +2876,90 @@
         <v>17</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H25" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="21" customFormat="1">
-      <c r="A26" s="19">
+    <row r="26" spans="1:8" s="20" customFormat="1">
+      <c r="A26" s="18">
         <v>100008</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>100008</v>
       </c>
-      <c r="C26" s="19">
-        <v>1</v>
-      </c>
-      <c r="D26" s="19">
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18">
         <v>3</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="21" customFormat="1">
-      <c r="A27" s="19">
+      <c r="F26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="20" customFormat="1">
+      <c r="A27" s="18">
         <v>100008</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>100008</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>2</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>5</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="21" customFormat="1">
-      <c r="A28" s="19">
+      <c r="F27" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="20" customFormat="1">
+      <c r="A28" s="18">
         <v>100008</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>100008</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>3</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>5</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="19">
+      <c r="F28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="18">
         <v>100</v>
       </c>
     </row>
@@ -3367,10 +2980,10 @@
         <v>18</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H29" s="8">
         <v>100</v>
@@ -3393,10 +3006,10 @@
         <v>17</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H30" s="8">
         <v>100</v>
@@ -3419,90 +3032,90 @@
         <v>17</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H31" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="21" customFormat="1">
-      <c r="A32" s="19">
+    <row r="32" spans="1:8" s="20" customFormat="1">
+      <c r="A32" s="18">
         <v>100010</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>100010</v>
       </c>
-      <c r="C32" s="19">
-        <v>1</v>
-      </c>
-      <c r="D32" s="19">
+      <c r="C32" s="18">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18">
         <v>3</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="21" customFormat="1">
-      <c r="A33" s="19">
+      <c r="F32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="20" customFormat="1">
+      <c r="A33" s="18">
         <v>100010</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="18">
         <v>100010</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>2</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>5</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="21" customFormat="1">
-      <c r="A34" s="19">
+      <c r="F33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="20" customFormat="1">
+      <c r="A34" s="18">
         <v>100010</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>100010</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="18">
         <v>3</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>5</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="19">
+      <c r="F34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="18">
         <v>100</v>
       </c>
     </row>
@@ -3523,10 +3136,10 @@
         <v>18</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H35" s="8">
         <v>100</v>
@@ -3549,10 +3162,10 @@
         <v>17</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H36" s="8">
         <v>100</v>
@@ -3575,90 +3188,90 @@
         <v>17</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H37" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="21" customFormat="1">
-      <c r="A38" s="19">
+    <row r="38" spans="1:8" s="20" customFormat="1">
+      <c r="A38" s="18">
         <v>100012</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="18">
         <v>100012</v>
       </c>
-      <c r="C38" s="19">
-        <v>1</v>
-      </c>
-      <c r="D38" s="19">
+      <c r="C38" s="18">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18">
         <v>3</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="21" customFormat="1">
-      <c r="A39" s="19">
+      <c r="F38" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="20" customFormat="1">
+      <c r="A39" s="18">
         <v>100012</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="18">
         <v>100012</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="18">
         <v>2</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <v>5</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="21" customFormat="1">
-      <c r="A40" s="19">
+      <c r="F39" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="20" customFormat="1">
+      <c r="A40" s="18">
         <v>100012</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="18">
         <v>100012</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="18">
         <v>3</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>5</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="19">
+      <c r="F40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="18">
         <v>100</v>
       </c>
     </row>
@@ -3679,10 +3292,10 @@
         <v>18</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H41" s="8">
         <v>100</v>
@@ -3705,10 +3318,10 @@
         <v>17</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H42" s="8">
         <v>100</v>
@@ -3731,90 +3344,90 @@
         <v>17</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H43" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="21" customFormat="1">
-      <c r="A44" s="19">
+    <row r="44" spans="1:8" s="20" customFormat="1">
+      <c r="A44" s="18">
         <v>100014</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="18">
         <v>100014</v>
       </c>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="19">
+      <c r="C44" s="18">
+        <v>1</v>
+      </c>
+      <c r="D44" s="18">
         <v>3</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="21" customFormat="1">
-      <c r="A45" s="19">
+      <c r="F44" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="20" customFormat="1">
+      <c r="A45" s="18">
         <v>100014</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="18">
         <v>100014</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="18">
         <v>2</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="18">
         <v>5</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="21" customFormat="1">
-      <c r="A46" s="19">
+      <c r="F45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="20" customFormat="1">
+      <c r="A46" s="18">
         <v>100014</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="18">
         <v>100014</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="18">
         <v>3</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>5</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="19">
+      <c r="F46" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="18">
         <v>100</v>
       </c>
     </row>
@@ -3835,10 +3448,10 @@
         <v>18</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H47" s="8">
         <v>100</v>
@@ -3861,10 +3474,10 @@
         <v>17</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H48" s="8">
         <v>100</v>
@@ -3887,10 +3500,10 @@
         <v>17</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H49" s="8">
         <v>100</v>
@@ -3900,509 +3513,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE33D5FA-B1E6-44D8-A784-9AE4513AAAED}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="8">
-        <v>100101</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(C5,'!참조_ENUM'!$B$3:$B$13,0))</f>
-        <v>금화(게임내 사용되는 재화)</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="8">
-        <v>100102</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(C6,'!참조_ENUM'!$B$3:$B$13,0))</f>
-        <v>캐릭터 조각</v>
-      </c>
-      <c r="E6" s="4">
-        <v>100001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8">
-        <v>100201</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(C7,'!참조_ENUM'!$B$3:$B$13,0))</f>
-        <v>금화(게임내 사용되는 재화)</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8">
-        <v>100202</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(C8,'!참조_ENUM'!$B$3:$B$13,0))</f>
-        <v>메모리얼에서 사용될 아이템</v>
-      </c>
-      <c r="E8" s="4">
-        <v>70001</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E4C65EB-5CD4-4A2A-8C46-352671E167B5}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5:C8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890DE066-F72C-4DE8-963E-76E419CCD8AB}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8">
-        <v>100101</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D5,'!참조_ENUM'!$B$3:$B$13,0))</f>
-        <v>보석(게임내 사용되는 유료 재화)</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="8">
-        <v>100102</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D6,'!참조_ENUM'!$B$3:$B$13,0))</f>
-        <v>캐릭터 조각</v>
-      </c>
-      <c r="F6" s="4">
-        <v>100001</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="8">
-        <v>100103</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D7,'!참조_ENUM'!$B$3:$B$13,0))</f>
-        <v>경험치 물약</v>
-      </c>
-      <c r="F7" s="4">
-        <v>50001</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8">
-        <v>100201</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D8,'!참조_ENUM'!$B$3:$B$13,0))</f>
-        <v>보석(게임내 사용되는 유료 재화)</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8">
-        <v>100202</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D9,'!참조_ENUM'!$B$3:$B$13,0))</f>
-        <v>스테미나 회복 물약</v>
-      </c>
-      <c r="F9" s="4">
-        <v>60001</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8">
-        <v>100203</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1002</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f>INDEX('!참조_ENUM'!$C$3:$C$13,MATCH(D10,'!참조_ENUM'!$B$3:$B$13,0))</f>
-        <v>각종 소모용 아이템</v>
-      </c>
-      <c r="F10" s="4">
-        <v>90001</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B78AB9ED-EFD6-4026-B080-2169A498872C}">
-          <x14:formula1>
-            <xm:f>'!참조_ENUM'!$B$3:$B$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:D10</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA6AAA-0735-4A57-9A65-0A621F63CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC71EF0-FC05-4B41-AB41-27EDB817C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,19 +369,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first_reward_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat_reward_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stage_ordering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zone_ordering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat_reward_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_reward_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -562,15 +570,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1462,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1539,7 +1538,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>47</v>
@@ -1628,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="A2:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1641,16 +1640,17 @@
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1666,23 +1666,26 @@
       <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1698,23 +1701,26 @@
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>59</v>
@@ -1730,504 +1736,552 @@
       <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="4">
         <v>101101</v>
       </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="4">
         <v>12</v>
       </c>
-      <c r="G5" s="17">
-        <v>1</v>
-      </c>
-      <c r="H5" s="17">
-        <v>100</v>
-      </c>
-      <c r="I5" s="17">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>100</v>
+      </c>
+      <c r="I5" s="4">
         <v>100001</v>
       </c>
       <c r="J5" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
       <c r="B6" s="4">
         <v>101101</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="4">
         <v>12</v>
       </c>
-      <c r="G6" s="17">
-        <v>1</v>
-      </c>
-      <c r="H6" s="17">
-        <v>100</v>
-      </c>
-      <c r="I6" s="17">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>100</v>
+      </c>
+      <c r="I6" s="4">
         <v>100001</v>
       </c>
       <c r="J6" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="4">
         <v>101101</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="4">
         <v>12</v>
       </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17">
-        <v>100</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4">
         <v>100001</v>
       </c>
       <c r="J7" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
       <c r="B8" s="4">
         <v>101101</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>4</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="4">
         <v>12</v>
       </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
-        <v>100</v>
-      </c>
-      <c r="I8" s="17">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>100</v>
+      </c>
+      <c r="I8" s="4">
         <v>100001</v>
       </c>
       <c r="J8" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
       <c r="B9" s="4">
         <v>101101</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>5</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="4">
         <v>12</v>
       </c>
-      <c r="G9" s="17">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
         <v>200</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="4">
         <v>100001</v>
       </c>
       <c r="J9" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
       <c r="B10" s="4">
         <v>101101</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>6</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="4">
         <v>12</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="17">
-        <v>100</v>
-      </c>
-      <c r="I10" s="17">
+      <c r="H10" s="4">
+        <v>100</v>
+      </c>
+      <c r="I10" s="4">
         <v>100001</v>
       </c>
       <c r="J10" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
       <c r="B11" s="4">
         <v>101101</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>7</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="4">
         <v>12</v>
       </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17">
-        <v>100</v>
-      </c>
-      <c r="I11" s="17">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>100</v>
+      </c>
+      <c r="I11" s="4">
         <v>100001</v>
       </c>
       <c r="J11" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
       <c r="B12" s="4">
         <v>101101</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>8</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="4">
         <v>12</v>
       </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17">
-        <v>100</v>
-      </c>
-      <c r="I12" s="17">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>100</v>
+      </c>
+      <c r="I12" s="4">
         <v>100001</v>
       </c>
       <c r="J12" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
       <c r="B13" s="4">
         <v>101101</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="13">
         <v>9</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="4">
         <v>10</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="4">
         <v>12</v>
       </c>
-      <c r="G13" s="17">
-        <v>1</v>
-      </c>
-      <c r="H13" s="17">
-        <v>100</v>
-      </c>
-      <c r="I13" s="17">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>100</v>
+      </c>
+      <c r="I13" s="4">
         <v>100001</v>
       </c>
       <c r="J13" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>100010</v>
       </c>
       <c r="B14" s="4">
         <v>101101</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="13">
         <v>10</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="4">
         <v>12</v>
       </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17">
-        <v>100</v>
-      </c>
-      <c r="I14" s="17">
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4">
         <v>100001</v>
       </c>
       <c r="J14" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>100011</v>
       </c>
       <c r="B15" s="4">
         <v>101101</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <v>11</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="4">
         <v>10</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="4">
         <v>12</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="4">
         <v>2</v>
       </c>
-      <c r="H15" s="17">
-        <v>100</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="H15" s="4">
+        <v>100</v>
+      </c>
+      <c r="I15" s="4">
         <v>100001</v>
       </c>
       <c r="J15" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>100012</v>
       </c>
       <c r="B16" s="4">
         <v>101101</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>12</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="4">
         <v>10</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="4">
         <v>12</v>
       </c>
-      <c r="G16" s="17">
-        <v>1</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
         <v>200</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="4">
         <v>100001</v>
       </c>
       <c r="J16" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>100013</v>
       </c>
       <c r="B17" s="4">
         <v>101101</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="13">
         <v>13</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="4">
         <v>12</v>
       </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
         <v>200</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="4">
         <v>100001</v>
       </c>
       <c r="J17" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>100014</v>
       </c>
       <c r="B18" s="4">
         <v>101101</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="13">
         <v>14</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>73</v>
       </c>
       <c r="E18" s="4">
         <v>10</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="4">
         <v>12</v>
       </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
         <v>200</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="4">
         <v>100001</v>
       </c>
       <c r="J18" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>100015</v>
       </c>
       <c r="B19" s="4">
         <v>101101</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>15</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="4">
         <v>10</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="4">
         <v>12</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="4">
         <v>2</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="4">
         <v>200</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="4">
         <v>100001</v>
       </c>
       <c r="J19" s="4">
         <v>200001</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="F20" s="17"/>
+      <c r="K19" s="4">
+        <v>300001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="F20" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2358,7 +2412,7 @@
       <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="8">
@@ -2384,7 +2438,7 @@
       <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="8">
@@ -2410,88 +2464,88 @@
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="20" customFormat="1">
-      <c r="A8" s="18">
+    <row r="8" spans="1:8" s="17" customFormat="1">
+      <c r="A8" s="15">
         <v>100002</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>100002</v>
       </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="20" customFormat="1">
-      <c r="A9" s="18">
+      <c r="H8" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="17" customFormat="1">
+      <c r="A9" s="15">
         <v>100002</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <v>100002</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>5</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="20" customFormat="1">
-      <c r="A10" s="18">
+      <c r="H9" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="17" customFormat="1">
+      <c r="A10" s="15">
         <v>100002</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <v>100002</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>3</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>5</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="15">
         <v>100</v>
       </c>
     </row>
@@ -2514,7 +2568,7 @@
       <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="8">
@@ -2540,7 +2594,7 @@
       <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="8">
@@ -2566,88 +2620,88 @@
       <c r="F13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="20" customFormat="1">
-      <c r="A14" s="18">
+    <row r="14" spans="1:8" s="17" customFormat="1">
+      <c r="A14" s="15">
         <v>100004</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="15">
         <v>100004</v>
       </c>
-      <c r="C14" s="18">
-        <v>1</v>
-      </c>
-      <c r="D14" s="18">
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
         <v>3</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="20" customFormat="1">
-      <c r="A15" s="18">
+      <c r="H14" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="17" customFormat="1">
+      <c r="A15" s="15">
         <v>100004</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="15">
         <v>100004</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="15">
         <v>2</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>5</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="20" customFormat="1">
-      <c r="A16" s="18">
+      <c r="H15" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="17" customFormat="1">
+      <c r="A16" s="15">
         <v>100004</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="15">
         <v>100004</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="15">
         <v>3</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>5</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>100</v>
       </c>
     </row>
@@ -2670,7 +2724,7 @@
       <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="8">
@@ -2696,7 +2750,7 @@
       <c r="F18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H18" s="8">
@@ -2722,88 +2776,88 @@
       <c r="F19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="20" customFormat="1">
-      <c r="A20" s="18">
+    <row r="20" spans="1:8" s="17" customFormat="1">
+      <c r="A20" s="15">
         <v>100006</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="15">
         <v>100006</v>
       </c>
-      <c r="C20" s="18">
-        <v>1</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
         <v>3</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="20" customFormat="1">
-      <c r="A21" s="18">
+      <c r="H20" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="17" customFormat="1">
+      <c r="A21" s="15">
         <v>100006</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="15">
         <v>100006</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <v>5</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="20" customFormat="1">
-      <c r="A22" s="18">
+      <c r="H21" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="17" customFormat="1">
+      <c r="A22" s="15">
         <v>100006</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="15">
         <v>100006</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="15">
         <v>3</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>5</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="15">
         <v>100</v>
       </c>
     </row>
@@ -2826,7 +2880,7 @@
       <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="8">
@@ -2852,7 +2906,7 @@
       <c r="F24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H24" s="8">
@@ -2878,88 +2932,88 @@
       <c r="F25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H25" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="20" customFormat="1">
-      <c r="A26" s="18">
+    <row r="26" spans="1:8" s="17" customFormat="1">
+      <c r="A26" s="15">
         <v>100008</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="15">
         <v>100008</v>
       </c>
-      <c r="C26" s="18">
-        <v>1</v>
-      </c>
-      <c r="D26" s="18">
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
         <v>3</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="20" customFormat="1">
-      <c r="A27" s="18">
+      <c r="H26" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="17" customFormat="1">
+      <c r="A27" s="15">
         <v>100008</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="15">
         <v>100008</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="15">
         <v>2</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <v>5</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="20" customFormat="1">
-      <c r="A28" s="18">
+      <c r="H27" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="17" customFormat="1">
+      <c r="A28" s="15">
         <v>100008</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="15">
         <v>100008</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="15">
         <v>3</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <v>5</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="15">
         <v>100</v>
       </c>
     </row>
@@ -2982,7 +3036,7 @@
       <c r="F29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="12" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="8">
@@ -3008,7 +3062,7 @@
       <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H30" s="8">
@@ -3034,88 +3088,88 @@
       <c r="F31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H31" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="20" customFormat="1">
-      <c r="A32" s="18">
+    <row r="32" spans="1:8" s="17" customFormat="1">
+      <c r="A32" s="15">
         <v>100010</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="15">
         <v>100010</v>
       </c>
-      <c r="C32" s="18">
-        <v>1</v>
-      </c>
-      <c r="D32" s="18">
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15">
         <v>3</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="20" customFormat="1">
-      <c r="A33" s="18">
+      <c r="H32" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="17" customFormat="1">
+      <c r="A33" s="15">
         <v>100010</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="15">
         <v>100010</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="15">
         <v>2</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="15">
         <v>5</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="20" customFormat="1">
-      <c r="A34" s="18">
+      <c r="H33" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="17" customFormat="1">
+      <c r="A34" s="15">
         <v>100010</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="15">
         <v>100010</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="15">
         <v>3</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="15">
         <v>5</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="15">
         <v>100</v>
       </c>
     </row>
@@ -3138,7 +3192,7 @@
       <c r="F35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="12" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="8">
@@ -3164,7 +3218,7 @@
       <c r="F36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H36" s="8">
@@ -3190,88 +3244,88 @@
       <c r="F37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H37" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="20" customFormat="1">
-      <c r="A38" s="18">
+    <row r="38" spans="1:8" s="17" customFormat="1">
+      <c r="A38" s="15">
         <v>100012</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="15">
         <v>100012</v>
       </c>
-      <c r="C38" s="18">
-        <v>1</v>
-      </c>
-      <c r="D38" s="18">
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15">
         <v>3</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="20" customFormat="1">
-      <c r="A39" s="18">
+      <c r="H38" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="17" customFormat="1">
+      <c r="A39" s="15">
         <v>100012</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="15">
         <v>100012</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="15">
         <v>2</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="15">
         <v>5</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="20" customFormat="1">
-      <c r="A40" s="18">
+      <c r="H39" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="17" customFormat="1">
+      <c r="A40" s="15">
         <v>100012</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="15">
         <v>100012</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="15">
         <v>3</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="15">
         <v>5</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="15">
         <v>100</v>
       </c>
     </row>
@@ -3294,7 +3348,7 @@
       <c r="F41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="12" t="s">
         <v>27</v>
       </c>
       <c r="H41" s="8">
@@ -3320,7 +3374,7 @@
       <c r="F42" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H42" s="8">
@@ -3346,88 +3400,88 @@
       <c r="F43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H43" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="20" customFormat="1">
-      <c r="A44" s="18">
+    <row r="44" spans="1:8" s="17" customFormat="1">
+      <c r="A44" s="15">
         <v>100014</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="15">
         <v>100014</v>
       </c>
-      <c r="C44" s="18">
-        <v>1</v>
-      </c>
-      <c r="D44" s="18">
+      <c r="C44" s="15">
+        <v>1</v>
+      </c>
+      <c r="D44" s="15">
         <v>3</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="20" customFormat="1">
-      <c r="A45" s="18">
+      <c r="H44" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="17" customFormat="1">
+      <c r="A45" s="15">
         <v>100014</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="15">
         <v>100014</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="15">
         <v>2</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="15">
         <v>5</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="20" customFormat="1">
-      <c r="A46" s="18">
+      <c r="H45" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="17" customFormat="1">
+      <c r="A46" s="15">
         <v>100014</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="15">
         <v>100014</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="15">
         <v>3</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="15">
         <v>5</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="15">
         <v>100</v>
       </c>
     </row>
@@ -3450,7 +3504,7 @@
       <c r="F47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="12" t="s">
         <v>27</v>
       </c>
       <c r="H47" s="8">
@@ -3476,7 +3530,7 @@
       <c r="F48" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H48" s="8">
@@ -3502,7 +3556,7 @@
       <c r="F49" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H49" s="8">

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC71EF0-FC05-4B41-AB41-27EDB817C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2222B8B6-62D5-4D7A-8907-A808A6986969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="96">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,29 @@
   <si>
     <t>first_reward_group_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해금 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해금 조건(기획)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:LIMIT_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#limit_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -457,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +619,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -636,6 +668,8 @@
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@Limit"/>
+      <sheetName val="@goods_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -695,7 +729,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>금화(게임내 사용되는 재화)</v>
+            <v>1 금화(게임내 사용되는 재화)</v>
           </cell>
         </row>
         <row r="6">
@@ -706,7 +740,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>보석(게임내 사용되는 유료 재화)</v>
+            <v>2 보석(게임내 사용되는 유료 재화)</v>
           </cell>
         </row>
         <row r="7">
@@ -717,7 +751,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>던전 입장 티켓</v>
+            <v>3 던전 입장 티켓</v>
           </cell>
         </row>
         <row r="8">
@@ -728,7 +762,7 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>캐릭터 조각</v>
+            <v>4 캐릭터 조각</v>
           </cell>
         </row>
         <row r="9">
@@ -739,7 +773,7 @@
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>경험치 물약</v>
+            <v>5 경험치 물약</v>
           </cell>
         </row>
         <row r="10">
@@ -750,7 +784,7 @@
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>스테미나 회복 물약</v>
+            <v>6 스테미나 회복 물약</v>
           </cell>
         </row>
         <row r="11">
@@ -761,7 +795,7 @@
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>메모리얼에서 사용될 아이템</v>
+            <v>7 사용하지 않음</v>
           </cell>
         </row>
         <row r="12">
@@ -772,7 +806,7 @@
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>캐릭터 완전체</v>
+            <v>8 캐릭터 완전체</v>
           </cell>
         </row>
         <row r="13">
@@ -783,7 +817,7 @@
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>각종 소모용 아이템</v>
+            <v>9 각종 소모용 아이템</v>
           </cell>
         </row>
         <row r="14">
@@ -794,7 +828,7 @@
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>장비</v>
+            <v>10 장비</v>
           </cell>
         </row>
         <row r="15">
@@ -805,7 +839,7 @@
             <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>호감도 아이템</v>
+            <v>11 호감도 아이템</v>
           </cell>
         </row>
         <row r="16">
@@ -816,10 +850,62 @@
             <v>12</v>
           </cell>
           <cell r="C16" t="str">
-            <v>스태미나</v>
+            <v>12 스태미나</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="22">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>comment</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>LEVEL</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>1 레벨 해금</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>STAGE_CLEAR</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>2 스테이지 클리어 해금</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="23"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1179,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111FEE21-2083-4AD8-8714-33CBDCF12BAB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1190,15 +1276,20 @@
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="str">
         <f>'[1]@item_type'!$A$1</f>
         <v>ITEM_TYPE</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="str">
+        <f>'[1]@Limit'!$A$1</f>
+        <v>LIMIT_TYPE</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="11" t="str">
         <f>'[1]@item_type'!$A3</f>
         <v>type</v>
@@ -1211,8 +1302,20 @@
         <f>'[1]@item_type'!$C3</f>
         <v>comment</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="11" t="str">
+        <f>'[1]@Limit'!$A3</f>
+        <v>type</v>
+      </c>
+      <c r="F2" s="11" t="str">
+        <f>'[1]@Limit'!$B3</f>
+        <v>value</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>'[1]@Limit'!$C3</f>
+        <v>comment</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="str">
         <f>'[1]@item_type'!$A4</f>
         <v>NONE</v>
@@ -1225,8 +1328,20 @@
         <f>'[1]@item_type'!$C4</f>
         <v>NONE</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" s="4" t="str">
+        <f>'[1]@Limit'!$A4</f>
+        <v>NONE</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'[1]@Limit'!$B4</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>'[1]@Limit'!$C4</f>
+        <v>NONE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="str">
         <f>'[1]@item_type'!$A5</f>
         <v>GOLD</v>
@@ -1237,10 +1352,22 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>'[1]@item_type'!$C5</f>
-        <v>금화(게임내 사용되는 재화)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1 금화(게임내 사용되는 재화)</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>'[1]@Limit'!$A5</f>
+        <v>LEVEL</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'[1]@Limit'!$B5</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f>'[1]@Limit'!$C5</f>
+        <v>1 레벨 해금</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="str">
         <f>'[1]@item_type'!$A6</f>
         <v>DIA</v>
@@ -1251,10 +1378,22 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>'[1]@item_type'!$C6</f>
-        <v>보석(게임내 사용되는 유료 재화)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>2 보석(게임내 사용되는 유료 재화)</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>'[1]@Limit'!$A6</f>
+        <v>STAGE_CLEAR</v>
+      </c>
+      <c r="F5" s="4">
+        <f>'[1]@Limit'!$B6</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f>'[1]@Limit'!$C6</f>
+        <v>2 스테이지 클리어 해금</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="str">
         <f>'[1]@item_type'!$A7</f>
         <v>DUNGEON_TICKET</v>
@@ -1265,10 +1404,10 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>'[1]@item_type'!$C7</f>
-        <v>던전 입장 티켓</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3 던전 입장 티켓</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="str">
         <f>'[1]@item_type'!$A8</f>
         <v>CHARACTER_PIECE</v>
@@ -1279,10 +1418,10 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>'[1]@item_type'!$C8</f>
-        <v>캐릭터 조각</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4 캐릭터 조각</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="str">
         <f>'[1]@item_type'!$A9</f>
         <v>EXP_POTION</v>
@@ -1293,10 +1432,10 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>'[1]@item_type'!$C9</f>
-        <v>경험치 물약</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>5 경험치 물약</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="str">
         <f>'[1]@item_type'!$A10</f>
         <v>STA_POTION</v>
@@ -1307,10 +1446,10 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>'[1]@item_type'!$C10</f>
-        <v>스테미나 회복 물약</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>6 스테미나 회복 물약</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="str">
         <f>'[1]@item_type'!$A11</f>
         <v>MEMORIAL_ITEM</v>
@@ -1321,10 +1460,10 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@item_type'!$C11</f>
-        <v>메모리얼에서 사용될 아이템</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>7 사용하지 않음</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="str">
         <f>'[1]@item_type'!$A12</f>
         <v>CHARACTER</v>
@@ -1335,10 +1474,10 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@item_type'!$C12</f>
-        <v>캐릭터 완전체</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>8 캐릭터 완전체</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="str">
         <f>'[1]@item_type'!$A13</f>
         <v>EXPENDABLE_ITEM</v>
@@ -1349,10 +1488,10 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@item_type'!$C13</f>
-        <v>각종 소모용 아이템</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>9 각종 소모용 아이템</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="str">
         <f>'[1]@item_type'!$A14</f>
         <v>EQUIPMENT_ITEM</v>
@@ -1363,10 +1502,10 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@item_type'!$C14</f>
-        <v>장비</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>10 장비</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="str">
         <f>'[1]@item_type'!$A15</f>
         <v>FAVORITE_ITEM</v>
@@ -1377,10 +1516,10 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@item_type'!$C15</f>
-        <v>호감도 아이템</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>11 호감도 아이템</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="str">
         <f>'[1]@item_type'!$A16</f>
         <v>STAMINA</v>
@@ -1391,7 +1530,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@item_type'!$C16</f>
-        <v>스태미나</v>
+        <v>12 스태미나</v>
       </c>
     </row>
   </sheetData>
@@ -1459,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1474,14 +1613,16 @@
     <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1503,8 +1644,14 @@
       <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1526,8 +1673,14 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1549,8 +1702,14 @@
       <c r="G4" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>101101</v>
       </c>
@@ -1572,8 +1731,15 @@
       <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I5,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>101201</v>
       </c>
@@ -1595,8 +1761,15 @@
       <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I6,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>101301</v>
       </c>
@@ -1617,11 +1790,30 @@
       </c>
       <c r="G7" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="H7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I7,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CAA664CF-BE14-47F9-AF38-530C2A5F3927}">
+          <x14:formula1>
+            <xm:f>'!참조_ENUM'!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5:I7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1629,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="A2:K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2222B8B6-62D5-4D7A-8907-A808A6986969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D71B2-3C80-4373-9D00-E38A2B5921DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="98">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +414,14 @@
   </si>
   <si>
     <t>NONE</t>
+  </si>
+  <si>
+    <t>100002, 100001, 100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002, 100001, 100003, 100004, 100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -653,7 +661,6 @@
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
       <sheetName val="@character_sort"/>
-      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -670,30 +677,113 @@
       <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@goods_type"/>
+      <sheetName val="@piece_type"/>
+      <sheetName val="@eqipment_type"/>
+      <sheetName val="@drop_type"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
+      <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PROJECTILE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21">
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
             <v>ITEM_TYPE</v>
@@ -854,7 +944,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="22">
+      <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
             <v>LIMIT_TYPE</v>
@@ -905,7 +995,13 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1600,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -2485,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2599,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>22</v>
@@ -2625,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>29</v>
@@ -2651,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>30</v>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D71B2-3C80-4373-9D00-E38A2B5921DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4394A-8FD3-449C-AD90-6F5F701B3D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,11 +416,19 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>100002, 100001, 100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100002, 100001, 100003, 100004, 100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002, 100001, 100003, 100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030101,2030101,2030101,2030101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,38 +690,16 @@
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@effect_count_type"/>
       <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TRIBE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -1001,7 +987,15 @@
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
-      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2582,7 +2576,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2692,16 +2686,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="H5" s="8">
         <v>100</v>
@@ -2721,7 +2715,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>29</v>
@@ -2747,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>30</v>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4394A-8FD3-449C-AD90-6F5F701B3D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C2CA2E-5B50-4B46-B6F2-2FB0898F7591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="2025" yWindow="840" windowWidth="32580" windowHeight="19980" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -684,14 +684,16 @@
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
+      <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
       <sheetName val="@piece_type"/>
       <sheetName val="@eqipment_type"/>
       <sheetName val="@drop_type"/>
       <sheetName val="@repeat_type"/>
       <sheetName val="@charge_type"/>
+      <sheetName val="@reward_type"/>
+      <sheetName val="@effect_count_type"/>
       <sheetName val="@sd_body_type"/>
-      <sheetName val="@effect_count_type"/>
       <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
@@ -700,73 +702,19 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PROJECTILE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20">
@@ -981,21 +929,47 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
+      <sheetData sheetId="22">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE_V2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="23">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>GOODS_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29">
         <row r="1">
           <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
+            <v>REWARD_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1911,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1922,9 +1896,7 @@
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1958,10 +1930,10 @@
         <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>86</v>
@@ -2028,10 +2000,10 @@
         <v>80</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>87</v>
@@ -2063,13 +2035,13 @@
         <v>100</v>
       </c>
       <c r="I5" s="4">
-        <v>100001</v>
+        <v>10001001</v>
       </c>
       <c r="J5" s="4">
-        <v>200001</v>
+        <v>11001001</v>
       </c>
       <c r="K5" s="4">
-        <v>300001</v>
+        <v>12001001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2098,13 +2070,13 @@
         <v>100</v>
       </c>
       <c r="I6" s="4">
-        <v>100001</v>
+        <v>10001002</v>
       </c>
       <c r="J6" s="4">
-        <v>200001</v>
+        <v>11001002</v>
       </c>
       <c r="K6" s="4">
-        <v>300001</v>
+        <v>12001002</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2133,13 +2105,13 @@
         <v>100</v>
       </c>
       <c r="I7" s="4">
-        <v>100001</v>
+        <v>10001003</v>
       </c>
       <c r="J7" s="4">
-        <v>200001</v>
+        <v>11001003</v>
       </c>
       <c r="K7" s="4">
-        <v>300001</v>
+        <v>12001003</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2168,13 +2140,13 @@
         <v>100</v>
       </c>
       <c r="I8" s="4">
-        <v>100001</v>
+        <v>10001004</v>
       </c>
       <c r="J8" s="4">
-        <v>200001</v>
+        <v>11001004</v>
       </c>
       <c r="K8" s="4">
-        <v>300001</v>
+        <v>12001004</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2203,13 +2175,13 @@
         <v>200</v>
       </c>
       <c r="I9" s="4">
-        <v>100001</v>
+        <v>10001005</v>
       </c>
       <c r="J9" s="4">
-        <v>200001</v>
+        <v>11001005</v>
       </c>
       <c r="K9" s="4">
-        <v>300001</v>
+        <v>12001005</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2238,13 +2210,13 @@
         <v>100</v>
       </c>
       <c r="I10" s="4">
-        <v>100001</v>
+        <v>10001006</v>
       </c>
       <c r="J10" s="4">
-        <v>200001</v>
+        <v>11001006</v>
       </c>
       <c r="K10" s="4">
-        <v>300001</v>
+        <v>12001006</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2273,13 +2245,13 @@
         <v>100</v>
       </c>
       <c r="I11" s="4">
-        <v>100001</v>
+        <v>10001007</v>
       </c>
       <c r="J11" s="4">
-        <v>200001</v>
+        <v>11001007</v>
       </c>
       <c r="K11" s="4">
-        <v>300001</v>
+        <v>12001007</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2308,13 +2280,13 @@
         <v>100</v>
       </c>
       <c r="I12" s="4">
-        <v>100001</v>
+        <v>10001008</v>
       </c>
       <c r="J12" s="4">
-        <v>200001</v>
+        <v>11001008</v>
       </c>
       <c r="K12" s="4">
-        <v>300001</v>
+        <v>12001008</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2343,13 +2315,13 @@
         <v>100</v>
       </c>
       <c r="I13" s="4">
-        <v>100001</v>
+        <v>10001009</v>
       </c>
       <c r="J13" s="4">
-        <v>200001</v>
+        <v>11001009</v>
       </c>
       <c r="K13" s="4">
-        <v>300001</v>
+        <v>12001009</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2378,13 +2350,13 @@
         <v>100</v>
       </c>
       <c r="I14" s="4">
-        <v>100001</v>
+        <v>10001010</v>
       </c>
       <c r="J14" s="4">
-        <v>200001</v>
+        <v>11001010</v>
       </c>
       <c r="K14" s="4">
-        <v>300001</v>
+        <v>12001010</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2413,13 +2385,13 @@
         <v>100</v>
       </c>
       <c r="I15" s="4">
-        <v>100001</v>
+        <v>10001011</v>
       </c>
       <c r="J15" s="4">
-        <v>200001</v>
+        <v>11001011</v>
       </c>
       <c r="K15" s="4">
-        <v>300001</v>
+        <v>12001011</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2448,13 +2420,13 @@
         <v>200</v>
       </c>
       <c r="I16" s="4">
-        <v>100001</v>
+        <v>10001012</v>
       </c>
       <c r="J16" s="4">
-        <v>200001</v>
+        <v>11001012</v>
       </c>
       <c r="K16" s="4">
-        <v>300001</v>
+        <v>12001012</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2483,13 +2455,13 @@
         <v>200</v>
       </c>
       <c r="I17" s="4">
-        <v>100001</v>
+        <v>10001013</v>
       </c>
       <c r="J17" s="4">
-        <v>200001</v>
+        <v>11001013</v>
       </c>
       <c r="K17" s="4">
-        <v>300001</v>
+        <v>12001013</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2518,13 +2490,13 @@
         <v>200</v>
       </c>
       <c r="I18" s="4">
-        <v>100001</v>
+        <v>10001014</v>
       </c>
       <c r="J18" s="4">
-        <v>200001</v>
+        <v>11001014</v>
       </c>
       <c r="K18" s="4">
-        <v>300001</v>
+        <v>12001014</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2553,13 +2525,13 @@
         <v>200</v>
       </c>
       <c r="I19" s="4">
-        <v>100001</v>
+        <v>10001015</v>
       </c>
       <c r="J19" s="4">
-        <v>200001</v>
+        <v>11001015</v>
       </c>
       <c r="K19" s="4">
-        <v>300001</v>
+        <v>12001015</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2575,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C2CA2E-5B50-4B46-B6F2-2FB0898F7591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465243F3-06DF-4E50-B360-41E492D914B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="840" windowWidth="32580" windowHeight="19980" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="43455" yWindow="345" windowWidth="32580" windowHeight="19980" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -43,8 +43,29 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CC695401-0822-48BE-BEE3-17468C041560}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{CC695401-0822-48BE-BEE3-17468C041560}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    10011 사용
+컨텐츠 번호 : 1
+존 명칭 : 001 (001~999존)
+난이도 : 1(1~9)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="100">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +76,6 @@
   </si>
   <si>
     <t>스테이지 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브 그룹 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wave_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stage_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,6 +442,14 @@
   </si>
   <si>
     <t>2030101,2030101,2030101,2030101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,18 +550,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -563,24 +584,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,38 +615,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,50 +951,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="22">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE_V2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GOODS_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31" refreshError="1"/>
       <sheetData sheetId="32" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="예림 김" id="{FC123575-D26C-4229-B6B2-A5F97832D771}" userId="e5ea80ba949d36f3" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1270,6 +1268,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2024-01-18T08:32:50.17" personId="{FC123575-D26C-4229-B6B2-A5F97832D771}" id="{CC695401-0822-48BE-BEE3-17468C041560}">
+    <text>10011 사용
+컨텐츠 번호 : 1
+존 명칭 : 001 (001~999존)
+난이도 : 1(1~9)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA676B-ADC0-4DC0-BBCE-DB25FD7926D5}">
   <dimension ref="A2:B15"/>
@@ -1282,7 +1291,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1354,11 +1363,11 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11" t="str">
+      <c r="A2" s="9" t="str">
         <f>'[1]@item_type'!$A3</f>
         <v>type</v>
       </c>
-      <c r="B2" s="11" t="str">
+      <c r="B2" s="9" t="str">
         <f>'[1]@item_type'!$B3</f>
         <v>value</v>
       </c>
@@ -1366,11 +1375,11 @@
         <f>'[1]@item_type'!$C3</f>
         <v>comment</v>
       </c>
-      <c r="E2" s="11" t="str">
+      <c r="E2" s="9" t="str">
         <f>'[1]@Limit'!$A3</f>
         <v>type</v>
       </c>
-      <c r="F2" s="11" t="str">
+      <c r="F2" s="9" t="str">
         <f>'[1]@Limit'!$B3</f>
         <v>value</v>
       </c>
@@ -1619,15 +1628,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1635,15 +1644,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1651,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1661,11 +1670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1683,36 +1692,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1720,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1729,56 +1738,56 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4">
-        <v>101101</v>
+        <v>10011</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1790,25 +1799,25 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I5,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>95</v>
+      <c r="I5" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4">
-        <v>101201</v>
+        <v>10012</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1820,25 +1829,25 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I6,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>95</v>
+      <c r="I6" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
-        <v>101301</v>
+        <v>10013</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -1850,22 +1859,26 @@
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I7,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="I7" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1883,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1901,7 +1914,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1909,34 +1922,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1950,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
@@ -1976,51 +1989,51 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4">
-        <v>100001</v>
+        <v>1001101</v>
       </c>
       <c r="B5" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>60</v>
+        <v>10011</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="E5" s="4">
         <v>10</v>
@@ -2046,16 +2059,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4">
-        <v>100002</v>
+        <v>1001102</v>
       </c>
       <c r="B6" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C6" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>61</v>
+      <c r="D6" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
@@ -2081,16 +2094,16 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4">
-        <v>100003</v>
+        <v>1001103</v>
       </c>
       <c r="B7" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C7" s="13">
-        <v>3</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>62</v>
+        <v>10011</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="4">
         <v>10</v>
@@ -2116,16 +2129,16 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4">
-        <v>100004</v>
+        <v>1001104</v>
       </c>
       <c r="B8" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C8" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>63</v>
+      <c r="D8" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="E8" s="4">
         <v>10</v>
@@ -2151,16 +2164,16 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4">
-        <v>100005</v>
+        <v>1001105</v>
       </c>
       <c r="B9" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C9" s="13">
-        <v>5</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>64</v>
+        <v>10011</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="4">
         <v>10</v>
@@ -2186,16 +2199,16 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4">
-        <v>100006</v>
+        <v>1001106</v>
       </c>
       <c r="B10" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C10" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C10" s="10">
         <v>6</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>65</v>
+      <c r="D10" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="4">
         <v>10</v>
@@ -2221,16 +2234,16 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4">
-        <v>100007</v>
+        <v>1001107</v>
       </c>
       <c r="B11" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C11" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C11" s="10">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>66</v>
+      <c r="D11" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -2256,16 +2269,16 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4">
-        <v>100008</v>
+        <v>1001108</v>
       </c>
       <c r="B12" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C12" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C12" s="10">
         <v>8</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>67</v>
+      <c r="D12" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="4">
         <v>10</v>
@@ -2291,16 +2304,16 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4">
-        <v>100009</v>
+        <v>1001109</v>
       </c>
       <c r="B13" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C13" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C13" s="10">
         <v>9</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>68</v>
+      <c r="D13" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="E13" s="4">
         <v>10</v>
@@ -2326,16 +2339,16 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4">
-        <v>100010</v>
+        <v>1001110</v>
       </c>
       <c r="B14" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C14" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C14" s="10">
         <v>10</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>69</v>
+      <c r="D14" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E14" s="4">
         <v>10</v>
@@ -2361,16 +2374,16 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4">
-        <v>100011</v>
+        <v>1001111</v>
       </c>
       <c r="B15" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C15" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C15" s="10">
         <v>11</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>70</v>
+      <c r="D15" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="E15" s="4">
         <v>10</v>
@@ -2396,16 +2409,16 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4">
-        <v>100012</v>
+        <v>1001112</v>
       </c>
       <c r="B16" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C16" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C16" s="10">
         <v>12</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>71</v>
+      <c r="D16" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="E16" s="4">
         <v>10</v>
@@ -2431,16 +2444,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="4">
-        <v>100013</v>
+        <v>1001113</v>
       </c>
       <c r="B17" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C17" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C17" s="10">
         <v>13</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>72</v>
+      <c r="D17" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E17" s="4">
         <v>10</v>
@@ -2466,16 +2479,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="4">
-        <v>100014</v>
+        <v>1001114</v>
       </c>
       <c r="B18" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C18" s="13">
+        <v>10011</v>
+      </c>
+      <c r="C18" s="10">
         <v>14</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>73</v>
+      <c r="D18" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E18" s="4">
         <v>10</v>
@@ -2501,16 +2514,16 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4">
-        <v>100015</v>
+        <v>1001115</v>
       </c>
       <c r="B19" s="4">
-        <v>101101</v>
-      </c>
-      <c r="C19" s="13">
-        <v>15</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>74</v>
+        <v>10011</v>
+      </c>
+      <c r="C19" s="10">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="E19" s="4">
         <v>10</v>
@@ -2534,8 +2547,1055 @@
         <v>12001015</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="F20" s="14"/>
+    <row r="20" spans="1:11" s="15" customFormat="1">
+      <c r="A20" s="13">
+        <v>1002101</v>
+      </c>
+      <c r="B20" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="13">
+        <v>10</v>
+      </c>
+      <c r="F20" s="13">
+        <v>12</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>100</v>
+      </c>
+      <c r="I20" s="13">
+        <v>10001001</v>
+      </c>
+      <c r="J20" s="13">
+        <v>11001001</v>
+      </c>
+      <c r="K20" s="13">
+        <v>12001001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="15" customFormat="1">
+      <c r="A21" s="13">
+        <v>1002102</v>
+      </c>
+      <c r="B21" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="13">
+        <v>10</v>
+      </c>
+      <c r="F21" s="13">
+        <v>12</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>100</v>
+      </c>
+      <c r="I21" s="13">
+        <v>10001002</v>
+      </c>
+      <c r="J21" s="13">
+        <v>11001002</v>
+      </c>
+      <c r="K21" s="13">
+        <v>12001002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="15" customFormat="1">
+      <c r="A22" s="13">
+        <v>1002103</v>
+      </c>
+      <c r="B22" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="13">
+        <v>10</v>
+      </c>
+      <c r="F22" s="13">
+        <v>12</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>100</v>
+      </c>
+      <c r="I22" s="13">
+        <v>10001003</v>
+      </c>
+      <c r="J22" s="13">
+        <v>11001003</v>
+      </c>
+      <c r="K22" s="13">
+        <v>12001003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="15" customFormat="1">
+      <c r="A23" s="13">
+        <v>1002104</v>
+      </c>
+      <c r="B23" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="13">
+        <v>10</v>
+      </c>
+      <c r="F23" s="13">
+        <v>12</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>100</v>
+      </c>
+      <c r="I23" s="13">
+        <v>10001004</v>
+      </c>
+      <c r="J23" s="13">
+        <v>11001004</v>
+      </c>
+      <c r="K23" s="13">
+        <v>12001004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="15" customFormat="1">
+      <c r="A24" s="13">
+        <v>1002105</v>
+      </c>
+      <c r="B24" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C24" s="14">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="13">
+        <v>10</v>
+      </c>
+      <c r="F24" s="13">
+        <v>12</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>200</v>
+      </c>
+      <c r="I24" s="13">
+        <v>10001005</v>
+      </c>
+      <c r="J24" s="13">
+        <v>11001005</v>
+      </c>
+      <c r="K24" s="13">
+        <v>12001005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="15" customFormat="1">
+      <c r="A25" s="13">
+        <v>1002106</v>
+      </c>
+      <c r="B25" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C25" s="14">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="13">
+        <v>10</v>
+      </c>
+      <c r="F25" s="13">
+        <v>12</v>
+      </c>
+      <c r="G25" s="13">
+        <v>2</v>
+      </c>
+      <c r="H25" s="13">
+        <v>100</v>
+      </c>
+      <c r="I25" s="13">
+        <v>10001006</v>
+      </c>
+      <c r="J25" s="13">
+        <v>11001006</v>
+      </c>
+      <c r="K25" s="13">
+        <v>12001006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="15" customFormat="1">
+      <c r="A26" s="13">
+        <v>1002107</v>
+      </c>
+      <c r="B26" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C26" s="14">
+        <v>7</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="13">
+        <v>10</v>
+      </c>
+      <c r="F26" s="13">
+        <v>12</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>100</v>
+      </c>
+      <c r="I26" s="13">
+        <v>10001007</v>
+      </c>
+      <c r="J26" s="13">
+        <v>11001007</v>
+      </c>
+      <c r="K26" s="13">
+        <v>12001007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="15" customFormat="1">
+      <c r="A27" s="13">
+        <v>1002108</v>
+      </c>
+      <c r="B27" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C27" s="14">
+        <v>8</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="13">
+        <v>10</v>
+      </c>
+      <c r="F27" s="13">
+        <v>12</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>100</v>
+      </c>
+      <c r="I27" s="13">
+        <v>10001008</v>
+      </c>
+      <c r="J27" s="13">
+        <v>11001008</v>
+      </c>
+      <c r="K27" s="13">
+        <v>12001008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="15" customFormat="1">
+      <c r="A28" s="13">
+        <v>1002109</v>
+      </c>
+      <c r="B28" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C28" s="14">
+        <v>9</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="13">
+        <v>10</v>
+      </c>
+      <c r="F28" s="13">
+        <v>12</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>100</v>
+      </c>
+      <c r="I28" s="13">
+        <v>10001009</v>
+      </c>
+      <c r="J28" s="13">
+        <v>11001009</v>
+      </c>
+      <c r="K28" s="13">
+        <v>12001009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="15" customFormat="1">
+      <c r="A29" s="13">
+        <v>1002110</v>
+      </c>
+      <c r="B29" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C29" s="14">
+        <v>10</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="13">
+        <v>10</v>
+      </c>
+      <c r="F29" s="13">
+        <v>12</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>100</v>
+      </c>
+      <c r="I29" s="13">
+        <v>10001010</v>
+      </c>
+      <c r="J29" s="13">
+        <v>11001010</v>
+      </c>
+      <c r="K29" s="13">
+        <v>12001010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="15" customFormat="1">
+      <c r="A30" s="13">
+        <v>1002111</v>
+      </c>
+      <c r="B30" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C30" s="14">
+        <v>11</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="13">
+        <v>10</v>
+      </c>
+      <c r="F30" s="13">
+        <v>12</v>
+      </c>
+      <c r="G30" s="13">
+        <v>2</v>
+      </c>
+      <c r="H30" s="13">
+        <v>100</v>
+      </c>
+      <c r="I30" s="13">
+        <v>10001011</v>
+      </c>
+      <c r="J30" s="13">
+        <v>11001011</v>
+      </c>
+      <c r="K30" s="13">
+        <v>12001011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="15" customFormat="1">
+      <c r="A31" s="13">
+        <v>1002112</v>
+      </c>
+      <c r="B31" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C31" s="14">
+        <v>12</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="13">
+        <v>10</v>
+      </c>
+      <c r="F31" s="13">
+        <v>12</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>200</v>
+      </c>
+      <c r="I31" s="13">
+        <v>10001012</v>
+      </c>
+      <c r="J31" s="13">
+        <v>11001012</v>
+      </c>
+      <c r="K31" s="13">
+        <v>12001012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="15" customFormat="1">
+      <c r="A32" s="13">
+        <v>1002113</v>
+      </c>
+      <c r="B32" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C32" s="14">
+        <v>13</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="13">
+        <v>10</v>
+      </c>
+      <c r="F32" s="13">
+        <v>12</v>
+      </c>
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
+        <v>200</v>
+      </c>
+      <c r="I32" s="13">
+        <v>10001013</v>
+      </c>
+      <c r="J32" s="13">
+        <v>11001013</v>
+      </c>
+      <c r="K32" s="13">
+        <v>12001013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="15" customFormat="1">
+      <c r="A33" s="13">
+        <v>1002114</v>
+      </c>
+      <c r="B33" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C33" s="14">
+        <v>14</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="13">
+        <v>10</v>
+      </c>
+      <c r="F33" s="13">
+        <v>12</v>
+      </c>
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <v>200</v>
+      </c>
+      <c r="I33" s="13">
+        <v>10001014</v>
+      </c>
+      <c r="J33" s="13">
+        <v>11001014</v>
+      </c>
+      <c r="K33" s="13">
+        <v>12001014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="15" customFormat="1">
+      <c r="A34" s="13">
+        <v>1002115</v>
+      </c>
+      <c r="B34" s="13">
+        <v>10021</v>
+      </c>
+      <c r="C34" s="14">
+        <v>15</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="13">
+        <v>10</v>
+      </c>
+      <c r="F34" s="13">
+        <v>12</v>
+      </c>
+      <c r="G34" s="13">
+        <v>2</v>
+      </c>
+      <c r="H34" s="13">
+        <v>200</v>
+      </c>
+      <c r="I34" s="13">
+        <v>10001015</v>
+      </c>
+      <c r="J34" s="13">
+        <v>11001015</v>
+      </c>
+      <c r="K34" s="13">
+        <v>12001015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4">
+        <v>1003101</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="4">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4">
+        <v>12</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>100</v>
+      </c>
+      <c r="I35" s="4">
+        <v>10001001</v>
+      </c>
+      <c r="J35" s="4">
+        <v>11001001</v>
+      </c>
+      <c r="K35" s="4">
+        <v>12001001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="4">
+        <v>1003102</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C36" s="10">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4">
+        <v>12</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>100</v>
+      </c>
+      <c r="I36" s="4">
+        <v>10001002</v>
+      </c>
+      <c r="J36" s="4">
+        <v>11001002</v>
+      </c>
+      <c r="K36" s="4">
+        <v>12001002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="4">
+        <v>1003103</v>
+      </c>
+      <c r="B37" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C37" s="10">
+        <v>3</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4">
+        <v>12</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>100</v>
+      </c>
+      <c r="I37" s="4">
+        <v>10001003</v>
+      </c>
+      <c r="J37" s="4">
+        <v>11001003</v>
+      </c>
+      <c r="K37" s="4">
+        <v>12001003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="4">
+        <v>1003104</v>
+      </c>
+      <c r="B38" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="4">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4">
+        <v>12</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>100</v>
+      </c>
+      <c r="I38" s="4">
+        <v>10001004</v>
+      </c>
+      <c r="J38" s="4">
+        <v>11001004</v>
+      </c>
+      <c r="K38" s="4">
+        <v>12001004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="4">
+        <v>1003105</v>
+      </c>
+      <c r="B39" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C39" s="10">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="4">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4">
+        <v>12</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>200</v>
+      </c>
+      <c r="I39" s="4">
+        <v>10001005</v>
+      </c>
+      <c r="J39" s="4">
+        <v>11001005</v>
+      </c>
+      <c r="K39" s="4">
+        <v>12001005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="4">
+        <v>1003106</v>
+      </c>
+      <c r="B40" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C40" s="10">
+        <v>6</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="4">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4">
+        <v>12</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>100</v>
+      </c>
+      <c r="I40" s="4">
+        <v>10001006</v>
+      </c>
+      <c r="J40" s="4">
+        <v>11001006</v>
+      </c>
+      <c r="K40" s="4">
+        <v>12001006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="4">
+        <v>1003107</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C41" s="10">
+        <v>7</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="4">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4">
+        <v>12</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>100</v>
+      </c>
+      <c r="I41" s="4">
+        <v>10001007</v>
+      </c>
+      <c r="J41" s="4">
+        <v>11001007</v>
+      </c>
+      <c r="K41" s="4">
+        <v>12001007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="4">
+        <v>1003108</v>
+      </c>
+      <c r="B42" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C42" s="10">
+        <v>8</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4">
+        <v>12</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>100</v>
+      </c>
+      <c r="I42" s="4">
+        <v>10001008</v>
+      </c>
+      <c r="J42" s="4">
+        <v>11001008</v>
+      </c>
+      <c r="K42" s="4">
+        <v>12001008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="4">
+        <v>1003109</v>
+      </c>
+      <c r="B43" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C43" s="10">
+        <v>9</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4">
+        <v>12</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>100</v>
+      </c>
+      <c r="I43" s="4">
+        <v>10001009</v>
+      </c>
+      <c r="J43" s="4">
+        <v>11001009</v>
+      </c>
+      <c r="K43" s="4">
+        <v>12001009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="4">
+        <v>1003110</v>
+      </c>
+      <c r="B44" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C44" s="10">
+        <v>10</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="4">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4">
+        <v>12</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>100</v>
+      </c>
+      <c r="I44" s="4">
+        <v>10001010</v>
+      </c>
+      <c r="J44" s="4">
+        <v>11001010</v>
+      </c>
+      <c r="K44" s="4">
+        <v>12001010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="4">
+        <v>1003111</v>
+      </c>
+      <c r="B45" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C45" s="10">
+        <v>11</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="4">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4">
+        <v>12</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2</v>
+      </c>
+      <c r="H45" s="4">
+        <v>100</v>
+      </c>
+      <c r="I45" s="4">
+        <v>10001011</v>
+      </c>
+      <c r="J45" s="4">
+        <v>11001011</v>
+      </c>
+      <c r="K45" s="4">
+        <v>12001011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="4">
+        <v>1003112</v>
+      </c>
+      <c r="B46" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C46" s="10">
+        <v>12</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="4">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4">
+        <v>12</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>200</v>
+      </c>
+      <c r="I46" s="4">
+        <v>10001012</v>
+      </c>
+      <c r="J46" s="4">
+        <v>11001012</v>
+      </c>
+      <c r="K46" s="4">
+        <v>12001012</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="4">
+        <v>1003113</v>
+      </c>
+      <c r="B47" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C47" s="10">
+        <v>13</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="4">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4">
+        <v>12</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>200</v>
+      </c>
+      <c r="I47" s="4">
+        <v>10001013</v>
+      </c>
+      <c r="J47" s="4">
+        <v>11001013</v>
+      </c>
+      <c r="K47" s="4">
+        <v>12001013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="4">
+        <v>1003114</v>
+      </c>
+      <c r="B48" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C48" s="10">
+        <v>14</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="4">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4">
+        <v>12</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>200</v>
+      </c>
+      <c r="I48" s="4">
+        <v>10001014</v>
+      </c>
+      <c r="J48" s="4">
+        <v>11001014</v>
+      </c>
+      <c r="K48" s="4">
+        <v>12001014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="4">
+        <v>1003115</v>
+      </c>
+      <c r="B49" s="4">
+        <v>10031</v>
+      </c>
+      <c r="C49" s="10">
+        <v>15</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="4">
+        <v>10</v>
+      </c>
+      <c r="F49" s="4">
+        <v>12</v>
+      </c>
+      <c r="G49" s="4">
+        <v>2</v>
+      </c>
+      <c r="H49" s="4">
+        <v>200</v>
+      </c>
+      <c r="I49" s="4">
+        <v>10001015</v>
+      </c>
+      <c r="J49" s="4">
+        <v>11001015</v>
+      </c>
+      <c r="K49" s="4">
+        <v>12001015</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2545,15 +3605,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="7" bestFit="1" customWidth="1"/>
@@ -2565,34 +3628,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="33">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2623,1197 +3686,3537 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1">
+      <c r="A5" s="19">
+        <v>1001101</v>
+      </c>
+      <c r="B5" s="20">
+        <v>1001101</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1">
+      <c r="A6" s="19">
+        <v>1001102</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1001101</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="22" customFormat="1">
+      <c r="A7" s="19">
+        <v>1001103</v>
+      </c>
+      <c r="B7" s="20">
+        <v>1001101</v>
+      </c>
+      <c r="C7" s="19">
+        <v>3</v>
+      </c>
+      <c r="D7" s="19">
+        <v>5</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1">
+      <c r="A8" s="19">
+        <v>1001104</v>
+      </c>
+      <c r="B8" s="20">
+        <v>1001102</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8">
-        <v>100001</v>
-      </c>
-      <c r="B5" s="8">
-        <v>100001</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="H8" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1">
+      <c r="A9" s="19">
+        <v>1001105</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1001102</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2</v>
+      </c>
+      <c r="D9" s="19">
+        <v>5</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1">
+      <c r="A10" s="19">
+        <v>1001106</v>
+      </c>
+      <c r="B10" s="20">
+        <v>1001102</v>
+      </c>
+      <c r="C10" s="19">
+        <v>3</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1">
+      <c r="A11" s="19">
+        <v>1001107</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1001103</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>3</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1">
+      <c r="A12" s="19">
+        <v>1001108</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1001103</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2</v>
+      </c>
+      <c r="D12" s="19">
+        <v>5</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1">
+      <c r="A13" s="19">
+        <v>1001109</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1001103</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3</v>
+      </c>
+      <c r="D13" s="19">
+        <v>5</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1">
+      <c r="A14" s="19">
+        <v>1001110</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1001104</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>3</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="22" customFormat="1">
+      <c r="A15" s="19">
+        <v>1001111</v>
+      </c>
+      <c r="B15" s="20">
+        <v>1001104</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="19">
+        <v>5</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1">
+      <c r="A16" s="19">
+        <v>1001112</v>
+      </c>
+      <c r="B16" s="20">
+        <v>1001104</v>
+      </c>
+      <c r="C16" s="19">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1">
+      <c r="A17" s="19">
+        <v>1001113</v>
+      </c>
+      <c r="B17" s="20">
+        <v>1001105</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1">
+      <c r="A18" s="19">
+        <v>1001114</v>
+      </c>
+      <c r="B18" s="20">
+        <v>1001105</v>
+      </c>
+      <c r="C18" s="19">
+        <v>2</v>
+      </c>
+      <c r="D18" s="19">
+        <v>5</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1">
+      <c r="A19" s="19">
+        <v>1001115</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1001105</v>
+      </c>
+      <c r="C19" s="19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1">
+      <c r="A20" s="19">
+        <v>1001116</v>
+      </c>
+      <c r="B20" s="20">
+        <v>1001106</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1">
+      <c r="A21" s="19">
+        <v>1001117</v>
+      </c>
+      <c r="B21" s="20">
+        <v>1001106</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2</v>
+      </c>
+      <c r="D21" s="19">
+        <v>5</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1">
+      <c r="A22" s="19">
+        <v>1001118</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1001106</v>
+      </c>
+      <c r="C22" s="19">
+        <v>3</v>
+      </c>
+      <c r="D22" s="19">
+        <v>5</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="22" customFormat="1">
+      <c r="A23" s="19">
+        <v>1001119</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1001107</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
+        <v>3</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="22" customFormat="1">
+      <c r="A24" s="19">
+        <v>1001120</v>
+      </c>
+      <c r="B24" s="20">
+        <v>1001107</v>
+      </c>
+      <c r="C24" s="19">
+        <v>2</v>
+      </c>
+      <c r="D24" s="19">
+        <v>5</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="22" customFormat="1">
+      <c r="A25" s="19">
+        <v>1001121</v>
+      </c>
+      <c r="B25" s="20">
+        <v>1001107</v>
+      </c>
+      <c r="C25" s="19">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19">
+        <v>5</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="22" customFormat="1">
+      <c r="A26" s="19">
+        <v>1001122</v>
+      </c>
+      <c r="B26" s="20">
+        <v>1001108</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1</v>
+      </c>
+      <c r="D26" s="19">
+        <v>3</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1">
+      <c r="A27" s="19">
+        <v>1001123</v>
+      </c>
+      <c r="B27" s="20">
+        <v>1001108</v>
+      </c>
+      <c r="C27" s="19">
+        <v>2</v>
+      </c>
+      <c r="D27" s="19">
+        <v>5</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1">
+      <c r="A28" s="19">
+        <v>1001124</v>
+      </c>
+      <c r="B28" s="20">
+        <v>1001108</v>
+      </c>
+      <c r="C28" s="19">
+        <v>3</v>
+      </c>
+      <c r="D28" s="19">
+        <v>5</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1">
+      <c r="A29" s="19">
+        <v>1001125</v>
+      </c>
+      <c r="B29" s="20">
+        <v>1001109</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1</v>
+      </c>
+      <c r="D29" s="19">
+        <v>3</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1">
+      <c r="A30" s="19">
+        <v>1001126</v>
+      </c>
+      <c r="B30" s="20">
+        <v>1001109</v>
+      </c>
+      <c r="C30" s="19">
+        <v>2</v>
+      </c>
+      <c r="D30" s="19">
+        <v>5</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="22" customFormat="1">
+      <c r="A31" s="19">
+        <v>1001127</v>
+      </c>
+      <c r="B31" s="20">
+        <v>1001109</v>
+      </c>
+      <c r="C31" s="19">
+        <v>3</v>
+      </c>
+      <c r="D31" s="19">
+        <v>5</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="22" customFormat="1">
+      <c r="A32" s="19">
+        <v>1001128</v>
+      </c>
+      <c r="B32" s="20">
+        <v>1001110</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="22" customFormat="1">
+      <c r="A33" s="19">
+        <v>1001129</v>
+      </c>
+      <c r="B33" s="20">
+        <v>1001110</v>
+      </c>
+      <c r="C33" s="19">
+        <v>2</v>
+      </c>
+      <c r="D33" s="19">
+        <v>5</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="22" customFormat="1">
+      <c r="A34" s="19">
+        <v>1001130</v>
+      </c>
+      <c r="B34" s="20">
+        <v>1001110</v>
+      </c>
+      <c r="C34" s="19">
+        <v>3</v>
+      </c>
+      <c r="D34" s="19">
+        <v>5</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="22" customFormat="1">
+      <c r="A35" s="19">
+        <v>1001131</v>
+      </c>
+      <c r="B35" s="20">
+        <v>1001111</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1</v>
+      </c>
+      <c r="D35" s="19">
+        <v>3</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="22" customFormat="1">
+      <c r="A36" s="19">
+        <v>1001132</v>
+      </c>
+      <c r="B36" s="20">
+        <v>1001111</v>
+      </c>
+      <c r="C36" s="19">
+        <v>2</v>
+      </c>
+      <c r="D36" s="19">
+        <v>5</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="22" customFormat="1">
+      <c r="A37" s="19">
+        <v>1001133</v>
+      </c>
+      <c r="B37" s="20">
+        <v>1001111</v>
+      </c>
+      <c r="C37" s="19">
+        <v>3</v>
+      </c>
+      <c r="D37" s="19">
+        <v>5</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="22" customFormat="1">
+      <c r="A38" s="19">
+        <v>1001134</v>
+      </c>
+      <c r="B38" s="20">
+        <v>1001112</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1">
+      <c r="A39" s="19">
+        <v>1001135</v>
+      </c>
+      <c r="B39" s="20">
+        <v>1001112</v>
+      </c>
+      <c r="C39" s="19">
+        <v>2</v>
+      </c>
+      <c r="D39" s="19">
+        <v>5</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1">
+      <c r="A40" s="19">
+        <v>1001136</v>
+      </c>
+      <c r="B40" s="20">
+        <v>1001112</v>
+      </c>
+      <c r="C40" s="19">
+        <v>3</v>
+      </c>
+      <c r="D40" s="19">
+        <v>5</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="22" customFormat="1">
+      <c r="A41" s="19">
+        <v>1001137</v>
+      </c>
+      <c r="B41" s="20">
+        <v>1001113</v>
+      </c>
+      <c r="C41" s="19">
+        <v>1</v>
+      </c>
+      <c r="D41" s="19">
+        <v>3</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="22" customFormat="1">
+      <c r="A42" s="19">
+        <v>1001138</v>
+      </c>
+      <c r="B42" s="20">
+        <v>1001113</v>
+      </c>
+      <c r="C42" s="19">
+        <v>2</v>
+      </c>
+      <c r="D42" s="19">
+        <v>5</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="22" customFormat="1">
+      <c r="A43" s="19">
+        <v>1001139</v>
+      </c>
+      <c r="B43" s="20">
+        <v>1001113</v>
+      </c>
+      <c r="C43" s="19">
+        <v>3</v>
+      </c>
+      <c r="D43" s="19">
+        <v>5</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="22" customFormat="1">
+      <c r="A44" s="19">
+        <v>1001140</v>
+      </c>
+      <c r="B44" s="20">
+        <v>1001114</v>
+      </c>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="19">
+        <v>3</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="22" customFormat="1">
+      <c r="A45" s="19">
+        <v>1001141</v>
+      </c>
+      <c r="B45" s="20">
+        <v>1001114</v>
+      </c>
+      <c r="C45" s="19">
+        <v>2</v>
+      </c>
+      <c r="D45" s="19">
+        <v>5</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="22" customFormat="1">
+      <c r="A46" s="19">
+        <v>1001142</v>
+      </c>
+      <c r="B46" s="20">
+        <v>1001114</v>
+      </c>
+      <c r="C46" s="19">
+        <v>3</v>
+      </c>
+      <c r="D46" s="19">
+        <v>5</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="22" customFormat="1">
+      <c r="A47" s="19">
+        <v>1001143</v>
+      </c>
+      <c r="B47" s="20">
+        <v>1001115</v>
+      </c>
+      <c r="C47" s="19">
+        <v>1</v>
+      </c>
+      <c r="D47" s="19">
+        <v>3</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="22" customFormat="1">
+      <c r="A48" s="19">
+        <v>1001144</v>
+      </c>
+      <c r="B48" s="20">
+        <v>1001115</v>
+      </c>
+      <c r="C48" s="19">
+        <v>2</v>
+      </c>
+      <c r="D48" s="19">
+        <v>5</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="22" customFormat="1">
+      <c r="A49" s="19">
+        <v>1001145</v>
+      </c>
+      <c r="B49" s="20">
+        <v>1001115</v>
+      </c>
+      <c r="C49" s="19">
+        <v>3</v>
+      </c>
+      <c r="D49" s="19">
+        <v>5</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="18" customFormat="1">
+      <c r="A50" s="16">
+        <v>1002101</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1002101</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1</v>
+      </c>
+      <c r="D50" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E50" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="8">
-        <v>100001</v>
-      </c>
-      <c r="B6" s="8">
-        <v>100001</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="H50" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="18" customFormat="1">
+      <c r="A51" s="16">
+        <v>1002102</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1002101</v>
+      </c>
+      <c r="C51" s="16">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D51" s="16">
+        <v>5</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="18" customFormat="1">
+      <c r="A52" s="16">
+        <v>1002103</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1002101</v>
+      </c>
+      <c r="C52" s="16">
+        <v>3</v>
+      </c>
+      <c r="D52" s="16">
+        <v>5</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="18" customFormat="1">
+      <c r="A53" s="16">
+        <v>1002104</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1002102</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1</v>
+      </c>
+      <c r="D53" s="16">
+        <v>3</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="18" customFormat="1">
+      <c r="A54" s="16">
+        <v>1002105</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1002102</v>
+      </c>
+      <c r="C54" s="16">
+        <v>2</v>
+      </c>
+      <c r="D54" s="16">
+        <v>5</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="18" customFormat="1">
+      <c r="A55" s="16">
+        <v>1002106</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1002102</v>
+      </c>
+      <c r="C55" s="16">
+        <v>3</v>
+      </c>
+      <c r="D55" s="16">
+        <v>5</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="18" customFormat="1">
+      <c r="A56" s="16">
+        <v>1002107</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1002103</v>
+      </c>
+      <c r="C56" s="16">
+        <v>1</v>
+      </c>
+      <c r="D56" s="16">
+        <v>3</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="18" customFormat="1">
+      <c r="A57" s="16">
+        <v>1002108</v>
+      </c>
+      <c r="B57" s="13">
+        <v>1002103</v>
+      </c>
+      <c r="C57" s="16">
+        <v>2</v>
+      </c>
+      <c r="D57" s="16">
+        <v>5</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="18" customFormat="1">
+      <c r="A58" s="16">
+        <v>1002109</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1002103</v>
+      </c>
+      <c r="C58" s="16">
+        <v>3</v>
+      </c>
+      <c r="D58" s="16">
+        <v>5</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="18" customFormat="1">
+      <c r="A59" s="16">
+        <v>1002110</v>
+      </c>
+      <c r="B59" s="13">
+        <v>1002104</v>
+      </c>
+      <c r="C59" s="16">
+        <v>1</v>
+      </c>
+      <c r="D59" s="16">
+        <v>3</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="18" customFormat="1">
+      <c r="A60" s="16">
+        <v>1002111</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1002104</v>
+      </c>
+      <c r="C60" s="16">
+        <v>2</v>
+      </c>
+      <c r="D60" s="16">
+        <v>5</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="18" customFormat="1">
+      <c r="A61" s="16">
+        <v>1002112</v>
+      </c>
+      <c r="B61" s="13">
+        <v>1002104</v>
+      </c>
+      <c r="C61" s="16">
+        <v>3</v>
+      </c>
+      <c r="D61" s="16">
+        <v>5</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="18" customFormat="1">
+      <c r="A62" s="16">
+        <v>1002113</v>
+      </c>
+      <c r="B62" s="13">
+        <v>1002105</v>
+      </c>
+      <c r="C62" s="16">
+        <v>1</v>
+      </c>
+      <c r="D62" s="16">
+        <v>3</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="18" customFormat="1">
+      <c r="A63" s="16">
+        <v>1002114</v>
+      </c>
+      <c r="B63" s="13">
+        <v>1002105</v>
+      </c>
+      <c r="C63" s="16">
+        <v>2</v>
+      </c>
+      <c r="D63" s="16">
+        <v>5</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="18" customFormat="1">
+      <c r="A64" s="16">
+        <v>1002115</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1002105</v>
+      </c>
+      <c r="C64" s="16">
+        <v>3</v>
+      </c>
+      <c r="D64" s="16">
+        <v>5</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="18" customFormat="1">
+      <c r="A65" s="16">
+        <v>1002116</v>
+      </c>
+      <c r="B65" s="13">
+        <v>1002106</v>
+      </c>
+      <c r="C65" s="16">
+        <v>1</v>
+      </c>
+      <c r="D65" s="16">
+        <v>3</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="18" customFormat="1">
+      <c r="A66" s="16">
+        <v>1002117</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1002106</v>
+      </c>
+      <c r="C66" s="16">
+        <v>2</v>
+      </c>
+      <c r="D66" s="16">
+        <v>5</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="18" customFormat="1">
+      <c r="A67" s="16">
+        <v>1002118</v>
+      </c>
+      <c r="B67" s="13">
+        <v>1002106</v>
+      </c>
+      <c r="C67" s="16">
+        <v>3</v>
+      </c>
+      <c r="D67" s="16">
+        <v>5</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="18" customFormat="1">
+      <c r="A68" s="16">
+        <v>1002119</v>
+      </c>
+      <c r="B68" s="13">
+        <v>1002107</v>
+      </c>
+      <c r="C68" s="16">
+        <v>1</v>
+      </c>
+      <c r="D68" s="16">
+        <v>3</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="18" customFormat="1">
+      <c r="A69" s="16">
+        <v>1002120</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1002107</v>
+      </c>
+      <c r="C69" s="16">
+        <v>2</v>
+      </c>
+      <c r="D69" s="16">
+        <v>5</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="18" customFormat="1">
+      <c r="A70" s="16">
+        <v>1002121</v>
+      </c>
+      <c r="B70" s="13">
+        <v>1002107</v>
+      </c>
+      <c r="C70" s="16">
+        <v>3</v>
+      </c>
+      <c r="D70" s="16">
+        <v>5</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="18" customFormat="1">
+      <c r="A71" s="16">
+        <v>1002122</v>
+      </c>
+      <c r="B71" s="13">
+        <v>1002108</v>
+      </c>
+      <c r="C71" s="16">
+        <v>1</v>
+      </c>
+      <c r="D71" s="16">
+        <v>3</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="18" customFormat="1">
+      <c r="A72" s="16">
+        <v>1002123</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1002108</v>
+      </c>
+      <c r="C72" s="16">
+        <v>2</v>
+      </c>
+      <c r="D72" s="16">
+        <v>5</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="18" customFormat="1">
+      <c r="A73" s="16">
+        <v>1002124</v>
+      </c>
+      <c r="B73" s="13">
+        <v>1002108</v>
+      </c>
+      <c r="C73" s="16">
+        <v>3</v>
+      </c>
+      <c r="D73" s="16">
+        <v>5</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="18" customFormat="1">
+      <c r="A74" s="16">
+        <v>1002125</v>
+      </c>
+      <c r="B74" s="13">
+        <v>1002109</v>
+      </c>
+      <c r="C74" s="16">
+        <v>1</v>
+      </c>
+      <c r="D74" s="16">
+        <v>3</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="18" customFormat="1">
+      <c r="A75" s="16">
+        <v>1002126</v>
+      </c>
+      <c r="B75" s="13">
+        <v>1002109</v>
+      </c>
+      <c r="C75" s="16">
+        <v>2</v>
+      </c>
+      <c r="D75" s="16">
+        <v>5</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="18" customFormat="1">
+      <c r="A76" s="16">
+        <v>1002127</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1002109</v>
+      </c>
+      <c r="C76" s="16">
+        <v>3</v>
+      </c>
+      <c r="D76" s="16">
+        <v>5</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="18" customFormat="1">
+      <c r="A77" s="16">
+        <v>1002128</v>
+      </c>
+      <c r="B77" s="13">
+        <v>1002110</v>
+      </c>
+      <c r="C77" s="16">
+        <v>1</v>
+      </c>
+      <c r="D77" s="16">
+        <v>3</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="18" customFormat="1">
+      <c r="A78" s="16">
+        <v>1002129</v>
+      </c>
+      <c r="B78" s="13">
+        <v>1002110</v>
+      </c>
+      <c r="C78" s="16">
+        <v>2</v>
+      </c>
+      <c r="D78" s="16">
+        <v>5</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="18" customFormat="1">
+      <c r="A79" s="16">
+        <v>1002130</v>
+      </c>
+      <c r="B79" s="13">
+        <v>1002110</v>
+      </c>
+      <c r="C79" s="16">
+        <v>3</v>
+      </c>
+      <c r="D79" s="16">
+        <v>5</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="18" customFormat="1">
+      <c r="A80" s="16">
+        <v>1002131</v>
+      </c>
+      <c r="B80" s="13">
+        <v>1002111</v>
+      </c>
+      <c r="C80" s="16">
+        <v>1</v>
+      </c>
+      <c r="D80" s="16">
+        <v>3</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="18" customFormat="1">
+      <c r="A81" s="16">
+        <v>1002132</v>
+      </c>
+      <c r="B81" s="13">
+        <v>1002111</v>
+      </c>
+      <c r="C81" s="16">
+        <v>2</v>
+      </c>
+      <c r="D81" s="16">
+        <v>5</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="18" customFormat="1">
+      <c r="A82" s="16">
+        <v>1002133</v>
+      </c>
+      <c r="B82" s="13">
+        <v>1002111</v>
+      </c>
+      <c r="C82" s="16">
+        <v>3</v>
+      </c>
+      <c r="D82" s="16">
+        <v>5</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="18" customFormat="1">
+      <c r="A83" s="16">
+        <v>1002134</v>
+      </c>
+      <c r="B83" s="13">
+        <v>1002112</v>
+      </c>
+      <c r="C83" s="16">
+        <v>1</v>
+      </c>
+      <c r="D83" s="16">
+        <v>3</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="18" customFormat="1">
+      <c r="A84" s="16">
+        <v>1002135</v>
+      </c>
+      <c r="B84" s="13">
+        <v>1002112</v>
+      </c>
+      <c r="C84" s="16">
+        <v>2</v>
+      </c>
+      <c r="D84" s="16">
+        <v>5</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="18" customFormat="1">
+      <c r="A85" s="16">
+        <v>1002136</v>
+      </c>
+      <c r="B85" s="13">
+        <v>1002112</v>
+      </c>
+      <c r="C85" s="16">
+        <v>3</v>
+      </c>
+      <c r="D85" s="16">
+        <v>5</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="18" customFormat="1">
+      <c r="A86" s="16">
+        <v>1002137</v>
+      </c>
+      <c r="B86" s="13">
+        <v>1002113</v>
+      </c>
+      <c r="C86" s="16">
+        <v>1</v>
+      </c>
+      <c r="D86" s="16">
+        <v>3</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="18" customFormat="1">
+      <c r="A87" s="16">
+        <v>1002138</v>
+      </c>
+      <c r="B87" s="13">
+        <v>1002113</v>
+      </c>
+      <c r="C87" s="16">
+        <v>2</v>
+      </c>
+      <c r="D87" s="16">
+        <v>5</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="18" customFormat="1">
+      <c r="A88" s="16">
+        <v>1002139</v>
+      </c>
+      <c r="B88" s="13">
+        <v>1002113</v>
+      </c>
+      <c r="C88" s="16">
+        <v>3</v>
+      </c>
+      <c r="D88" s="16">
+        <v>5</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="18" customFormat="1">
+      <c r="A89" s="16">
+        <v>1002140</v>
+      </c>
+      <c r="B89" s="13">
+        <v>1002114</v>
+      </c>
+      <c r="C89" s="16">
+        <v>1</v>
+      </c>
+      <c r="D89" s="16">
+        <v>3</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="18" customFormat="1">
+      <c r="A90" s="16">
+        <v>1002141</v>
+      </c>
+      <c r="B90" s="13">
+        <v>1002114</v>
+      </c>
+      <c r="C90" s="16">
+        <v>2</v>
+      </c>
+      <c r="D90" s="16">
+        <v>5</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="18" customFormat="1">
+      <c r="A91" s="16">
+        <v>1002142</v>
+      </c>
+      <c r="B91" s="13">
+        <v>1002114</v>
+      </c>
+      <c r="C91" s="16">
+        <v>3</v>
+      </c>
+      <c r="D91" s="16">
+        <v>5</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="18" customFormat="1">
+      <c r="A92" s="16">
+        <v>1002143</v>
+      </c>
+      <c r="B92" s="13">
+        <v>1002115</v>
+      </c>
+      <c r="C92" s="16">
+        <v>1</v>
+      </c>
+      <c r="D92" s="16">
+        <v>3</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="18" customFormat="1">
+      <c r="A93" s="16">
+        <v>1002144</v>
+      </c>
+      <c r="B93" s="13">
+        <v>1002115</v>
+      </c>
+      <c r="C93" s="16">
+        <v>2</v>
+      </c>
+      <c r="D93" s="16">
+        <v>5</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="18" customFormat="1">
+      <c r="A94" s="16">
+        <v>1002145</v>
+      </c>
+      <c r="B94" s="13">
+        <v>1002115</v>
+      </c>
+      <c r="C94" s="16">
+        <v>3</v>
+      </c>
+      <c r="D94" s="16">
+        <v>5</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="22" customFormat="1">
+      <c r="A95" s="19">
+        <v>1003101</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1003101</v>
+      </c>
+      <c r="C95" s="19">
+        <v>1</v>
+      </c>
+      <c r="D95" s="19">
+        <v>4</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F95" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="G95" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H95" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="22" customFormat="1">
+      <c r="A96" s="19">
+        <v>1003102</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1003101</v>
+      </c>
+      <c r="C96" s="19">
+        <v>2</v>
+      </c>
+      <c r="D96" s="19">
+        <v>5</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="22" customFormat="1">
+      <c r="A97" s="19">
+        <v>1003103</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1003101</v>
+      </c>
+      <c r="C97" s="19">
+        <v>3</v>
+      </c>
+      <c r="D97" s="19">
+        <v>5</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F97" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="8">
-        <v>100001</v>
-      </c>
-      <c r="B7" s="8">
-        <v>100001</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="8">
-        <v>5</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="G97" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="22" customFormat="1">
+      <c r="A98" s="19">
+        <v>1003104</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1003102</v>
+      </c>
+      <c r="C98" s="19">
+        <v>1</v>
+      </c>
+      <c r="D98" s="19">
+        <v>3</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="22" customFormat="1">
+      <c r="A99" s="19">
+        <v>1003105</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1003102</v>
+      </c>
+      <c r="C99" s="19">
+        <v>2</v>
+      </c>
+      <c r="D99" s="19">
+        <v>5</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="22" customFormat="1">
+      <c r="A100" s="19">
+        <v>1003106</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1003102</v>
+      </c>
+      <c r="C100" s="19">
+        <v>3</v>
+      </c>
+      <c r="D100" s="19">
+        <v>5</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="17" customFormat="1">
-      <c r="A8" s="15">
-        <v>100002</v>
-      </c>
-      <c r="B8" s="15">
-        <v>100002</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="G100" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="22" customFormat="1">
+      <c r="A101" s="19">
+        <v>1003107</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1003103</v>
+      </c>
+      <c r="C101" s="19">
+        <v>1</v>
+      </c>
+      <c r="D101" s="19">
+        <v>3</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H101" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="22" customFormat="1">
+      <c r="A102" s="19">
+        <v>1003108</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1003103</v>
+      </c>
+      <c r="C102" s="19">
+        <v>2</v>
+      </c>
+      <c r="D102" s="19">
+        <v>5</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="17" customFormat="1">
-      <c r="A9" s="15">
-        <v>100002</v>
-      </c>
-      <c r="B9" s="15">
-        <v>100002</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="G102" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="22" customFormat="1">
+      <c r="A103" s="19">
+        <v>1003109</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1003103</v>
+      </c>
+      <c r="C103" s="19">
+        <v>3</v>
+      </c>
+      <c r="D103" s="19">
+        <v>5</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="22" customFormat="1">
+      <c r="A104" s="19">
+        <v>1003110</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1003104</v>
+      </c>
+      <c r="C104" s="19">
+        <v>1</v>
+      </c>
+      <c r="D104" s="19">
+        <v>3</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H104" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="22" customFormat="1">
+      <c r="A105" s="19">
+        <v>1003111</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1003104</v>
+      </c>
+      <c r="C105" s="19">
         <v>2</v>
       </c>
-      <c r="D9" s="15">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="D105" s="19">
+        <v>5</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G105" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="22" customFormat="1">
+      <c r="A106" s="19">
+        <v>1003112</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1003104</v>
+      </c>
+      <c r="C106" s="19">
+        <v>3</v>
+      </c>
+      <c r="D106" s="19">
+        <v>5</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="17" customFormat="1">
-      <c r="A10" s="15">
-        <v>100002</v>
-      </c>
-      <c r="B10" s="15">
-        <v>100002</v>
-      </c>
-      <c r="C10" s="15">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15">
-        <v>5</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="G106" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="22" customFormat="1">
+      <c r="A107" s="19">
+        <v>1003113</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1003105</v>
+      </c>
+      <c r="C107" s="19">
+        <v>1</v>
+      </c>
+      <c r="D107" s="19">
+        <v>3</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="22" customFormat="1">
+      <c r="A108" s="19">
+        <v>1003114</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1003105</v>
+      </c>
+      <c r="C108" s="19">
+        <v>2</v>
+      </c>
+      <c r="D108" s="19">
+        <v>5</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="22" customFormat="1">
+      <c r="A109" s="19">
+        <v>1003115</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1003105</v>
+      </c>
+      <c r="C109" s="19">
+        <v>3</v>
+      </c>
+      <c r="D109" s="19">
+        <v>5</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="8">
-        <v>100003</v>
-      </c>
-      <c r="B11" s="8">
-        <v>100003</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="G109" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="22" customFormat="1">
+      <c r="A110" s="19">
+        <v>1003116</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1003106</v>
+      </c>
+      <c r="C110" s="19">
+        <v>1</v>
+      </c>
+      <c r="D110" s="19">
+        <v>3</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="22" customFormat="1">
+      <c r="A111" s="19">
+        <v>1003117</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1003106</v>
+      </c>
+      <c r="C111" s="19">
+        <v>2</v>
+      </c>
+      <c r="D111" s="19">
+        <v>5</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="8">
-        <v>100003</v>
-      </c>
-      <c r="B12" s="8">
-        <v>100003</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="G111" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="22" customFormat="1">
+      <c r="A112" s="19">
+        <v>1003118</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1003106</v>
+      </c>
+      <c r="C112" s="19">
+        <v>3</v>
+      </c>
+      <c r="D112" s="19">
+        <v>5</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G112" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="22" customFormat="1">
+      <c r="A113" s="19">
+        <v>1003119</v>
+      </c>
+      <c r="B113" s="4">
+        <v>1003107</v>
+      </c>
+      <c r="C113" s="19">
+        <v>1</v>
+      </c>
+      <c r="D113" s="19">
+        <v>3</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="22" customFormat="1">
+      <c r="A114" s="19">
+        <v>1003120</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1003107</v>
+      </c>
+      <c r="C114" s="19">
         <v>2</v>
       </c>
-      <c r="D12" s="8">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="D114" s="19">
+        <v>5</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="22" customFormat="1">
+      <c r="A115" s="19">
+        <v>1003121</v>
+      </c>
+      <c r="B115" s="4">
+        <v>1003107</v>
+      </c>
+      <c r="C115" s="19">
+        <v>3</v>
+      </c>
+      <c r="D115" s="19">
+        <v>5</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="8">
-        <v>100003</v>
-      </c>
-      <c r="B13" s="8">
-        <v>100003</v>
-      </c>
-      <c r="C13" s="8">
-        <v>3</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="G115" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="22" customFormat="1">
+      <c r="A116" s="19">
+        <v>1003122</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1003108</v>
+      </c>
+      <c r="C116" s="19">
+        <v>1</v>
+      </c>
+      <c r="D116" s="19">
+        <v>3</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="22" customFormat="1">
+      <c r="A117" s="19">
+        <v>1003123</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1003108</v>
+      </c>
+      <c r="C117" s="19">
+        <v>2</v>
+      </c>
+      <c r="D117" s="19">
+        <v>5</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="22" customFormat="1">
+      <c r="A118" s="19">
+        <v>1003124</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1003108</v>
+      </c>
+      <c r="C118" s="19">
+        <v>3</v>
+      </c>
+      <c r="D118" s="19">
+        <v>5</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="17" customFormat="1">
-      <c r="A14" s="15">
-        <v>100004</v>
-      </c>
-      <c r="B14" s="15">
-        <v>100004</v>
-      </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>3</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="G118" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="22" customFormat="1">
+      <c r="A119" s="19">
+        <v>1003125</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1003109</v>
+      </c>
+      <c r="C119" s="19">
+        <v>1</v>
+      </c>
+      <c r="D119" s="19">
+        <v>3</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H119" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="22" customFormat="1">
+      <c r="A120" s="19">
+        <v>1003126</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1003109</v>
+      </c>
+      <c r="C120" s="19">
+        <v>2</v>
+      </c>
+      <c r="D120" s="19">
+        <v>5</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="17" customFormat="1">
-      <c r="A15" s="15">
-        <v>100004</v>
-      </c>
-      <c r="B15" s="15">
-        <v>100004</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="G120" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="22" customFormat="1">
+      <c r="A121" s="19">
+        <v>1003127</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1003109</v>
+      </c>
+      <c r="C121" s="19">
+        <v>3</v>
+      </c>
+      <c r="D121" s="19">
+        <v>5</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="22" customFormat="1">
+      <c r="A122" s="19">
+        <v>1003128</v>
+      </c>
+      <c r="B122" s="4">
+        <v>1003110</v>
+      </c>
+      <c r="C122" s="19">
+        <v>1</v>
+      </c>
+      <c r="D122" s="19">
+        <v>3</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H122" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="22" customFormat="1">
+      <c r="A123" s="19">
+        <v>1003129</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1003110</v>
+      </c>
+      <c r="C123" s="19">
         <v>2</v>
       </c>
-      <c r="D15" s="15">
-        <v>5</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="D123" s="19">
+        <v>5</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="22" customFormat="1">
+      <c r="A124" s="19">
+        <v>1003130</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1003110</v>
+      </c>
+      <c r="C124" s="19">
+        <v>3</v>
+      </c>
+      <c r="D124" s="19">
+        <v>5</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="17" customFormat="1">
-      <c r="A16" s="15">
-        <v>100004</v>
-      </c>
-      <c r="B16" s="15">
-        <v>100004</v>
-      </c>
-      <c r="C16" s="15">
-        <v>3</v>
-      </c>
-      <c r="D16" s="15">
-        <v>5</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="G124" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="22" customFormat="1">
+      <c r="A125" s="19">
+        <v>1003131</v>
+      </c>
+      <c r="B125" s="4">
+        <v>1003111</v>
+      </c>
+      <c r="C125" s="19">
+        <v>1</v>
+      </c>
+      <c r="D125" s="19">
+        <v>3</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H125" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="22" customFormat="1">
+      <c r="A126" s="19">
+        <v>1003132</v>
+      </c>
+      <c r="B126" s="4">
+        <v>1003111</v>
+      </c>
+      <c r="C126" s="19">
+        <v>2</v>
+      </c>
+      <c r="D126" s="19">
+        <v>5</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="22" customFormat="1">
+      <c r="A127" s="19">
+        <v>1003133</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1003111</v>
+      </c>
+      <c r="C127" s="19">
+        <v>3</v>
+      </c>
+      <c r="D127" s="19">
+        <v>5</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="8">
-        <v>100005</v>
-      </c>
-      <c r="B17" s="8">
-        <v>100005</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="G127" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="22" customFormat="1">
+      <c r="A128" s="19">
+        <v>1003134</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1003112</v>
+      </c>
+      <c r="C128" s="19">
+        <v>1</v>
+      </c>
+      <c r="D128" s="19">
+        <v>3</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="22" customFormat="1">
+      <c r="A129" s="19">
+        <v>1003135</v>
+      </c>
+      <c r="B129" s="4">
+        <v>1003112</v>
+      </c>
+      <c r="C129" s="19">
+        <v>2</v>
+      </c>
+      <c r="D129" s="19">
+        <v>5</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="8">
-        <v>100005</v>
-      </c>
-      <c r="B18" s="8">
-        <v>100005</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="G129" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="22" customFormat="1">
+      <c r="A130" s="19">
+        <v>1003136</v>
+      </c>
+      <c r="B130" s="4">
+        <v>1003112</v>
+      </c>
+      <c r="C130" s="19">
+        <v>3</v>
+      </c>
+      <c r="D130" s="19">
+        <v>5</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="22" customFormat="1">
+      <c r="A131" s="19">
+        <v>1003137</v>
+      </c>
+      <c r="B131" s="4">
+        <v>1003113</v>
+      </c>
+      <c r="C131" s="19">
+        <v>1</v>
+      </c>
+      <c r="D131" s="19">
+        <v>3</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H131" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="22" customFormat="1">
+      <c r="A132" s="19">
+        <v>1003138</v>
+      </c>
+      <c r="B132" s="4">
+        <v>1003113</v>
+      </c>
+      <c r="C132" s="19">
         <v>2</v>
       </c>
-      <c r="D18" s="8">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="D132" s="19">
+        <v>5</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G132" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="22" customFormat="1">
+      <c r="A133" s="19">
+        <v>1003139</v>
+      </c>
+      <c r="B133" s="4">
+        <v>1003113</v>
+      </c>
+      <c r="C133" s="19">
+        <v>3</v>
+      </c>
+      <c r="D133" s="19">
+        <v>5</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="8">
-        <v>100005</v>
-      </c>
-      <c r="B19" s="8">
-        <v>100005</v>
-      </c>
-      <c r="C19" s="8">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8">
-        <v>5</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="G133" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H133" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="22" customFormat="1">
+      <c r="A134" s="19">
+        <v>1003140</v>
+      </c>
+      <c r="B134" s="4">
+        <v>1003114</v>
+      </c>
+      <c r="C134" s="19">
+        <v>1</v>
+      </c>
+      <c r="D134" s="19">
+        <v>3</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H134" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="22" customFormat="1">
+      <c r="A135" s="19">
+        <v>1003141</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1003114</v>
+      </c>
+      <c r="C135" s="19">
+        <v>2</v>
+      </c>
+      <c r="D135" s="19">
+        <v>5</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="22" customFormat="1">
+      <c r="A136" s="19">
+        <v>1003142</v>
+      </c>
+      <c r="B136" s="4">
+        <v>1003114</v>
+      </c>
+      <c r="C136" s="19">
+        <v>3</v>
+      </c>
+      <c r="D136" s="19">
+        <v>5</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="17" customFormat="1">
-      <c r="A20" s="15">
-        <v>100006</v>
-      </c>
-      <c r="B20" s="15">
-        <v>100006</v>
-      </c>
-      <c r="C20" s="15">
-        <v>1</v>
-      </c>
-      <c r="D20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="G136" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="22" customFormat="1">
+      <c r="A137" s="19">
+        <v>1003143</v>
+      </c>
+      <c r="B137" s="4">
+        <v>1003115</v>
+      </c>
+      <c r="C137" s="19">
+        <v>1</v>
+      </c>
+      <c r="D137" s="19">
+        <v>3</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H137" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="22" customFormat="1">
+      <c r="A138" s="19">
+        <v>1003144</v>
+      </c>
+      <c r="B138" s="4">
+        <v>1003115</v>
+      </c>
+      <c r="C138" s="19">
+        <v>2</v>
+      </c>
+      <c r="D138" s="19">
+        <v>5</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="17" customFormat="1">
-      <c r="A21" s="15">
-        <v>100006</v>
-      </c>
-      <c r="B21" s="15">
-        <v>100006</v>
-      </c>
-      <c r="C21" s="15">
-        <v>2</v>
-      </c>
-      <c r="D21" s="15">
-        <v>5</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="17" customFormat="1">
-      <c r="A22" s="15">
-        <v>100006</v>
-      </c>
-      <c r="B22" s="15">
-        <v>100006</v>
-      </c>
-      <c r="C22" s="15">
-        <v>3</v>
-      </c>
-      <c r="D22" s="15">
-        <v>5</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="8">
-        <v>100007</v>
-      </c>
-      <c r="B23" s="8">
-        <v>100007</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8">
-        <v>3</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="G138" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H138" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="22" customFormat="1">
+      <c r="A139" s="19">
+        <v>1003145</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1003115</v>
+      </c>
+      <c r="C139" s="19">
+        <v>3</v>
+      </c>
+      <c r="D139" s="19">
+        <v>5</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="8">
-        <v>100007</v>
-      </c>
-      <c r="B24" s="8">
-        <v>100007</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>5</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="8">
-        <v>100007</v>
-      </c>
-      <c r="B25" s="8">
-        <v>100007</v>
-      </c>
-      <c r="C25" s="8">
-        <v>3</v>
-      </c>
-      <c r="D25" s="8">
-        <v>5</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="17" customFormat="1">
-      <c r="A26" s="15">
-        <v>100008</v>
-      </c>
-      <c r="B26" s="15">
-        <v>100008</v>
-      </c>
-      <c r="C26" s="15">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="17" customFormat="1">
-      <c r="A27" s="15">
-        <v>100008</v>
-      </c>
-      <c r="B27" s="15">
-        <v>100008</v>
-      </c>
-      <c r="C27" s="15">
-        <v>2</v>
-      </c>
-      <c r="D27" s="15">
-        <v>5</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="17" customFormat="1">
-      <c r="A28" s="15">
-        <v>100008</v>
-      </c>
-      <c r="B28" s="15">
-        <v>100008</v>
-      </c>
-      <c r="C28" s="15">
-        <v>3</v>
-      </c>
-      <c r="D28" s="15">
-        <v>5</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="8">
-        <v>100009</v>
-      </c>
-      <c r="B29" s="8">
-        <v>100009</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <v>3</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="8">
-        <v>100009</v>
-      </c>
-      <c r="B30" s="8">
-        <v>100009</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2</v>
-      </c>
-      <c r="D30" s="8">
-        <v>5</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="8">
-        <v>100009</v>
-      </c>
-      <c r="B31" s="8">
-        <v>100009</v>
-      </c>
-      <c r="C31" s="8">
-        <v>3</v>
-      </c>
-      <c r="D31" s="8">
-        <v>5</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="17" customFormat="1">
-      <c r="A32" s="15">
-        <v>100010</v>
-      </c>
-      <c r="B32" s="15">
-        <v>100010</v>
-      </c>
-      <c r="C32" s="15">
-        <v>1</v>
-      </c>
-      <c r="D32" s="15">
-        <v>3</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="17" customFormat="1">
-      <c r="A33" s="15">
-        <v>100010</v>
-      </c>
-      <c r="B33" s="15">
-        <v>100010</v>
-      </c>
-      <c r="C33" s="15">
-        <v>2</v>
-      </c>
-      <c r="D33" s="15">
-        <v>5</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="17" customFormat="1">
-      <c r="A34" s="15">
-        <v>100010</v>
-      </c>
-      <c r="B34" s="15">
-        <v>100010</v>
-      </c>
-      <c r="C34" s="15">
-        <v>3</v>
-      </c>
-      <c r="D34" s="15">
-        <v>5</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="8">
-        <v>100011</v>
-      </c>
-      <c r="B35" s="8">
-        <v>100011</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8">
-        <v>3</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="8">
-        <v>100011</v>
-      </c>
-      <c r="B36" s="8">
-        <v>100011</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2</v>
-      </c>
-      <c r="D36" s="8">
-        <v>5</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="8">
-        <v>100011</v>
-      </c>
-      <c r="B37" s="8">
-        <v>100011</v>
-      </c>
-      <c r="C37" s="8">
-        <v>3</v>
-      </c>
-      <c r="D37" s="8">
-        <v>5</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="17" customFormat="1">
-      <c r="A38" s="15">
-        <v>100012</v>
-      </c>
-      <c r="B38" s="15">
-        <v>100012</v>
-      </c>
-      <c r="C38" s="15">
-        <v>1</v>
-      </c>
-      <c r="D38" s="15">
-        <v>3</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="17" customFormat="1">
-      <c r="A39" s="15">
-        <v>100012</v>
-      </c>
-      <c r="B39" s="15">
-        <v>100012</v>
-      </c>
-      <c r="C39" s="15">
-        <v>2</v>
-      </c>
-      <c r="D39" s="15">
-        <v>5</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="17" customFormat="1">
-      <c r="A40" s="15">
-        <v>100012</v>
-      </c>
-      <c r="B40" s="15">
-        <v>100012</v>
-      </c>
-      <c r="C40" s="15">
-        <v>3</v>
-      </c>
-      <c r="D40" s="15">
-        <v>5</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="8">
-        <v>100013</v>
-      </c>
-      <c r="B41" s="8">
-        <v>100013</v>
-      </c>
-      <c r="C41" s="8">
-        <v>1</v>
-      </c>
-      <c r="D41" s="8">
-        <v>3</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="8">
-        <v>100013</v>
-      </c>
-      <c r="B42" s="8">
-        <v>100013</v>
-      </c>
-      <c r="C42" s="8">
-        <v>2</v>
-      </c>
-      <c r="D42" s="8">
-        <v>5</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="8">
-        <v>100013</v>
-      </c>
-      <c r="B43" s="8">
-        <v>100013</v>
-      </c>
-      <c r="C43" s="8">
-        <v>3</v>
-      </c>
-      <c r="D43" s="8">
-        <v>5</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="17" customFormat="1">
-      <c r="A44" s="15">
-        <v>100014</v>
-      </c>
-      <c r="B44" s="15">
-        <v>100014</v>
-      </c>
-      <c r="C44" s="15">
-        <v>1</v>
-      </c>
-      <c r="D44" s="15">
-        <v>3</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="17" customFormat="1">
-      <c r="A45" s="15">
-        <v>100014</v>
-      </c>
-      <c r="B45" s="15">
-        <v>100014</v>
-      </c>
-      <c r="C45" s="15">
-        <v>2</v>
-      </c>
-      <c r="D45" s="15">
-        <v>5</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="17" customFormat="1">
-      <c r="A46" s="15">
-        <v>100014</v>
-      </c>
-      <c r="B46" s="15">
-        <v>100014</v>
-      </c>
-      <c r="C46" s="15">
-        <v>3</v>
-      </c>
-      <c r="D46" s="15">
-        <v>5</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="8">
-        <v>100015</v>
-      </c>
-      <c r="B47" s="8">
-        <v>100015</v>
-      </c>
-      <c r="C47" s="8">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8">
-        <v>3</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="8">
-        <v>100015</v>
-      </c>
-      <c r="B48" s="8">
-        <v>100015</v>
-      </c>
-      <c r="C48" s="8">
-        <v>2</v>
-      </c>
-      <c r="D48" s="8">
-        <v>5</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="8">
-        <v>100015</v>
-      </c>
-      <c r="B49" s="8">
-        <v>100015</v>
-      </c>
-      <c r="C49" s="8">
-        <v>3</v>
-      </c>
-      <c r="D49" s="8">
-        <v>5</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="8">
+      <c r="G139" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H139" s="19">
         <v>100</v>
       </c>
     </row>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465243F3-06DF-4E50-B360-41E492D914B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E0535A-7212-4DD7-9B85-400CBC993E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43455" yWindow="345" windowWidth="32580" windowHeight="19980" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="1545" yWindow="615" windowWidth="24135" windowHeight="19770" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="101">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,10 @@
   </si>
   <si>
     <t>wave_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +594,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,16 +652,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1617,7 +1615,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1641,7 +1639,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -1674,7 +1672,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1726,7 +1724,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -1898,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1954,7 +1952,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3611,7 +3609,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3660,7 +3658,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3710,11 +3708,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="22" customFormat="1">
+    <row r="5" spans="1:8">
       <c r="A5" s="19">
         <v>1001101</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="4">
         <v>1001101</v>
       </c>
       <c r="C5" s="19">
@@ -3729,18 +3727,18 @@
       <c r="F5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H5" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="22" customFormat="1">
+    <row r="6" spans="1:8">
       <c r="A6" s="19">
         <v>1001102</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="4">
         <v>1001101</v>
       </c>
       <c r="C6" s="19">
@@ -3755,18 +3753,18 @@
       <c r="F6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1">
+    <row r="7" spans="1:8">
       <c r="A7" s="19">
         <v>1001103</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="4">
         <v>1001101</v>
       </c>
       <c r="C7" s="19">
@@ -3781,18 +3779,18 @@
       <c r="F7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="22" customFormat="1">
+    <row r="8" spans="1:8">
       <c r="A8" s="19">
         <v>1001104</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="4">
         <v>1001102</v>
       </c>
       <c r="C8" s="19">
@@ -3807,18 +3805,18 @@
       <c r="F8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="22" customFormat="1">
+    <row r="9" spans="1:8">
       <c r="A9" s="19">
         <v>1001105</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="4">
         <v>1001102</v>
       </c>
       <c r="C9" s="19">
@@ -3833,18 +3831,18 @@
       <c r="F9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8">
       <c r="A10" s="19">
         <v>1001106</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="4">
         <v>1001102</v>
       </c>
       <c r="C10" s="19">
@@ -3859,18 +3857,18 @@
       <c r="F10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="22" customFormat="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="19">
         <v>1001107</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="4">
         <v>1001103</v>
       </c>
       <c r="C11" s="19">
@@ -3885,18 +3883,18 @@
       <c r="F11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="19">
         <v>1001108</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="4">
         <v>1001103</v>
       </c>
       <c r="C12" s="19">
@@ -3911,18 +3909,18 @@
       <c r="F12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1">
+    <row r="13" spans="1:8">
       <c r="A13" s="19">
         <v>1001109</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="4">
         <v>1001103</v>
       </c>
       <c r="C13" s="19">
@@ -3937,18 +3935,18 @@
       <c r="F13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="22" customFormat="1">
+    <row r="14" spans="1:8">
       <c r="A14" s="19">
         <v>1001110</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="4">
         <v>1001104</v>
       </c>
       <c r="C14" s="19">
@@ -3963,18 +3961,18 @@
       <c r="F14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="22" customFormat="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="19">
         <v>1001111</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="4">
         <v>1001104</v>
       </c>
       <c r="C15" s="19">
@@ -3989,18 +3987,18 @@
       <c r="F15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="22" customFormat="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="19">
         <v>1001112</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="4">
         <v>1001104</v>
       </c>
       <c r="C16" s="19">
@@ -4015,18 +4013,18 @@
       <c r="F16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="22" customFormat="1">
+    <row r="17" spans="1:8">
       <c r="A17" s="19">
         <v>1001113</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="4">
         <v>1001105</v>
       </c>
       <c r="C17" s="19">
@@ -4041,18 +4039,18 @@
       <c r="F17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="22" customFormat="1">
+    <row r="18" spans="1:8">
       <c r="A18" s="19">
         <v>1001114</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="4">
         <v>1001105</v>
       </c>
       <c r="C18" s="19">
@@ -4067,18 +4065,18 @@
       <c r="F18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8">
       <c r="A19" s="19">
         <v>1001115</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="4">
         <v>1001105</v>
       </c>
       <c r="C19" s="19">
@@ -4093,18 +4091,18 @@
       <c r="F19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1">
+    <row r="20" spans="1:8">
       <c r="A20" s="19">
         <v>1001116</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="4">
         <v>1001106</v>
       </c>
       <c r="C20" s="19">
@@ -4119,18 +4117,18 @@
       <c r="F20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1">
+    <row r="21" spans="1:8">
       <c r="A21" s="19">
         <v>1001117</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="4">
         <v>1001106</v>
       </c>
       <c r="C21" s="19">
@@ -4145,18 +4143,18 @@
       <c r="F21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="22" customFormat="1">
+    <row r="22" spans="1:8">
       <c r="A22" s="19">
         <v>1001118</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="4">
         <v>1001106</v>
       </c>
       <c r="C22" s="19">
@@ -4171,18 +4169,18 @@
       <c r="F22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="22" customFormat="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="19">
         <v>1001119</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="4">
         <v>1001107</v>
       </c>
       <c r="C23" s="19">
@@ -4197,18 +4195,18 @@
       <c r="F23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="22" customFormat="1">
+    <row r="24" spans="1:8">
       <c r="A24" s="19">
         <v>1001120</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="4">
         <v>1001107</v>
       </c>
       <c r="C24" s="19">
@@ -4223,18 +4221,18 @@
       <c r="F24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="22" customFormat="1">
+    <row r="25" spans="1:8">
       <c r="A25" s="19">
         <v>1001121</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="4">
         <v>1001107</v>
       </c>
       <c r="C25" s="19">
@@ -4249,18 +4247,18 @@
       <c r="F25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="22" customFormat="1">
+    <row r="26" spans="1:8">
       <c r="A26" s="19">
         <v>1001122</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="4">
         <v>1001108</v>
       </c>
       <c r="C26" s="19">
@@ -4275,18 +4273,18 @@
       <c r="F26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="22" customFormat="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="19">
         <v>1001123</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="4">
         <v>1001108</v>
       </c>
       <c r="C27" s="19">
@@ -4301,18 +4299,18 @@
       <c r="F27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H27" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="19">
         <v>1001124</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="4">
         <v>1001108</v>
       </c>
       <c r="C28" s="19">
@@ -4327,18 +4325,18 @@
       <c r="F28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="22" customFormat="1">
+    <row r="29" spans="1:8">
       <c r="A29" s="19">
         <v>1001125</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="4">
         <v>1001109</v>
       </c>
       <c r="C29" s="19">
@@ -4353,18 +4351,18 @@
       <c r="F29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H29" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="22" customFormat="1">
+    <row r="30" spans="1:8">
       <c r="A30" s="19">
         <v>1001126</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="4">
         <v>1001109</v>
       </c>
       <c r="C30" s="19">
@@ -4379,18 +4377,18 @@
       <c r="F30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="22" customFormat="1">
+    <row r="31" spans="1:8">
       <c r="A31" s="19">
         <v>1001127</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="4">
         <v>1001109</v>
       </c>
       <c r="C31" s="19">
@@ -4405,18 +4403,18 @@
       <c r="F31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="22" customFormat="1">
+    <row r="32" spans="1:8">
       <c r="A32" s="19">
         <v>1001128</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="4">
         <v>1001110</v>
       </c>
       <c r="C32" s="19">
@@ -4431,18 +4429,18 @@
       <c r="F32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H32" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="22" customFormat="1">
+    <row r="33" spans="1:8">
       <c r="A33" s="19">
         <v>1001129</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="4">
         <v>1001110</v>
       </c>
       <c r="C33" s="19">
@@ -4457,18 +4455,18 @@
       <c r="F33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="22" customFormat="1">
+    <row r="34" spans="1:8">
       <c r="A34" s="19">
         <v>1001130</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="4">
         <v>1001110</v>
       </c>
       <c r="C34" s="19">
@@ -4483,18 +4481,18 @@
       <c r="F34" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="22" customFormat="1">
+    <row r="35" spans="1:8">
       <c r="A35" s="19">
         <v>1001131</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="4">
         <v>1001111</v>
       </c>
       <c r="C35" s="19">
@@ -4509,18 +4507,18 @@
       <c r="F35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="22" customFormat="1">
+    <row r="36" spans="1:8">
       <c r="A36" s="19">
         <v>1001132</v>
       </c>
-      <c r="B36" s="20">
+      <c r="B36" s="4">
         <v>1001111</v>
       </c>
       <c r="C36" s="19">
@@ -4535,18 +4533,18 @@
       <c r="F36" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8">
       <c r="A37" s="19">
         <v>1001133</v>
       </c>
-      <c r="B37" s="20">
+      <c r="B37" s="4">
         <v>1001111</v>
       </c>
       <c r="C37" s="19">
@@ -4561,18 +4559,18 @@
       <c r="F37" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H37" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="22" customFormat="1">
+    <row r="38" spans="1:8">
       <c r="A38" s="19">
         <v>1001134</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="4">
         <v>1001112</v>
       </c>
       <c r="C38" s="19">
@@ -4587,18 +4585,18 @@
       <c r="F38" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H38" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="22" customFormat="1">
+    <row r="39" spans="1:8">
       <c r="A39" s="19">
         <v>1001135</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="4">
         <v>1001112</v>
       </c>
       <c r="C39" s="19">
@@ -4613,18 +4611,18 @@
       <c r="F39" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="22" customFormat="1">
+    <row r="40" spans="1:8">
       <c r="A40" s="19">
         <v>1001136</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="4">
         <v>1001112</v>
       </c>
       <c r="C40" s="19">
@@ -4639,18 +4637,18 @@
       <c r="F40" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="22" customFormat="1">
+    <row r="41" spans="1:8">
       <c r="A41" s="19">
         <v>1001137</v>
       </c>
-      <c r="B41" s="20">
+      <c r="B41" s="4">
         <v>1001113</v>
       </c>
       <c r="C41" s="19">
@@ -4665,18 +4663,18 @@
       <c r="F41" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H41" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="22" customFormat="1">
+    <row r="42" spans="1:8">
       <c r="A42" s="19">
         <v>1001138</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B42" s="4">
         <v>1001113</v>
       </c>
       <c r="C42" s="19">
@@ -4691,18 +4689,18 @@
       <c r="F42" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H42" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="22" customFormat="1">
+    <row r="43" spans="1:8">
       <c r="A43" s="19">
         <v>1001139</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="4">
         <v>1001113</v>
       </c>
       <c r="C43" s="19">
@@ -4717,18 +4715,18 @@
       <c r="F43" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H43" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="22" customFormat="1">
+    <row r="44" spans="1:8">
       <c r="A44" s="19">
         <v>1001140</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B44" s="4">
         <v>1001114</v>
       </c>
       <c r="C44" s="19">
@@ -4743,18 +4741,18 @@
       <c r="F44" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H44" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="22" customFormat="1">
+    <row r="45" spans="1:8">
       <c r="A45" s="19">
         <v>1001141</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="4">
         <v>1001114</v>
       </c>
       <c r="C45" s="19">
@@ -4769,18 +4767,18 @@
       <c r="F45" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H45" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="22" customFormat="1">
+    <row r="46" spans="1:8">
       <c r="A46" s="19">
         <v>1001142</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46" s="4">
         <v>1001114</v>
       </c>
       <c r="C46" s="19">
@@ -4795,18 +4793,18 @@
       <c r="F46" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G46" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H46" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="22" customFormat="1">
+    <row r="47" spans="1:8">
       <c r="A47" s="19">
         <v>1001143</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="4">
         <v>1001115</v>
       </c>
       <c r="C47" s="19">
@@ -4821,18 +4819,18 @@
       <c r="F47" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H47" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="22" customFormat="1">
+    <row r="48" spans="1:8">
       <c r="A48" s="19">
         <v>1001144</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="4">
         <v>1001115</v>
       </c>
       <c r="C48" s="19">
@@ -4847,18 +4845,18 @@
       <c r="F48" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H48" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="22" customFormat="1">
+    <row r="49" spans="1:8">
       <c r="A49" s="19">
         <v>1001145</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="4">
         <v>1001115</v>
       </c>
       <c r="C49" s="19">
@@ -4873,7 +4871,7 @@
       <c r="F49" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H49" s="19">
@@ -6050,7 +6048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="22" customFormat="1">
+    <row r="95" spans="1:8">
       <c r="A95" s="19">
         <v>1003101</v>
       </c>
@@ -6069,14 +6067,14 @@
       <c r="F95" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G95" s="21" t="s">
+      <c r="G95" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H95" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="22" customFormat="1">
+    <row r="96" spans="1:8">
       <c r="A96" s="19">
         <v>1003102</v>
       </c>
@@ -6095,14 +6093,14 @@
       <c r="F96" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G96" s="21" t="s">
+      <c r="G96" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H96" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="22" customFormat="1">
+    <row r="97" spans="1:8">
       <c r="A97" s="19">
         <v>1003103</v>
       </c>
@@ -6121,14 +6119,14 @@
       <c r="F97" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G97" s="21" t="s">
+      <c r="G97" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H97" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="22" customFormat="1">
+    <row r="98" spans="1:8">
       <c r="A98" s="19">
         <v>1003104</v>
       </c>
@@ -6147,14 +6145,14 @@
       <c r="F98" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G98" s="21" t="s">
+      <c r="G98" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H98" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="22" customFormat="1">
+    <row r="99" spans="1:8">
       <c r="A99" s="19">
         <v>1003105</v>
       </c>
@@ -6173,14 +6171,14 @@
       <c r="F99" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G99" s="21" t="s">
+      <c r="G99" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H99" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="22" customFormat="1">
+    <row r="100" spans="1:8">
       <c r="A100" s="19">
         <v>1003106</v>
       </c>
@@ -6199,14 +6197,14 @@
       <c r="F100" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G100" s="21" t="s">
+      <c r="G100" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H100" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="22" customFormat="1">
+    <row r="101" spans="1:8">
       <c r="A101" s="19">
         <v>1003107</v>
       </c>
@@ -6225,14 +6223,14 @@
       <c r="F101" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G101" s="21" t="s">
+      <c r="G101" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H101" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="22" customFormat="1">
+    <row r="102" spans="1:8">
       <c r="A102" s="19">
         <v>1003108</v>
       </c>
@@ -6251,14 +6249,14 @@
       <c r="F102" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G102" s="21" t="s">
+      <c r="G102" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H102" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="22" customFormat="1">
+    <row r="103" spans="1:8">
       <c r="A103" s="19">
         <v>1003109</v>
       </c>
@@ -6277,14 +6275,14 @@
       <c r="F103" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G103" s="21" t="s">
+      <c r="G103" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H103" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="22" customFormat="1">
+    <row r="104" spans="1:8">
       <c r="A104" s="19">
         <v>1003110</v>
       </c>
@@ -6303,14 +6301,14 @@
       <c r="F104" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="21" t="s">
+      <c r="G104" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H104" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="22" customFormat="1">
+    <row r="105" spans="1:8">
       <c r="A105" s="19">
         <v>1003111</v>
       </c>
@@ -6329,14 +6327,14 @@
       <c r="F105" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G105" s="21" t="s">
+      <c r="G105" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H105" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="22" customFormat="1">
+    <row r="106" spans="1:8">
       <c r="A106" s="19">
         <v>1003112</v>
       </c>
@@ -6355,14 +6353,14 @@
       <c r="F106" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G106" s="21" t="s">
+      <c r="G106" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H106" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="22" customFormat="1">
+    <row r="107" spans="1:8">
       <c r="A107" s="19">
         <v>1003113</v>
       </c>
@@ -6381,14 +6379,14 @@
       <c r="F107" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G107" s="21" t="s">
+      <c r="G107" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H107" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="22" customFormat="1">
+    <row r="108" spans="1:8">
       <c r="A108" s="19">
         <v>1003114</v>
       </c>
@@ -6407,14 +6405,14 @@
       <c r="F108" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G108" s="21" t="s">
+      <c r="G108" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H108" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="22" customFormat="1">
+    <row r="109" spans="1:8">
       <c r="A109" s="19">
         <v>1003115</v>
       </c>
@@ -6433,14 +6431,14 @@
       <c r="F109" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G109" s="21" t="s">
+      <c r="G109" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H109" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="22" customFormat="1">
+    <row r="110" spans="1:8">
       <c r="A110" s="19">
         <v>1003116</v>
       </c>
@@ -6459,14 +6457,14 @@
       <c r="F110" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G110" s="21" t="s">
+      <c r="G110" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H110" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="22" customFormat="1">
+    <row r="111" spans="1:8">
       <c r="A111" s="19">
         <v>1003117</v>
       </c>
@@ -6485,14 +6483,14 @@
       <c r="F111" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G111" s="21" t="s">
+      <c r="G111" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H111" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="22" customFormat="1">
+    <row r="112" spans="1:8">
       <c r="A112" s="19">
         <v>1003118</v>
       </c>
@@ -6511,14 +6509,14 @@
       <c r="F112" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G112" s="21" t="s">
+      <c r="G112" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H112" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="22" customFormat="1">
+    <row r="113" spans="1:8">
       <c r="A113" s="19">
         <v>1003119</v>
       </c>
@@ -6537,14 +6535,14 @@
       <c r="F113" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G113" s="21" t="s">
+      <c r="G113" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H113" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="22" customFormat="1">
+    <row r="114" spans="1:8">
       <c r="A114" s="19">
         <v>1003120</v>
       </c>
@@ -6563,14 +6561,14 @@
       <c r="F114" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G114" s="21" t="s">
+      <c r="G114" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H114" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="22" customFormat="1">
+    <row r="115" spans="1:8">
       <c r="A115" s="19">
         <v>1003121</v>
       </c>
@@ -6589,14 +6587,14 @@
       <c r="F115" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G115" s="21" t="s">
+      <c r="G115" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H115" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="22" customFormat="1">
+    <row r="116" spans="1:8">
       <c r="A116" s="19">
         <v>1003122</v>
       </c>
@@ -6615,14 +6613,14 @@
       <c r="F116" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="21" t="s">
+      <c r="G116" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H116" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="22" customFormat="1">
+    <row r="117" spans="1:8">
       <c r="A117" s="19">
         <v>1003123</v>
       </c>
@@ -6641,14 +6639,14 @@
       <c r="F117" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G117" s="21" t="s">
+      <c r="G117" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H117" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="22" customFormat="1">
+    <row r="118" spans="1:8">
       <c r="A118" s="19">
         <v>1003124</v>
       </c>
@@ -6667,14 +6665,14 @@
       <c r="F118" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G118" s="21" t="s">
+      <c r="G118" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H118" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="22" customFormat="1">
+    <row r="119" spans="1:8">
       <c r="A119" s="19">
         <v>1003125</v>
       </c>
@@ -6693,14 +6691,14 @@
       <c r="F119" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="21" t="s">
+      <c r="G119" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H119" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="22" customFormat="1">
+    <row r="120" spans="1:8">
       <c r="A120" s="19">
         <v>1003126</v>
       </c>
@@ -6719,14 +6717,14 @@
       <c r="F120" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G120" s="21" t="s">
+      <c r="G120" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H120" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="22" customFormat="1">
+    <row r="121" spans="1:8">
       <c r="A121" s="19">
         <v>1003127</v>
       </c>
@@ -6745,14 +6743,14 @@
       <c r="F121" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G121" s="21" t="s">
+      <c r="G121" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H121" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="22" customFormat="1">
+    <row r="122" spans="1:8">
       <c r="A122" s="19">
         <v>1003128</v>
       </c>
@@ -6771,14 +6769,14 @@
       <c r="F122" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="21" t="s">
+      <c r="G122" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H122" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="22" customFormat="1">
+    <row r="123" spans="1:8">
       <c r="A123" s="19">
         <v>1003129</v>
       </c>
@@ -6797,14 +6795,14 @@
       <c r="F123" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G123" s="21" t="s">
+      <c r="G123" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H123" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="22" customFormat="1">
+    <row r="124" spans="1:8">
       <c r="A124" s="19">
         <v>1003130</v>
       </c>
@@ -6823,14 +6821,14 @@
       <c r="F124" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G124" s="21" t="s">
+      <c r="G124" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H124" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="22" customFormat="1">
+    <row r="125" spans="1:8">
       <c r="A125" s="19">
         <v>1003131</v>
       </c>
@@ -6849,14 +6847,14 @@
       <c r="F125" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G125" s="21" t="s">
+      <c r="G125" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H125" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="22" customFormat="1">
+    <row r="126" spans="1:8">
       <c r="A126" s="19">
         <v>1003132</v>
       </c>
@@ -6875,14 +6873,14 @@
       <c r="F126" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G126" s="21" t="s">
+      <c r="G126" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H126" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="22" customFormat="1">
+    <row r="127" spans="1:8">
       <c r="A127" s="19">
         <v>1003133</v>
       </c>
@@ -6901,14 +6899,14 @@
       <c r="F127" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G127" s="21" t="s">
+      <c r="G127" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H127" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="22" customFormat="1">
+    <row r="128" spans="1:8">
       <c r="A128" s="19">
         <v>1003134</v>
       </c>
@@ -6927,14 +6925,14 @@
       <c r="F128" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G128" s="21" t="s">
+      <c r="G128" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H128" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="22" customFormat="1">
+    <row r="129" spans="1:8">
       <c r="A129" s="19">
         <v>1003135</v>
       </c>
@@ -6953,14 +6951,14 @@
       <c r="F129" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G129" s="21" t="s">
+      <c r="G129" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H129" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="22" customFormat="1">
+    <row r="130" spans="1:8">
       <c r="A130" s="19">
         <v>1003136</v>
       </c>
@@ -6979,14 +6977,14 @@
       <c r="F130" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G130" s="21" t="s">
+      <c r="G130" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H130" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="22" customFormat="1">
+    <row r="131" spans="1:8">
       <c r="A131" s="19">
         <v>1003137</v>
       </c>
@@ -7005,14 +7003,14 @@
       <c r="F131" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G131" s="21" t="s">
+      <c r="G131" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H131" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="22" customFormat="1">
+    <row r="132" spans="1:8">
       <c r="A132" s="19">
         <v>1003138</v>
       </c>
@@ -7031,14 +7029,14 @@
       <c r="F132" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G132" s="21" t="s">
+      <c r="G132" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H132" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="22" customFormat="1">
+    <row r="133" spans="1:8">
       <c r="A133" s="19">
         <v>1003139</v>
       </c>
@@ -7057,14 +7055,14 @@
       <c r="F133" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G133" s="21" t="s">
+      <c r="G133" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H133" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="22" customFormat="1">
+    <row r="134" spans="1:8">
       <c r="A134" s="19">
         <v>1003140</v>
       </c>
@@ -7083,14 +7081,14 @@
       <c r="F134" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G134" s="21" t="s">
+      <c r="G134" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H134" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="22" customFormat="1">
+    <row r="135" spans="1:8">
       <c r="A135" s="19">
         <v>1003141</v>
       </c>
@@ -7109,14 +7107,14 @@
       <c r="F135" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G135" s="21" t="s">
+      <c r="G135" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H135" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="22" customFormat="1">
+    <row r="136" spans="1:8">
       <c r="A136" s="19">
         <v>1003142</v>
       </c>
@@ -7135,14 +7133,14 @@
       <c r="F136" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G136" s="21" t="s">
+      <c r="G136" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H136" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="22" customFormat="1">
+    <row r="137" spans="1:8">
       <c r="A137" s="19">
         <v>1003143</v>
       </c>
@@ -7161,14 +7159,14 @@
       <c r="F137" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G137" s="21" t="s">
+      <c r="G137" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H137" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="22" customFormat="1">
+    <row r="138" spans="1:8">
       <c r="A138" s="19">
         <v>1003144</v>
       </c>
@@ -7187,14 +7185,14 @@
       <c r="F138" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G138" s="21" t="s">
+      <c r="G138" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H138" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="22" customFormat="1">
+    <row r="139" spans="1:8">
       <c r="A139" s="19">
         <v>1003145</v>
       </c>
@@ -7213,7 +7211,7 @@
       <c r="F139" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G139" s="21" t="s">
+      <c r="G139" s="20" t="s">
         <v>26</v>
       </c>
       <c r="H139" s="19">

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E0535A-7212-4DD7-9B85-400CBC993E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67FCF6-A076-4C97-9CD3-2266E07FAFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="615" windowWidth="24135" windowHeight="19770" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="109">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +454,38 @@
   </si>
   <si>
     <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100002, 100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030101, 2030101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030101, 2030201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030101, 2030201, 2030301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +734,6 @@
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
-      <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
@@ -713,34 +744,16 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@love_level_type"/>
+      <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>ITEM_TYPE</v>
+            <v>TRIBE_TYPE</v>
           </cell>
         </row>
         <row r="3">
@@ -767,138 +780,109 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>GOLD</v>
+            <v>HUMAN</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 금화(게임내 사용되는 재화)</v>
+            <v>1 인간종족</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>DIA</v>
+            <v>ELF</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 보석(게임내 사용되는 유료 재화)</v>
+            <v>2 엘프족</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>DUNGEON_TICKET</v>
+            <v>WEREBEAST</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 던전 입장 티켓</v>
+            <v>3 수인족</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>CHARACTER_PIECE</v>
+            <v>ANDROID</v>
           </cell>
           <cell r="B8">
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>4 캐릭터 조각</v>
+            <v>4 안드로이드</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>EXP_POTION</v>
+            <v>DEVIL</v>
           </cell>
           <cell r="B9">
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>5 경험치 물약</v>
+            <v>5 악마</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>STA_POTION</v>
+            <v>ANGEL</v>
           </cell>
           <cell r="B10">
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>6 스테미나 회복 물약</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>MEMORIAL_ITEM</v>
-          </cell>
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>7 사용하지 않음</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>CHARACTER</v>
-          </cell>
-          <cell r="B12">
-            <v>8</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>8 캐릭터 완전체</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>EXPENDABLE_ITEM</v>
-          </cell>
-          <cell r="B13">
-            <v>9</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>9 각종 소모용 아이템</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>EQUIPMENT_ITEM</v>
-          </cell>
-          <cell r="B14">
-            <v>10</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>10 장비</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>FAVORITE_ITEM</v>
-          </cell>
-          <cell r="B15">
-            <v>11</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>11 호감도 아이템</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>STAMINA</v>
-          </cell>
-          <cell r="B16">
-            <v>12</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>12 스태미나</v>
+            <v>6 천사</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
             <v>LIMIT_TYPE</v>
@@ -949,6 +933,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -960,6 +945,7 @@
       <sheetData sheetId="30"/>
       <sheetData sheetId="31" refreshError="1"/>
       <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1352,8 +1338,8 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="str">
-        <f>'[1]@item_type'!$A$1</f>
-        <v>ITEM_TYPE</v>
+        <f>'[1]@tribe'!$A$1</f>
+        <v>TRIBE_TYPE</v>
       </c>
       <c r="E1" t="str">
         <f>'[1]@Limit'!$A$1</f>
@@ -1362,15 +1348,15 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9" t="str">
-        <f>'[1]@item_type'!$A3</f>
+        <f>'[1]@tribe'!$A3</f>
         <v>type</v>
       </c>
       <c r="B2" s="9" t="str">
-        <f>'[1]@item_type'!$B3</f>
+        <f>'[1]@tribe'!$B3</f>
         <v>value</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>'[1]@item_type'!$C3</f>
+        <f>'[1]@tribe'!$C3</f>
         <v>comment</v>
       </c>
       <c r="E2" s="9" t="str">
@@ -1388,15 +1374,15 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="str">
-        <f>'[1]@item_type'!$A4</f>
+        <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
       </c>
       <c r="B3" s="4">
-        <f>'[1]@item_type'!$B4</f>
+        <f>'[1]@tribe'!$B4</f>
         <v>0</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>'[1]@item_type'!$C4</f>
+        <f>'[1]@tribe'!$C4</f>
         <v>NONE</v>
       </c>
       <c r="E3" s="4" t="str">
@@ -1414,16 +1400,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="str">
-        <f>'[1]@item_type'!$A5</f>
-        <v>GOLD</v>
+        <f>'[1]@tribe'!$A5</f>
+        <v>HUMAN</v>
       </c>
       <c r="B4" s="4">
-        <f>'[1]@item_type'!$B5</f>
+        <f>'[1]@tribe'!$B5</f>
         <v>1</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>'[1]@item_type'!$C5</f>
-        <v>1 금화(게임내 사용되는 재화)</v>
+        <f>'[1]@tribe'!$C5</f>
+        <v>1 인간종족</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>'[1]@Limit'!$A5</f>
@@ -1440,16 +1426,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="str">
-        <f>'[1]@item_type'!$A6</f>
-        <v>DIA</v>
+        <f>'[1]@tribe'!$A6</f>
+        <v>ELF</v>
       </c>
       <c r="B5" s="4">
-        <f>'[1]@item_type'!$B6</f>
+        <f>'[1]@tribe'!$B6</f>
         <v>2</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>'[1]@item_type'!$C6</f>
-        <v>2 보석(게임내 사용되는 유료 재화)</v>
+        <f>'[1]@tribe'!$C6</f>
+        <v>2 엘프족</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@Limit'!$A6</f>
@@ -1466,142 +1452,142 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="str">
-        <f>'[1]@item_type'!$A7</f>
-        <v>DUNGEON_TICKET</v>
+        <f>'[1]@tribe'!$A7</f>
+        <v>WEREBEAST</v>
       </c>
       <c r="B6" s="4">
-        <f>'[1]@item_type'!$B7</f>
+        <f>'[1]@tribe'!$B7</f>
         <v>3</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>'[1]@item_type'!$C7</f>
-        <v>3 던전 입장 티켓</v>
+        <f>'[1]@tribe'!$C7</f>
+        <v>3 수인족</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="str">
-        <f>'[1]@item_type'!$A8</f>
-        <v>CHARACTER_PIECE</v>
+        <f>'[1]@tribe'!$A8</f>
+        <v>ANDROID</v>
       </c>
       <c r="B7" s="4">
-        <f>'[1]@item_type'!$B8</f>
+        <f>'[1]@tribe'!$B8</f>
         <v>4</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>'[1]@item_type'!$C8</f>
-        <v>4 캐릭터 조각</v>
+        <f>'[1]@tribe'!$C8</f>
+        <v>4 안드로이드</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="str">
-        <f>'[1]@item_type'!$A9</f>
-        <v>EXP_POTION</v>
+        <f>'[1]@tribe'!$A9</f>
+        <v>DEVIL</v>
       </c>
       <c r="B8" s="4">
-        <f>'[1]@item_type'!$B9</f>
+        <f>'[1]@tribe'!$B9</f>
         <v>5</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>'[1]@item_type'!$C9</f>
-        <v>5 경험치 물약</v>
+        <f>'[1]@tribe'!$C9</f>
+        <v>5 악마</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="str">
-        <f>'[1]@item_type'!$A10</f>
-        <v>STA_POTION</v>
+        <f>'[1]@tribe'!$A10</f>
+        <v>ANGEL</v>
       </c>
       <c r="B9" s="4">
-        <f>'[1]@item_type'!$B10</f>
+        <f>'[1]@tribe'!$B10</f>
         <v>6</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>'[1]@item_type'!$C10</f>
-        <v>6 스테미나 회복 물약</v>
+        <f>'[1]@tribe'!$C10</f>
+        <v>6 천사</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="str">
-        <f>'[1]@item_type'!$A11</f>
-        <v>MEMORIAL_ITEM</v>
+      <c r="A10" s="4">
+        <f>'[1]@tribe'!$A11</f>
+        <v>0</v>
       </c>
       <c r="B10" s="4">
-        <f>'[1]@item_type'!$B11</f>
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f>'[1]@item_type'!$C11</f>
-        <v>7 사용하지 않음</v>
+        <f>'[1]@tribe'!$B11</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <f>'[1]@tribe'!$C11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4" t="str">
-        <f>'[1]@item_type'!$A12</f>
-        <v>CHARACTER</v>
+      <c r="A11" s="4">
+        <f>'[1]@tribe'!$A12</f>
+        <v>0</v>
       </c>
       <c r="B11" s="4">
-        <f>'[1]@item_type'!$B12</f>
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <f>'[1]@item_type'!$C12</f>
-        <v>8 캐릭터 완전체</v>
+        <f>'[1]@tribe'!$B12</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <f>'[1]@tribe'!$C12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4" t="str">
-        <f>'[1]@item_type'!$A13</f>
-        <v>EXPENDABLE_ITEM</v>
+      <c r="A12" s="4">
+        <f>'[1]@tribe'!$A13</f>
+        <v>0</v>
       </c>
       <c r="B12" s="4">
-        <f>'[1]@item_type'!$B13</f>
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <f>'[1]@item_type'!$C13</f>
-        <v>9 각종 소모용 아이템</v>
+        <f>'[1]@tribe'!$B13</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <f>'[1]@tribe'!$C13</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4" t="str">
-        <f>'[1]@item_type'!$A14</f>
-        <v>EQUIPMENT_ITEM</v>
+      <c r="A13" s="4">
+        <f>'[1]@tribe'!$A14</f>
+        <v>0</v>
       </c>
       <c r="B13" s="4">
-        <f>'[1]@item_type'!$B14</f>
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <f>'[1]@item_type'!$C14</f>
-        <v>10 장비</v>
+        <f>'[1]@tribe'!$B14</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <f>'[1]@tribe'!$C14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4" t="str">
-        <f>'[1]@item_type'!$A15</f>
-        <v>FAVORITE_ITEM</v>
+      <c r="A14" s="4">
+        <f>'[1]@tribe'!$A15</f>
+        <v>0</v>
       </c>
       <c r="B14" s="4">
-        <f>'[1]@item_type'!$B15</f>
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <f>'[1]@item_type'!$C15</f>
-        <v>11 호감도 아이템</v>
+        <f>'[1]@tribe'!$B15</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <f>'[1]@tribe'!$C15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4" t="str">
-        <f>'[1]@item_type'!$A16</f>
-        <v>STAMINA</v>
+      <c r="A15" s="4">
+        <f>'[1]@tribe'!$A16</f>
+        <v>0</v>
       </c>
       <c r="B15" s="4">
-        <f>'[1]@item_type'!$B16</f>
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="str">
-        <f>'[1]@item_type'!$C16</f>
-        <v>12 스태미나</v>
+        <f>'[1]@tribe'!$B16</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <f>'[1]@tribe'!$C16</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1883,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3609,7 +3595,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3719,16 +3705,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H5" s="19">
         <v>100</v>
@@ -3745,16 +3731,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="H6" s="19">
         <v>100</v>
@@ -3771,16 +3757,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="H7" s="19">
         <v>100</v>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67FCF6-A076-4C97-9CD3-2266E07FAFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A5E2E-7FC4-4315-8096-C54D7096644F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="10725" yWindow="1455" windowWidth="33900" windowHeight="19740" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="114">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,18 +457,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100001, 100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100001, 100002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100001, 100002, 100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -485,7 +477,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2030101, 2030201, 2030301</t>
+    <t>100002, 100002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100101, 100201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030101,2030101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100007, 100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100003, 100004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100001, 100001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +616,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -626,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +716,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -745,6 +786,7 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@attribute_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
@@ -943,9 +985,16 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="31">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="32" refreshError="1"/>
       <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3595,7 +3644,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3708,13 +3757,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F5" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>106</v>
       </c>
       <c r="H5" s="19">
         <v>100</v>
@@ -3734,13 +3783,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="G6" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H6" s="19">
         <v>100</v>
@@ -3760,13 +3809,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="G7" s="20" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H7" s="19">
         <v>100</v>
@@ -3786,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>20</v>
@@ -3812,13 +3861,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="19">
         <v>100</v>
@@ -3942,13 +3991,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="H14" s="19">
         <v>100</v>
@@ -3968,13 +4017,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="H15" s="19">
         <v>100</v>
@@ -3994,13 +4043,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="H16" s="19">
         <v>100</v>
@@ -4020,67 +4069,67 @@
         <v>3</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="H17" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="19">
+    <row r="18" spans="1:8" s="25" customFormat="1">
+      <c r="A18" s="23">
         <v>1001114</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="24">
         <v>1001105</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="23">
         <v>2</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="23">
         <v>5</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="19">
+        <v>109</v>
+      </c>
+      <c r="H18" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="19">
+      <c r="A19" s="21">
         <v>1001115</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="22">
         <v>1001105</v>
       </c>
-      <c r="C19" s="19">
-        <v>3</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="C19" s="21">
+        <v>3</v>
+      </c>
+      <c r="D19" s="21">
         <v>5</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="19">
+        <v>109</v>
+      </c>
+      <c r="H19" s="21">
         <v>100</v>
       </c>
     </row>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A5E2E-7FC4-4315-8096-C54D7096644F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F5F4F0-A193-44D5-998A-03081D43DA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="1455" windowWidth="33900" windowHeight="19740" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="49530" yWindow="780" windowWidth="24435" windowHeight="19800" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -652,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,15 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,21 +900,75 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
@@ -983,7 +1028,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31">
         <row r="1">
@@ -1007,9 +1058,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1047,7 +1098,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1153,7 +1204,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1295,7 +1346,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4081,17 +4132,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="25" customFormat="1">
-      <c r="A18" s="23">
+    <row r="18" spans="1:8">
+      <c r="A18" s="19">
         <v>1001114</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="4">
         <v>1001105</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="19">
         <v>2</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="19">
         <v>5</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -4103,7 +4154,7 @@
       <c r="G18" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="19">
         <v>100</v>
       </c>
     </row>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F5F4F0-A193-44D5-998A-03081D43DA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E5AFAC-EEEF-420B-9016-0147A76DE6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49530" yWindow="780" windowWidth="24435" windowHeight="19800" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="41415" yWindow="1395" windowWidth="34815" windowHeight="16545" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="120">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100001, 100101, 100201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100001, 100008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,6 +502,34 @@
   </si>
   <si>
     <t>100001, 100001, 100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2존 노말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2존 하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2존 베리 하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3존 노말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3존 하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3존 베리 하드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100101, 100101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,9 +711,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -900,75 +921,21 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
@@ -1028,13 +995,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31">
         <row r="1">
@@ -1755,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1956,8 +1917,185 @@
         <v>93</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="21">
+        <v>10021</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="21">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I8,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="21">
+        <v>10022</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21">
+        <v>2</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="21">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I9,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="21">
+        <v>10023</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21">
+        <v>3</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="21">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I10,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="11" spans="1:9">
-      <c r="C11" s="12"/>
+      <c r="A11" s="4">
+        <v>10031</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I11,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
+        <v>10032</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I12,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
+        <v>10033</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I13,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1970,7 +2108,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I7</xm:sqref>
+          <xm:sqref>I5:I13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1982,8 +2120,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2631,528 +2773,528 @@
         <v>12001015</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="15" customFormat="1">
-      <c r="A20" s="13">
+    <row r="20" spans="1:11" s="14" customFormat="1">
+      <c r="A20" s="12">
         <v>1002101</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>10021</v>
       </c>
-      <c r="C20" s="14">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>10</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>12</v>
       </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
-        <v>100</v>
-      </c>
-      <c r="I20" s="13">
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>100</v>
+      </c>
+      <c r="I20" s="12">
         <v>10001001</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>11001001</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>12001001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="15" customFormat="1">
-      <c r="A21" s="13">
+    <row r="21" spans="1:11" s="14" customFormat="1">
+      <c r="A21" s="12">
         <v>1002102</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>10021</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>2</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>10</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>12</v>
       </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13">
-        <v>100</v>
-      </c>
-      <c r="I21" s="13">
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12">
+        <v>100</v>
+      </c>
+      <c r="I21" s="12">
         <v>10001002</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>11001002</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <v>12001002</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="15" customFormat="1">
-      <c r="A22" s="13">
+    <row r="22" spans="1:11" s="14" customFormat="1">
+      <c r="A22" s="12">
         <v>1002103</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>10021</v>
       </c>
-      <c r="C22" s="14">
-        <v>3</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="13">
+        <v>3</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>10</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>12</v>
       </c>
-      <c r="G22" s="13">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13">
-        <v>100</v>
-      </c>
-      <c r="I22" s="13">
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>100</v>
+      </c>
+      <c r="I22" s="12">
         <v>10001003</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="12">
         <v>11001003</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <v>12001003</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="15" customFormat="1">
-      <c r="A23" s="13">
+    <row r="23" spans="1:11" s="14" customFormat="1">
+      <c r="A23" s="12">
         <v>1002104</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>10021</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>10</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>12</v>
       </c>
-      <c r="G23" s="13">
-        <v>1</v>
-      </c>
-      <c r="H23" s="13">
-        <v>100</v>
-      </c>
-      <c r="I23" s="13">
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12">
+        <v>100</v>
+      </c>
+      <c r="I23" s="12">
         <v>10001004</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="12">
         <v>11001004</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <v>12001004</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="15" customFormat="1">
-      <c r="A24" s="13">
+    <row r="24" spans="1:11" s="14" customFormat="1">
+      <c r="A24" s="12">
         <v>1002105</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>10021</v>
       </c>
-      <c r="C24" s="14">
-        <v>5</v>
-      </c>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="13">
+        <v>5</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>10</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>12</v>
       </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12">
         <v>200</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="12">
         <v>10001005</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="12">
         <v>11001005</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="12">
         <v>12001005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="15" customFormat="1">
-      <c r="A25" s="13">
+    <row r="25" spans="1:11" s="14" customFormat="1">
+      <c r="A25" s="12">
         <v>1002106</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>10021</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>10</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>12</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <v>2</v>
       </c>
-      <c r="H25" s="13">
-        <v>100</v>
-      </c>
-      <c r="I25" s="13">
+      <c r="H25" s="12">
+        <v>100</v>
+      </c>
+      <c r="I25" s="12">
         <v>10001006</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="12">
         <v>11001006</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <v>12001006</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="15" customFormat="1">
-      <c r="A26" s="13">
+    <row r="26" spans="1:11" s="14" customFormat="1">
+      <c r="A26" s="12">
         <v>1002107</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>10021</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>7</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>10</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>12</v>
       </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <v>100</v>
-      </c>
-      <c r="I26" s="13">
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12">
+        <v>100</v>
+      </c>
+      <c r="I26" s="12">
         <v>10001007</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="12">
         <v>11001007</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="12">
         <v>12001007</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="15" customFormat="1">
-      <c r="A27" s="13">
+    <row r="27" spans="1:11" s="14" customFormat="1">
+      <c r="A27" s="12">
         <v>1002108</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>10021</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>8</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>10</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>12</v>
       </c>
-      <c r="G27" s="13">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
-        <v>100</v>
-      </c>
-      <c r="I27" s="13">
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <v>100</v>
+      </c>
+      <c r="I27" s="12">
         <v>10001008</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <v>11001008</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="12">
         <v>12001008</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="15" customFormat="1">
-      <c r="A28" s="13">
+    <row r="28" spans="1:11" s="14" customFormat="1">
+      <c r="A28" s="12">
         <v>1002109</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>10021</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>9</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>10</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>12</v>
       </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13">
-        <v>100</v>
-      </c>
-      <c r="I28" s="13">
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12">
+        <v>100</v>
+      </c>
+      <c r="I28" s="12">
         <v>10001009</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="12">
         <v>11001009</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="12">
         <v>12001009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="15" customFormat="1">
-      <c r="A29" s="13">
+    <row r="29" spans="1:11" s="14" customFormat="1">
+      <c r="A29" s="12">
         <v>1002110</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>10021</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>10</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>10</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>12</v>
       </c>
-      <c r="G29" s="13">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13">
-        <v>100</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="G29" s="12">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12">
+        <v>100</v>
+      </c>
+      <c r="I29" s="12">
         <v>10001010</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="12">
         <v>11001010</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="12">
         <v>12001010</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="15" customFormat="1">
-      <c r="A30" s="13">
+    <row r="30" spans="1:11" s="14" customFormat="1">
+      <c r="A30" s="12">
         <v>1002111</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>10021</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>11</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>10</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>12</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <v>2</v>
       </c>
-      <c r="H30" s="13">
-        <v>100</v>
-      </c>
-      <c r="I30" s="13">
+      <c r="H30" s="12">
+        <v>100</v>
+      </c>
+      <c r="I30" s="12">
         <v>10001011</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <v>11001011</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="12">
         <v>12001011</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1">
-      <c r="A31" s="13">
+    <row r="31" spans="1:11" s="14" customFormat="1">
+      <c r="A31" s="12">
         <v>1002112</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>10021</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>12</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>10</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>12</v>
       </c>
-      <c r="G31" s="13">
-        <v>1</v>
-      </c>
-      <c r="H31" s="13">
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12">
         <v>200</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="12">
         <v>10001012</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="12">
         <v>11001012</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="12">
         <v>12001012</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="15" customFormat="1">
-      <c r="A32" s="13">
+    <row r="32" spans="1:11" s="14" customFormat="1">
+      <c r="A32" s="12">
         <v>1002113</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="12">
         <v>10021</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>13</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>10</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>12</v>
       </c>
-      <c r="G32" s="13">
-        <v>1</v>
-      </c>
-      <c r="H32" s="13">
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12">
         <v>200</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="12">
         <v>10001013</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="12">
         <v>11001013</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="12">
         <v>12001013</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="15" customFormat="1">
-      <c r="A33" s="13">
+    <row r="33" spans="1:11" s="14" customFormat="1">
+      <c r="A33" s="12">
         <v>1002114</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>10021</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>14</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>10</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>12</v>
       </c>
-      <c r="G33" s="13">
-        <v>1</v>
-      </c>
-      <c r="H33" s="13">
+      <c r="G33" s="12">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12">
         <v>200</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <v>10001014</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="12">
         <v>11001014</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="12">
         <v>12001014</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="15" customFormat="1">
-      <c r="A34" s="13">
+    <row r="34" spans="1:11" s="14" customFormat="1">
+      <c r="A34" s="12">
         <v>1002115</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <v>10021</v>
       </c>
-      <c r="C34" s="14">
-        <v>15</v>
-      </c>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="13">
+        <v>15</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>10</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <v>12</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <v>2</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <v>200</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="12">
         <v>10001015</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="12">
         <v>11001015</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="12">
         <v>12001015</v>
       </c>
     </row>
@@ -3695,7 +3837,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3795,3512 +3937,3512 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>1001101</v>
       </c>
       <c r="B5" s="4">
         <v>1001101</v>
       </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
         <v>2</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>1001102</v>
       </c>
       <c r="B6" s="4">
         <v>1001101</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>1001103</v>
       </c>
       <c r="B7" s="4">
         <v>1001101</v>
       </c>
-      <c r="C7" s="19">
-        <v>3</v>
-      </c>
-      <c r="D7" s="19">
-        <v>3</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>1001104</v>
       </c>
       <c r="B8" s="4">
         <v>1001102</v>
       </c>
-      <c r="C8" s="19">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19">
-        <v>3</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>3</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>1001105</v>
       </c>
       <c r="B9" s="4">
         <v>1001102</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="19">
-        <v>5</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="18">
+        <v>5</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>1001106</v>
       </c>
       <c r="B10" s="4">
         <v>1001102</v>
       </c>
-      <c r="C10" s="19">
-        <v>3</v>
-      </c>
-      <c r="D10" s="19">
-        <v>5</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="C10" s="18">
+        <v>3</v>
+      </c>
+      <c r="D10" s="18">
+        <v>5</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="19">
+      <c r="G10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>1001107</v>
       </c>
       <c r="B11" s="4">
         <v>1001103</v>
       </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>3</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>1001108</v>
       </c>
       <c r="B12" s="4">
         <v>1001103</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>2</v>
       </c>
-      <c r="D12" s="19">
-        <v>5</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="D12" s="18">
+        <v>5</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="G12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>1001109</v>
       </c>
       <c r="B13" s="4">
         <v>1001103</v>
       </c>
-      <c r="C13" s="19">
-        <v>3</v>
-      </c>
-      <c r="D13" s="19">
-        <v>5</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="C13" s="18">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18">
+        <v>5</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="G13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>1001110</v>
       </c>
       <c r="B14" s="4">
         <v>1001104</v>
       </c>
-      <c r="C14" s="19">
-        <v>1</v>
-      </c>
-      <c r="D14" s="19">
-        <v>3</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
+        <v>3</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>1001111</v>
       </c>
       <c r="B15" s="4">
         <v>1001104</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>2</v>
       </c>
-      <c r="D15" s="19">
-        <v>5</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="18">
+        <v>5</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>1001112</v>
       </c>
       <c r="B16" s="4">
         <v>1001104</v>
       </c>
-      <c r="C16" s="19">
-        <v>3</v>
-      </c>
-      <c r="D16" s="19">
-        <v>5</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="C16" s="18">
+        <v>3</v>
+      </c>
+      <c r="D16" s="18">
+        <v>5</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>1001113</v>
       </c>
       <c r="B17" s="4">
         <v>1001105</v>
       </c>
-      <c r="C17" s="19">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19">
-        <v>3</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
+        <v>3</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="G17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>1001114</v>
       </c>
       <c r="B18" s="4">
         <v>1001105</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>2</v>
       </c>
-      <c r="D18" s="19">
-        <v>5</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="20">
+        <v>1001115</v>
+      </c>
+      <c r="B19" s="21">
+        <v>1001105</v>
+      </c>
+      <c r="C19" s="20">
+        <v>3</v>
+      </c>
+      <c r="D19" s="20">
+        <v>5</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="21">
-        <v>1001115</v>
-      </c>
-      <c r="B19" s="22">
-        <v>1001105</v>
-      </c>
-      <c r="C19" s="21">
-        <v>3</v>
-      </c>
-      <c r="D19" s="21">
-        <v>5</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="G19" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>1001116</v>
       </c>
       <c r="B20" s="4">
         <v>1001106</v>
       </c>
-      <c r="C20" s="19">
-        <v>1</v>
-      </c>
-      <c r="D20" s="19">
-        <v>3</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18">
+        <v>3</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>1001117</v>
       </c>
       <c r="B21" s="4">
         <v>1001106</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>2</v>
       </c>
-      <c r="D21" s="19">
-        <v>5</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="18">
+        <v>5</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="19">
+      <c r="G21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>1001118</v>
       </c>
       <c r="B22" s="4">
         <v>1001106</v>
       </c>
-      <c r="C22" s="19">
-        <v>3</v>
-      </c>
-      <c r="D22" s="19">
-        <v>5</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18">
+        <v>5</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="G22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>1001119</v>
       </c>
       <c r="B23" s="4">
         <v>1001107</v>
       </c>
-      <c r="C23" s="19">
-        <v>1</v>
-      </c>
-      <c r="D23" s="19">
-        <v>3</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="18">
+        <v>3</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>1001120</v>
       </c>
       <c r="B24" s="4">
         <v>1001107</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>2</v>
       </c>
-      <c r="D24" s="19">
-        <v>5</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="D24" s="18">
+        <v>5</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="19">
+      <c r="G24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>1001121</v>
       </c>
       <c r="B25" s="4">
         <v>1001107</v>
       </c>
-      <c r="C25" s="19">
-        <v>3</v>
-      </c>
-      <c r="D25" s="19">
-        <v>5</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="18">
+        <v>5</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="19">
+      <c r="G25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>1001122</v>
       </c>
       <c r="B26" s="4">
         <v>1001108</v>
       </c>
-      <c r="C26" s="19">
-        <v>1</v>
-      </c>
-      <c r="D26" s="19">
-        <v>3</v>
-      </c>
-      <c r="E26" s="19" t="s">
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <v>1001123</v>
       </c>
       <c r="B27" s="4">
         <v>1001108</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>2</v>
       </c>
-      <c r="D27" s="19">
-        <v>5</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="D27" s="18">
+        <v>5</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="19">
+      <c r="G27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>1001124</v>
       </c>
       <c r="B28" s="4">
         <v>1001108</v>
       </c>
-      <c r="C28" s="19">
-        <v>3</v>
-      </c>
-      <c r="D28" s="19">
-        <v>5</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="19" t="s">
+      <c r="C28" s="18">
+        <v>3</v>
+      </c>
+      <c r="D28" s="18">
+        <v>5</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="19">
+      <c r="G28" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>1001125</v>
       </c>
       <c r="B29" s="4">
         <v>1001109</v>
       </c>
-      <c r="C29" s="19">
-        <v>1</v>
-      </c>
-      <c r="D29" s="19">
-        <v>3</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="C29" s="18">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>3</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>1001126</v>
       </c>
       <c r="B30" s="4">
         <v>1001109</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>2</v>
       </c>
-      <c r="D30" s="19">
-        <v>5</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="19" t="s">
+      <c r="D30" s="18">
+        <v>5</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="19">
+      <c r="G30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>1001127</v>
       </c>
       <c r="B31" s="4">
         <v>1001109</v>
       </c>
-      <c r="C31" s="19">
-        <v>3</v>
-      </c>
-      <c r="D31" s="19">
-        <v>5</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="19" t="s">
+      <c r="C31" s="18">
+        <v>3</v>
+      </c>
+      <c r="D31" s="18">
+        <v>5</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="19">
+      <c r="G31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>1001128</v>
       </c>
       <c r="B32" s="4">
         <v>1001110</v>
       </c>
-      <c r="C32" s="19">
-        <v>1</v>
-      </c>
-      <c r="D32" s="19">
-        <v>3</v>
-      </c>
-      <c r="E32" s="19" t="s">
+      <c r="C32" s="18">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18">
+        <v>3</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>1001129</v>
       </c>
       <c r="B33" s="4">
         <v>1001110</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>2</v>
       </c>
-      <c r="D33" s="19">
-        <v>5</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="19" t="s">
+      <c r="D33" s="18">
+        <v>5</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="19">
+      <c r="G33" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19">
+      <c r="A34" s="18">
         <v>1001130</v>
       </c>
       <c r="B34" s="4">
         <v>1001110</v>
       </c>
-      <c r="C34" s="19">
-        <v>3</v>
-      </c>
-      <c r="D34" s="19">
-        <v>5</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="19" t="s">
+      <c r="C34" s="18">
+        <v>3</v>
+      </c>
+      <c r="D34" s="18">
+        <v>5</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="19">
+      <c r="G34" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <v>1001131</v>
       </c>
       <c r="B35" s="4">
         <v>1001111</v>
       </c>
-      <c r="C35" s="19">
-        <v>1</v>
-      </c>
-      <c r="D35" s="19">
-        <v>3</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="C35" s="18">
+        <v>1</v>
+      </c>
+      <c r="D35" s="18">
+        <v>3</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19">
+      <c r="A36" s="18">
         <v>1001132</v>
       </c>
       <c r="B36" s="4">
         <v>1001111</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="18">
         <v>2</v>
       </c>
-      <c r="D36" s="19">
-        <v>5</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="19" t="s">
+      <c r="D36" s="18">
+        <v>5</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="19">
+      <c r="G36" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>1001133</v>
       </c>
       <c r="B37" s="4">
         <v>1001111</v>
       </c>
-      <c r="C37" s="19">
-        <v>3</v>
-      </c>
-      <c r="D37" s="19">
-        <v>5</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="19" t="s">
+      <c r="C37" s="18">
+        <v>3</v>
+      </c>
+      <c r="D37" s="18">
+        <v>5</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="19">
+      <c r="G37" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <v>1001134</v>
       </c>
       <c r="B38" s="4">
         <v>1001112</v>
       </c>
-      <c r="C38" s="19">
-        <v>1</v>
-      </c>
-      <c r="D38" s="19">
-        <v>3</v>
-      </c>
-      <c r="E38" s="19" t="s">
+      <c r="C38" s="18">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18">
+        <v>3</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>1001135</v>
       </c>
       <c r="B39" s="4">
         <v>1001112</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="18">
         <v>2</v>
       </c>
-      <c r="D39" s="19">
-        <v>5</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="19" t="s">
+      <c r="D39" s="18">
+        <v>5</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="19">
+      <c r="G39" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <v>1001136</v>
       </c>
       <c r="B40" s="4">
         <v>1001112</v>
       </c>
-      <c r="C40" s="19">
-        <v>3</v>
-      </c>
-      <c r="D40" s="19">
-        <v>5</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="19" t="s">
+      <c r="C40" s="18">
+        <v>3</v>
+      </c>
+      <c r="D40" s="18">
+        <v>5</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="19">
+      <c r="G40" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="19">
+      <c r="A41" s="18">
         <v>1001137</v>
       </c>
       <c r="B41" s="4">
         <v>1001113</v>
       </c>
-      <c r="C41" s="19">
-        <v>1</v>
-      </c>
-      <c r="D41" s="19">
-        <v>3</v>
-      </c>
-      <c r="E41" s="19" t="s">
+      <c r="C41" s="18">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18">
+        <v>3</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="19">
+      <c r="A42" s="18">
         <v>1001138</v>
       </c>
       <c r="B42" s="4">
         <v>1001113</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="18">
         <v>2</v>
       </c>
-      <c r="D42" s="19">
-        <v>5</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="19" t="s">
+      <c r="D42" s="18">
+        <v>5</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="19">
+      <c r="G42" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="19">
+      <c r="A43" s="18">
         <v>1001139</v>
       </c>
       <c r="B43" s="4">
         <v>1001113</v>
       </c>
-      <c r="C43" s="19">
-        <v>3</v>
-      </c>
-      <c r="D43" s="19">
-        <v>5</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="19" t="s">
+      <c r="C43" s="18">
+        <v>3</v>
+      </c>
+      <c r="D43" s="18">
+        <v>5</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="19">
+      <c r="G43" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="19">
+      <c r="A44" s="18">
         <v>1001140</v>
       </c>
       <c r="B44" s="4">
         <v>1001114</v>
       </c>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="19">
-        <v>3</v>
-      </c>
-      <c r="E44" s="19" t="s">
+      <c r="C44" s="18">
+        <v>1</v>
+      </c>
+      <c r="D44" s="18">
+        <v>3</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="19">
+      <c r="A45" s="18">
         <v>1001141</v>
       </c>
       <c r="B45" s="4">
         <v>1001114</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="18">
         <v>2</v>
       </c>
-      <c r="D45" s="19">
-        <v>5</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="19" t="s">
+      <c r="D45" s="18">
+        <v>5</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="19">
+      <c r="G45" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="19">
+      <c r="A46" s="18">
         <v>1001142</v>
       </c>
       <c r="B46" s="4">
         <v>1001114</v>
       </c>
-      <c r="C46" s="19">
-        <v>3</v>
-      </c>
-      <c r="D46" s="19">
-        <v>5</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="19" t="s">
+      <c r="C46" s="18">
+        <v>3</v>
+      </c>
+      <c r="D46" s="18">
+        <v>5</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="19">
+      <c r="G46" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="19">
+      <c r="A47" s="18">
         <v>1001143</v>
       </c>
       <c r="B47" s="4">
         <v>1001115</v>
       </c>
-      <c r="C47" s="19">
-        <v>1</v>
-      </c>
-      <c r="D47" s="19">
-        <v>3</v>
-      </c>
-      <c r="E47" s="19" t="s">
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
+      <c r="D47" s="18">
+        <v>3</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="19">
+      <c r="A48" s="18">
         <v>1001144</v>
       </c>
       <c r="B48" s="4">
         <v>1001115</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="18">
         <v>2</v>
       </c>
-      <c r="D48" s="19">
-        <v>5</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="19" t="s">
+      <c r="D48" s="18">
+        <v>5</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="19">
+      <c r="G48" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="19">
+      <c r="A49" s="18">
         <v>1001145</v>
       </c>
       <c r="B49" s="4">
         <v>1001115</v>
       </c>
-      <c r="C49" s="19">
-        <v>3</v>
-      </c>
-      <c r="D49" s="19">
-        <v>5</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="19" t="s">
+      <c r="C49" s="18">
+        <v>3</v>
+      </c>
+      <c r="D49" s="18">
+        <v>5</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="18" customFormat="1">
-      <c r="A50" s="16">
+      <c r="G49" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="17" customFormat="1">
+      <c r="A50" s="15">
         <v>1002101</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>1002101</v>
       </c>
-      <c r="C50" s="16">
-        <v>1</v>
-      </c>
-      <c r="D50" s="16">
+      <c r="C50" s="15">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15">
         <v>4</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="18" customFormat="1">
-      <c r="A51" s="16">
+      <c r="H50" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="17" customFormat="1">
+      <c r="A51" s="15">
         <v>1002102</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>1002101</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <v>2</v>
       </c>
-      <c r="D51" s="16">
-        <v>5</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="D51" s="15">
+        <v>5</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="18" customFormat="1">
-      <c r="A52" s="16">
+      <c r="G51" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="17" customFormat="1">
+      <c r="A52" s="15">
         <v>1002103</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>1002101</v>
       </c>
-      <c r="C52" s="16">
-        <v>3</v>
-      </c>
-      <c r="D52" s="16">
-        <v>5</v>
-      </c>
-      <c r="E52" s="16" t="s">
+      <c r="C52" s="15">
+        <v>3</v>
+      </c>
+      <c r="D52" s="15">
+        <v>5</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="18" customFormat="1">
-      <c r="A53" s="16">
+      <c r="G52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="17" customFormat="1">
+      <c r="A53" s="15">
         <v>1002104</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>1002102</v>
       </c>
-      <c r="C53" s="16">
-        <v>1</v>
-      </c>
-      <c r="D53" s="16">
-        <v>3</v>
-      </c>
-      <c r="E53" s="16" t="s">
+      <c r="C53" s="15">
+        <v>1</v>
+      </c>
+      <c r="D53" s="15">
+        <v>3</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="18" customFormat="1">
-      <c r="A54" s="16">
+      <c r="H53" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="17" customFormat="1">
+      <c r="A54" s="15">
         <v>1002105</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>1002102</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="15">
         <v>2</v>
       </c>
-      <c r="D54" s="16">
-        <v>5</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="16" t="s">
+      <c r="D54" s="15">
+        <v>5</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="18" customFormat="1">
-      <c r="A55" s="16">
+      <c r="G54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="17" customFormat="1">
+      <c r="A55" s="15">
         <v>1002106</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>1002102</v>
       </c>
-      <c r="C55" s="16">
-        <v>3</v>
-      </c>
-      <c r="D55" s="16">
-        <v>5</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="16" t="s">
+      <c r="C55" s="15">
+        <v>3</v>
+      </c>
+      <c r="D55" s="15">
+        <v>5</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="18" customFormat="1">
-      <c r="A56" s="16">
+      <c r="G55" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="17" customFormat="1">
+      <c r="A56" s="15">
         <v>1002107</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="12">
         <v>1002103</v>
       </c>
-      <c r="C56" s="16">
-        <v>1</v>
-      </c>
-      <c r="D56" s="16">
-        <v>3</v>
-      </c>
-      <c r="E56" s="16" t="s">
+      <c r="C56" s="15">
+        <v>1</v>
+      </c>
+      <c r="D56" s="15">
+        <v>3</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="18" customFormat="1">
-      <c r="A57" s="16">
+      <c r="H56" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="17" customFormat="1">
+      <c r="A57" s="15">
         <v>1002108</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>1002103</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>2</v>
       </c>
-      <c r="D57" s="16">
-        <v>5</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="16" t="s">
+      <c r="D57" s="15">
+        <v>5</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G57" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="18" customFormat="1">
-      <c r="A58" s="16">
+      <c r="G57" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="17" customFormat="1">
+      <c r="A58" s="15">
         <v>1002109</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>1002103</v>
       </c>
-      <c r="C58" s="16">
-        <v>3</v>
-      </c>
-      <c r="D58" s="16">
-        <v>5</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="16" t="s">
+      <c r="C58" s="15">
+        <v>3</v>
+      </c>
+      <c r="D58" s="15">
+        <v>5</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="18" customFormat="1">
-      <c r="A59" s="16">
+      <c r="G58" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="17" customFormat="1">
+      <c r="A59" s="15">
         <v>1002110</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>1002104</v>
       </c>
-      <c r="C59" s="16">
-        <v>1</v>
-      </c>
-      <c r="D59" s="16">
-        <v>3</v>
-      </c>
-      <c r="E59" s="16" t="s">
+      <c r="C59" s="15">
+        <v>1</v>
+      </c>
+      <c r="D59" s="15">
+        <v>3</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="18" customFormat="1">
-      <c r="A60" s="16">
+      <c r="H59" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="17" customFormat="1">
+      <c r="A60" s="15">
         <v>1002111</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>1002104</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>2</v>
       </c>
-      <c r="D60" s="16">
-        <v>5</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="16" t="s">
+      <c r="D60" s="15">
+        <v>5</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G60" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="18" customFormat="1">
-      <c r="A61" s="16">
+      <c r="G60" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="17" customFormat="1">
+      <c r="A61" s="15">
         <v>1002112</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>1002104</v>
       </c>
-      <c r="C61" s="16">
-        <v>3</v>
-      </c>
-      <c r="D61" s="16">
-        <v>5</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="16" t="s">
+      <c r="C61" s="15">
+        <v>3</v>
+      </c>
+      <c r="D61" s="15">
+        <v>5</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G61" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="18" customFormat="1">
-      <c r="A62" s="16">
+      <c r="G61" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="17" customFormat="1">
+      <c r="A62" s="15">
         <v>1002113</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>1002105</v>
       </c>
-      <c r="C62" s="16">
-        <v>1</v>
-      </c>
-      <c r="D62" s="16">
-        <v>3</v>
-      </c>
-      <c r="E62" s="16" t="s">
+      <c r="C62" s="15">
+        <v>1</v>
+      </c>
+      <c r="D62" s="15">
+        <v>3</v>
+      </c>
+      <c r="E62" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="18" customFormat="1">
-      <c r="A63" s="16">
+      <c r="H62" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="17" customFormat="1">
+      <c r="A63" s="15">
         <v>1002114</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>1002105</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="15">
         <v>2</v>
       </c>
-      <c r="D63" s="16">
-        <v>5</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="16" t="s">
+      <c r="D63" s="15">
+        <v>5</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="18" customFormat="1">
-      <c r="A64" s="16">
+      <c r="G63" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="17" customFormat="1">
+      <c r="A64" s="15">
         <v>1002115</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>1002105</v>
       </c>
-      <c r="C64" s="16">
-        <v>3</v>
-      </c>
-      <c r="D64" s="16">
-        <v>5</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="16" t="s">
+      <c r="C64" s="15">
+        <v>3</v>
+      </c>
+      <c r="D64" s="15">
+        <v>5</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="18" customFormat="1">
-      <c r="A65" s="16">
+      <c r="G64" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="17" customFormat="1">
+      <c r="A65" s="15">
         <v>1002116</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>1002106</v>
       </c>
-      <c r="C65" s="16">
-        <v>1</v>
-      </c>
-      <c r="D65" s="16">
-        <v>3</v>
-      </c>
-      <c r="E65" s="16" t="s">
+      <c r="C65" s="15">
+        <v>1</v>
+      </c>
+      <c r="D65" s="15">
+        <v>3</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G65" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H65" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="18" customFormat="1">
-      <c r="A66" s="16">
+      <c r="H65" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="17" customFormat="1">
+      <c r="A66" s="15">
         <v>1002117</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>1002106</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="15">
         <v>2</v>
       </c>
-      <c r="D66" s="16">
-        <v>5</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="16" t="s">
+      <c r="D66" s="15">
+        <v>5</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G66" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="18" customFormat="1">
-      <c r="A67" s="16">
+      <c r="G66" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="17" customFormat="1">
+      <c r="A67" s="15">
         <v>1002118</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>1002106</v>
       </c>
-      <c r="C67" s="16">
-        <v>3</v>
-      </c>
-      <c r="D67" s="16">
-        <v>5</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="16" t="s">
+      <c r="C67" s="15">
+        <v>3</v>
+      </c>
+      <c r="D67" s="15">
+        <v>5</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="18" customFormat="1">
-      <c r="A68" s="16">
+      <c r="G67" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="17" customFormat="1">
+      <c r="A68" s="15">
         <v>1002119</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>1002107</v>
       </c>
-      <c r="C68" s="16">
-        <v>1</v>
-      </c>
-      <c r="D68" s="16">
-        <v>3</v>
-      </c>
-      <c r="E68" s="16" t="s">
+      <c r="C68" s="15">
+        <v>1</v>
+      </c>
+      <c r="D68" s="15">
+        <v>3</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H68" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="18" customFormat="1">
-      <c r="A69" s="16">
+      <c r="H68" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="17" customFormat="1">
+      <c r="A69" s="15">
         <v>1002120</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>1002107</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="15">
         <v>2</v>
       </c>
-      <c r="D69" s="16">
-        <v>5</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="16" t="s">
+      <c r="D69" s="15">
+        <v>5</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G69" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="18" customFormat="1">
-      <c r="A70" s="16">
+      <c r="G69" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="17" customFormat="1">
+      <c r="A70" s="15">
         <v>1002121</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>1002107</v>
       </c>
-      <c r="C70" s="16">
-        <v>3</v>
-      </c>
-      <c r="D70" s="16">
-        <v>5</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="16" t="s">
+      <c r="C70" s="15">
+        <v>3</v>
+      </c>
+      <c r="D70" s="15">
+        <v>5</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G70" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H70" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="18" customFormat="1">
-      <c r="A71" s="16">
+      <c r="G70" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="17" customFormat="1">
+      <c r="A71" s="15">
         <v>1002122</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>1002108</v>
       </c>
-      <c r="C71" s="16">
-        <v>1</v>
-      </c>
-      <c r="D71" s="16">
-        <v>3</v>
-      </c>
-      <c r="E71" s="16" t="s">
+      <c r="C71" s="15">
+        <v>1</v>
+      </c>
+      <c r="D71" s="15">
+        <v>3</v>
+      </c>
+      <c r="E71" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G71" s="17" t="s">
+      <c r="G71" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H71" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="18" customFormat="1">
-      <c r="A72" s="16">
+      <c r="H71" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="17" customFormat="1">
+      <c r="A72" s="15">
         <v>1002123</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="12">
         <v>1002108</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="15">
         <v>2</v>
       </c>
-      <c r="D72" s="16">
-        <v>5</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="16" t="s">
+      <c r="D72" s="15">
+        <v>5</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G72" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="18" customFormat="1">
-      <c r="A73" s="16">
+      <c r="G72" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="17" customFormat="1">
+      <c r="A73" s="15">
         <v>1002124</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>1002108</v>
       </c>
-      <c r="C73" s="16">
-        <v>3</v>
-      </c>
-      <c r="D73" s="16">
-        <v>5</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="16" t="s">
+      <c r="C73" s="15">
+        <v>3</v>
+      </c>
+      <c r="D73" s="15">
+        <v>5</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G73" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="18" customFormat="1">
-      <c r="A74" s="16">
+      <c r="G73" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="17" customFormat="1">
+      <c r="A74" s="15">
         <v>1002125</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="12">
         <v>1002109</v>
       </c>
-      <c r="C74" s="16">
-        <v>1</v>
-      </c>
-      <c r="D74" s="16">
-        <v>3</v>
-      </c>
-      <c r="E74" s="16" t="s">
+      <c r="C74" s="15">
+        <v>1</v>
+      </c>
+      <c r="D74" s="15">
+        <v>3</v>
+      </c>
+      <c r="E74" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H74" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="18" customFormat="1">
-      <c r="A75" s="16">
+      <c r="H74" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="17" customFormat="1">
+      <c r="A75" s="15">
         <v>1002126</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>1002109</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="15">
         <v>2</v>
       </c>
-      <c r="D75" s="16">
-        <v>5</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="16" t="s">
+      <c r="D75" s="15">
+        <v>5</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H75" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="18" customFormat="1">
-      <c r="A76" s="16">
+      <c r="G75" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="17" customFormat="1">
+      <c r="A76" s="15">
         <v>1002127</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="12">
         <v>1002109</v>
       </c>
-      <c r="C76" s="16">
-        <v>3</v>
-      </c>
-      <c r="D76" s="16">
-        <v>5</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="16" t="s">
+      <c r="C76" s="15">
+        <v>3</v>
+      </c>
+      <c r="D76" s="15">
+        <v>5</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G76" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="18" customFormat="1">
-      <c r="A77" s="16">
+      <c r="G76" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="17" customFormat="1">
+      <c r="A77" s="15">
         <v>1002128</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>1002110</v>
       </c>
-      <c r="C77" s="16">
-        <v>1</v>
-      </c>
-      <c r="D77" s="16">
-        <v>3</v>
-      </c>
-      <c r="E77" s="16" t="s">
+      <c r="C77" s="15">
+        <v>1</v>
+      </c>
+      <c r="D77" s="15">
+        <v>3</v>
+      </c>
+      <c r="E77" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="G77" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H77" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="18" customFormat="1">
-      <c r="A78" s="16">
+      <c r="H77" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="17" customFormat="1">
+      <c r="A78" s="15">
         <v>1002129</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="12">
         <v>1002110</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="15">
         <v>2</v>
       </c>
-      <c r="D78" s="16">
-        <v>5</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="16" t="s">
+      <c r="D78" s="15">
+        <v>5</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G78" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="18" customFormat="1">
-      <c r="A79" s="16">
+      <c r="G78" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="17" customFormat="1">
+      <c r="A79" s="15">
         <v>1002130</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="12">
         <v>1002110</v>
       </c>
-      <c r="C79" s="16">
-        <v>3</v>
-      </c>
-      <c r="D79" s="16">
-        <v>5</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="16" t="s">
+      <c r="C79" s="15">
+        <v>3</v>
+      </c>
+      <c r="D79" s="15">
+        <v>5</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G79" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="18" customFormat="1">
-      <c r="A80" s="16">
+      <c r="G79" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="17" customFormat="1">
+      <c r="A80" s="15">
         <v>1002131</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="12">
         <v>1002111</v>
       </c>
-      <c r="C80" s="16">
-        <v>1</v>
-      </c>
-      <c r="D80" s="16">
-        <v>3</v>
-      </c>
-      <c r="E80" s="16" t="s">
+      <c r="C80" s="15">
+        <v>1</v>
+      </c>
+      <c r="D80" s="15">
+        <v>3</v>
+      </c>
+      <c r="E80" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="F80" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="G80" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="18" customFormat="1">
-      <c r="A81" s="16">
+      <c r="H80" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="17" customFormat="1">
+      <c r="A81" s="15">
         <v>1002132</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="12">
         <v>1002111</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="15">
         <v>2</v>
       </c>
-      <c r="D81" s="16">
-        <v>5</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="16" t="s">
+      <c r="D81" s="15">
+        <v>5</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G81" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="18" customFormat="1">
-      <c r="A82" s="16">
+      <c r="G81" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="17" customFormat="1">
+      <c r="A82" s="15">
         <v>1002133</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="12">
         <v>1002111</v>
       </c>
-      <c r="C82" s="16">
-        <v>3</v>
-      </c>
-      <c r="D82" s="16">
-        <v>5</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="16" t="s">
+      <c r="C82" s="15">
+        <v>3</v>
+      </c>
+      <c r="D82" s="15">
+        <v>5</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="18" customFormat="1">
-      <c r="A83" s="16">
+      <c r="G82" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="17" customFormat="1">
+      <c r="A83" s="15">
         <v>1002134</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="12">
         <v>1002112</v>
       </c>
-      <c r="C83" s="16">
-        <v>1</v>
-      </c>
-      <c r="D83" s="16">
-        <v>3</v>
-      </c>
-      <c r="E83" s="16" t="s">
+      <c r="C83" s="15">
+        <v>1</v>
+      </c>
+      <c r="D83" s="15">
+        <v>3</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G83" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H83" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="18" customFormat="1">
-      <c r="A84" s="16">
+      <c r="H83" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="17" customFormat="1">
+      <c r="A84" s="15">
         <v>1002135</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="12">
         <v>1002112</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="15">
         <v>2</v>
       </c>
-      <c r="D84" s="16">
-        <v>5</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="16" t="s">
+      <c r="D84" s="15">
+        <v>5</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G84" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="18" customFormat="1">
-      <c r="A85" s="16">
+      <c r="G84" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="17" customFormat="1">
+      <c r="A85" s="15">
         <v>1002136</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="12">
         <v>1002112</v>
       </c>
-      <c r="C85" s="16">
-        <v>3</v>
-      </c>
-      <c r="D85" s="16">
-        <v>5</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="16" t="s">
+      <c r="C85" s="15">
+        <v>3</v>
+      </c>
+      <c r="D85" s="15">
+        <v>5</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G85" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="18" customFormat="1">
-      <c r="A86" s="16">
+      <c r="G85" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="17" customFormat="1">
+      <c r="A86" s="15">
         <v>1002137</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="12">
         <v>1002113</v>
       </c>
-      <c r="C86" s="16">
-        <v>1</v>
-      </c>
-      <c r="D86" s="16">
-        <v>3</v>
-      </c>
-      <c r="E86" s="16" t="s">
+      <c r="C86" s="15">
+        <v>1</v>
+      </c>
+      <c r="D86" s="15">
+        <v>3</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F86" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G86" s="17" t="s">
+      <c r="G86" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="18" customFormat="1">
-      <c r="A87" s="16">
+      <c r="H86" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="17" customFormat="1">
+      <c r="A87" s="15">
         <v>1002138</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="12">
         <v>1002113</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="15">
         <v>2</v>
       </c>
-      <c r="D87" s="16">
-        <v>5</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="16" t="s">
+      <c r="D87" s="15">
+        <v>5</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G87" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="18" customFormat="1">
-      <c r="A88" s="16">
+      <c r="G87" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="17" customFormat="1">
+      <c r="A88" s="15">
         <v>1002139</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="12">
         <v>1002113</v>
       </c>
-      <c r="C88" s="16">
-        <v>3</v>
-      </c>
-      <c r="D88" s="16">
-        <v>5</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="16" t="s">
+      <c r="C88" s="15">
+        <v>3</v>
+      </c>
+      <c r="D88" s="15">
+        <v>5</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G88" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="18" customFormat="1">
-      <c r="A89" s="16">
+      <c r="G88" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="17" customFormat="1">
+      <c r="A89" s="15">
         <v>1002140</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="12">
         <v>1002114</v>
       </c>
-      <c r="C89" s="16">
-        <v>1</v>
-      </c>
-      <c r="D89" s="16">
-        <v>3</v>
-      </c>
-      <c r="E89" s="16" t="s">
+      <c r="C89" s="15">
+        <v>1</v>
+      </c>
+      <c r="D89" s="15">
+        <v>3</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="16" t="s">
+      <c r="F89" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H89" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="18" customFormat="1">
-      <c r="A90" s="16">
+      <c r="H89" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="17" customFormat="1">
+      <c r="A90" s="15">
         <v>1002141</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="12">
         <v>1002114</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="15">
         <v>2</v>
       </c>
-      <c r="D90" s="16">
-        <v>5</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="16" t="s">
+      <c r="D90" s="15">
+        <v>5</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G90" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H90" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="18" customFormat="1">
-      <c r="A91" s="16">
+      <c r="G90" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="17" customFormat="1">
+      <c r="A91" s="15">
         <v>1002142</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="12">
         <v>1002114</v>
       </c>
-      <c r="C91" s="16">
-        <v>3</v>
-      </c>
-      <c r="D91" s="16">
-        <v>5</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="16" t="s">
+      <c r="C91" s="15">
+        <v>3</v>
+      </c>
+      <c r="D91" s="15">
+        <v>5</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G91" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="18" customFormat="1">
-      <c r="A92" s="16">
+      <c r="G91" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="17" customFormat="1">
+      <c r="A92" s="15">
         <v>1002143</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="12">
         <v>1002115</v>
       </c>
-      <c r="C92" s="16">
-        <v>1</v>
-      </c>
-      <c r="D92" s="16">
-        <v>3</v>
-      </c>
-      <c r="E92" s="16" t="s">
+      <c r="C92" s="15">
+        <v>1</v>
+      </c>
+      <c r="D92" s="15">
+        <v>3</v>
+      </c>
+      <c r="E92" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="F92" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G92" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H92" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="18" customFormat="1">
-      <c r="A93" s="16">
+      <c r="H92" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="17" customFormat="1">
+      <c r="A93" s="15">
         <v>1002144</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="12">
         <v>1002115</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="15">
         <v>2</v>
       </c>
-      <c r="D93" s="16">
-        <v>5</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="16" t="s">
+      <c r="D93" s="15">
+        <v>5</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G93" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H93" s="16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="18" customFormat="1">
-      <c r="A94" s="16">
+      <c r="G93" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="17" customFormat="1">
+      <c r="A94" s="15">
         <v>1002145</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="12">
         <v>1002115</v>
       </c>
-      <c r="C94" s="16">
-        <v>3</v>
-      </c>
-      <c r="D94" s="16">
-        <v>5</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="16" t="s">
+      <c r="C94" s="15">
+        <v>3</v>
+      </c>
+      <c r="D94" s="15">
+        <v>5</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G94" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" s="16">
+      <c r="G94" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="19">
+      <c r="A95" s="18">
         <v>1003101</v>
       </c>
       <c r="B95" s="4">
         <v>1003101</v>
       </c>
-      <c r="C95" s="19">
-        <v>1</v>
-      </c>
-      <c r="D95" s="19">
+      <c r="C95" s="18">
+        <v>1</v>
+      </c>
+      <c r="D95" s="18">
         <v>4</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="F95" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G95" s="20" t="s">
+      <c r="G95" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H95" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="19">
+      <c r="A96" s="18">
         <v>1003102</v>
       </c>
       <c r="B96" s="4">
         <v>1003101</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C96" s="18">
         <v>2</v>
       </c>
-      <c r="D96" s="19">
-        <v>5</v>
-      </c>
-      <c r="E96" s="19" t="s">
+      <c r="D96" s="18">
+        <v>5</v>
+      </c>
+      <c r="E96" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F96" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G96" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H96" s="19">
+      <c r="G96" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="19">
+      <c r="A97" s="18">
         <v>1003103</v>
       </c>
       <c r="B97" s="4">
         <v>1003101</v>
       </c>
-      <c r="C97" s="19">
-        <v>3</v>
-      </c>
-      <c r="D97" s="19">
-        <v>5</v>
-      </c>
-      <c r="E97" s="19" t="s">
+      <c r="C97" s="18">
+        <v>3</v>
+      </c>
+      <c r="D97" s="18">
+        <v>5</v>
+      </c>
+      <c r="E97" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F97" s="19" t="s">
+      <c r="F97" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G97" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="19">
+      <c r="G97" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="19">
+      <c r="A98" s="18">
         <v>1003104</v>
       </c>
       <c r="B98" s="4">
         <v>1003102</v>
       </c>
-      <c r="C98" s="19">
-        <v>1</v>
-      </c>
-      <c r="D98" s="19">
-        <v>3</v>
-      </c>
-      <c r="E98" s="19" t="s">
+      <c r="C98" s="18">
+        <v>1</v>
+      </c>
+      <c r="D98" s="18">
+        <v>3</v>
+      </c>
+      <c r="E98" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="19" t="s">
+      <c r="F98" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G98" s="20" t="s">
+      <c r="G98" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H98" s="19">
+      <c r="H98" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="19">
+      <c r="A99" s="18">
         <v>1003105</v>
       </c>
       <c r="B99" s="4">
         <v>1003102</v>
       </c>
-      <c r="C99" s="19">
+      <c r="C99" s="18">
         <v>2</v>
       </c>
-      <c r="D99" s="19">
-        <v>5</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="19" t="s">
+      <c r="D99" s="18">
+        <v>5</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G99" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H99" s="19">
+      <c r="G99" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="19">
+      <c r="A100" s="18">
         <v>1003106</v>
       </c>
       <c r="B100" s="4">
         <v>1003102</v>
       </c>
-      <c r="C100" s="19">
-        <v>3</v>
-      </c>
-      <c r="D100" s="19">
-        <v>5</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="19" t="s">
+      <c r="C100" s="18">
+        <v>3</v>
+      </c>
+      <c r="D100" s="18">
+        <v>5</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G100" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" s="19">
+      <c r="G100" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="19">
+      <c r="A101" s="18">
         <v>1003107</v>
       </c>
       <c r="B101" s="4">
         <v>1003103</v>
       </c>
-      <c r="C101" s="19">
-        <v>1</v>
-      </c>
-      <c r="D101" s="19">
-        <v>3</v>
-      </c>
-      <c r="E101" s="19" t="s">
+      <c r="C101" s="18">
+        <v>1</v>
+      </c>
+      <c r="D101" s="18">
+        <v>3</v>
+      </c>
+      <c r="E101" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G101" s="20" t="s">
+      <c r="G101" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H101" s="19">
+      <c r="H101" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="19">
+      <c r="A102" s="18">
         <v>1003108</v>
       </c>
       <c r="B102" s="4">
         <v>1003103</v>
       </c>
-      <c r="C102" s="19">
+      <c r="C102" s="18">
         <v>2</v>
       </c>
-      <c r="D102" s="19">
-        <v>5</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" s="19" t="s">
+      <c r="D102" s="18">
+        <v>5</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G102" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" s="19">
+      <c r="G102" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="19">
+      <c r="A103" s="18">
         <v>1003109</v>
       </c>
       <c r="B103" s="4">
         <v>1003103</v>
       </c>
-      <c r="C103" s="19">
-        <v>3</v>
-      </c>
-      <c r="D103" s="19">
-        <v>5</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="19" t="s">
+      <c r="C103" s="18">
+        <v>3</v>
+      </c>
+      <c r="D103" s="18">
+        <v>5</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G103" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" s="19">
+      <c r="G103" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="19">
+      <c r="A104" s="18">
         <v>1003110</v>
       </c>
       <c r="B104" s="4">
         <v>1003104</v>
       </c>
-      <c r="C104" s="19">
-        <v>1</v>
-      </c>
-      <c r="D104" s="19">
-        <v>3</v>
-      </c>
-      <c r="E104" s="19" t="s">
+      <c r="C104" s="18">
+        <v>1</v>
+      </c>
+      <c r="D104" s="18">
+        <v>3</v>
+      </c>
+      <c r="E104" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="19" t="s">
+      <c r="F104" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="20" t="s">
+      <c r="G104" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H104" s="19">
+      <c r="H104" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="19">
+      <c r="A105" s="18">
         <v>1003111</v>
       </c>
       <c r="B105" s="4">
         <v>1003104</v>
       </c>
-      <c r="C105" s="19">
+      <c r="C105" s="18">
         <v>2</v>
       </c>
-      <c r="D105" s="19">
-        <v>5</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" s="19" t="s">
+      <c r="D105" s="18">
+        <v>5</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G105" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" s="19">
+      <c r="G105" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="19">
+      <c r="A106" s="18">
         <v>1003112</v>
       </c>
       <c r="B106" s="4">
         <v>1003104</v>
       </c>
-      <c r="C106" s="19">
-        <v>3</v>
-      </c>
-      <c r="D106" s="19">
-        <v>5</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="19" t="s">
+      <c r="C106" s="18">
+        <v>3</v>
+      </c>
+      <c r="D106" s="18">
+        <v>5</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G106" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="19">
+      <c r="G106" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="19">
+      <c r="A107" s="18">
         <v>1003113</v>
       </c>
       <c r="B107" s="4">
         <v>1003105</v>
       </c>
-      <c r="C107" s="19">
-        <v>1</v>
-      </c>
-      <c r="D107" s="19">
-        <v>3</v>
-      </c>
-      <c r="E107" s="19" t="s">
+      <c r="C107" s="18">
+        <v>1</v>
+      </c>
+      <c r="D107" s="18">
+        <v>3</v>
+      </c>
+      <c r="E107" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="19" t="s">
+      <c r="F107" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G107" s="20" t="s">
+      <c r="G107" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H107" s="19">
+      <c r="H107" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="19">
+      <c r="A108" s="18">
         <v>1003114</v>
       </c>
       <c r="B108" s="4">
         <v>1003105</v>
       </c>
-      <c r="C108" s="19">
+      <c r="C108" s="18">
         <v>2</v>
       </c>
-      <c r="D108" s="19">
-        <v>5</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" s="19" t="s">
+      <c r="D108" s="18">
+        <v>5</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G108" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" s="19">
+      <c r="G108" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="19">
+      <c r="A109" s="18">
         <v>1003115</v>
       </c>
       <c r="B109" s="4">
         <v>1003105</v>
       </c>
-      <c r="C109" s="19">
-        <v>3</v>
-      </c>
-      <c r="D109" s="19">
-        <v>5</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="19" t="s">
+      <c r="C109" s="18">
+        <v>3</v>
+      </c>
+      <c r="D109" s="18">
+        <v>5</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G109" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H109" s="19">
+      <c r="G109" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="19">
+      <c r="A110" s="18">
         <v>1003116</v>
       </c>
       <c r="B110" s="4">
         <v>1003106</v>
       </c>
-      <c r="C110" s="19">
-        <v>1</v>
-      </c>
-      <c r="D110" s="19">
-        <v>3</v>
-      </c>
-      <c r="E110" s="19" t="s">
+      <c r="C110" s="18">
+        <v>1</v>
+      </c>
+      <c r="D110" s="18">
+        <v>3</v>
+      </c>
+      <c r="E110" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F110" s="19" t="s">
+      <c r="F110" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G110" s="20" t="s">
+      <c r="G110" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H110" s="19">
+      <c r="H110" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="19">
+      <c r="A111" s="18">
         <v>1003117</v>
       </c>
       <c r="B111" s="4">
         <v>1003106</v>
       </c>
-      <c r="C111" s="19">
+      <c r="C111" s="18">
         <v>2</v>
       </c>
-      <c r="D111" s="19">
-        <v>5</v>
-      </c>
-      <c r="E111" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="19" t="s">
+      <c r="D111" s="18">
+        <v>5</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G111" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H111" s="19">
+      <c r="G111" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="19">
+      <c r="A112" s="18">
         <v>1003118</v>
       </c>
       <c r="B112" s="4">
         <v>1003106</v>
       </c>
-      <c r="C112" s="19">
-        <v>3</v>
-      </c>
-      <c r="D112" s="19">
-        <v>5</v>
-      </c>
-      <c r="E112" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="19" t="s">
+      <c r="C112" s="18">
+        <v>3</v>
+      </c>
+      <c r="D112" s="18">
+        <v>5</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G112" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112" s="19">
+      <c r="G112" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="19">
+      <c r="A113" s="18">
         <v>1003119</v>
       </c>
       <c r="B113" s="4">
         <v>1003107</v>
       </c>
-      <c r="C113" s="19">
-        <v>1</v>
-      </c>
-      <c r="D113" s="19">
-        <v>3</v>
-      </c>
-      <c r="E113" s="19" t="s">
+      <c r="C113" s="18">
+        <v>1</v>
+      </c>
+      <c r="D113" s="18">
+        <v>3</v>
+      </c>
+      <c r="E113" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="19" t="s">
+      <c r="F113" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G113" s="20" t="s">
+      <c r="G113" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H113" s="19">
+      <c r="H113" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="19">
+      <c r="A114" s="18">
         <v>1003120</v>
       </c>
       <c r="B114" s="4">
         <v>1003107</v>
       </c>
-      <c r="C114" s="19">
+      <c r="C114" s="18">
         <v>2</v>
       </c>
-      <c r="D114" s="19">
-        <v>5</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" s="19" t="s">
+      <c r="D114" s="18">
+        <v>5</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G114" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114" s="19">
+      <c r="G114" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="19">
+      <c r="A115" s="18">
         <v>1003121</v>
       </c>
       <c r="B115" s="4">
         <v>1003107</v>
       </c>
-      <c r="C115" s="19">
-        <v>3</v>
-      </c>
-      <c r="D115" s="19">
-        <v>5</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" s="19" t="s">
+      <c r="C115" s="18">
+        <v>3</v>
+      </c>
+      <c r="D115" s="18">
+        <v>5</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G115" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H115" s="19">
+      <c r="G115" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="19">
+      <c r="A116" s="18">
         <v>1003122</v>
       </c>
       <c r="B116" s="4">
         <v>1003108</v>
       </c>
-      <c r="C116" s="19">
-        <v>1</v>
-      </c>
-      <c r="D116" s="19">
-        <v>3</v>
-      </c>
-      <c r="E116" s="19" t="s">
+      <c r="C116" s="18">
+        <v>1</v>
+      </c>
+      <c r="D116" s="18">
+        <v>3</v>
+      </c>
+      <c r="E116" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F116" s="19" t="s">
+      <c r="F116" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="20" t="s">
+      <c r="G116" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H116" s="19">
+      <c r="H116" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="19">
+      <c r="A117" s="18">
         <v>1003123</v>
       </c>
       <c r="B117" s="4">
         <v>1003108</v>
       </c>
-      <c r="C117" s="19">
+      <c r="C117" s="18">
         <v>2</v>
       </c>
-      <c r="D117" s="19">
-        <v>5</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" s="19" t="s">
+      <c r="D117" s="18">
+        <v>5</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G117" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H117" s="19">
+      <c r="G117" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="19">
+      <c r="A118" s="18">
         <v>1003124</v>
       </c>
       <c r="B118" s="4">
         <v>1003108</v>
       </c>
-      <c r="C118" s="19">
-        <v>3</v>
-      </c>
-      <c r="D118" s="19">
-        <v>5</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" s="19" t="s">
+      <c r="C118" s="18">
+        <v>3</v>
+      </c>
+      <c r="D118" s="18">
+        <v>5</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G118" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H118" s="19">
+      <c r="G118" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="19">
+      <c r="A119" s="18">
         <v>1003125</v>
       </c>
       <c r="B119" s="4">
         <v>1003109</v>
       </c>
-      <c r="C119" s="19">
-        <v>1</v>
-      </c>
-      <c r="D119" s="19">
-        <v>3</v>
-      </c>
-      <c r="E119" s="19" t="s">
+      <c r="C119" s="18">
+        <v>1</v>
+      </c>
+      <c r="D119" s="18">
+        <v>3</v>
+      </c>
+      <c r="E119" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="19" t="s">
+      <c r="F119" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="20" t="s">
+      <c r="G119" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H119" s="19">
+      <c r="H119" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="19">
+      <c r="A120" s="18">
         <v>1003126</v>
       </c>
       <c r="B120" s="4">
         <v>1003109</v>
       </c>
-      <c r="C120" s="19">
+      <c r="C120" s="18">
         <v>2</v>
       </c>
-      <c r="D120" s="19">
-        <v>5</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120" s="19" t="s">
+      <c r="D120" s="18">
+        <v>5</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G120" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" s="19">
+      <c r="G120" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="19">
+      <c r="A121" s="18">
         <v>1003127</v>
       </c>
       <c r="B121" s="4">
         <v>1003109</v>
       </c>
-      <c r="C121" s="19">
-        <v>3</v>
-      </c>
-      <c r="D121" s="19">
-        <v>5</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="19" t="s">
+      <c r="C121" s="18">
+        <v>3</v>
+      </c>
+      <c r="D121" s="18">
+        <v>5</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G121" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H121" s="19">
+      <c r="G121" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="19">
+      <c r="A122" s="18">
         <v>1003128</v>
       </c>
       <c r="B122" s="4">
         <v>1003110</v>
       </c>
-      <c r="C122" s="19">
-        <v>1</v>
-      </c>
-      <c r="D122" s="19">
-        <v>3</v>
-      </c>
-      <c r="E122" s="19" t="s">
+      <c r="C122" s="18">
+        <v>1</v>
+      </c>
+      <c r="D122" s="18">
+        <v>3</v>
+      </c>
+      <c r="E122" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F122" s="19" t="s">
+      <c r="F122" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G122" s="20" t="s">
+      <c r="G122" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H122" s="19">
+      <c r="H122" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="19">
+      <c r="A123" s="18">
         <v>1003129</v>
       </c>
       <c r="B123" s="4">
         <v>1003110</v>
       </c>
-      <c r="C123" s="19">
+      <c r="C123" s="18">
         <v>2</v>
       </c>
-      <c r="D123" s="19">
-        <v>5</v>
-      </c>
-      <c r="E123" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123" s="19" t="s">
+      <c r="D123" s="18">
+        <v>5</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G123" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H123" s="19">
+      <c r="G123" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="19">
+      <c r="A124" s="18">
         <v>1003130</v>
       </c>
       <c r="B124" s="4">
         <v>1003110</v>
       </c>
-      <c r="C124" s="19">
-        <v>3</v>
-      </c>
-      <c r="D124" s="19">
-        <v>5</v>
-      </c>
-      <c r="E124" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" s="19" t="s">
+      <c r="C124" s="18">
+        <v>3</v>
+      </c>
+      <c r="D124" s="18">
+        <v>5</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G124" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H124" s="19">
+      <c r="G124" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="19">
+      <c r="A125" s="18">
         <v>1003131</v>
       </c>
       <c r="B125" s="4">
         <v>1003111</v>
       </c>
-      <c r="C125" s="19">
-        <v>1</v>
-      </c>
-      <c r="D125" s="19">
-        <v>3</v>
-      </c>
-      <c r="E125" s="19" t="s">
+      <c r="C125" s="18">
+        <v>1</v>
+      </c>
+      <c r="D125" s="18">
+        <v>3</v>
+      </c>
+      <c r="E125" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F125" s="19" t="s">
+      <c r="F125" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G125" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H125" s="19">
+      <c r="H125" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="19">
+      <c r="A126" s="18">
         <v>1003132</v>
       </c>
       <c r="B126" s="4">
         <v>1003111</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="18">
         <v>2</v>
       </c>
-      <c r="D126" s="19">
-        <v>5</v>
-      </c>
-      <c r="E126" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="19" t="s">
+      <c r="D126" s="18">
+        <v>5</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G126" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" s="19">
+      <c r="G126" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="19">
+      <c r="A127" s="18">
         <v>1003133</v>
       </c>
       <c r="B127" s="4">
         <v>1003111</v>
       </c>
-      <c r="C127" s="19">
-        <v>3</v>
-      </c>
-      <c r="D127" s="19">
-        <v>5</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="19" t="s">
+      <c r="C127" s="18">
+        <v>3</v>
+      </c>
+      <c r="D127" s="18">
+        <v>5</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G127" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" s="19">
+      <c r="G127" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="19">
+      <c r="A128" s="18">
         <v>1003134</v>
       </c>
       <c r="B128" s="4">
         <v>1003112</v>
       </c>
-      <c r="C128" s="19">
-        <v>1</v>
-      </c>
-      <c r="D128" s="19">
-        <v>3</v>
-      </c>
-      <c r="E128" s="19" t="s">
+      <c r="C128" s="18">
+        <v>1</v>
+      </c>
+      <c r="D128" s="18">
+        <v>3</v>
+      </c>
+      <c r="E128" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F128" s="19" t="s">
+      <c r="F128" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G128" s="20" t="s">
+      <c r="G128" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H128" s="19">
+      <c r="H128" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="19">
+      <c r="A129" s="18">
         <v>1003135</v>
       </c>
       <c r="B129" s="4">
         <v>1003112</v>
       </c>
-      <c r="C129" s="19">
+      <c r="C129" s="18">
         <v>2</v>
       </c>
-      <c r="D129" s="19">
-        <v>5</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F129" s="19" t="s">
+      <c r="D129" s="18">
+        <v>5</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G129" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H129" s="19">
+      <c r="G129" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="19">
+      <c r="A130" s="18">
         <v>1003136</v>
       </c>
       <c r="B130" s="4">
         <v>1003112</v>
       </c>
-      <c r="C130" s="19">
-        <v>3</v>
-      </c>
-      <c r="D130" s="19">
-        <v>5</v>
-      </c>
-      <c r="E130" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" s="19" t="s">
+      <c r="C130" s="18">
+        <v>3</v>
+      </c>
+      <c r="D130" s="18">
+        <v>5</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G130" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H130" s="19">
+      <c r="G130" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="19">
+      <c r="A131" s="18">
         <v>1003137</v>
       </c>
       <c r="B131" s="4">
         <v>1003113</v>
       </c>
-      <c r="C131" s="19">
-        <v>1</v>
-      </c>
-      <c r="D131" s="19">
-        <v>3</v>
-      </c>
-      <c r="E131" s="19" t="s">
+      <c r="C131" s="18">
+        <v>1</v>
+      </c>
+      <c r="D131" s="18">
+        <v>3</v>
+      </c>
+      <c r="E131" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="19" t="s">
+      <c r="F131" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G131" s="20" t="s">
+      <c r="G131" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H131" s="19">
+      <c r="H131" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="19">
+      <c r="A132" s="18">
         <v>1003138</v>
       </c>
       <c r="B132" s="4">
         <v>1003113</v>
       </c>
-      <c r="C132" s="19">
+      <c r="C132" s="18">
         <v>2</v>
       </c>
-      <c r="D132" s="19">
-        <v>5</v>
-      </c>
-      <c r="E132" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" s="19" t="s">
+      <c r="D132" s="18">
+        <v>5</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G132" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H132" s="19">
+      <c r="G132" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="19">
+      <c r="A133" s="18">
         <v>1003139</v>
       </c>
       <c r="B133" s="4">
         <v>1003113</v>
       </c>
-      <c r="C133" s="19">
-        <v>3</v>
-      </c>
-      <c r="D133" s="19">
-        <v>5</v>
-      </c>
-      <c r="E133" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="19" t="s">
+      <c r="C133" s="18">
+        <v>3</v>
+      </c>
+      <c r="D133" s="18">
+        <v>5</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G133" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H133" s="19">
+      <c r="G133" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H133" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="19">
+      <c r="A134" s="18">
         <v>1003140</v>
       </c>
       <c r="B134" s="4">
         <v>1003114</v>
       </c>
-      <c r="C134" s="19">
-        <v>1</v>
-      </c>
-      <c r="D134" s="19">
-        <v>3</v>
-      </c>
-      <c r="E134" s="19" t="s">
+      <c r="C134" s="18">
+        <v>1</v>
+      </c>
+      <c r="D134" s="18">
+        <v>3</v>
+      </c>
+      <c r="E134" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F134" s="19" t="s">
+      <c r="F134" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G134" s="20" t="s">
+      <c r="G134" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H134" s="19">
+      <c r="H134" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="19">
+      <c r="A135" s="18">
         <v>1003141</v>
       </c>
       <c r="B135" s="4">
         <v>1003114</v>
       </c>
-      <c r="C135" s="19">
+      <c r="C135" s="18">
         <v>2</v>
       </c>
-      <c r="D135" s="19">
-        <v>5</v>
-      </c>
-      <c r="E135" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F135" s="19" t="s">
+      <c r="D135" s="18">
+        <v>5</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G135" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H135" s="19">
+      <c r="G135" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="19">
+      <c r="A136" s="18">
         <v>1003142</v>
       </c>
       <c r="B136" s="4">
         <v>1003114</v>
       </c>
-      <c r="C136" s="19">
-        <v>3</v>
-      </c>
-      <c r="D136" s="19">
-        <v>5</v>
-      </c>
-      <c r="E136" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F136" s="19" t="s">
+      <c r="C136" s="18">
+        <v>3</v>
+      </c>
+      <c r="D136" s="18">
+        <v>5</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G136" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H136" s="19">
+      <c r="G136" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="19">
+      <c r="A137" s="18">
         <v>1003143</v>
       </c>
       <c r="B137" s="4">
         <v>1003115</v>
       </c>
-      <c r="C137" s="19">
-        <v>1</v>
-      </c>
-      <c r="D137" s="19">
-        <v>3</v>
-      </c>
-      <c r="E137" s="19" t="s">
+      <c r="C137" s="18">
+        <v>1</v>
+      </c>
+      <c r="D137" s="18">
+        <v>3</v>
+      </c>
+      <c r="E137" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F137" s="19" t="s">
+      <c r="F137" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G137" s="20" t="s">
+      <c r="G137" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H137" s="19">
+      <c r="H137" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="19">
+      <c r="A138" s="18">
         <v>1003144</v>
       </c>
       <c r="B138" s="4">
         <v>1003115</v>
       </c>
-      <c r="C138" s="19">
+      <c r="C138" s="18">
         <v>2</v>
       </c>
-      <c r="D138" s="19">
-        <v>5</v>
-      </c>
-      <c r="E138" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" s="19" t="s">
+      <c r="D138" s="18">
+        <v>5</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G138" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H138" s="19">
+      <c r="G138" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H138" s="18">
         <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="19">
+      <c r="A139" s="18">
         <v>1003145</v>
       </c>
       <c r="B139" s="4">
         <v>1003115</v>
       </c>
-      <c r="C139" s="19">
-        <v>3</v>
-      </c>
-      <c r="D139" s="19">
-        <v>5</v>
-      </c>
-      <c r="E139" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F139" s="19" t="s">
+      <c r="C139" s="18">
+        <v>3</v>
+      </c>
+      <c r="D139" s="18">
+        <v>5</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G139" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H139" s="19">
+      <c r="G139" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H139" s="18">
         <v>100</v>
       </c>
     </row>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E5AFAC-EEEF-420B-9016-0147A76DE6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BC0D3F-AF32-45BF-8B19-69DE81D89D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41415" yWindow="1395" windowWidth="34815" windowHeight="16545" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="41010" yWindow="735" windowWidth="36630" windowHeight="18660" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="123">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지역 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zone_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>속한 월드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>존 난이도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>in_world_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zone_img_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아스텔지어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>use_stamina</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>웨이브 진행 스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지 명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -493,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100001, 100003, 100004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,6 +506,42 @@
   </si>
   <si>
     <t>100001, 100101, 100101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 그룹ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 그룹 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 그룹 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 그룹ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존 그룹 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,42 +912,78 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
+            <v>TARGET_RULE_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="1">
           <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
+            <v>SECOND_TARGET_RULE_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
+      <sheetData sheetId="8">
         <row r="1">
           <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
+            <v>EFFECT_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
@@ -995,7 +1043,13 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31">
         <row r="1">
@@ -1386,7 +1440,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1659,53 +1713,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F748694-46FB-462D-ABEF-B5CE7CAEE9F7}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>122</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1716,62 +1783,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -1783,318 +1854,351 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>10011</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>10011</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
+      <c r="F5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I5,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>38</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J5,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>10012</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>10012</v>
       </c>
       <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I6,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>38</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J6,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>10013</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>10013</v>
       </c>
       <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I7,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>38</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J7,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="21">
         <v>10021</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C8" s="21">
         <v>1</v>
       </c>
       <c r="D8" s="21">
+        <v>10021</v>
+      </c>
+      <c r="E8" s="21">
         <v>2</v>
       </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>41</v>
+      <c r="F8" s="21">
+        <v>1</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="21">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I8,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>38</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="21">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J8,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="21">
         <v>10022</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C9" s="21">
         <v>1</v>
       </c>
       <c r="D9" s="21">
-        <v>2</v>
+        <v>10022</v>
       </c>
       <c r="E9" s="21">
         <v>2</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>41</v>
+      <c r="F9" s="21">
+        <v>2</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="21">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I9,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>38</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="21">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J9,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="21">
         <v>10023</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C10" s="21">
         <v>1</v>
       </c>
       <c r="D10" s="21">
+        <v>10023</v>
+      </c>
+      <c r="E10" s="21">
         <v>2</v>
       </c>
-      <c r="E10" s="21">
-        <v>3</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>41</v>
+      <c r="F10" s="21">
+        <v>3</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="21">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I10,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>38</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="21">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J10,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10031</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>3</v>
+        <v>10031</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I11,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>38</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J11,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>10032</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>3</v>
+        <v>10032</v>
       </c>
       <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I12,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>38</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J12,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>10033</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4">
-        <v>3</v>
+        <v>10033</v>
       </c>
       <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
+      <c r="F13" s="4">
+        <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(I13,'!참조_ENUM'!$G$3:$G$5,0))</f>
+        <v>38</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4">
+        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J13,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>93</v>
+      <c r="J13" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2103,12 +2207,12 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CAA664CF-BE14-47F9-AF38-530C2A5F3927}">
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I5:I13</xm:sqref>
+          <xm:sqref>J5:J13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2118,69 +2222,69 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2189,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -2212,1614 +2316,1755 @@
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>82</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>1001101</v>
       </c>
       <c r="B5" s="4">
         <v>10011</v>
       </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" s="4">
+        <v>1001101</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>12</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
       <c r="H5" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
+        <v>100</v>
+      </c>
+      <c r="J5" s="4">
         <v>10001001</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>11001001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>12001001</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>1001102</v>
       </c>
       <c r="B6" s="4">
         <v>10011</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="4">
+        <v>1001102</v>
+      </c>
+      <c r="D6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="E6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>12</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
       <c r="H6" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
+        <v>100</v>
+      </c>
+      <c r="J6" s="4">
         <v>10001002</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>11001002</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>12001002</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>1001103</v>
       </c>
       <c r="B7" s="4">
         <v>10011</v>
       </c>
-      <c r="C7" s="10">
-        <v>3</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" s="4">
+        <v>1001103</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>12</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
       <c r="H7" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
+        <v>100</v>
+      </c>
+      <c r="J7" s="4">
         <v>10001003</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>11001003</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>12001003</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>1001104</v>
       </c>
       <c r="B8" s="4">
         <v>10011</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="4">
+        <v>1001104</v>
+      </c>
+      <c r="D8" s="10">
         <v>4</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="E8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>12</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
       <c r="H8" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
+        <v>100</v>
+      </c>
+      <c r="J8" s="4">
         <v>10001004</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>11001004</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>12001004</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1001105</v>
       </c>
       <c r="B9" s="4">
         <v>10011</v>
       </c>
-      <c r="C9" s="10">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="4">
+        <v>1001105</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>12</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
       <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
         <v>200</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>10001005</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>11001005</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>12001005</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>1001106</v>
       </c>
       <c r="B10" s="4">
         <v>10011</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="4">
+        <v>1001106</v>
+      </c>
+      <c r="D10" s="10">
         <v>6</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="E10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="4">
         <v>10</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>12</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="4">
-        <v>100</v>
-      </c>
       <c r="I10" s="4">
+        <v>100</v>
+      </c>
+      <c r="J10" s="4">
         <v>10001006</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>11001006</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>12001006</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>1001107</v>
       </c>
       <c r="B11" s="4">
         <v>10011</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="4">
+        <v>1001107</v>
+      </c>
+      <c r="D11" s="10">
         <v>7</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="E11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>12</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
       <c r="H11" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4">
         <v>10001007</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>11001007</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>12001007</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>1001108</v>
       </c>
       <c r="B12" s="4">
         <v>10011</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="4">
+        <v>1001108</v>
+      </c>
+      <c r="D12" s="10">
         <v>8</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="E12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4">
         <v>10</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>12</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
       <c r="H12" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
+        <v>100</v>
+      </c>
+      <c r="J12" s="4">
         <v>10001008</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>11001008</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>12001008</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>1001109</v>
       </c>
       <c r="B13" s="4">
         <v>10011</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="4">
+        <v>1001109</v>
+      </c>
+      <c r="D13" s="10">
         <v>9</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="E13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4">
         <v>10</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>12</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
       <c r="H13" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4">
         <v>10001009</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>11001009</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>12001009</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>1001110</v>
       </c>
       <c r="B14" s="4">
         <v>10011</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="4">
+        <v>1001110</v>
+      </c>
+      <c r="D14" s="10">
         <v>10</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="E14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>12</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
       <c r="H14" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
+        <v>100</v>
+      </c>
+      <c r="J14" s="4">
         <v>10001010</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>11001010</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>12001010</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>1001111</v>
       </c>
       <c r="B15" s="4">
         <v>10011</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="4">
+        <v>1001111</v>
+      </c>
+      <c r="D15" s="10">
         <v>11</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="E15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4">
         <v>10</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>12</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>2</v>
       </c>
-      <c r="H15" s="4">
-        <v>100</v>
-      </c>
       <c r="I15" s="4">
+        <v>100</v>
+      </c>
+      <c r="J15" s="4">
         <v>10001011</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>11001011</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>12001011</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>1001112</v>
       </c>
       <c r="B16" s="4">
         <v>10011</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="4">
+        <v>1001112</v>
+      </c>
+      <c r="D16" s="10">
         <v>12</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="E16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="4">
         <v>10</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>12</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
       <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
         <v>200</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>10001012</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>11001012</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>12001012</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="4">
         <v>1001113</v>
       </c>
       <c r="B17" s="4">
         <v>10011</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="4">
+        <v>1001113</v>
+      </c>
+      <c r="D17" s="10">
         <v>13</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="E17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="4">
         <v>10</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>12</v>
       </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
       <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
         <v>200</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>10001013</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>11001013</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>12001013</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="4">
         <v>1001114</v>
       </c>
       <c r="B18" s="4">
         <v>10011</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="4">
+        <v>1001114</v>
+      </c>
+      <c r="D18" s="10">
         <v>14</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="E18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4">
         <v>10</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>12</v>
       </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
       <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
         <v>200</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>10001014</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>11001014</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>12001014</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="4">
         <v>1001115</v>
       </c>
       <c r="B19" s="4">
         <v>10011</v>
       </c>
-      <c r="C19" s="10">
-        <v>15</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="C19" s="4">
+        <v>1001115</v>
+      </c>
+      <c r="D19" s="10">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="4">
         <v>10</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>12</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>200</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>10001015</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>11001015</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>12001015</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="14" customFormat="1">
+    <row r="20" spans="1:12" s="14" customFormat="1">
       <c r="A20" s="12">
         <v>1002101</v>
       </c>
       <c r="B20" s="12">
         <v>10021</v>
       </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="C20" s="12">
+        <v>1002101</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="12">
         <v>10</v>
       </c>
-      <c r="F20" s="12">
+      <c r="G20" s="12">
         <v>12</v>
       </c>
-      <c r="G20" s="12">
-        <v>1</v>
-      </c>
       <c r="H20" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I20" s="12">
+        <v>100</v>
+      </c>
+      <c r="J20" s="12">
         <v>10001001</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="12">
         <v>11001001</v>
       </c>
-      <c r="K20" s="12">
+      <c r="L20" s="12">
         <v>12001001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="14" customFormat="1">
+    <row r="21" spans="1:12" s="14" customFormat="1">
       <c r="A21" s="12">
         <v>1002102</v>
       </c>
       <c r="B21" s="12">
         <v>10021</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
+        <v>1002102</v>
+      </c>
+      <c r="D21" s="13">
         <v>2</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="E21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="12">
         <v>10</v>
       </c>
-      <c r="F21" s="12">
+      <c r="G21" s="12">
         <v>12</v>
       </c>
-      <c r="G21" s="12">
-        <v>1</v>
-      </c>
       <c r="H21" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I21" s="12">
+        <v>100</v>
+      </c>
+      <c r="J21" s="12">
         <v>10001002</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <v>11001002</v>
       </c>
-      <c r="K21" s="12">
+      <c r="L21" s="12">
         <v>12001002</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="14" customFormat="1">
+    <row r="22" spans="1:12" s="14" customFormat="1">
       <c r="A22" s="12">
         <v>1002103</v>
       </c>
       <c r="B22" s="12">
         <v>10021</v>
       </c>
-      <c r="C22" s="13">
-        <v>3</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="C22" s="12">
+        <v>1002103</v>
+      </c>
+      <c r="D22" s="13">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="12">
         <v>10</v>
       </c>
-      <c r="F22" s="12">
+      <c r="G22" s="12">
         <v>12</v>
       </c>
-      <c r="G22" s="12">
-        <v>1</v>
-      </c>
       <c r="H22" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I22" s="12">
+        <v>100</v>
+      </c>
+      <c r="J22" s="12">
         <v>10001003</v>
       </c>
-      <c r="J22" s="12">
+      <c r="K22" s="12">
         <v>11001003</v>
       </c>
-      <c r="K22" s="12">
+      <c r="L22" s="12">
         <v>12001003</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="14" customFormat="1">
+    <row r="23" spans="1:12" s="14" customFormat="1">
       <c r="A23" s="12">
         <v>1002104</v>
       </c>
       <c r="B23" s="12">
         <v>10021</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
+        <v>1002104</v>
+      </c>
+      <c r="D23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="E23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="12">
         <v>10</v>
       </c>
-      <c r="F23" s="12">
+      <c r="G23" s="12">
         <v>12</v>
       </c>
-      <c r="G23" s="12">
-        <v>1</v>
-      </c>
       <c r="H23" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I23" s="12">
+        <v>100</v>
+      </c>
+      <c r="J23" s="12">
         <v>10001004</v>
       </c>
-      <c r="J23" s="12">
+      <c r="K23" s="12">
         <v>11001004</v>
       </c>
-      <c r="K23" s="12">
+      <c r="L23" s="12">
         <v>12001004</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="14" customFormat="1">
+    <row r="24" spans="1:12" s="14" customFormat="1">
       <c r="A24" s="12">
         <v>1002105</v>
       </c>
       <c r="B24" s="12">
         <v>10021</v>
       </c>
-      <c r="C24" s="13">
-        <v>5</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="C24" s="12">
+        <v>1002105</v>
+      </c>
+      <c r="D24" s="13">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="12">
         <v>10</v>
       </c>
-      <c r="F24" s="12">
+      <c r="G24" s="12">
         <v>12</v>
       </c>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
       <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
         <v>200</v>
       </c>
-      <c r="I24" s="12">
+      <c r="J24" s="12">
         <v>10001005</v>
       </c>
-      <c r="J24" s="12">
+      <c r="K24" s="12">
         <v>11001005</v>
       </c>
-      <c r="K24" s="12">
+      <c r="L24" s="12">
         <v>12001005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="14" customFormat="1">
+    <row r="25" spans="1:12" s="14" customFormat="1">
       <c r="A25" s="12">
         <v>1002106</v>
       </c>
       <c r="B25" s="12">
         <v>10021</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
+        <v>1002106</v>
+      </c>
+      <c r="D25" s="13">
         <v>6</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="E25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="12">
         <v>10</v>
       </c>
-      <c r="F25" s="12">
+      <c r="G25" s="12">
         <v>12</v>
       </c>
-      <c r="G25" s="12">
+      <c r="H25" s="12">
         <v>2</v>
       </c>
-      <c r="H25" s="12">
-        <v>100</v>
-      </c>
       <c r="I25" s="12">
+        <v>100</v>
+      </c>
+      <c r="J25" s="12">
         <v>10001006</v>
       </c>
-      <c r="J25" s="12">
+      <c r="K25" s="12">
         <v>11001006</v>
       </c>
-      <c r="K25" s="12">
+      <c r="L25" s="12">
         <v>12001006</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="14" customFormat="1">
+    <row r="26" spans="1:12" s="14" customFormat="1">
       <c r="A26" s="12">
         <v>1002107</v>
       </c>
       <c r="B26" s="12">
         <v>10021</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
+        <v>1002107</v>
+      </c>
+      <c r="D26" s="13">
         <v>7</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="E26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="12">
         <v>10</v>
       </c>
-      <c r="F26" s="12">
+      <c r="G26" s="12">
         <v>12</v>
       </c>
-      <c r="G26" s="12">
-        <v>1</v>
-      </c>
       <c r="H26" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I26" s="12">
+        <v>100</v>
+      </c>
+      <c r="J26" s="12">
         <v>10001007</v>
       </c>
-      <c r="J26" s="12">
+      <c r="K26" s="12">
         <v>11001007</v>
       </c>
-      <c r="K26" s="12">
+      <c r="L26" s="12">
         <v>12001007</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="14" customFormat="1">
+    <row r="27" spans="1:12" s="14" customFormat="1">
       <c r="A27" s="12">
         <v>1002108</v>
       </c>
       <c r="B27" s="12">
         <v>10021</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
+        <v>1002108</v>
+      </c>
+      <c r="D27" s="13">
         <v>8</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="E27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="12">
         <v>10</v>
       </c>
-      <c r="F27" s="12">
+      <c r="G27" s="12">
         <v>12</v>
       </c>
-      <c r="G27" s="12">
-        <v>1</v>
-      </c>
       <c r="H27" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I27" s="12">
+        <v>100</v>
+      </c>
+      <c r="J27" s="12">
         <v>10001008</v>
       </c>
-      <c r="J27" s="12">
+      <c r="K27" s="12">
         <v>11001008</v>
       </c>
-      <c r="K27" s="12">
+      <c r="L27" s="12">
         <v>12001008</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="14" customFormat="1">
+    <row r="28" spans="1:12" s="14" customFormat="1">
       <c r="A28" s="12">
         <v>1002109</v>
       </c>
       <c r="B28" s="12">
         <v>10021</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
+        <v>1002109</v>
+      </c>
+      <c r="D28" s="13">
         <v>9</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="E28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="12">
         <v>10</v>
       </c>
-      <c r="F28" s="12">
+      <c r="G28" s="12">
         <v>12</v>
       </c>
-      <c r="G28" s="12">
-        <v>1</v>
-      </c>
       <c r="H28" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I28" s="12">
+        <v>100</v>
+      </c>
+      <c r="J28" s="12">
         <v>10001009</v>
       </c>
-      <c r="J28" s="12">
+      <c r="K28" s="12">
         <v>11001009</v>
       </c>
-      <c r="K28" s="12">
+      <c r="L28" s="12">
         <v>12001009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="14" customFormat="1">
+    <row r="29" spans="1:12" s="14" customFormat="1">
       <c r="A29" s="12">
         <v>1002110</v>
       </c>
       <c r="B29" s="12">
         <v>10021</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
+        <v>1002110</v>
+      </c>
+      <c r="D29" s="13">
         <v>10</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="E29" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="12">
         <v>10</v>
       </c>
-      <c r="F29" s="12">
+      <c r="G29" s="12">
         <v>12</v>
       </c>
-      <c r="G29" s="12">
-        <v>1</v>
-      </c>
       <c r="H29" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I29" s="12">
+        <v>100</v>
+      </c>
+      <c r="J29" s="12">
         <v>10001010</v>
       </c>
-      <c r="J29" s="12">
+      <c r="K29" s="12">
         <v>11001010</v>
       </c>
-      <c r="K29" s="12">
+      <c r="L29" s="12">
         <v>12001010</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="14" customFormat="1">
+    <row r="30" spans="1:12" s="14" customFormat="1">
       <c r="A30" s="12">
         <v>1002111</v>
       </c>
       <c r="B30" s="12">
         <v>10021</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
+        <v>1002111</v>
+      </c>
+      <c r="D30" s="13">
         <v>11</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="E30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="12">
         <v>10</v>
       </c>
-      <c r="F30" s="12">
+      <c r="G30" s="12">
         <v>12</v>
       </c>
-      <c r="G30" s="12">
+      <c r="H30" s="12">
         <v>2</v>
       </c>
-      <c r="H30" s="12">
-        <v>100</v>
-      </c>
       <c r="I30" s="12">
+        <v>100</v>
+      </c>
+      <c r="J30" s="12">
         <v>10001011</v>
       </c>
-      <c r="J30" s="12">
+      <c r="K30" s="12">
         <v>11001011</v>
       </c>
-      <c r="K30" s="12">
+      <c r="L30" s="12">
         <v>12001011</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="14" customFormat="1">
+    <row r="31" spans="1:12" s="14" customFormat="1">
       <c r="A31" s="12">
         <v>1002112</v>
       </c>
       <c r="B31" s="12">
         <v>10021</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
+        <v>1002112</v>
+      </c>
+      <c r="D31" s="13">
         <v>12</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="E31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="12">
         <v>10</v>
       </c>
-      <c r="F31" s="12">
+      <c r="G31" s="12">
         <v>12</v>
       </c>
-      <c r="G31" s="12">
-        <v>1</v>
-      </c>
       <c r="H31" s="12">
+        <v>1</v>
+      </c>
+      <c r="I31" s="12">
         <v>200</v>
       </c>
-      <c r="I31" s="12">
+      <c r="J31" s="12">
         <v>10001012</v>
       </c>
-      <c r="J31" s="12">
+      <c r="K31" s="12">
         <v>11001012</v>
       </c>
-      <c r="K31" s="12">
+      <c r="L31" s="12">
         <v>12001012</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="14" customFormat="1">
+    <row r="32" spans="1:12" s="14" customFormat="1">
       <c r="A32" s="12">
         <v>1002113</v>
       </c>
       <c r="B32" s="12">
         <v>10021</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
+        <v>1002113</v>
+      </c>
+      <c r="D32" s="13">
         <v>13</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="E32" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="12">
         <v>10</v>
       </c>
-      <c r="F32" s="12">
+      <c r="G32" s="12">
         <v>12</v>
       </c>
-      <c r="G32" s="12">
-        <v>1</v>
-      </c>
       <c r="H32" s="12">
+        <v>1</v>
+      </c>
+      <c r="I32" s="12">
         <v>200</v>
       </c>
-      <c r="I32" s="12">
+      <c r="J32" s="12">
         <v>10001013</v>
       </c>
-      <c r="J32" s="12">
+      <c r="K32" s="12">
         <v>11001013</v>
       </c>
-      <c r="K32" s="12">
+      <c r="L32" s="12">
         <v>12001013</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="14" customFormat="1">
+    <row r="33" spans="1:12" s="14" customFormat="1">
       <c r="A33" s="12">
         <v>1002114</v>
       </c>
       <c r="B33" s="12">
         <v>10021</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
+        <v>1002114</v>
+      </c>
+      <c r="D33" s="13">
         <v>14</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="E33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="12">
         <v>10</v>
       </c>
-      <c r="F33" s="12">
+      <c r="G33" s="12">
         <v>12</v>
       </c>
-      <c r="G33" s="12">
-        <v>1</v>
-      </c>
       <c r="H33" s="12">
+        <v>1</v>
+      </c>
+      <c r="I33" s="12">
         <v>200</v>
       </c>
-      <c r="I33" s="12">
+      <c r="J33" s="12">
         <v>10001014</v>
       </c>
-      <c r="J33" s="12">
+      <c r="K33" s="12">
         <v>11001014</v>
       </c>
-      <c r="K33" s="12">
+      <c r="L33" s="12">
         <v>12001014</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="14" customFormat="1">
+    <row r="34" spans="1:12" s="14" customFormat="1">
       <c r="A34" s="12">
         <v>1002115</v>
       </c>
       <c r="B34" s="12">
         <v>10021</v>
       </c>
-      <c r="C34" s="13">
-        <v>15</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="C34" s="12">
+        <v>1002115</v>
+      </c>
+      <c r="D34" s="13">
+        <v>15</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="12">
         <v>10</v>
       </c>
-      <c r="F34" s="12">
+      <c r="G34" s="12">
         <v>12</v>
       </c>
-      <c r="G34" s="12">
+      <c r="H34" s="12">
         <v>2</v>
       </c>
-      <c r="H34" s="12">
+      <c r="I34" s="12">
         <v>200</v>
       </c>
-      <c r="I34" s="12">
+      <c r="J34" s="12">
         <v>10001015</v>
       </c>
-      <c r="J34" s="12">
+      <c r="K34" s="12">
         <v>11001015</v>
       </c>
-      <c r="K34" s="12">
+      <c r="L34" s="12">
         <v>12001015</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>1003101</v>
       </c>
       <c r="B35" s="4">
         <v>10031</v>
       </c>
-      <c r="C35" s="10">
-        <v>1</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="C35" s="4">
+        <v>1003101</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="4">
         <v>10</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>12</v>
       </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
       <c r="H35" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I35" s="4">
+        <v>100</v>
+      </c>
+      <c r="J35" s="4">
         <v>10001001</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>11001001</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>12001001</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>1003102</v>
       </c>
       <c r="B36" s="4">
         <v>10031</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="4">
+        <v>1003102</v>
+      </c>
+      <c r="D36" s="10">
         <v>2</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="E36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="4">
         <v>10</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>12</v>
       </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
       <c r="H36" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I36" s="4">
+        <v>100</v>
+      </c>
+      <c r="J36" s="4">
         <v>10001002</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>11001002</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <v>12001002</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>1003103</v>
       </c>
       <c r="B37" s="4">
         <v>10031</v>
       </c>
-      <c r="C37" s="10">
-        <v>3</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="C37" s="4">
+        <v>1003103</v>
+      </c>
+      <c r="D37" s="10">
+        <v>3</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="4">
         <v>10</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>12</v>
       </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
       <c r="H37" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4">
+        <v>100</v>
+      </c>
+      <c r="J37" s="4">
         <v>10001003</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>11001003</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>12001003</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>1003104</v>
       </c>
       <c r="B38" s="4">
         <v>10031</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="4">
+        <v>1003104</v>
+      </c>
+      <c r="D38" s="10">
         <v>4</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="E38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="4">
         <v>10</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>12</v>
       </c>
-      <c r="G38" s="4">
-        <v>1</v>
-      </c>
       <c r="H38" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4">
+        <v>100</v>
+      </c>
+      <c r="J38" s="4">
         <v>10001004</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>11001004</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>12001004</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>1003105</v>
       </c>
       <c r="B39" s="4">
         <v>10031</v>
       </c>
-      <c r="C39" s="10">
-        <v>5</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="C39" s="4">
+        <v>1003105</v>
+      </c>
+      <c r="D39" s="10">
+        <v>5</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="4">
         <v>10</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>12</v>
       </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
       <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
         <v>200</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>10001005</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>11001005</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>12001005</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>1003106</v>
       </c>
       <c r="B40" s="4">
         <v>10031</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="4">
+        <v>1003106</v>
+      </c>
+      <c r="D40" s="10">
         <v>6</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="4">
+      <c r="E40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="4">
         <v>10</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>12</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>2</v>
       </c>
-      <c r="H40" s="4">
-        <v>100</v>
-      </c>
       <c r="I40" s="4">
+        <v>100</v>
+      </c>
+      <c r="J40" s="4">
         <v>10001006</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>11001006</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>12001006</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>1003107</v>
       </c>
       <c r="B41" s="4">
         <v>10031</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="4">
+        <v>1003107</v>
+      </c>
+      <c r="D41" s="10">
         <v>7</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="E41" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="4">
         <v>10</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>12</v>
       </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
       <c r="H41" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4">
+        <v>100</v>
+      </c>
+      <c r="J41" s="4">
         <v>10001007</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>11001007</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>12001007</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <v>1003108</v>
       </c>
       <c r="B42" s="4">
         <v>10031</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="4">
+        <v>1003108</v>
+      </c>
+      <c r="D42" s="10">
         <v>8</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="E42" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="4">
         <v>10</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>12</v>
       </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
       <c r="H42" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4">
+        <v>100</v>
+      </c>
+      <c r="J42" s="4">
         <v>10001008</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>11001008</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>12001008</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>1003109</v>
       </c>
       <c r="B43" s="4">
         <v>10031</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="4">
+        <v>1003109</v>
+      </c>
+      <c r="D43" s="10">
         <v>9</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="E43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="4">
         <v>10</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>12</v>
       </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
       <c r="H43" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4">
+        <v>100</v>
+      </c>
+      <c r="J43" s="4">
         <v>10001009</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>11001009</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>12001009</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44" s="4">
         <v>1003110</v>
       </c>
       <c r="B44" s="4">
         <v>10031</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="4">
+        <v>1003110</v>
+      </c>
+      <c r="D44" s="10">
         <v>10</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="E44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="4">
         <v>10</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>12</v>
       </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
       <c r="H44" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4">
+        <v>100</v>
+      </c>
+      <c r="J44" s="4">
         <v>10001010</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>11001010</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>12001010</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>1003111</v>
       </c>
       <c r="B45" s="4">
         <v>10031</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="4">
+        <v>1003111</v>
+      </c>
+      <c r="D45" s="10">
         <v>11</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="E45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="4">
         <v>10</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>12</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>2</v>
       </c>
-      <c r="H45" s="4">
-        <v>100</v>
-      </c>
       <c r="I45" s="4">
+        <v>100</v>
+      </c>
+      <c r="J45" s="4">
         <v>10001011</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>11001011</v>
       </c>
-      <c r="K45" s="4">
+      <c r="L45" s="4">
         <v>12001011</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>1003112</v>
       </c>
       <c r="B46" s="4">
         <v>10031</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="4">
+        <v>1003112</v>
+      </c>
+      <c r="D46" s="10">
         <v>12</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="E46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="4">
         <v>10</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>12</v>
       </c>
-      <c r="G46" s="4">
-        <v>1</v>
-      </c>
       <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
         <v>200</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>10001012</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>11001012</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>12001012</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>1003113</v>
       </c>
       <c r="B47" s="4">
         <v>10031</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="4">
+        <v>1003113</v>
+      </c>
+      <c r="D47" s="10">
         <v>13</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="E47" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="4">
         <v>10</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>12</v>
       </c>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
       <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
         <v>200</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>10001013</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>11001013</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>12001013</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>1003114</v>
       </c>
       <c r="B48" s="4">
         <v>10031</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="4">
+        <v>1003114</v>
+      </c>
+      <c r="D48" s="10">
         <v>14</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="E48" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="4">
         <v>10</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>12</v>
       </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
       <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
         <v>200</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>10001014</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>11001014</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>12001014</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <v>1003115</v>
       </c>
       <c r="B49" s="4">
         <v>10031</v>
       </c>
-      <c r="C49" s="10">
-        <v>15</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="C49" s="4">
+        <v>1003115</v>
+      </c>
+      <c r="D49" s="10">
+        <v>15</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="4">
         <v>10</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>12</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>2</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>200</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>10001015</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>11001015</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>12001015</v>
       </c>
     </row>
@@ -3831,19 +4076,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="7" bestFit="1" customWidth="1"/>
@@ -3860,10 +4105,10 @@
     </row>
     <row r="2" spans="1:8" ht="33">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -3875,10 +4120,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -3886,7 +4131,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3912,10 +4157,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -3927,10 +4172,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -3950,13 +4195,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H5" s="18">
         <v>100</v>
@@ -3976,13 +4221,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H6" s="18">
         <v>100</v>
@@ -4002,13 +4247,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="18">
         <v>100</v>
@@ -4028,13 +4273,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="18">
         <v>100</v>
@@ -4054,13 +4299,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="18">
         <v>100</v>
@@ -4083,10 +4328,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="18">
         <v>100</v>
@@ -4109,10 +4354,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="18">
         <v>100</v>
@@ -4135,10 +4380,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="18">
         <v>100</v>
@@ -4161,10 +4406,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="18">
         <v>100</v>
@@ -4184,13 +4429,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H14" s="18">
         <v>100</v>
@@ -4210,13 +4455,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H15" s="18">
         <v>100</v>
@@ -4236,13 +4481,13 @@
         <v>5</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H16" s="18">
         <v>100</v>
@@ -4262,13 +4507,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H17" s="18">
         <v>100</v>
@@ -4288,13 +4533,13 @@
         <v>5</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H18" s="18">
         <v>100</v>
@@ -4314,13 +4559,13 @@
         <v>5</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H19" s="20">
         <v>100</v>
@@ -4343,10 +4588,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="18">
         <v>100</v>
@@ -4369,10 +4614,10 @@
         <v>15</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="18">
         <v>100</v>
@@ -4395,10 +4640,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="18">
         <v>100</v>
@@ -4421,10 +4666,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="18">
         <v>100</v>
@@ -4447,10 +4692,10 @@
         <v>15</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H24" s="18">
         <v>100</v>
@@ -4473,10 +4718,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25" s="18">
         <v>100</v>
@@ -4499,10 +4744,10 @@
         <v>16</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="18">
         <v>100</v>
@@ -4525,10 +4770,10 @@
         <v>15</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="18">
         <v>100</v>
@@ -4551,10 +4796,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H28" s="18">
         <v>100</v>
@@ -4577,10 +4822,10 @@
         <v>16</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="18">
         <v>100</v>
@@ -4603,10 +4848,10 @@
         <v>15</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="18">
         <v>100</v>
@@ -4629,10 +4874,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="18">
         <v>100</v>
@@ -4655,10 +4900,10 @@
         <v>16</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" s="18">
         <v>100</v>
@@ -4681,10 +4926,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" s="18">
         <v>100</v>
@@ -4707,10 +4952,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" s="18">
         <v>100</v>
@@ -4733,10 +4978,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" s="18">
         <v>100</v>
@@ -4759,10 +5004,10 @@
         <v>15</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36" s="18">
         <v>100</v>
@@ -4785,10 +5030,10 @@
         <v>15</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37" s="18">
         <v>100</v>
@@ -4811,10 +5056,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" s="18">
         <v>100</v>
@@ -4837,10 +5082,10 @@
         <v>15</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H39" s="18">
         <v>100</v>
@@ -4863,10 +5108,10 @@
         <v>15</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40" s="18">
         <v>100</v>
@@ -4889,10 +5134,10 @@
         <v>16</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H41" s="18">
         <v>100</v>
@@ -4915,10 +5160,10 @@
         <v>15</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H42" s="18">
         <v>100</v>
@@ -4941,10 +5186,10 @@
         <v>15</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H43" s="18">
         <v>100</v>
@@ -4967,10 +5212,10 @@
         <v>16</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H44" s="18">
         <v>100</v>
@@ -4993,10 +5238,10 @@
         <v>15</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H45" s="18">
         <v>100</v>
@@ -5019,10 +5264,10 @@
         <v>15</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H46" s="18">
         <v>100</v>
@@ -5045,10 +5290,10 @@
         <v>16</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H47" s="18">
         <v>100</v>
@@ -5071,10 +5316,10 @@
         <v>15</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H48" s="18">
         <v>100</v>
@@ -5097,10 +5342,10 @@
         <v>15</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H49" s="18">
         <v>100</v>
@@ -5120,13 +5365,13 @@
         <v>4</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H50" s="15">
         <v>100</v>
@@ -5146,13 +5391,13 @@
         <v>5</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H51" s="15">
         <v>100</v>
@@ -5172,13 +5417,13 @@
         <v>5</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" s="15">
         <v>100</v>
@@ -5201,10 +5446,10 @@
         <v>16</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H53" s="15">
         <v>100</v>
@@ -5227,10 +5472,10 @@
         <v>15</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H54" s="15">
         <v>100</v>
@@ -5253,10 +5498,10 @@
         <v>15</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H55" s="15">
         <v>100</v>
@@ -5279,10 +5524,10 @@
         <v>16</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H56" s="15">
         <v>100</v>
@@ -5305,10 +5550,10 @@
         <v>15</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H57" s="15">
         <v>100</v>
@@ -5331,10 +5576,10 @@
         <v>15</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H58" s="15">
         <v>100</v>
@@ -5357,10 +5602,10 @@
         <v>16</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H59" s="15">
         <v>100</v>
@@ -5383,10 +5628,10 @@
         <v>15</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H60" s="15">
         <v>100</v>
@@ -5409,10 +5654,10 @@
         <v>15</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H61" s="15">
         <v>100</v>
@@ -5435,10 +5680,10 @@
         <v>16</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H62" s="15">
         <v>100</v>
@@ -5461,10 +5706,10 @@
         <v>15</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H63" s="15">
         <v>100</v>
@@ -5487,10 +5732,10 @@
         <v>15</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H64" s="15">
         <v>100</v>
@@ -5513,10 +5758,10 @@
         <v>16</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H65" s="15">
         <v>100</v>
@@ -5539,10 +5784,10 @@
         <v>15</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H66" s="15">
         <v>100</v>
@@ -5565,10 +5810,10 @@
         <v>15</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H67" s="15">
         <v>100</v>
@@ -5591,10 +5836,10 @@
         <v>16</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H68" s="15">
         <v>100</v>
@@ -5617,10 +5862,10 @@
         <v>15</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H69" s="15">
         <v>100</v>
@@ -5643,10 +5888,10 @@
         <v>15</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H70" s="15">
         <v>100</v>
@@ -5669,10 +5914,10 @@
         <v>16</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H71" s="15">
         <v>100</v>
@@ -5695,10 +5940,10 @@
         <v>15</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H72" s="15">
         <v>100</v>
@@ -5721,10 +5966,10 @@
         <v>15</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H73" s="15">
         <v>100</v>
@@ -5747,10 +5992,10 @@
         <v>16</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H74" s="15">
         <v>100</v>
@@ -5773,10 +6018,10 @@
         <v>15</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H75" s="15">
         <v>100</v>
@@ -5799,10 +6044,10 @@
         <v>15</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H76" s="15">
         <v>100</v>
@@ -5825,10 +6070,10 @@
         <v>16</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H77" s="15">
         <v>100</v>
@@ -5851,10 +6096,10 @@
         <v>15</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H78" s="15">
         <v>100</v>
@@ -5877,10 +6122,10 @@
         <v>15</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H79" s="15">
         <v>100</v>
@@ -5903,10 +6148,10 @@
         <v>16</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H80" s="15">
         <v>100</v>
@@ -5929,10 +6174,10 @@
         <v>15</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H81" s="15">
         <v>100</v>
@@ -5955,10 +6200,10 @@
         <v>15</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H82" s="15">
         <v>100</v>
@@ -5981,10 +6226,10 @@
         <v>16</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H83" s="15">
         <v>100</v>
@@ -6007,10 +6252,10 @@
         <v>15</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H84" s="15">
         <v>100</v>
@@ -6033,10 +6278,10 @@
         <v>15</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H85" s="15">
         <v>100</v>
@@ -6059,10 +6304,10 @@
         <v>16</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H86" s="15">
         <v>100</v>
@@ -6085,10 +6330,10 @@
         <v>15</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H87" s="15">
         <v>100</v>
@@ -6111,10 +6356,10 @@
         <v>15</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H88" s="15">
         <v>100</v>
@@ -6137,10 +6382,10 @@
         <v>16</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H89" s="15">
         <v>100</v>
@@ -6163,10 +6408,10 @@
         <v>15</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H90" s="15">
         <v>100</v>
@@ -6189,10 +6434,10 @@
         <v>15</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H91" s="15">
         <v>100</v>
@@ -6215,10 +6460,10 @@
         <v>16</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H92" s="15">
         <v>100</v>
@@ -6241,10 +6486,10 @@
         <v>15</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H93" s="15">
         <v>100</v>
@@ -6267,10 +6512,10 @@
         <v>15</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H94" s="15">
         <v>100</v>
@@ -6290,13 +6535,13 @@
         <v>4</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H95" s="18">
         <v>100</v>
@@ -6316,13 +6561,13 @@
         <v>5</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H96" s="18">
         <v>100</v>
@@ -6342,13 +6587,13 @@
         <v>5</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H97" s="18">
         <v>100</v>
@@ -6371,10 +6616,10 @@
         <v>16</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H98" s="18">
         <v>100</v>
@@ -6397,10 +6642,10 @@
         <v>15</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H99" s="18">
         <v>100</v>
@@ -6423,10 +6668,10 @@
         <v>15</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H100" s="18">
         <v>100</v>
@@ -6449,10 +6694,10 @@
         <v>16</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H101" s="18">
         <v>100</v>
@@ -6475,10 +6720,10 @@
         <v>15</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H102" s="18">
         <v>100</v>
@@ -6501,10 +6746,10 @@
         <v>15</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H103" s="18">
         <v>100</v>
@@ -6527,10 +6772,10 @@
         <v>16</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H104" s="18">
         <v>100</v>
@@ -6553,10 +6798,10 @@
         <v>15</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H105" s="18">
         <v>100</v>
@@ -6579,10 +6824,10 @@
         <v>15</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H106" s="18">
         <v>100</v>
@@ -6605,10 +6850,10 @@
         <v>16</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H107" s="18">
         <v>100</v>
@@ -6631,10 +6876,10 @@
         <v>15</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H108" s="18">
         <v>100</v>
@@ -6657,10 +6902,10 @@
         <v>15</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H109" s="18">
         <v>100</v>
@@ -6683,10 +6928,10 @@
         <v>16</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H110" s="18">
         <v>100</v>
@@ -6709,10 +6954,10 @@
         <v>15</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H111" s="18">
         <v>100</v>
@@ -6735,10 +6980,10 @@
         <v>15</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H112" s="18">
         <v>100</v>
@@ -6761,10 +7006,10 @@
         <v>16</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H113" s="18">
         <v>100</v>
@@ -6787,10 +7032,10 @@
         <v>15</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H114" s="18">
         <v>100</v>
@@ -6813,10 +7058,10 @@
         <v>15</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H115" s="18">
         <v>100</v>
@@ -6839,10 +7084,10 @@
         <v>16</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H116" s="18">
         <v>100</v>
@@ -6865,10 +7110,10 @@
         <v>15</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H117" s="18">
         <v>100</v>
@@ -6891,10 +7136,10 @@
         <v>15</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H118" s="18">
         <v>100</v>
@@ -6917,10 +7162,10 @@
         <v>16</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H119" s="18">
         <v>100</v>
@@ -6943,10 +7188,10 @@
         <v>15</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H120" s="18">
         <v>100</v>
@@ -6969,10 +7214,10 @@
         <v>15</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H121" s="18">
         <v>100</v>
@@ -6995,10 +7240,10 @@
         <v>16</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H122" s="18">
         <v>100</v>
@@ -7021,10 +7266,10 @@
         <v>15</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H123" s="18">
         <v>100</v>
@@ -7047,10 +7292,10 @@
         <v>15</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H124" s="18">
         <v>100</v>
@@ -7073,10 +7318,10 @@
         <v>16</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H125" s="18">
         <v>100</v>
@@ -7099,10 +7344,10 @@
         <v>15</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H126" s="18">
         <v>100</v>
@@ -7125,10 +7370,10 @@
         <v>15</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H127" s="18">
         <v>100</v>
@@ -7151,10 +7396,10 @@
         <v>16</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H128" s="18">
         <v>100</v>
@@ -7177,10 +7422,10 @@
         <v>15</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H129" s="18">
         <v>100</v>
@@ -7203,10 +7448,10 @@
         <v>15</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H130" s="18">
         <v>100</v>
@@ -7229,10 +7474,10 @@
         <v>16</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H131" s="18">
         <v>100</v>
@@ -7255,10 +7500,10 @@
         <v>15</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H132" s="18">
         <v>100</v>
@@ -7281,10 +7526,10 @@
         <v>15</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H133" s="18">
         <v>100</v>
@@ -7307,10 +7552,10 @@
         <v>16</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H134" s="18">
         <v>100</v>
@@ -7333,10 +7578,10 @@
         <v>15</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H135" s="18">
         <v>100</v>
@@ -7359,10 +7604,10 @@
         <v>15</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H136" s="18">
         <v>100</v>
@@ -7385,10 +7630,10 @@
         <v>16</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H137" s="18">
         <v>100</v>
@@ -7411,10 +7656,10 @@
         <v>15</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H138" s="18">
         <v>100</v>
@@ -7437,12 +7682,116 @@
         <v>15</v>
       </c>
       <c r="F139" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H139" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="18">
+        <v>9000001</v>
+      </c>
+      <c r="B140" s="4">
+        <v>9000011</v>
+      </c>
+      <c r="C140" s="18">
+        <v>1</v>
+      </c>
+      <c r="D140" s="18">
+        <v>5</v>
+      </c>
+      <c r="E140" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G139" s="19" t="s">
+      <c r="G140" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="18">
+        <v>9000002</v>
+      </c>
+      <c r="B141" s="4">
+        <v>9000012</v>
+      </c>
+      <c r="C141" s="18">
+        <v>1</v>
+      </c>
+      <c r="D141" s="18">
+        <v>5</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="18">
+        <v>9000003</v>
+      </c>
+      <c r="B142" s="4">
+        <v>9000013</v>
+      </c>
+      <c r="C142" s="18">
+        <v>1</v>
+      </c>
+      <c r="D142" s="18">
+        <v>5</v>
+      </c>
+      <c r="E142" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G142" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="18">
+        <v>9000004</v>
+      </c>
+      <c r="B143" s="4">
+        <v>9000014</v>
+      </c>
+      <c r="C143" s="18">
+        <v>1</v>
+      </c>
+      <c r="D143" s="18">
+        <v>5</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H139" s="18">
+      <c r="G143" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H143" s="18">
         <v>100</v>
       </c>
     </row>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BC0D3F-AF32-45BF-8B19-69DE81D89D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228973DB-AD41-4FA2-89A5-F55A8148C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41010" yWindow="735" windowWidth="36630" windowHeight="18660" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="645" yWindow="1230" windowWidth="32775" windowHeight="18660" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="125">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,14 @@
   </si>
   <si>
     <t>1월드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,3,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,6 +803,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -912,9 +921,27 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5">
         <row r="1">
           <cell r="A1" t="str">
@@ -971,20 +998,27 @@
       <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
+            <v>GAME_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="1">
+          <cell r="A1" t="str">
             <v>PERSISTENCE_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20">
         <row r="1">
           <cell r="A1" t="str">
             <v>SKILL_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="20">
+      <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
             <v>LIMIT_TYPE</v>
@@ -1035,7 +1069,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
@@ -1043,24 +1076,25 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
         <row r="1">
           <cell r="A1" t="str">
             <v>EFFECT_COUNT_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31">
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
         <row r="1">
           <cell r="A1" t="str">
             <v>ATTRIBUTE_TYPE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="32" refreshError="1"/>
       <sheetData sheetId="33" refreshError="1"/>
       <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1716,7 +1750,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2225,7 +2259,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4079,10 +4113,10 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E120" sqref="E120"/>
+      <selection pane="bottomRight" activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6980,7 +7014,7 @@
         <v>15</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="G112" s="19" t="s">
         <v>25</v>
@@ -7702,16 +7736,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="18">
-        <v>5</v>
-      </c>
-      <c r="E140" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F140" s="18" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="E140" s="18">
+        <v>900001</v>
+      </c>
+      <c r="F140" s="18">
+        <v>50</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="H140" s="18">
         <v>100</v>
@@ -7728,16 +7762,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="18">
-        <v>5</v>
-      </c>
-      <c r="E141" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F141" s="18" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="E141" s="18">
+        <v>900001</v>
+      </c>
+      <c r="F141" s="18">
+        <v>50</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="H141" s="18">
         <v>100</v>
@@ -7754,16 +7788,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="18">
-        <v>5</v>
-      </c>
-      <c r="E142" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F142" s="18" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="E142" s="18">
+        <v>900001</v>
+      </c>
+      <c r="F142" s="18">
+        <v>50</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="H142" s="18">
         <v>100</v>
@@ -7780,16 +7814,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="18">
-        <v>5</v>
-      </c>
-      <c r="E143" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F143" s="18" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="E143" s="18">
+        <v>900001</v>
+      </c>
+      <c r="F143" s="18">
+        <v>50</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="H143" s="18">
         <v>100</v>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228973DB-AD41-4FA2-89A5-F55A8148C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7712311-9364-4130-B74F-46B5F958BE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1230" windowWidth="32775" windowHeight="18660" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="49140" yWindow="3495" windowWidth="24990" windowHeight="17250" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="218">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100001, 100002, 100003, 100004, 100005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001, 100002, 100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,22 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2030101,2030101,2030101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2030101,2030101,2030101,2030201,2030201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zone_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,22 +385,6 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>100002, 100001, 100003, 100004, 100005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100002, 100001, 100003, 100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2030101,2030101,2030101,2030101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웨이브 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,50 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100001, 100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2030101, 2030101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2030101, 2030201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100002, 100002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001, 100008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2030101,2030101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100007, 100003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001, 100003, 100004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100001, 100001, 100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2존 노말</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100001, 100101, 100101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웨이브 그룹ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,11 +457,406 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,2,2,3,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2030201</t>
+    <t>1,5,5</t>
+  </si>
+  <si>
+    <t>1,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100005, 100005</t>
+  </si>
+  <si>
+    <t>100002, 100005, 100005</t>
+  </si>
+  <si>
+    <t>100001, 100005, 100008</t>
+  </si>
+  <si>
+    <t>100002, 100005, 100008</t>
+  </si>
+  <si>
+    <t>100002, 100008, 100008</t>
+  </si>
+  <si>
+    <t>100003, 100008, 100010</t>
+  </si>
+  <si>
+    <t>100001, 100010, 100010</t>
+  </si>
+  <si>
+    <t>100001, 100008, 100010</t>
+  </si>
+  <si>
+    <t>100002, 100008, 100010</t>
+  </si>
+  <si>
+    <t>100002, 100004, 100005, 100005</t>
+  </si>
+  <si>
+    <t>100002, 100004, 100005, 100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100008, 100008</t>
+  </si>
+  <si>
+    <t>100001, 100008, 100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100003, 100007, 100008, 100010</t>
+  </si>
+  <si>
+    <t>100003, 100007, 100008, 100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100003, 100007, 100010, 100010</t>
+  </si>
+  <si>
+    <t>100003, 100007, 100010, 100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002, 100008, 100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100003, 100004, 100007, 100008</t>
+  </si>
+  <si>
+    <t>100003, 100004, 100007, 100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002, 100007, 100008, 100010</t>
+  </si>
+  <si>
+    <t>100002, 100007, 100008, 100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100004, 100005, 100008</t>
+  </si>
+  <si>
+    <t>100001, 100004, 100005, 100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100003, 100005, 100008</t>
+  </si>
+  <si>
+    <t>100003, 100005, 100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100003, 100004, 100005</t>
+  </si>
+  <si>
+    <t>100003, 100004, 100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100004, 100010</t>
+  </si>
+  <si>
+    <t>100001, 100004, 100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100012, 100004, 100005, 100008</t>
+  </si>
+  <si>
+    <t>100012, 100004, 100005, 100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100007, 100011, 100008</t>
+  </si>
+  <si>
+    <t>100001, 100007, 100011, 100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100012, 100004, 100004, 100011, 100010</t>
+  </si>
+  <si>
+    <t>100012, 100004, 100004, 100011, 100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100004, 100011, 100008</t>
+  </si>
+  <si>
+    <t>100001, 100004, 100011, 100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100001, 100002, 100005</t>
+  </si>
+  <si>
+    <t>100001, 100002, 100005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100002, 100003, 100008, 100010</t>
+  </si>
+  <si>
+    <t>100002, 100003, 100008, 100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100012, 100007, 100005, 100008</t>
+  </si>
+  <si>
+    <t>100012, 100007, 100005, 100008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100012, 100001, 100011, 100010</t>
+  </si>
+  <si>
+    <t>100012, 100001, 100011, 100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100012, 100013, 100011, 100008, 100010</t>
+  </si>
+  <si>
+    <t>100012, 100013, 100011, 100008, 100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3</t>
+  </si>
+  <si>
+    <t>4,4,4</t>
+  </si>
+  <si>
+    <t>4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5</t>
+  </si>
+  <si>
+    <t>5,5,5,5</t>
+  </si>
+  <si>
+    <t>6,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,8,8,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,9,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,9,9,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,11,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,12,12,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,12,12,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15</t>
+  </si>
+  <si>
+    <t>15,15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15,15,15,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5,5</t>
+  </si>
+  <si>
+    <t>1,3,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,3,5</t>
+  </si>
+  <si>
+    <t>1,3,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,3,3,12,5</t>
+  </si>
+  <si>
+    <t>11,3,3,12,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,3,5,5</t>
+  </si>
+  <si>
+    <t>11,3,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,12,5</t>
+  </si>
+  <si>
+    <t>1,3,12,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,3,12,5</t>
+  </si>
+  <si>
+    <t>11,3,12,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,12,5,5</t>
+  </si>
+  <si>
+    <t>11,11,12,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,16,16</t>
+  </si>
+  <si>
+    <t>16,16,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,17,17</t>
+  </si>
+  <si>
+    <t>17,17,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,17,17,17</t>
+  </si>
+  <si>
+    <t>17,17,17,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,18,18</t>
+  </si>
+  <si>
+    <t>18,18,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,18,18,18</t>
+  </si>
+  <si>
+    <t>18,18,18,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,21,21</t>
+  </si>
+  <si>
+    <t>21,21,21,21</t>
+  </si>
+  <si>
+    <t>22,22,22</t>
+  </si>
+  <si>
+    <t>22,22,22,22</t>
+  </si>
+  <si>
+    <t>21,21,21,21,21</t>
+  </si>
+  <si>
+    <t>25,25,25</t>
+  </si>
+  <si>
+    <t>25,25,25,25,25</t>
+  </si>
+  <si>
+    <t>26,26,26</t>
+  </si>
+  <si>
+    <t>27,27,27</t>
+  </si>
+  <si>
+    <t>27,27,27,27</t>
+  </si>
+  <si>
+    <t>28,28,28</t>
+  </si>
+  <si>
+    <t>28,28,28,28</t>
+  </si>
+  <si>
+    <t>30,30,30</t>
+  </si>
+  <si>
+    <t>30,30,30,30</t>
+  </si>
+  <si>
+    <t>30,30,30,30,30</t>
+  </si>
+  <si>
+    <t>31,31,31</t>
+  </si>
+  <si>
+    <t>31,31,31,31</t>
+  </si>
+  <si>
+    <t>35,35,35</t>
+  </si>
+  <si>
+    <t>35,35,35,35,35</t>
+  </si>
+  <si>
+    <t>31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +864,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,7 +924,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +973,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -696,7 +1009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +1076,27 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -820,6 +1154,7 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
       <sheetName val="@item_type"/>
       <sheetName val="@sd_body_type"/>
       <sheetName val="@stage_common"/>
@@ -942,82 +1277,22 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SECOND_TARGET_RULE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>STAT_MULTIPLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>TARGET_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ONETIME_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>DURATION_EFFECT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GAME_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>PERSISTENCE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
-      <sheetData sheetId="20">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>SKILL_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="20"/>
       <sheetData sheetId="21">
         <row r="1">
           <cell r="A1" t="str">
@@ -1077,13 +1352,7 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>EFFECT_COUNT_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="1">
@@ -1092,9 +1361,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1420,47 +1690,47 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
     </row>
   </sheetData>
@@ -1477,7 +1747,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
@@ -1485,7 +1755,7 @@
     <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -1495,7 +1765,7 @@
         <v>LIMIT_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="str">
         <f>'[1]@tribe'!$A3</f>
         <v>type</v>
@@ -1521,7 +1791,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -1547,7 +1817,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -1573,7 +1843,7 @@
         <v>1 레벨 해금</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -1599,7 +1869,7 @@
         <v>2 스테이지 클리어 해금</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -1613,7 +1883,7 @@
         <v>3 수인족</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -1627,7 +1897,7 @@
         <v>4 안드로이드</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -1641,7 +1911,7 @@
         <v>5 악마</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -1655,7 +1925,7 @@
         <v>6 천사</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>'[1]@tribe'!$A11</f>
         <v>0</v>
@@ -1669,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f>'[1]@tribe'!$A12</f>
         <v>0</v>
@@ -1683,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f>'[1]@tribe'!$A13</f>
         <v>0</v>
@@ -1697,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f>'[1]@tribe'!$A14</f>
         <v>0</v>
@@ -1711,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f>'[1]@tribe'!$A15</f>
         <v>0</v>
@@ -1725,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f>'[1]@tribe'!$A16</f>
         <v>0</v>
@@ -1753,57 +2023,57 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1820,10 +2090,10 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
@@ -1837,49 +2107,49 @@
     <col min="10" max="10" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1891,59 +2161,59 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>10011</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1958,25 +2228,25 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I5" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J5,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>10012</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -1991,25 +2261,25 @@
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I6" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J6,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>10013</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -2024,25 +2294,25 @@
         <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I7" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J7,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>10021</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C8" s="21">
         <v>1</v>
@@ -2057,25 +2327,25 @@
         <v>1</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I8" s="21">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J8,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>10022</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C9" s="21">
         <v>1</v>
@@ -2090,25 +2360,25 @@
         <v>2</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I9" s="21">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J9,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>10023</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C10" s="21">
         <v>1</v>
@@ -2123,25 +2393,25 @@
         <v>3</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I10" s="21">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J10,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10031</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -2156,25 +2426,25 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I11" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J11,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10032</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -2189,25 +2459,25 @@
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I12" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J12,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10033</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -2222,17 +2492,17 @@
         <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I13" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J13,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2259,10 +2529,10 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
@@ -2273,52 +2543,52 @@
     <col min="10" max="12" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2330,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -2354,45 +2624,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1001101</v>
       </c>
@@ -2406,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4">
         <v>10</v>
@@ -2430,7 +2700,7 @@
         <v>12001001</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1001102</v>
       </c>
@@ -2444,7 +2714,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4">
         <v>10</v>
@@ -2468,7 +2738,7 @@
         <v>12001002</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1001103</v>
       </c>
@@ -2482,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4">
         <v>10</v>
@@ -2506,7 +2776,7 @@
         <v>12001003</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1001104</v>
       </c>
@@ -2520,7 +2790,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4">
         <v>10</v>
@@ -2544,7 +2814,7 @@
         <v>12001004</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1001105</v>
       </c>
@@ -2558,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4">
         <v>10</v>
@@ -2582,7 +2852,7 @@
         <v>12001005</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1001106</v>
       </c>
@@ -2596,7 +2866,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4">
         <v>10</v>
@@ -2620,7 +2890,7 @@
         <v>12001006</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1001107</v>
       </c>
@@ -2634,7 +2904,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F11" s="4">
         <v>10</v>
@@ -2658,7 +2928,7 @@
         <v>12001007</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1001108</v>
       </c>
@@ -2672,7 +2942,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F12" s="4">
         <v>10</v>
@@ -2696,7 +2966,7 @@
         <v>12001008</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1001109</v>
       </c>
@@ -2710,7 +2980,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
@@ -2734,7 +3004,7 @@
         <v>12001009</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1001110</v>
       </c>
@@ -2748,7 +3018,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F14" s="4">
         <v>10</v>
@@ -2772,7 +3042,7 @@
         <v>12001010</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1001111</v>
       </c>
@@ -2786,7 +3056,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4">
         <v>10</v>
@@ -2810,7 +3080,7 @@
         <v>12001011</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1001112</v>
       </c>
@@ -2824,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4">
         <v>10</v>
@@ -2848,7 +3118,7 @@
         <v>12001012</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1001113</v>
       </c>
@@ -2862,7 +3132,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4">
         <v>10</v>
@@ -2886,7 +3156,7 @@
         <v>12001013</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1001114</v>
       </c>
@@ -2900,7 +3170,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F18" s="4">
         <v>10</v>
@@ -2924,7 +3194,7 @@
         <v>12001014</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1001115</v>
       </c>
@@ -2938,7 +3208,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F19" s="4">
         <v>10</v>
@@ -2962,7 +3232,7 @@
         <v>12001015</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="14" customFormat="1">
+    <row r="20" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>1002101</v>
       </c>
@@ -2976,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F20" s="12">
         <v>10</v>
@@ -3000,7 +3270,7 @@
         <v>12001001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="14" customFormat="1">
+    <row r="21" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>1002102</v>
       </c>
@@ -3014,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F21" s="12">
         <v>10</v>
@@ -3038,7 +3308,7 @@
         <v>12001002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="14" customFormat="1">
+    <row r="22" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>1002103</v>
       </c>
@@ -3052,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F22" s="12">
         <v>10</v>
@@ -3076,7 +3346,7 @@
         <v>12001003</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="14" customFormat="1">
+    <row r="23" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>1002104</v>
       </c>
@@ -3090,7 +3360,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F23" s="12">
         <v>10</v>
@@ -3114,7 +3384,7 @@
         <v>12001004</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="14" customFormat="1">
+    <row r="24" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>1002105</v>
       </c>
@@ -3128,7 +3398,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F24" s="12">
         <v>10</v>
@@ -3152,7 +3422,7 @@
         <v>12001005</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="14" customFormat="1">
+    <row r="25" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>1002106</v>
       </c>
@@ -3166,7 +3436,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F25" s="12">
         <v>10</v>
@@ -3190,7 +3460,7 @@
         <v>12001006</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="14" customFormat="1">
+    <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>1002107</v>
       </c>
@@ -3204,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F26" s="12">
         <v>10</v>
@@ -3228,7 +3498,7 @@
         <v>12001007</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="14" customFormat="1">
+    <row r="27" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>1002108</v>
       </c>
@@ -3242,7 +3512,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F27" s="12">
         <v>10</v>
@@ -3266,7 +3536,7 @@
         <v>12001008</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="14" customFormat="1">
+    <row r="28" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>1002109</v>
       </c>
@@ -3280,7 +3550,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F28" s="12">
         <v>10</v>
@@ -3304,7 +3574,7 @@
         <v>12001009</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="14" customFormat="1">
+    <row r="29" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>1002110</v>
       </c>
@@ -3318,7 +3588,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F29" s="12">
         <v>10</v>
@@ -3342,7 +3612,7 @@
         <v>12001010</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1">
+    <row r="30" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>1002111</v>
       </c>
@@ -3356,7 +3626,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F30" s="12">
         <v>10</v>
@@ -3380,7 +3650,7 @@
         <v>12001011</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="14" customFormat="1">
+    <row r="31" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>1002112</v>
       </c>
@@ -3394,7 +3664,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F31" s="12">
         <v>10</v>
@@ -3418,7 +3688,7 @@
         <v>12001012</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="14" customFormat="1">
+    <row r="32" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>1002113</v>
       </c>
@@ -3432,7 +3702,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F32" s="12">
         <v>10</v>
@@ -3456,7 +3726,7 @@
         <v>12001013</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="14" customFormat="1">
+    <row r="33" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>1002114</v>
       </c>
@@ -3470,7 +3740,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F33" s="12">
         <v>10</v>
@@ -3494,7 +3764,7 @@
         <v>12001014</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="14" customFormat="1">
+    <row r="34" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>1002115</v>
       </c>
@@ -3508,7 +3778,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F34" s="12">
         <v>10</v>
@@ -3532,7 +3802,7 @@
         <v>12001015</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1003101</v>
       </c>
@@ -3546,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F35" s="4">
         <v>10</v>
@@ -3570,7 +3840,7 @@
         <v>12001001</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>1003102</v>
       </c>
@@ -3584,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F36" s="4">
         <v>10</v>
@@ -3608,7 +3878,7 @@
         <v>12001002</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>1003103</v>
       </c>
@@ -3622,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F37" s="4">
         <v>10</v>
@@ -3646,7 +3916,7 @@
         <v>12001003</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1003104</v>
       </c>
@@ -3660,7 +3930,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F38" s="4">
         <v>10</v>
@@ -3684,7 +3954,7 @@
         <v>12001004</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>1003105</v>
       </c>
@@ -3698,7 +3968,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F39" s="4">
         <v>10</v>
@@ -3722,7 +3992,7 @@
         <v>12001005</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>1003106</v>
       </c>
@@ -3736,7 +4006,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F40" s="4">
         <v>10</v>
@@ -3760,7 +4030,7 @@
         <v>12001006</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1003107</v>
       </c>
@@ -3774,7 +4044,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F41" s="4">
         <v>10</v>
@@ -3798,7 +4068,7 @@
         <v>12001007</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>1003108</v>
       </c>
@@ -3812,7 +4082,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F42" s="4">
         <v>10</v>
@@ -3836,7 +4106,7 @@
         <v>12001008</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>1003109</v>
       </c>
@@ -3850,7 +4120,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F43" s="4">
         <v>10</v>
@@ -3874,7 +4144,7 @@
         <v>12001009</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>1003110</v>
       </c>
@@ -3888,7 +4158,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F44" s="4">
         <v>10</v>
@@ -3912,7 +4182,7 @@
         <v>12001010</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>1003111</v>
       </c>
@@ -3926,7 +4196,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F45" s="4">
         <v>10</v>
@@ -3950,7 +4220,7 @@
         <v>12001011</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>1003112</v>
       </c>
@@ -3964,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F46" s="4">
         <v>10</v>
@@ -3988,7 +4258,7 @@
         <v>12001012</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>1003113</v>
       </c>
@@ -4002,7 +4272,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F47" s="4">
         <v>10</v>
@@ -4026,7 +4296,7 @@
         <v>12001013</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>1003114</v>
       </c>
@@ -4040,7 +4310,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F48" s="4">
         <v>10</v>
@@ -4064,7 +4334,7 @@
         <v>12001014</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>1003115</v>
       </c>
@@ -4078,7 +4348,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F49" s="4">
         <v>10</v>
@@ -4113,13 +4383,13 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E142" sqref="E142"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="7" customWidth="1"/>
@@ -4132,17 +4402,17 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33">
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -4154,18 +4424,18 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4189,12 +4459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -4206,1186 +4476,1186 @@
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="18">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
         <v>1001101</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="23">
         <v>1001101</v>
       </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>1001102</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1001101</v>
+      </c>
+      <c r="C6" s="22">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="D6" s="22">
+        <v>3</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>1001103</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1001101</v>
+      </c>
+      <c r="C7" s="22">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22">
+        <v>3</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>1001104</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1001102</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>3</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>1001105</v>
+      </c>
+      <c r="B9" s="26">
+        <v>1001102</v>
+      </c>
+      <c r="C9" s="25">
+        <v>2</v>
+      </c>
+      <c r="D9" s="25">
+        <v>3</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>1001106</v>
+      </c>
+      <c r="B10" s="26">
+        <v>1001102</v>
+      </c>
+      <c r="C10" s="25">
+        <v>3</v>
+      </c>
+      <c r="D10" s="25">
+        <v>3</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>1001107</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1001103</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>1001108</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1001103</v>
+      </c>
+      <c r="C12" s="22">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22">
+        <v>3</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>1001109</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1001103</v>
+      </c>
+      <c r="C13" s="22">
+        <v>3</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>1001110</v>
+      </c>
+      <c r="B14" s="26">
+        <v>1001104</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="25">
+        <v>3</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>1001111</v>
+      </c>
+      <c r="B15" s="26">
+        <v>1001104</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2</v>
+      </c>
+      <c r="D15" s="25">
+        <v>3</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
+        <v>1001112</v>
+      </c>
+      <c r="B16" s="26">
+        <v>1001104</v>
+      </c>
+      <c r="C16" s="25">
+        <v>3</v>
+      </c>
+      <c r="D16" s="25">
+        <v>3</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>1001113</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1001105</v>
+      </c>
+      <c r="C17" s="22">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22">
+        <v>3</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>1001114</v>
+      </c>
+      <c r="B18" s="23">
+        <v>1001105</v>
+      </c>
+      <c r="C18" s="22">
+        <v>2</v>
+      </c>
+      <c r="D18" s="22">
+        <v>4</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>1001115</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1001105</v>
+      </c>
+      <c r="C19" s="22">
+        <v>3</v>
+      </c>
+      <c r="D19" s="22">
+        <v>4</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
+        <v>1001116</v>
+      </c>
+      <c r="B20" s="26">
+        <v>1001106</v>
+      </c>
+      <c r="C20" s="25">
+        <v>1</v>
+      </c>
+      <c r="D20" s="25">
+        <v>3</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="18">
-        <v>1001102</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1001101</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="H20" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
+        <v>1001117</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1001106</v>
+      </c>
+      <c r="C21" s="25">
         <v>2</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D21" s="25">
+        <v>4</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="25">
+        <v>1001118</v>
+      </c>
+      <c r="B22" s="26">
+        <v>1001106</v>
+      </c>
+      <c r="C22" s="25">
+        <v>3</v>
+      </c>
+      <c r="D22" s="25">
+        <v>4</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>1001119</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1001107</v>
+      </c>
+      <c r="C23" s="22">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22">
+        <v>3</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>1001120</v>
+      </c>
+      <c r="B24" s="23">
+        <v>1001107</v>
+      </c>
+      <c r="C24" s="22">
         <v>2</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="18">
-        <v>1001103</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1001101</v>
-      </c>
-      <c r="C7" s="18">
-        <v>3</v>
-      </c>
-      <c r="D7" s="18">
-        <v>3</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="18">
-        <v>1001104</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1001102</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>3</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="D24" s="22">
+        <v>4</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="18">
-        <v>1001105</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1001102</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="F24" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>1001121</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1001107</v>
+      </c>
+      <c r="C25" s="22">
+        <v>3</v>
+      </c>
+      <c r="D25" s="22">
+        <v>4</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
+        <v>1001122</v>
+      </c>
+      <c r="B26" s="26">
+        <v>1001108</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="25">
+        <v>3</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="25">
+        <v>1001123</v>
+      </c>
+      <c r="B27" s="26">
+        <v>1001108</v>
+      </c>
+      <c r="C27" s="25">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D27" s="25">
+        <v>4</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="25">
+        <v>1001124</v>
+      </c>
+      <c r="B28" s="26">
+        <v>1001108</v>
+      </c>
+      <c r="C28" s="25">
+        <v>3</v>
+      </c>
+      <c r="D28" s="25">
+        <v>4</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
+        <v>1001125</v>
+      </c>
+      <c r="B29" s="23">
+        <v>1001109</v>
+      </c>
+      <c r="C29" s="22">
+        <v>1</v>
+      </c>
+      <c r="D29" s="22">
+        <v>3</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
+        <v>1001126</v>
+      </c>
+      <c r="B30" s="23">
+        <v>1001109</v>
+      </c>
+      <c r="C30" s="22">
+        <v>2</v>
+      </c>
+      <c r="D30" s="22">
+        <v>4</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
+        <v>1001127</v>
+      </c>
+      <c r="B31" s="23">
+        <v>1001109</v>
+      </c>
+      <c r="C31" s="22">
+        <v>3</v>
+      </c>
+      <c r="D31" s="22">
+        <v>4</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
+        <v>1001128</v>
+      </c>
+      <c r="B32" s="26">
+        <v>1001110</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1</v>
+      </c>
+      <c r="D32" s="25">
+        <v>3</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="25">
+        <v>1001129</v>
+      </c>
+      <c r="B33" s="26">
+        <v>1001110</v>
+      </c>
+      <c r="C33" s="25">
+        <v>2</v>
+      </c>
+      <c r="D33" s="25">
+        <v>4</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
+        <v>1001130</v>
+      </c>
+      <c r="B34" s="26">
+        <v>1001110</v>
+      </c>
+      <c r="C34" s="25">
+        <v>3</v>
+      </c>
+      <c r="D34" s="25">
         <v>5</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="18">
-        <v>1001106</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1001102</v>
-      </c>
-      <c r="C10" s="18">
-        <v>3</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="E34" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
+        <v>1001131</v>
+      </c>
+      <c r="B35" s="23">
+        <v>1001111</v>
+      </c>
+      <c r="C35" s="22">
+        <v>1</v>
+      </c>
+      <c r="D35" s="22">
+        <v>3</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
+        <v>1001132</v>
+      </c>
+      <c r="B36" s="23">
+        <v>1001111</v>
+      </c>
+      <c r="C36" s="22">
+        <v>2</v>
+      </c>
+      <c r="D36" s="22">
+        <v>4</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="22">
+        <v>1001133</v>
+      </c>
+      <c r="B37" s="23">
+        <v>1001111</v>
+      </c>
+      <c r="C37" s="22">
+        <v>3</v>
+      </c>
+      <c r="D37" s="22">
+        <v>4</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="25">
+        <v>1001134</v>
+      </c>
+      <c r="B38" s="26">
+        <v>1001112</v>
+      </c>
+      <c r="C38" s="25">
+        <v>1</v>
+      </c>
+      <c r="D38" s="25">
+        <v>3</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
+        <v>1001135</v>
+      </c>
+      <c r="B39" s="26">
+        <v>1001112</v>
+      </c>
+      <c r="C39" s="25">
+        <v>2</v>
+      </c>
+      <c r="D39" s="25">
+        <v>4</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
+        <v>1001136</v>
+      </c>
+      <c r="B40" s="26">
+        <v>1001112</v>
+      </c>
+      <c r="C40" s="25">
+        <v>3</v>
+      </c>
+      <c r="D40" s="25">
+        <v>4</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="22">
+        <v>1001137</v>
+      </c>
+      <c r="B41" s="23">
+        <v>1001113</v>
+      </c>
+      <c r="C41" s="22">
+        <v>1</v>
+      </c>
+      <c r="D41" s="22">
+        <v>3</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="22">
+        <v>1001138</v>
+      </c>
+      <c r="B42" s="23">
+        <v>1001113</v>
+      </c>
+      <c r="C42" s="22">
+        <v>2</v>
+      </c>
+      <c r="D42" s="22">
+        <v>4</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="22">
+        <v>1001139</v>
+      </c>
+      <c r="B43" s="23">
+        <v>1001113</v>
+      </c>
+      <c r="C43" s="22">
+        <v>3</v>
+      </c>
+      <c r="D43" s="22">
+        <v>4</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
+        <v>1001140</v>
+      </c>
+      <c r="B44" s="26">
+        <v>1001114</v>
+      </c>
+      <c r="C44" s="25">
+        <v>1</v>
+      </c>
+      <c r="D44" s="25">
+        <v>3</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="25">
+        <v>1001141</v>
+      </c>
+      <c r="B45" s="26">
+        <v>1001114</v>
+      </c>
+      <c r="C45" s="25">
+        <v>2</v>
+      </c>
+      <c r="D45" s="25">
+        <v>4</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="25">
+        <v>1001142</v>
+      </c>
+      <c r="B46" s="26">
+        <v>1001114</v>
+      </c>
+      <c r="C46" s="25">
+        <v>3</v>
+      </c>
+      <c r="D46" s="25">
+        <v>4</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="22">
+        <v>1001143</v>
+      </c>
+      <c r="B47" s="23">
+        <v>1001115</v>
+      </c>
+      <c r="C47" s="22">
+        <v>1</v>
+      </c>
+      <c r="D47" s="22">
+        <v>3</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="22">
+        <v>1001144</v>
+      </c>
+      <c r="B48" s="23">
+        <v>1001115</v>
+      </c>
+      <c r="C48" s="22">
+        <v>2</v>
+      </c>
+      <c r="D48" s="22">
+        <v>4</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="22">
+        <v>1001145</v>
+      </c>
+      <c r="B49" s="23">
+        <v>1001115</v>
+      </c>
+      <c r="C49" s="22">
+        <v>3</v>
+      </c>
+      <c r="D49" s="22">
         <v>5</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="18">
-        <v>1001107</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1001103</v>
-      </c>
-      <c r="C11" s="18">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18">
-        <v>3</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="18">
-        <v>1001108</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1001103</v>
-      </c>
-      <c r="C12" s="18">
-        <v>2</v>
-      </c>
-      <c r="D12" s="18">
-        <v>5</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="18">
-        <v>1001109</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1001103</v>
-      </c>
-      <c r="C13" s="18">
-        <v>3</v>
-      </c>
-      <c r="D13" s="18">
-        <v>5</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="18">
-        <v>1001110</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1001104</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1</v>
-      </c>
-      <c r="D14" s="18">
-        <v>3</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="18">
-        <v>1001111</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1001104</v>
-      </c>
-      <c r="C15" s="18">
-        <v>2</v>
-      </c>
-      <c r="D15" s="18">
-        <v>5</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="18">
-        <v>1001112</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1001104</v>
-      </c>
-      <c r="C16" s="18">
-        <v>3</v>
-      </c>
-      <c r="D16" s="18">
-        <v>5</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="18">
-        <v>1001113</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1001105</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="18">
-        <v>3</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="18">
-        <v>1001114</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1001105</v>
-      </c>
-      <c r="C18" s="18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="18">
-        <v>5</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="20">
-        <v>1001115</v>
-      </c>
-      <c r="B19" s="21">
-        <v>1001105</v>
-      </c>
-      <c r="C19" s="20">
-        <v>3</v>
-      </c>
-      <c r="D19" s="20">
-        <v>5</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="18">
-        <v>1001116</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1001106</v>
-      </c>
-      <c r="C20" s="18">
-        <v>1</v>
-      </c>
-      <c r="D20" s="18">
-        <v>3</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="18">
-        <v>1001117</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1001106</v>
-      </c>
-      <c r="C21" s="18">
-        <v>2</v>
-      </c>
-      <c r="D21" s="18">
-        <v>5</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="18">
-        <v>1001118</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1001106</v>
-      </c>
-      <c r="C22" s="18">
-        <v>3</v>
-      </c>
-      <c r="D22" s="18">
-        <v>5</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="18">
-        <v>1001119</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1001107</v>
-      </c>
-      <c r="C23" s="18">
-        <v>1</v>
-      </c>
-      <c r="D23" s="18">
-        <v>3</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="18">
-        <v>1001120</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1001107</v>
-      </c>
-      <c r="C24" s="18">
-        <v>2</v>
-      </c>
-      <c r="D24" s="18">
-        <v>5</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="18">
-        <v>1001121</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1001107</v>
-      </c>
-      <c r="C25" s="18">
-        <v>3</v>
-      </c>
-      <c r="D25" s="18">
-        <v>5</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="18">
-        <v>1001122</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1001108</v>
-      </c>
-      <c r="C26" s="18">
-        <v>1</v>
-      </c>
-      <c r="D26" s="18">
-        <v>3</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="18">
-        <v>1001123</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1001108</v>
-      </c>
-      <c r="C27" s="18">
-        <v>2</v>
-      </c>
-      <c r="D27" s="18">
-        <v>5</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="18">
-        <v>1001124</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1001108</v>
-      </c>
-      <c r="C28" s="18">
-        <v>3</v>
-      </c>
-      <c r="D28" s="18">
-        <v>5</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="18">
-        <v>1001125</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1001109</v>
-      </c>
-      <c r="C29" s="18">
-        <v>1</v>
-      </c>
-      <c r="D29" s="18">
-        <v>3</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="18">
-        <v>1001126</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1001109</v>
-      </c>
-      <c r="C30" s="18">
-        <v>2</v>
-      </c>
-      <c r="D30" s="18">
-        <v>5</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="18">
-        <v>1001127</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1001109</v>
-      </c>
-      <c r="C31" s="18">
-        <v>3</v>
-      </c>
-      <c r="D31" s="18">
-        <v>5</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="18">
-        <v>1001128</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1001110</v>
-      </c>
-      <c r="C32" s="18">
-        <v>1</v>
-      </c>
-      <c r="D32" s="18">
-        <v>3</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="18">
-        <v>1001129</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1001110</v>
-      </c>
-      <c r="C33" s="18">
-        <v>2</v>
-      </c>
-      <c r="D33" s="18">
-        <v>5</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="18">
-        <v>1001130</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1001110</v>
-      </c>
-      <c r="C34" s="18">
-        <v>3</v>
-      </c>
-      <c r="D34" s="18">
-        <v>5</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="18">
-        <v>1001131</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1001111</v>
-      </c>
-      <c r="C35" s="18">
-        <v>1</v>
-      </c>
-      <c r="D35" s="18">
-        <v>3</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="18">
-        <v>1001132</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1001111</v>
-      </c>
-      <c r="C36" s="18">
-        <v>2</v>
-      </c>
-      <c r="D36" s="18">
-        <v>5</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="18">
-        <v>1001133</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1001111</v>
-      </c>
-      <c r="C37" s="18">
-        <v>3</v>
-      </c>
-      <c r="D37" s="18">
-        <v>5</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="18">
-        <v>1001134</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1001112</v>
-      </c>
-      <c r="C38" s="18">
-        <v>1</v>
-      </c>
-      <c r="D38" s="18">
-        <v>3</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="18">
-        <v>1001135</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1001112</v>
-      </c>
-      <c r="C39" s="18">
-        <v>2</v>
-      </c>
-      <c r="D39" s="18">
-        <v>5</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="18">
-        <v>1001136</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1001112</v>
-      </c>
-      <c r="C40" s="18">
-        <v>3</v>
-      </c>
-      <c r="D40" s="18">
-        <v>5</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="18">
-        <v>1001137</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1001113</v>
-      </c>
-      <c r="C41" s="18">
-        <v>1</v>
-      </c>
-      <c r="D41" s="18">
-        <v>3</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="18">
-        <v>1001138</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1001113</v>
-      </c>
-      <c r="C42" s="18">
-        <v>2</v>
-      </c>
-      <c r="D42" s="18">
-        <v>5</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="18">
-        <v>1001139</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1001113</v>
-      </c>
-      <c r="C43" s="18">
-        <v>3</v>
-      </c>
-      <c r="D43" s="18">
-        <v>5</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="18">
-        <v>1001140</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1001114</v>
-      </c>
-      <c r="C44" s="18">
-        <v>1</v>
-      </c>
-      <c r="D44" s="18">
-        <v>3</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="18">
-        <v>1001141</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1001114</v>
-      </c>
-      <c r="C45" s="18">
-        <v>2</v>
-      </c>
-      <c r="D45" s="18">
-        <v>5</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="18">
-        <v>1001142</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1001114</v>
-      </c>
-      <c r="C46" s="18">
-        <v>3</v>
-      </c>
-      <c r="D46" s="18">
-        <v>5</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="18">
-        <v>1001143</v>
-      </c>
-      <c r="B47" s="4">
-        <v>1001115</v>
-      </c>
-      <c r="C47" s="18">
-        <v>1</v>
-      </c>
-      <c r="D47" s="18">
-        <v>3</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="18">
-        <v>1001144</v>
-      </c>
-      <c r="B48" s="4">
-        <v>1001115</v>
-      </c>
-      <c r="C48" s="18">
-        <v>2</v>
-      </c>
-      <c r="D48" s="18">
-        <v>5</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="18">
-        <v>1001145</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1001115</v>
-      </c>
-      <c r="C49" s="18">
-        <v>3</v>
-      </c>
-      <c r="D49" s="18">
-        <v>5</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="17" customFormat="1">
+      <c r="E49" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H49" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>1002101</v>
       </c>
@@ -5399,19 +5669,19 @@
         <v>4</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H50" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>1002102</v>
       </c>
@@ -5425,19 +5695,19 @@
         <v>5</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H51" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>1002103</v>
       </c>
@@ -5451,97 +5721,97 @@
         <v>5</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H52" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="17" customFormat="1">
-      <c r="A53" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22">
         <v>1002104</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="23">
         <v>1002102</v>
       </c>
-      <c r="C53" s="15">
-        <v>1</v>
-      </c>
-      <c r="D53" s="15">
-        <v>3</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="17" customFormat="1">
-      <c r="A54" s="15">
+      <c r="C53" s="22">
+        <v>1</v>
+      </c>
+      <c r="D53" s="22">
+        <v>3</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="22">
         <v>1002105</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="23">
         <v>1002102</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="22">
         <v>2</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="22">
         <v>5</v>
       </c>
-      <c r="E54" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="17" customFormat="1">
-      <c r="A55" s="15">
+      <c r="E54" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22">
         <v>1002106</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="23">
         <v>1002102</v>
       </c>
-      <c r="C55" s="15">
-        <v>3</v>
-      </c>
-      <c r="D55" s="15">
+      <c r="C55" s="22">
+        <v>3</v>
+      </c>
+      <c r="D55" s="22">
         <v>5</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="17" customFormat="1">
+      <c r="E55" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>1002107</v>
       </c>
@@ -5555,19 +5825,19 @@
         <v>3</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H56" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>1002108</v>
       </c>
@@ -5581,19 +5851,19 @@
         <v>5</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H57" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>1002109</v>
       </c>
@@ -5607,97 +5877,97 @@
         <v>5</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H58" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="17" customFormat="1">
-      <c r="A59" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22">
         <v>1002110</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="23">
         <v>1002104</v>
       </c>
-      <c r="C59" s="15">
-        <v>1</v>
-      </c>
-      <c r="D59" s="15">
-        <v>3</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H59" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="17" customFormat="1">
-      <c r="A60" s="15">
+      <c r="C59" s="22">
+        <v>1</v>
+      </c>
+      <c r="D59" s="22">
+        <v>3</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="22">
         <v>1002111</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="23">
         <v>1002104</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="22">
         <v>2</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="22">
         <v>5</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="17" customFormat="1">
-      <c r="A61" s="15">
+      <c r="E60" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="22">
         <v>1002112</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="23">
         <v>1002104</v>
       </c>
-      <c r="C61" s="15">
-        <v>3</v>
-      </c>
-      <c r="D61" s="15">
+      <c r="C61" s="22">
+        <v>3</v>
+      </c>
+      <c r="D61" s="22">
         <v>5</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="17" customFormat="1">
+      <c r="E61" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>1002113</v>
       </c>
@@ -5711,19 +5981,19 @@
         <v>3</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H62" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>1002114</v>
       </c>
@@ -5737,19 +6007,19 @@
         <v>5</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H63" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>1002115</v>
       </c>
@@ -5763,97 +6033,97 @@
         <v>5</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H64" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="17" customFormat="1">
-      <c r="A65" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="22">
         <v>1002116</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="23">
         <v>1002106</v>
       </c>
-      <c r="C65" s="15">
-        <v>1</v>
-      </c>
-      <c r="D65" s="15">
-        <v>3</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="17" customFormat="1">
-      <c r="A66" s="15">
+      <c r="C65" s="22">
+        <v>1</v>
+      </c>
+      <c r="D65" s="22">
+        <v>3</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="22">
         <v>1002117</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="23">
         <v>1002106</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="22">
         <v>2</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="22">
         <v>5</v>
       </c>
-      <c r="E66" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="17" customFormat="1">
-      <c r="A67" s="15">
+      <c r="E66" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H66" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="22">
         <v>1002118</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="23">
         <v>1002106</v>
       </c>
-      <c r="C67" s="15">
-        <v>3</v>
-      </c>
-      <c r="D67" s="15">
+      <c r="C67" s="22">
+        <v>3</v>
+      </c>
+      <c r="D67" s="22">
         <v>5</v>
       </c>
-      <c r="E67" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H67" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="17" customFormat="1">
+      <c r="E67" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H67" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>1002119</v>
       </c>
@@ -5867,19 +6137,19 @@
         <v>3</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H68" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>1002120</v>
       </c>
@@ -5893,19 +6163,19 @@
         <v>5</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H69" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>1002121</v>
       </c>
@@ -5919,97 +6189,97 @@
         <v>5</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="H70" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="17" customFormat="1">
-      <c r="A71" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="22">
         <v>1002122</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="23">
         <v>1002108</v>
       </c>
-      <c r="C71" s="15">
-        <v>1</v>
-      </c>
-      <c r="D71" s="15">
-        <v>3</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H71" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="17" customFormat="1">
-      <c r="A72" s="15">
+      <c r="C71" s="22">
+        <v>1</v>
+      </c>
+      <c r="D71" s="22">
+        <v>3</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="22">
         <v>1002123</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="23">
         <v>1002108</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="22">
         <v>2</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="22">
         <v>5</v>
       </c>
-      <c r="E72" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="17" customFormat="1">
-      <c r="A73" s="15">
+      <c r="E72" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H72" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="22">
         <v>1002124</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="23">
         <v>1002108</v>
       </c>
-      <c r="C73" s="15">
-        <v>3</v>
-      </c>
-      <c r="D73" s="15">
+      <c r="C73" s="22">
+        <v>3</v>
+      </c>
+      <c r="D73" s="22">
         <v>5</v>
       </c>
-      <c r="E73" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H73" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="17" customFormat="1">
+      <c r="E73" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H73" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>1002125</v>
       </c>
@@ -6023,19 +6293,19 @@
         <v>3</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H74" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>1002126</v>
       </c>
@@ -6049,19 +6319,19 @@
         <v>5</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H75" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>1002127</v>
       </c>
@@ -6075,97 +6345,97 @@
         <v>5</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H76" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="17" customFormat="1">
-      <c r="A77" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="22">
         <v>1002128</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="23">
         <v>1002110</v>
       </c>
-      <c r="C77" s="15">
-        <v>1</v>
-      </c>
-      <c r="D77" s="15">
-        <v>3</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="17" customFormat="1">
-      <c r="A78" s="15">
+      <c r="C77" s="22">
+        <v>1</v>
+      </c>
+      <c r="D77" s="22">
+        <v>3</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H77" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="22">
         <v>1002129</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="23">
         <v>1002110</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="22">
         <v>2</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="22">
         <v>5</v>
       </c>
-      <c r="E78" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="17" customFormat="1">
-      <c r="A79" s="15">
+      <c r="E78" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H78" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="22">
         <v>1002130</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="23">
         <v>1002110</v>
       </c>
-      <c r="C79" s="15">
-        <v>3</v>
-      </c>
-      <c r="D79" s="15">
+      <c r="C79" s="22">
+        <v>3</v>
+      </c>
+      <c r="D79" s="22">
         <v>5</v>
       </c>
-      <c r="E79" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="17" customFormat="1">
+      <c r="E79" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>1002131</v>
       </c>
@@ -6179,19 +6449,19 @@
         <v>3</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H80" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>1002132</v>
       </c>
@@ -6205,19 +6475,19 @@
         <v>5</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H81" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>1002133</v>
       </c>
@@ -6231,97 +6501,97 @@
         <v>5</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="H82" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="17" customFormat="1">
-      <c r="A83" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="22">
         <v>1002134</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="23">
         <v>1002112</v>
       </c>
-      <c r="C83" s="15">
-        <v>1</v>
-      </c>
-      <c r="D83" s="15">
-        <v>3</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H83" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="17" customFormat="1">
-      <c r="A84" s="15">
+      <c r="C83" s="22">
+        <v>1</v>
+      </c>
+      <c r="D83" s="22">
+        <v>3</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H83" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="22">
         <v>1002135</v>
       </c>
-      <c r="B84" s="12">
+      <c r="B84" s="23">
         <v>1002112</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="22">
         <v>2</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="22">
         <v>5</v>
       </c>
-      <c r="E84" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H84" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="17" customFormat="1">
-      <c r="A85" s="15">
+      <c r="E84" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H84" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="22">
         <v>1002136</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="23">
         <v>1002112</v>
       </c>
-      <c r="C85" s="15">
-        <v>3</v>
-      </c>
-      <c r="D85" s="15">
+      <c r="C85" s="22">
+        <v>3</v>
+      </c>
+      <c r="D85" s="22">
         <v>5</v>
       </c>
-      <c r="E85" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H85" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="17" customFormat="1">
+      <c r="E85" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H85" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>1002137</v>
       </c>
@@ -6335,19 +6605,19 @@
         <v>3</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H86" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>1002138</v>
       </c>
@@ -6361,19 +6631,19 @@
         <v>5</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H87" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>1002139</v>
       </c>
@@ -6387,97 +6657,97 @@
         <v>5</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="H88" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="17" customFormat="1">
-      <c r="A89" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="22">
         <v>1002140</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="23">
         <v>1002114</v>
       </c>
-      <c r="C89" s="15">
-        <v>1</v>
-      </c>
-      <c r="D89" s="15">
-        <v>3</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H89" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="17" customFormat="1">
-      <c r="A90" s="15">
+      <c r="C89" s="22">
+        <v>1</v>
+      </c>
+      <c r="D89" s="22">
+        <v>3</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H89" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="22">
         <v>1002141</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="23">
         <v>1002114</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="22">
         <v>2</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="22">
         <v>5</v>
       </c>
-      <c r="E90" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="17" customFormat="1">
-      <c r="A91" s="15">
+      <c r="E90" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H90" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="22">
         <v>1002142</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="23">
         <v>1002114</v>
       </c>
-      <c r="C91" s="15">
-        <v>3</v>
-      </c>
-      <c r="D91" s="15">
+      <c r="C91" s="22">
+        <v>3</v>
+      </c>
+      <c r="D91" s="22">
         <v>5</v>
       </c>
-      <c r="E91" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="17" customFormat="1">
+      <c r="E91" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H91" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>1002143</v>
       </c>
@@ -6491,19 +6761,19 @@
         <v>3</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H92" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>1002144</v>
       </c>
@@ -6517,19 +6787,19 @@
         <v>5</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H93" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="17" customFormat="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>1002145</v>
       </c>
@@ -6543,97 +6813,97 @@
         <v>5</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="H94" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="20">
         <v>1003101</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="21">
         <v>1003101</v>
       </c>
-      <c r="C95" s="18">
-        <v>1</v>
-      </c>
-      <c r="D95" s="18">
+      <c r="C95" s="20">
+        <v>1</v>
+      </c>
+      <c r="D95" s="20">
         <v>4</v>
       </c>
-      <c r="E95" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G95" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H95" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="18">
+      <c r="E95" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G95" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H95" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="20">
         <v>1003102</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="21">
         <v>1003101</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="20">
         <v>2</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="20">
         <v>5</v>
       </c>
-      <c r="E96" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="18">
+      <c r="E96" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="20">
         <v>1003103</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="21">
         <v>1003101</v>
       </c>
-      <c r="C97" s="18">
-        <v>3</v>
-      </c>
-      <c r="D97" s="18">
+      <c r="C97" s="20">
+        <v>3</v>
+      </c>
+      <c r="D97" s="20">
         <v>5</v>
       </c>
-      <c r="E97" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G97" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H97" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="E97" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H97" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>1003104</v>
       </c>
@@ -6647,19 +6917,19 @@
         <v>3</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H98" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>1003105</v>
       </c>
@@ -6673,19 +6943,19 @@
         <v>5</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H99" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>1003106</v>
       </c>
@@ -6699,97 +6969,97 @@
         <v>5</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H100" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="20">
         <v>1003107</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="21">
         <v>1003103</v>
       </c>
-      <c r="C101" s="18">
-        <v>1</v>
-      </c>
-      <c r="D101" s="18">
-        <v>3</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H101" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="18">
+      <c r="C101" s="20">
+        <v>1</v>
+      </c>
+      <c r="D101" s="20">
+        <v>3</v>
+      </c>
+      <c r="E101" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H101" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="20">
         <v>1003108</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="21">
         <v>1003103</v>
       </c>
-      <c r="C102" s="18">
+      <c r="C102" s="20">
         <v>2</v>
       </c>
-      <c r="D102" s="18">
+      <c r="D102" s="20">
         <v>5</v>
       </c>
-      <c r="E102" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="18">
+      <c r="E102" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H102" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="20">
         <v>1003109</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="21">
         <v>1003103</v>
       </c>
-      <c r="C103" s="18">
-        <v>3</v>
-      </c>
-      <c r="D103" s="18">
+      <c r="C103" s="20">
+        <v>3</v>
+      </c>
+      <c r="D103" s="20">
         <v>5</v>
       </c>
-      <c r="E103" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="E103" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H103" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>1003110</v>
       </c>
@@ -6803,19 +7073,19 @@
         <v>3</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H104" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
         <v>1003111</v>
       </c>
@@ -6829,19 +7099,19 @@
         <v>5</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H105" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
         <v>1003112</v>
       </c>
@@ -6855,97 +7125,97 @@
         <v>5</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H106" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="20">
         <v>1003113</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="21">
         <v>1003105</v>
       </c>
-      <c r="C107" s="18">
-        <v>1</v>
-      </c>
-      <c r="D107" s="18">
-        <v>3</v>
-      </c>
-      <c r="E107" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H107" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="18">
+      <c r="C107" s="20">
+        <v>1</v>
+      </c>
+      <c r="D107" s="20">
+        <v>3</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H107" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="20">
         <v>1003114</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="21">
         <v>1003105</v>
       </c>
-      <c r="C108" s="18">
+      <c r="C108" s="20">
         <v>2</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="20">
         <v>5</v>
       </c>
-      <c r="E108" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H108" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="18">
+      <c r="E108" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H108" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="20">
         <v>1003115</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="21">
         <v>1003105</v>
       </c>
-      <c r="C109" s="18">
-        <v>3</v>
-      </c>
-      <c r="D109" s="18">
+      <c r="C109" s="20">
+        <v>3</v>
+      </c>
+      <c r="D109" s="20">
         <v>5</v>
       </c>
-      <c r="E109" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G109" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H109" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="E109" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H109" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>1003116</v>
       </c>
@@ -6959,19 +7229,19 @@
         <v>3</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H110" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
         <v>1003117</v>
       </c>
@@ -6985,19 +7255,19 @@
         <v>5</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H111" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
         <v>1003118</v>
       </c>
@@ -7011,97 +7281,97 @@
         <v>5</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H112" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="20">
         <v>1003119</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="21">
         <v>1003107</v>
       </c>
-      <c r="C113" s="18">
-        <v>1</v>
-      </c>
-      <c r="D113" s="18">
-        <v>3</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H113" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="18">
+      <c r="C113" s="20">
+        <v>1</v>
+      </c>
+      <c r="D113" s="20">
+        <v>3</v>
+      </c>
+      <c r="E113" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F113" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H113" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="20">
         <v>1003120</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="21">
         <v>1003107</v>
       </c>
-      <c r="C114" s="18">
+      <c r="C114" s="20">
         <v>2</v>
       </c>
-      <c r="D114" s="18">
+      <c r="D114" s="20">
         <v>5</v>
       </c>
-      <c r="E114" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="18">
+      <c r="E114" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G114" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H114" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="20">
         <v>1003121</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="21">
         <v>1003107</v>
       </c>
-      <c r="C115" s="18">
-        <v>3</v>
-      </c>
-      <c r="D115" s="18">
+      <c r="C115" s="20">
+        <v>3</v>
+      </c>
+      <c r="D115" s="20">
         <v>5</v>
       </c>
-      <c r="E115" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H115" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="E115" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G115" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H115" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>1003122</v>
       </c>
@@ -7115,19 +7385,19 @@
         <v>3</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H116" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
         <v>1003123</v>
       </c>
@@ -7141,19 +7411,19 @@
         <v>5</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H117" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>1003124</v>
       </c>
@@ -7167,97 +7437,97 @@
         <v>5</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H118" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="20">
         <v>1003125</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="21">
         <v>1003109</v>
       </c>
-      <c r="C119" s="18">
-        <v>1</v>
-      </c>
-      <c r="D119" s="18">
-        <v>3</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="18">
+      <c r="C119" s="20">
+        <v>1</v>
+      </c>
+      <c r="D119" s="20">
+        <v>3</v>
+      </c>
+      <c r="E119" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F119" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G119" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H119" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="20">
         <v>1003126</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="21">
         <v>1003109</v>
       </c>
-      <c r="C120" s="18">
+      <c r="C120" s="20">
         <v>2</v>
       </c>
-      <c r="D120" s="18">
+      <c r="D120" s="20">
         <v>5</v>
       </c>
-      <c r="E120" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H120" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="18">
+      <c r="E120" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F120" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G120" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H120" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="20">
         <v>1003127</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="21">
         <v>1003109</v>
       </c>
-      <c r="C121" s="18">
-        <v>3</v>
-      </c>
-      <c r="D121" s="18">
+      <c r="C121" s="20">
+        <v>3</v>
+      </c>
+      <c r="D121" s="20">
         <v>5</v>
       </c>
-      <c r="E121" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G121" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H121" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="E121" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F121" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H121" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
         <v>1003128</v>
       </c>
@@ -7271,19 +7541,19 @@
         <v>3</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H122" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
         <v>1003129</v>
       </c>
@@ -7297,19 +7567,19 @@
         <v>5</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H123" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>1003130</v>
       </c>
@@ -7323,97 +7593,97 @@
         <v>5</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="H124" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="20">
         <v>1003131</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="21">
         <v>1003111</v>
       </c>
-      <c r="C125" s="18">
-        <v>1</v>
-      </c>
-      <c r="D125" s="18">
-        <v>3</v>
-      </c>
-      <c r="E125" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H125" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="18">
+      <c r="C125" s="20">
+        <v>1</v>
+      </c>
+      <c r="D125" s="20">
+        <v>3</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F125" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G125" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H125" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="20">
         <v>1003132</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="21">
         <v>1003111</v>
       </c>
-      <c r="C126" s="18">
+      <c r="C126" s="20">
         <v>2</v>
       </c>
-      <c r="D126" s="18">
+      <c r="D126" s="20">
         <v>5</v>
       </c>
-      <c r="E126" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H126" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="18">
+      <c r="E126" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F126" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H126" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="20">
         <v>1003133</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="21">
         <v>1003111</v>
       </c>
-      <c r="C127" s="18">
-        <v>3</v>
-      </c>
-      <c r="D127" s="18">
+      <c r="C127" s="20">
+        <v>3</v>
+      </c>
+      <c r="D127" s="20">
         <v>5</v>
       </c>
-      <c r="E127" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H127" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="E127" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F127" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G127" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H127" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="18">
         <v>1003134</v>
       </c>
@@ -7427,19 +7697,19 @@
         <v>3</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H128" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="18">
         <v>1003135</v>
       </c>
@@ -7453,19 +7723,19 @@
         <v>5</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H129" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="18">
         <v>1003136</v>
       </c>
@@ -7479,97 +7749,97 @@
         <v>5</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="H130" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="20">
         <v>1003137</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="21">
         <v>1003113</v>
       </c>
-      <c r="C131" s="18">
-        <v>1</v>
-      </c>
-      <c r="D131" s="18">
-        <v>3</v>
-      </c>
-      <c r="E131" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F131" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H131" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="18">
+      <c r="C131" s="20">
+        <v>1</v>
+      </c>
+      <c r="D131" s="20">
+        <v>3</v>
+      </c>
+      <c r="E131" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F131" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G131" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H131" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="20">
         <v>1003138</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="21">
         <v>1003113</v>
       </c>
-      <c r="C132" s="18">
+      <c r="C132" s="20">
         <v>2</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="20">
         <v>5</v>
       </c>
-      <c r="E132" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H132" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="18">
+      <c r="E132" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F132" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H132" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="20">
         <v>1003139</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="21">
         <v>1003113</v>
       </c>
-      <c r="C133" s="18">
-        <v>3</v>
-      </c>
-      <c r="D133" s="18">
+      <c r="C133" s="20">
+        <v>3</v>
+      </c>
+      <c r="D133" s="20">
         <v>5</v>
       </c>
-      <c r="E133" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G133" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H133" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="E133" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F133" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H133" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="18">
         <v>1003140</v>
       </c>
@@ -7583,19 +7853,19 @@
         <v>3</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H134" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="18">
         <v>1003141</v>
       </c>
@@ -7609,19 +7879,19 @@
         <v>5</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="H135" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="18">
         <v>1003142</v>
       </c>
@@ -7635,97 +7905,97 @@
         <v>5</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="H136" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="20">
         <v>1003143</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="21">
         <v>1003115</v>
       </c>
-      <c r="C137" s="18">
-        <v>1</v>
-      </c>
-      <c r="D137" s="18">
-        <v>3</v>
-      </c>
-      <c r="E137" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F137" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H137" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="18">
+      <c r="C137" s="20">
+        <v>1</v>
+      </c>
+      <c r="D137" s="20">
+        <v>3</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F137" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G137" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H137" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="20">
         <v>1003144</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="21">
         <v>1003115</v>
       </c>
-      <c r="C138" s="18">
+      <c r="C138" s="20">
         <v>2</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="20">
         <v>5</v>
       </c>
-      <c r="E138" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H138" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="18">
+      <c r="E138" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F138" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G138" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H138" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="20">
         <v>1003145</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="21">
         <v>1003115</v>
       </c>
-      <c r="C139" s="18">
-        <v>3</v>
-      </c>
-      <c r="D139" s="18">
+      <c r="C139" s="20">
+        <v>3</v>
+      </c>
+      <c r="D139" s="20">
         <v>5</v>
       </c>
-      <c r="E139" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F139" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H139" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="E139" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G139" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H139" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="18">
         <v>9000001</v>
       </c>
@@ -7745,13 +8015,13 @@
         <v>50</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="H140" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="18">
         <v>9000002</v>
       </c>
@@ -7771,13 +8041,13 @@
         <v>50</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="H141" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="18">
         <v>9000003</v>
       </c>
@@ -7797,13 +8067,13 @@
         <v>50</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="H142" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="18">
         <v>9000004</v>
       </c>
@@ -7823,10 +8093,10 @@
         <v>50</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="H143" s="18">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7712311-9364-4130-B74F-46B5F958BE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9AD109-CD15-44EB-B45F-F284AE3698FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49140" yWindow="3495" windowWidth="24990" windowHeight="17250" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -864,7 +864,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,7 +1009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,15 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,27 +1247,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1354,13 +1327,7 @@
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ATTRIBUTE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -1690,47 +1657,47 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="6"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="6"/>
     </row>
   </sheetData>
@@ -1747,7 +1714,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
@@ -1755,7 +1722,7 @@
     <col min="7" max="7" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -1765,7 +1732,7 @@
         <v>LIMIT_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="9" t="str">
         <f>'[1]@tribe'!$A3</f>
         <v>type</v>
@@ -1791,7 +1758,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -1817,7 +1784,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -1843,7 +1810,7 @@
         <v>1 레벨 해금</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -1869,7 +1836,7 @@
         <v>2 스테이지 클리어 해금</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -1883,7 +1850,7 @@
         <v>3 수인족</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -1897,7 +1864,7 @@
         <v>4 안드로이드</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -1911,7 +1878,7 @@
         <v>5 악마</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -1925,7 +1892,7 @@
         <v>6 천사</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <f>'[1]@tribe'!$A11</f>
         <v>0</v>
@@ -1939,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <f>'[1]@tribe'!$A12</f>
         <v>0</v>
@@ -1953,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <f>'[1]@tribe'!$A13</f>
         <v>0</v>
@@ -1967,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <f>'[1]@tribe'!$A14</f>
         <v>0</v>
@@ -1981,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <f>'[1]@tribe'!$A15</f>
         <v>0</v>
@@ -1995,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <f>'[1]@tribe'!$A16</f>
         <v>0</v>
@@ -2023,19 +1990,19 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -2046,7 +2013,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -2057,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -2068,7 +2035,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2093,7 +2060,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
@@ -2107,12 +2074,12 @@
     <col min="10" max="10" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2144,7 +2111,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -2176,7 +2143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -2208,7 +2175,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>10011</v>
       </c>
@@ -2241,7 +2208,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>10012</v>
       </c>
@@ -2274,7 +2241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>10013</v>
       </c>
@@ -2307,7 +2274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="21">
         <v>10021</v>
       </c>
@@ -2340,7 +2307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="21">
         <v>10022</v>
       </c>
@@ -2373,7 +2340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="21">
         <v>10023</v>
       </c>
@@ -2406,7 +2373,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10031</v>
       </c>
@@ -2439,7 +2406,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>10032</v>
       </c>
@@ -2472,7 +2439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>10033</v>
       </c>
@@ -2528,11 +2495,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
@@ -2543,12 +2510,12 @@
     <col min="10" max="12" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2586,7 +2553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -2624,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +2629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>1001101</v>
       </c>
@@ -2700,7 +2667,7 @@
         <v>12001001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>1001102</v>
       </c>
@@ -2738,7 +2705,7 @@
         <v>12001002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>1001103</v>
       </c>
@@ -2776,7 +2743,7 @@
         <v>12001003</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>1001104</v>
       </c>
@@ -2814,7 +2781,7 @@
         <v>12001004</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1001105</v>
       </c>
@@ -2852,7 +2819,7 @@
         <v>12001005</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>1001106</v>
       </c>
@@ -2890,7 +2857,7 @@
         <v>12001006</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>1001107</v>
       </c>
@@ -2928,7 +2895,7 @@
         <v>12001007</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>1001108</v>
       </c>
@@ -2966,7 +2933,7 @@
         <v>12001008</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>1001109</v>
       </c>
@@ -3004,7 +2971,7 @@
         <v>12001009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>1001110</v>
       </c>
@@ -3042,7 +3009,7 @@
         <v>12001010</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>1001111</v>
       </c>
@@ -3080,7 +3047,7 @@
         <v>12001011</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>1001112</v>
       </c>
@@ -3118,7 +3085,7 @@
         <v>12001012</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="4">
         <v>1001113</v>
       </c>
@@ -3156,7 +3123,7 @@
         <v>12001013</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="4">
         <v>1001114</v>
       </c>
@@ -3194,7 +3161,7 @@
         <v>12001014</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="4">
         <v>1001115</v>
       </c>
@@ -3232,7 +3199,7 @@
         <v>12001015</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="14" customFormat="1">
       <c r="A20" s="12">
         <v>1002101</v>
       </c>
@@ -3270,7 +3237,7 @@
         <v>12001001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="14" customFormat="1">
       <c r="A21" s="12">
         <v>1002102</v>
       </c>
@@ -3308,7 +3275,7 @@
         <v>12001002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="14" customFormat="1">
       <c r="A22" s="12">
         <v>1002103</v>
       </c>
@@ -3346,7 +3313,7 @@
         <v>12001003</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="14" customFormat="1">
       <c r="A23" s="12">
         <v>1002104</v>
       </c>
@@ -3384,7 +3351,7 @@
         <v>12001004</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="14" customFormat="1">
       <c r="A24" s="12">
         <v>1002105</v>
       </c>
@@ -3422,7 +3389,7 @@
         <v>12001005</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="14" customFormat="1">
       <c r="A25" s="12">
         <v>1002106</v>
       </c>
@@ -3460,7 +3427,7 @@
         <v>12001006</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="14" customFormat="1">
       <c r="A26" s="12">
         <v>1002107</v>
       </c>
@@ -3498,7 +3465,7 @@
         <v>12001007</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="14" customFormat="1">
       <c r="A27" s="12">
         <v>1002108</v>
       </c>
@@ -3536,7 +3503,7 @@
         <v>12001008</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="14" customFormat="1">
       <c r="A28" s="12">
         <v>1002109</v>
       </c>
@@ -3574,7 +3541,7 @@
         <v>12001009</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="14" customFormat="1">
       <c r="A29" s="12">
         <v>1002110</v>
       </c>
@@ -3612,7 +3579,7 @@
         <v>12001010</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="14" customFormat="1">
       <c r="A30" s="12">
         <v>1002111</v>
       </c>
@@ -3650,7 +3617,7 @@
         <v>12001011</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="14" customFormat="1">
       <c r="A31" s="12">
         <v>1002112</v>
       </c>
@@ -3688,7 +3655,7 @@
         <v>12001012</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="14" customFormat="1">
       <c r="A32" s="12">
         <v>1002113</v>
       </c>
@@ -3726,7 +3693,7 @@
         <v>12001013</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="14" customFormat="1">
       <c r="A33" s="12">
         <v>1002114</v>
       </c>
@@ -3764,7 +3731,7 @@
         <v>12001014</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="14" customFormat="1">
       <c r="A34" s="12">
         <v>1002115</v>
       </c>
@@ -3802,7 +3769,7 @@
         <v>12001015</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>1003101</v>
       </c>
@@ -3840,7 +3807,7 @@
         <v>12001001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>1003102</v>
       </c>
@@ -3878,7 +3845,7 @@
         <v>12001002</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>1003103</v>
       </c>
@@ -3916,7 +3883,7 @@
         <v>12001003</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>1003104</v>
       </c>
@@ -3954,7 +3921,7 @@
         <v>12001004</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>1003105</v>
       </c>
@@ -3992,7 +3959,7 @@
         <v>12001005</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>1003106</v>
       </c>
@@ -4030,7 +3997,7 @@
         <v>12001006</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>1003107</v>
       </c>
@@ -4068,7 +4035,7 @@
         <v>12001007</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <v>1003108</v>
       </c>
@@ -4106,7 +4073,7 @@
         <v>12001008</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>1003109</v>
       </c>
@@ -4144,7 +4111,7 @@
         <v>12001009</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="4">
         <v>1003110</v>
       </c>
@@ -4182,7 +4149,7 @@
         <v>12001010</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>1003111</v>
       </c>
@@ -4220,7 +4187,7 @@
         <v>12001011</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>1003112</v>
       </c>
@@ -4258,7 +4225,7 @@
         <v>12001012</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>1003113</v>
       </c>
@@ -4296,7 +4263,7 @@
         <v>12001013</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>1003114</v>
       </c>
@@ -4334,7 +4301,7 @@
         <v>12001014</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <v>1003115</v>
       </c>
@@ -4382,14 +4349,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="7" customWidth="1"/>
@@ -4402,12 +4369,12 @@
     <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="33">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -4433,7 +4400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -4459,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
@@ -4485,1177 +4452,1177 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+    <row r="5" spans="1:8">
+      <c r="A5" s="18">
         <v>1001101</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="4">
         <v>1001101</v>
       </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
-        <v>3</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>3</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="H5" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="18">
         <v>1001102</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="4">
         <v>1001101</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="22">
-        <v>3</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="D6" s="18">
+        <v>3</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="H6" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18">
         <v>1001103</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="4">
         <v>1001101</v>
       </c>
-      <c r="C7" s="22">
-        <v>3</v>
-      </c>
-      <c r="D7" s="22">
-        <v>3</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="C7" s="18">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="H7" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22">
         <v>1001104</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="23">
         <v>1001102</v>
       </c>
-      <c r="C8" s="25">
-        <v>1</v>
-      </c>
-      <c r="D8" s="25">
-        <v>3</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
+        <v>3</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="H8" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="22">
         <v>1001105</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="23">
         <v>1001102</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>2</v>
       </c>
-      <c r="D9" s="25">
-        <v>3</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="22">
+        <v>3</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="H9" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22">
         <v>1001106</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="23">
         <v>1001102</v>
       </c>
-      <c r="C10" s="25">
-        <v>3</v>
-      </c>
-      <c r="D10" s="25">
-        <v>3</v>
-      </c>
-      <c r="E10" s="25" t="s">
+      <c r="C10" s="22">
+        <v>3</v>
+      </c>
+      <c r="D10" s="22">
+        <v>3</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="H10" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="18">
         <v>1001107</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="4">
         <v>1001103</v>
       </c>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="22">
-        <v>3</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="H11" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="18">
         <v>1001108</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="4">
         <v>1001103</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="18">
         <v>2</v>
       </c>
-      <c r="D12" s="22">
-        <v>3</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="D12" s="18">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="H12" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="18">
         <v>1001109</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="4">
         <v>1001103</v>
       </c>
-      <c r="C13" s="22">
-        <v>3</v>
-      </c>
-      <c r="D13" s="22">
-        <v>3</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="18">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="H13" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="22">
         <v>1001110</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="23">
         <v>1001104</v>
       </c>
-      <c r="C14" s="25">
-        <v>1</v>
-      </c>
-      <c r="D14" s="25">
-        <v>3</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22">
+        <v>3</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="H14" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="22">
         <v>1001111</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="23">
         <v>1001104</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="22">
         <v>2</v>
       </c>
-      <c r="D15" s="25">
-        <v>3</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="22">
+        <v>3</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="H15" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="22">
         <v>1001112</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="23">
         <v>1001104</v>
       </c>
-      <c r="C16" s="25">
-        <v>3</v>
-      </c>
-      <c r="D16" s="25">
-        <v>3</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="C16" s="22">
+        <v>3</v>
+      </c>
+      <c r="D16" s="22">
+        <v>3</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="H16" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18">
         <v>1001113</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="4">
         <v>1001105</v>
       </c>
-      <c r="C17" s="22">
-        <v>1</v>
-      </c>
-      <c r="D17" s="22">
-        <v>3</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
+        <v>3</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="H17" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="18">
         <v>1001114</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="4">
         <v>1001105</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="18">
         <v>2</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="18">
         <v>4</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="H18" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="18">
         <v>1001115</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="4">
         <v>1001105</v>
       </c>
-      <c r="C19" s="22">
-        <v>3</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="C19" s="18">
+        <v>3</v>
+      </c>
+      <c r="D19" s="18">
         <v>4</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="H19" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
+      <c r="H19" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="22">
         <v>1001116</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="23">
         <v>1001106</v>
       </c>
-      <c r="C20" s="25">
-        <v>1</v>
-      </c>
-      <c r="D20" s="25">
-        <v>3</v>
-      </c>
-      <c r="E20" s="25" t="s">
+      <c r="C20" s="22">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22">
+        <v>3</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
+      <c r="H20" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="22">
         <v>1001117</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="23">
         <v>1001106</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="22">
         <v>2</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="22">
         <v>4</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
+      <c r="H21" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="22">
         <v>1001118</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="23">
         <v>1001106</v>
       </c>
-      <c r="C22" s="25">
-        <v>3</v>
-      </c>
-      <c r="D22" s="25">
+      <c r="C22" s="22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="22">
         <v>4</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H22" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="H22" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="18">
         <v>1001119</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="4">
         <v>1001107</v>
       </c>
-      <c r="C23" s="22">
-        <v>1</v>
-      </c>
-      <c r="D23" s="22">
-        <v>3</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="18">
+        <v>3</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="H23" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="18">
         <v>1001120</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="4">
         <v>1001107</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="18">
         <v>2</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="18">
         <v>4</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="H24" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="18">
         <v>1001121</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="4">
         <v>1001107</v>
       </c>
-      <c r="C25" s="22">
-        <v>3</v>
-      </c>
-      <c r="D25" s="22">
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="18">
         <v>4</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="H25" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="25">
+      <c r="H25" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="22">
         <v>1001122</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="23">
         <v>1001108</v>
       </c>
-      <c r="C26" s="25">
-        <v>1</v>
-      </c>
-      <c r="D26" s="25">
-        <v>3</v>
-      </c>
-      <c r="E26" s="25" t="s">
+      <c r="C26" s="22">
+        <v>1</v>
+      </c>
+      <c r="D26" s="22">
+        <v>3</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
+      <c r="H26" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="22">
         <v>1001123</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="23">
         <v>1001108</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="22">
         <v>2</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="22">
         <v>4</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="25">
+      <c r="H27" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="22">
         <v>1001124</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="23">
         <v>1001108</v>
       </c>
-      <c r="C28" s="25">
-        <v>3</v>
-      </c>
-      <c r="D28" s="25">
+      <c r="C28" s="22">
+        <v>3</v>
+      </c>
+      <c r="D28" s="22">
         <v>4</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H28" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="H28" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="18">
         <v>1001125</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="4">
         <v>1001109</v>
       </c>
-      <c r="C29" s="22">
-        <v>1</v>
-      </c>
-      <c r="D29" s="22">
-        <v>3</v>
-      </c>
-      <c r="E29" s="22" t="s">
+      <c r="C29" s="18">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>3</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="H29" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="18">
         <v>1001126</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="4">
         <v>1001109</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="18">
         <v>2</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="18">
         <v>4</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H30" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="H30" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="18">
         <v>1001127</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="4">
         <v>1001109</v>
       </c>
-      <c r="C31" s="22">
-        <v>3</v>
-      </c>
-      <c r="D31" s="22">
+      <c r="C31" s="18">
+        <v>3</v>
+      </c>
+      <c r="D31" s="18">
         <v>4</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H31" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="H31" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="22">
         <v>1001128</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="23">
         <v>1001110</v>
       </c>
-      <c r="C32" s="25">
-        <v>1</v>
-      </c>
-      <c r="D32" s="25">
-        <v>3</v>
-      </c>
-      <c r="E32" s="25" t="s">
+      <c r="C32" s="22">
+        <v>1</v>
+      </c>
+      <c r="D32" s="22">
+        <v>3</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
+      <c r="H32" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="22">
         <v>1001129</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="23">
         <v>1001110</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="22">
         <v>2</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="22">
         <v>4</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H33" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="H33" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="22">
         <v>1001130</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="23">
         <v>1001110</v>
       </c>
-      <c r="C34" s="25">
-        <v>3</v>
-      </c>
-      <c r="D34" s="25">
+      <c r="C34" s="22">
+        <v>3</v>
+      </c>
+      <c r="D34" s="22">
         <v>5</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="H34" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="18">
         <v>1001131</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="4">
         <v>1001111</v>
       </c>
-      <c r="C35" s="22">
-        <v>1</v>
-      </c>
-      <c r="D35" s="22">
-        <v>3</v>
-      </c>
-      <c r="E35" s="22" t="s">
+      <c r="C35" s="18">
+        <v>1</v>
+      </c>
+      <c r="D35" s="18">
+        <v>3</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="H35" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="18">
         <v>1001132</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="4">
         <v>1001111</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="18">
         <v>2</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="18">
         <v>4</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+      <c r="H36" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="18">
         <v>1001133</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="4">
         <v>1001111</v>
       </c>
-      <c r="C37" s="22">
-        <v>3</v>
-      </c>
-      <c r="D37" s="22">
+      <c r="C37" s="18">
+        <v>3</v>
+      </c>
+      <c r="D37" s="18">
         <v>4</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="H37" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
+      <c r="H37" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="22">
         <v>1001134</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="23">
         <v>1001112</v>
       </c>
-      <c r="C38" s="25">
-        <v>1</v>
-      </c>
-      <c r="D38" s="25">
-        <v>3</v>
-      </c>
-      <c r="E38" s="25" t="s">
+      <c r="C38" s="22">
+        <v>1</v>
+      </c>
+      <c r="D38" s="22">
+        <v>3</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H38" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+      <c r="H38" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="22">
         <v>1001135</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="23">
         <v>1001112</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="22">
         <v>2</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="22">
         <v>4</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="27" t="s">
+      <c r="G39" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H39" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="H39" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="22">
         <v>1001136</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="23">
         <v>1001112</v>
       </c>
-      <c r="C40" s="25">
-        <v>3</v>
-      </c>
-      <c r="D40" s="25">
+      <c r="C40" s="22">
+        <v>3</v>
+      </c>
+      <c r="D40" s="22">
         <v>4</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="H40" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="22">
+      <c r="H40" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="18">
         <v>1001137</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="4">
         <v>1001113</v>
       </c>
-      <c r="C41" s="22">
-        <v>1</v>
-      </c>
-      <c r="D41" s="22">
-        <v>3</v>
-      </c>
-      <c r="E41" s="22" t="s">
+      <c r="C41" s="18">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18">
+        <v>3</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H41" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+      <c r="H41" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="18">
         <v>1001138</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="4">
         <v>1001113</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="18">
         <v>2</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="18">
         <v>4</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H42" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="H42" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="18">
         <v>1001139</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="4">
         <v>1001113</v>
       </c>
-      <c r="C43" s="22">
-        <v>3</v>
-      </c>
-      <c r="D43" s="22">
+      <c r="C43" s="18">
+        <v>3</v>
+      </c>
+      <c r="D43" s="18">
         <v>4</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="H43" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="25">
+      <c r="H43" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="22">
         <v>1001140</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="23">
         <v>1001114</v>
       </c>
-      <c r="C44" s="25">
-        <v>1</v>
-      </c>
-      <c r="D44" s="25">
-        <v>3</v>
-      </c>
-      <c r="E44" s="25" t="s">
+      <c r="C44" s="22">
+        <v>1</v>
+      </c>
+      <c r="D44" s="22">
+        <v>3</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H44" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="25">
+      <c r="H44" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="22">
         <v>1001141</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="23">
         <v>1001114</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="22">
         <v>2</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="22">
         <v>4</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="H45" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="25">
+      <c r="H45" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="22">
         <v>1001142</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="23">
         <v>1001114</v>
       </c>
-      <c r="C46" s="25">
-        <v>3</v>
-      </c>
-      <c r="D46" s="25">
+      <c r="C46" s="22">
+        <v>3</v>
+      </c>
+      <c r="D46" s="22">
         <v>4</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H46" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="H46" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="18">
         <v>1001143</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="4">
         <v>1001115</v>
       </c>
-      <c r="C47" s="22">
-        <v>1</v>
-      </c>
-      <c r="D47" s="22">
-        <v>3</v>
-      </c>
-      <c r="E47" s="22" t="s">
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
+      <c r="D47" s="18">
+        <v>3</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H47" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="H47" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="18">
         <v>1001144</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="4">
         <v>1001115</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="18">
         <v>2</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="18">
         <v>4</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H48" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="H48" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="18">
         <v>1001145</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="4">
         <v>1001115</v>
       </c>
-      <c r="C49" s="22">
-        <v>3</v>
-      </c>
-      <c r="D49" s="22">
+      <c r="C49" s="18">
+        <v>3</v>
+      </c>
+      <c r="D49" s="18">
         <v>5</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="H49" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="17" customFormat="1">
       <c r="A50" s="15">
         <v>1002101</v>
       </c>
@@ -5681,7 +5648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="17" customFormat="1">
       <c r="A51" s="15">
         <v>1002102</v>
       </c>
@@ -5707,7 +5674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="17" customFormat="1">
       <c r="A52" s="15">
         <v>1002103</v>
       </c>
@@ -5733,85 +5700,85 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22">
+    <row r="53" spans="1:8" s="17" customFormat="1">
+      <c r="A53" s="18">
         <v>1002104</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="4">
         <v>1002102</v>
       </c>
-      <c r="C53" s="22">
-        <v>1</v>
-      </c>
-      <c r="D53" s="22">
-        <v>3</v>
-      </c>
-      <c r="E53" s="22" t="s">
+      <c r="C53" s="18">
+        <v>1</v>
+      </c>
+      <c r="D53" s="18">
+        <v>3</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H53" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
+      <c r="H53" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="17" customFormat="1">
+      <c r="A54" s="18">
         <v>1002105</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="4">
         <v>1002102</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="18">
         <v>2</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="18">
         <v>5</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H54" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="H54" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="17" customFormat="1">
+      <c r="A55" s="18">
         <v>1002106</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="4">
         <v>1002102</v>
       </c>
-      <c r="C55" s="22">
-        <v>3</v>
-      </c>
-      <c r="D55" s="22">
+      <c r="C55" s="18">
+        <v>3</v>
+      </c>
+      <c r="D55" s="18">
         <v>5</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G55" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H55" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="17" customFormat="1">
       <c r="A56" s="15">
         <v>1002107</v>
       </c>
@@ -5837,7 +5804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="17" customFormat="1">
       <c r="A57" s="15">
         <v>1002108</v>
       </c>
@@ -5863,7 +5830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="17" customFormat="1">
       <c r="A58" s="15">
         <v>1002109</v>
       </c>
@@ -5889,85 +5856,85 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="22">
+    <row r="59" spans="1:8" s="17" customFormat="1">
+      <c r="A59" s="18">
         <v>1002110</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="4">
         <v>1002104</v>
       </c>
-      <c r="C59" s="22">
-        <v>1</v>
-      </c>
-      <c r="D59" s="22">
-        <v>3</v>
-      </c>
-      <c r="E59" s="22" t="s">
+      <c r="C59" s="18">
+        <v>1</v>
+      </c>
+      <c r="D59" s="18">
+        <v>3</v>
+      </c>
+      <c r="E59" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H59" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="22">
+      <c r="H59" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="17" customFormat="1">
+      <c r="A60" s="18">
         <v>1002111</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="4">
         <v>1002104</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="18">
         <v>2</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="18">
         <v>5</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H60" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22">
+      <c r="H60" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="17" customFormat="1">
+      <c r="A61" s="18">
         <v>1002112</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="4">
         <v>1002104</v>
       </c>
-      <c r="C61" s="22">
-        <v>3</v>
-      </c>
-      <c r="D61" s="22">
+      <c r="C61" s="18">
+        <v>3</v>
+      </c>
+      <c r="D61" s="18">
         <v>5</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G61" s="24" t="s">
+      <c r="G61" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H61" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="17" customFormat="1">
       <c r="A62" s="15">
         <v>1002113</v>
       </c>
@@ -5993,7 +5960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="17" customFormat="1">
       <c r="A63" s="15">
         <v>1002114</v>
       </c>
@@ -6019,7 +5986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="17" customFormat="1">
       <c r="A64" s="15">
         <v>1002115</v>
       </c>
@@ -6045,85 +6012,85 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="22">
+    <row r="65" spans="1:8" s="17" customFormat="1">
+      <c r="A65" s="18">
         <v>1002116</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="4">
         <v>1002106</v>
       </c>
-      <c r="C65" s="22">
-        <v>1</v>
-      </c>
-      <c r="D65" s="22">
-        <v>3</v>
-      </c>
-      <c r="E65" s="22" t="s">
+      <c r="C65" s="18">
+        <v>1</v>
+      </c>
+      <c r="D65" s="18">
+        <v>3</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="G65" s="24" t="s">
+      <c r="G65" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H65" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="H65" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="17" customFormat="1">
+      <c r="A66" s="18">
         <v>1002117</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="4">
         <v>1002106</v>
       </c>
-      <c r="C66" s="22">
+      <c r="C66" s="18">
         <v>2</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="18">
         <v>5</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H66" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22">
+      <c r="H66" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="17" customFormat="1">
+      <c r="A67" s="18">
         <v>1002118</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="4">
         <v>1002106</v>
       </c>
-      <c r="C67" s="22">
-        <v>3</v>
-      </c>
-      <c r="D67" s="22">
+      <c r="C67" s="18">
+        <v>3</v>
+      </c>
+      <c r="D67" s="18">
         <v>5</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G67" s="24" t="s">
+      <c r="G67" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H67" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H67" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="17" customFormat="1">
       <c r="A68" s="15">
         <v>1002119</v>
       </c>
@@ -6149,7 +6116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="17" customFormat="1">
       <c r="A69" s="15">
         <v>1002120</v>
       </c>
@@ -6175,7 +6142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="17" customFormat="1">
       <c r="A70" s="15">
         <v>1002121</v>
       </c>
@@ -6201,85 +6168,85 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="22">
+    <row r="71" spans="1:8" s="17" customFormat="1">
+      <c r="A71" s="18">
         <v>1002122</v>
       </c>
-      <c r="B71" s="23">
+      <c r="B71" s="4">
         <v>1002108</v>
       </c>
-      <c r="C71" s="22">
-        <v>1</v>
-      </c>
-      <c r="D71" s="22">
-        <v>3</v>
-      </c>
-      <c r="E71" s="22" t="s">
+      <c r="C71" s="18">
+        <v>1</v>
+      </c>
+      <c r="D71" s="18">
+        <v>3</v>
+      </c>
+      <c r="E71" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F71" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G71" s="24" t="s">
+      <c r="G71" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H71" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="22">
+      <c r="H71" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="17" customFormat="1">
+      <c r="A72" s="18">
         <v>1002123</v>
       </c>
-      <c r="B72" s="23">
+      <c r="B72" s="4">
         <v>1002108</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C72" s="18">
         <v>2</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="18">
         <v>5</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G72" s="24" t="s">
+      <c r="G72" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H72" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="22">
+      <c r="H72" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="17" customFormat="1">
+      <c r="A73" s="18">
         <v>1002124</v>
       </c>
-      <c r="B73" s="23">
+      <c r="B73" s="4">
         <v>1002108</v>
       </c>
-      <c r="C73" s="22">
-        <v>3</v>
-      </c>
-      <c r="D73" s="22">
+      <c r="C73" s="18">
+        <v>3</v>
+      </c>
+      <c r="D73" s="18">
         <v>5</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F73" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="G73" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H73" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="17" customFormat="1">
       <c r="A74" s="15">
         <v>1002125</v>
       </c>
@@ -6305,7 +6272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="17" customFormat="1">
       <c r="A75" s="15">
         <v>1002126</v>
       </c>
@@ -6331,7 +6298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="17" customFormat="1">
       <c r="A76" s="15">
         <v>1002127</v>
       </c>
@@ -6357,85 +6324,85 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="22">
+    <row r="77" spans="1:8" s="17" customFormat="1">
+      <c r="A77" s="18">
         <v>1002128</v>
       </c>
-      <c r="B77" s="23">
+      <c r="B77" s="4">
         <v>1002110</v>
       </c>
-      <c r="C77" s="22">
-        <v>1</v>
-      </c>
-      <c r="D77" s="22">
-        <v>3</v>
-      </c>
-      <c r="E77" s="22" t="s">
+      <c r="C77" s="18">
+        <v>1</v>
+      </c>
+      <c r="D77" s="18">
+        <v>3</v>
+      </c>
+      <c r="E77" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="G77" s="24" t="s">
+      <c r="G77" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H77" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="22">
+      <c r="H77" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="17" customFormat="1">
+      <c r="A78" s="18">
         <v>1002129</v>
       </c>
-      <c r="B78" s="23">
+      <c r="B78" s="4">
         <v>1002110</v>
       </c>
-      <c r="C78" s="22">
+      <c r="C78" s="18">
         <v>2</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="18">
         <v>5</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="F78" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G78" s="24" t="s">
+      <c r="G78" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H78" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
+      <c r="H78" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="17" customFormat="1">
+      <c r="A79" s="18">
         <v>1002130</v>
       </c>
-      <c r="B79" s="23">
+      <c r="B79" s="4">
         <v>1002110</v>
       </c>
-      <c r="C79" s="22">
-        <v>3</v>
-      </c>
-      <c r="D79" s="22">
+      <c r="C79" s="18">
+        <v>3</v>
+      </c>
+      <c r="D79" s="18">
         <v>5</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G79" s="24" t="s">
+      <c r="G79" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="H79" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H79" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="17" customFormat="1">
       <c r="A80" s="15">
         <v>1002131</v>
       </c>
@@ -6461,7 +6428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="17" customFormat="1">
       <c r="A81" s="15">
         <v>1002132</v>
       </c>
@@ -6487,7 +6454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="17" customFormat="1">
       <c r="A82" s="15">
         <v>1002133</v>
       </c>
@@ -6513,85 +6480,85 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="22">
+    <row r="83" spans="1:8" s="17" customFormat="1">
+      <c r="A83" s="18">
         <v>1002134</v>
       </c>
-      <c r="B83" s="23">
+      <c r="B83" s="4">
         <v>1002112</v>
       </c>
-      <c r="C83" s="22">
-        <v>1</v>
-      </c>
-      <c r="D83" s="22">
-        <v>3</v>
-      </c>
-      <c r="E83" s="22" t="s">
+      <c r="C83" s="18">
+        <v>1</v>
+      </c>
+      <c r="D83" s="18">
+        <v>3</v>
+      </c>
+      <c r="E83" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H83" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="22">
+      <c r="H83" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="17" customFormat="1">
+      <c r="A84" s="18">
         <v>1002135</v>
       </c>
-      <c r="B84" s="23">
+      <c r="B84" s="4">
         <v>1002112</v>
       </c>
-      <c r="C84" s="22">
+      <c r="C84" s="18">
         <v>2</v>
       </c>
-      <c r="D84" s="22">
+      <c r="D84" s="18">
         <v>5</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G84" s="24" t="s">
+      <c r="G84" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H84" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="22">
+      <c r="H84" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="17" customFormat="1">
+      <c r="A85" s="18">
         <v>1002136</v>
       </c>
-      <c r="B85" s="23">
+      <c r="B85" s="4">
         <v>1002112</v>
       </c>
-      <c r="C85" s="22">
-        <v>3</v>
-      </c>
-      <c r="D85" s="22">
+      <c r="C85" s="18">
+        <v>3</v>
+      </c>
+      <c r="D85" s="18">
         <v>5</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F85" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G85" s="24" t="s">
+      <c r="G85" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="H85" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H85" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="17" customFormat="1">
       <c r="A86" s="15">
         <v>1002137</v>
       </c>
@@ -6617,7 +6584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="17" customFormat="1">
       <c r="A87" s="15">
         <v>1002138</v>
       </c>
@@ -6643,7 +6610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="17" customFormat="1">
       <c r="A88" s="15">
         <v>1002139</v>
       </c>
@@ -6669,85 +6636,85 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="22">
+    <row r="89" spans="1:8" s="17" customFormat="1">
+      <c r="A89" s="18">
         <v>1002140</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="4">
         <v>1002114</v>
       </c>
-      <c r="C89" s="22">
-        <v>1</v>
-      </c>
-      <c r="D89" s="22">
-        <v>3</v>
-      </c>
-      <c r="E89" s="22" t="s">
+      <c r="C89" s="18">
+        <v>1</v>
+      </c>
+      <c r="D89" s="18">
+        <v>3</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F89" s="22" t="s">
+      <c r="F89" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G89" s="24" t="s">
+      <c r="G89" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H89" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="22">
+      <c r="H89" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="17" customFormat="1">
+      <c r="A90" s="18">
         <v>1002141</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="4">
         <v>1002114</v>
       </c>
-      <c r="C90" s="22">
+      <c r="C90" s="18">
         <v>2</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="18">
         <v>5</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F90" s="22" t="s">
+      <c r="F90" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="G90" s="24" t="s">
+      <c r="G90" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="H90" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="22">
+      <c r="H90" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="17" customFormat="1">
+      <c r="A91" s="18">
         <v>1002142</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="4">
         <v>1002114</v>
       </c>
-      <c r="C91" s="22">
-        <v>3</v>
-      </c>
-      <c r="D91" s="22">
+      <c r="C91" s="18">
+        <v>3</v>
+      </c>
+      <c r="D91" s="18">
         <v>5</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F91" s="22" t="s">
+      <c r="F91" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="G91" s="24" t="s">
+      <c r="G91" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="H91" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H91" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="17" customFormat="1">
       <c r="A92" s="15">
         <v>1002143</v>
       </c>
@@ -6773,7 +6740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="17" customFormat="1">
       <c r="A93" s="15">
         <v>1002144</v>
       </c>
@@ -6799,7 +6766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="17" customFormat="1">
       <c r="A94" s="15">
         <v>1002145</v>
       </c>
@@ -6825,7 +6792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="20">
         <v>1003101</v>
       </c>
@@ -6844,14 +6811,14 @@
       <c r="F95" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="28" t="s">
+      <c r="G95" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H95" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" s="20">
         <v>1003102</v>
       </c>
@@ -6870,14 +6837,14 @@
       <c r="F96" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="G96" s="28" t="s">
+      <c r="G96" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H96" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" s="20">
         <v>1003103</v>
       </c>
@@ -6896,14 +6863,14 @@
       <c r="F97" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="G97" s="28" t="s">
+      <c r="G97" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H97" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" s="18">
         <v>1003104</v>
       </c>
@@ -6929,7 +6896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" s="18">
         <v>1003105</v>
       </c>
@@ -6955,7 +6922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" s="18">
         <v>1003106</v>
       </c>
@@ -6981,7 +6948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" s="20">
         <v>1003107</v>
       </c>
@@ -7000,14 +6967,14 @@
       <c r="F101" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="G101" s="28" t="s">
+      <c r="G101" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H101" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8">
       <c r="A102" s="20">
         <v>1003108</v>
       </c>
@@ -7026,14 +6993,14 @@
       <c r="F102" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="G102" s="28" t="s">
+      <c r="G102" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H102" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8">
       <c r="A103" s="20">
         <v>1003109</v>
       </c>
@@ -7052,14 +7019,14 @@
       <c r="F103" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="G103" s="28" t="s">
+      <c r="G103" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H103" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" s="18">
         <v>1003110</v>
       </c>
@@ -7085,7 +7052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8">
       <c r="A105" s="18">
         <v>1003111</v>
       </c>
@@ -7111,7 +7078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8">
       <c r="A106" s="18">
         <v>1003112</v>
       </c>
@@ -7137,7 +7104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8">
       <c r="A107" s="20">
         <v>1003113</v>
       </c>
@@ -7156,14 +7123,14 @@
       <c r="F107" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="G107" s="28" t="s">
+      <c r="G107" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H107" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8">
       <c r="A108" s="20">
         <v>1003114</v>
       </c>
@@ -7182,14 +7149,14 @@
       <c r="F108" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="G108" s="28" t="s">
+      <c r="G108" s="25" t="s">
         <v>174</v>
       </c>
       <c r="H108" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8">
       <c r="A109" s="20">
         <v>1003115</v>
       </c>
@@ -7208,14 +7175,14 @@
       <c r="F109" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="G109" s="28" t="s">
+      <c r="G109" s="25" t="s">
         <v>174</v>
       </c>
       <c r="H109" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8">
       <c r="A110" s="18">
         <v>1003116</v>
       </c>
@@ -7241,7 +7208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8">
       <c r="A111" s="18">
         <v>1003117</v>
       </c>
@@ -7267,7 +7234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8">
       <c r="A112" s="18">
         <v>1003118</v>
       </c>
@@ -7293,7 +7260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8">
       <c r="A113" s="20">
         <v>1003119</v>
       </c>
@@ -7312,14 +7279,14 @@
       <c r="F113" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="G113" s="28" t="s">
+      <c r="G113" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H113" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8">
       <c r="A114" s="20">
         <v>1003120</v>
       </c>
@@ -7338,14 +7305,14 @@
       <c r="F114" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="G114" s="28" t="s">
+      <c r="G114" s="25" t="s">
         <v>174</v>
       </c>
       <c r="H114" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8">
       <c r="A115" s="20">
         <v>1003121</v>
       </c>
@@ -7364,14 +7331,14 @@
       <c r="F115" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="G115" s="28" t="s">
+      <c r="G115" s="25" t="s">
         <v>176</v>
       </c>
       <c r="H115" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8">
       <c r="A116" s="18">
         <v>1003122</v>
       </c>
@@ -7397,7 +7364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8">
       <c r="A117" s="18">
         <v>1003123</v>
       </c>
@@ -7423,7 +7390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8">
       <c r="A118" s="18">
         <v>1003124</v>
       </c>
@@ -7449,7 +7416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8">
       <c r="A119" s="20">
         <v>1003125</v>
       </c>
@@ -7468,14 +7435,14 @@
       <c r="F119" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="G119" s="28" t="s">
+      <c r="G119" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H119" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8">
       <c r="A120" s="20">
         <v>1003126</v>
       </c>
@@ -7494,14 +7461,14 @@
       <c r="F120" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="G120" s="28" t="s">
+      <c r="G120" s="25" t="s">
         <v>174</v>
       </c>
       <c r="H120" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8">
       <c r="A121" s="20">
         <v>1003127</v>
       </c>
@@ -7520,14 +7487,14 @@
       <c r="F121" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="G121" s="28" t="s">
+      <c r="G121" s="25" t="s">
         <v>174</v>
       </c>
       <c r="H121" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8">
       <c r="A122" s="18">
         <v>1003128</v>
       </c>
@@ -7553,7 +7520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8">
       <c r="A123" s="18">
         <v>1003129</v>
       </c>
@@ -7579,7 +7546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8">
       <c r="A124" s="18">
         <v>1003130</v>
       </c>
@@ -7605,7 +7572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8">
       <c r="A125" s="20">
         <v>1003131</v>
       </c>
@@ -7624,14 +7591,14 @@
       <c r="F125" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="G125" s="28" t="s">
+      <c r="G125" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H125" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8">
       <c r="A126" s="20">
         <v>1003132</v>
       </c>
@@ -7650,14 +7617,14 @@
       <c r="F126" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="G126" s="28" t="s">
+      <c r="G126" s="25" t="s">
         <v>174</v>
       </c>
       <c r="H126" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8">
       <c r="A127" s="20">
         <v>1003133</v>
       </c>
@@ -7676,14 +7643,14 @@
       <c r="F127" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="G127" s="28" t="s">
+      <c r="G127" s="25" t="s">
         <v>180</v>
       </c>
       <c r="H127" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8">
       <c r="A128" s="18">
         <v>1003134</v>
       </c>
@@ -7709,7 +7676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" s="18">
         <v>1003135</v>
       </c>
@@ -7735,7 +7702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8">
       <c r="A130" s="18">
         <v>1003136</v>
       </c>
@@ -7761,7 +7728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8">
       <c r="A131" s="20">
         <v>1003137</v>
       </c>
@@ -7780,14 +7747,14 @@
       <c r="F131" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="G131" s="28" t="s">
+      <c r="G131" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H131" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8">
       <c r="A132" s="20">
         <v>1003138</v>
       </c>
@@ -7806,14 +7773,14 @@
       <c r="F132" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G132" s="28" t="s">
+      <c r="G132" s="25" t="s">
         <v>174</v>
       </c>
       <c r="H132" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8">
       <c r="A133" s="20">
         <v>1003139</v>
       </c>
@@ -7832,14 +7799,14 @@
       <c r="F133" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="G133" s="28" t="s">
+      <c r="G133" s="25" t="s">
         <v>180</v>
       </c>
       <c r="H133" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8">
       <c r="A134" s="18">
         <v>1003140</v>
       </c>
@@ -7865,7 +7832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8">
       <c r="A135" s="18">
         <v>1003141</v>
       </c>
@@ -7891,7 +7858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8">
       <c r="A136" s="18">
         <v>1003142</v>
       </c>
@@ -7917,7 +7884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8">
       <c r="A137" s="20">
         <v>1003143</v>
       </c>
@@ -7936,14 +7903,14 @@
       <c r="F137" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="G137" s="28" t="s">
+      <c r="G137" s="25" t="s">
         <v>101</v>
       </c>
       <c r="H137" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8">
       <c r="A138" s="20">
         <v>1003144</v>
       </c>
@@ -7962,14 +7929,14 @@
       <c r="F138" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="G138" s="28" t="s">
+      <c r="G138" s="25" t="s">
         <v>174</v>
       </c>
       <c r="H138" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8">
       <c r="A139" s="20">
         <v>1003145</v>
       </c>
@@ -7988,14 +7955,14 @@
       <c r="F139" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="G139" s="28" t="s">
+      <c r="G139" s="25" t="s">
         <v>186</v>
       </c>
       <c r="H139" s="20">
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8">
       <c r="A140" s="18">
         <v>9000001</v>
       </c>
@@ -8021,7 +7988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8">
       <c r="A141" s="18">
         <v>9000002</v>
       </c>
@@ -8047,7 +8014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8">
       <c r="A142" s="18">
         <v>9000003</v>
       </c>
@@ -8073,7 +8040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8">
       <c r="A143" s="18">
         <v>9000004</v>
       </c>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9AD109-CD15-44EB-B45F-F284AE3698FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F019A632-1098-4D7A-AF81-E9156BC36987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="750" yWindow="960" windowWidth="46545" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,8 +65,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="215">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,14 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1존 하드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1존 베리 하드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오더링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,14 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2존 하드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2존 베리 하드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3존 노말</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3존 베리 하드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웨이브 그룹ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -857,6 +860,14 @@
   </si>
   <si>
     <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#enemy_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 배치 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,8 +934,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -979,6 +997,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1009,7 +1039,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1088,12 +1118,48 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFEBEB"/>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1247,9 +1313,27 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1327,11 +1411,265 @@
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="32">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
       <sheetData sheetId="36" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="!Usable"/>
+      <sheetName val="!Desc"/>
+      <sheetName val="!참조_ENUM"/>
+      <sheetName val="npc_data"/>
+      <sheetName val="npc_battle_data"/>
+      <sheetName val="npc_stat_data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Npc_Battle_Data</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>전투 인덱스</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>배치 표시(기획)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>key_1:int</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>npc_battle_id</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>#string</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>100001</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>마력] 탱커(HP:대) - 마족투사</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>100002</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>100003</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>베리] 탱커(방어:대) - 거대 안드로이드</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>100004</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>마력] 근딜 - 엘프 레인저</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>100005</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>마력] 원딜 - 엘프 연금술사</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>100006</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>베리] 근딜 - 하급 안드로이드</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>100007</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>전기] 근딜(공:↓)- 소속대 소총병</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>100008</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>전기] 원딜(공:↓) - 소속대 척탄병</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>100009</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>베리] 원딜 - 고위 천사</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>100010</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>요력] 원딜 - 꼭두각시 인형</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>100011</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>마력] 원딜 - 엘프 연금술사(정예)</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>100012</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>마력] 탱커(HP:대) - 마족투사(정예)</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>100013</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>베리] 탱커(정예) - 거대 안드</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>100014</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>전기] 탱커(HP:중, 방어:소) - 거한</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>100015</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>전기] 근딜- 소속대 소총병</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>100016</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>전기] 원딜 - 소속대 척탄병</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>100017</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>요력] 서포터 - 꼭두각시 인형</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>100018</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>전기] 탱커(정예) - 거한</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>100019</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>전기] 원딜(정예: 방감) - 척탄병</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>100020</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>베리] 원딜(정예) - 고위 천사</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>100021</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>전기] 근딜(정예)- 소속대 소총병</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>100022</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>베리] 근딜(정예) - 하급 안드로이드</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>200001</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>보스_마네</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>900001</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>보스_엘리자베스</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1999,23 +2337,23 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -2026,13 +2364,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2040,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -2054,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2087,13 +2425,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>25</v>
@@ -2105,15 +2443,15 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -2128,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -2137,7 +2475,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -2151,16 +2489,16 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -2169,10 +2507,10 @@
         <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2205,60 +2543,60 @@
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4">
-        <v>10012</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10012</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="A6" s="21">
+        <v>10021</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <v>10021</v>
+      </c>
+      <c r="E6" s="21">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="21">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J6,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>82</v>
+      <c r="J6" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>10013</v>
+        <v>10031</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>10013</v>
+        <v>10031</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>32</v>
@@ -2271,205 +2609,40 @@
         <v>0</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="21">
-        <v>10021</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="4">
+        <v>10032</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="21">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
-        <v>10021</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10032</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="21">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="4">
         <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J8,'!참조_ENUM'!$G$3:$G$5,0))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="21">
-        <v>10022</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
-        <v>10022</v>
-      </c>
-      <c r="E9" s="21">
-        <v>2</v>
-      </c>
-      <c r="F9" s="21">
-        <v>2</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="21">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J9,'!참조_ENUM'!$G$3:$G$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="21">
-        <v>10023</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21">
-        <v>10023</v>
-      </c>
-      <c r="E10" s="21">
-        <v>2</v>
-      </c>
-      <c r="F10" s="21">
-        <v>3</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="21">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J10,'!참조_ENUM'!$G$3:$G$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4">
-        <v>10031</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>10031</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J11,'!참조_ENUM'!$G$3:$G$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4">
-        <v>10032</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10032</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J12,'!참조_ENUM'!$G$3:$G$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4">
-        <v>10033</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>10033</v>
-      </c>
-      <c r="E13" s="4">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="4">
-        <f>INDEX('!참조_ENUM'!$F$3:$F$5,MATCH(J13,'!참조_ENUM'!$G$3:$G$5,0))</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>82</v>
+      <c r="J8" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2656,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$G$3:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J5:J13</xm:sqref>
+          <xm:sqref>J5:J8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2493,10 +2666,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2520,42 +2693,42 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2596,37 +2769,37 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2643,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4">
         <v>10</v>
@@ -2681,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4">
         <v>10</v>
@@ -2719,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4">
         <v>10</v>
@@ -2757,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4">
         <v>10</v>
@@ -2795,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4">
         <v>10</v>
@@ -2833,7 +3006,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4">
         <v>10</v>
@@ -2871,7 +3044,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="4">
         <v>10</v>
@@ -2909,7 +3082,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4">
         <v>10</v>
@@ -2947,7 +3120,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
@@ -2985,7 +3158,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4">
         <v>10</v>
@@ -3023,7 +3196,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="4">
         <v>10</v>
@@ -3061,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="4">
         <v>10</v>
@@ -3099,7 +3272,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="4">
         <v>10</v>
@@ -3137,7 +3310,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="4">
         <v>10</v>
@@ -3175,7 +3348,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" s="4">
         <v>10</v>
@@ -3213,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="12">
         <v>10</v>
@@ -3251,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="12">
         <v>10</v>
@@ -3289,7 +3462,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="12">
         <v>10</v>
@@ -3327,7 +3500,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="12">
         <v>10</v>
@@ -3365,7 +3538,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F24" s="12">
         <v>10</v>
@@ -3403,7 +3576,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F25" s="12">
         <v>10</v>
@@ -3441,7 +3614,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F26" s="12">
         <v>10</v>
@@ -3479,7 +3652,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F27" s="12">
         <v>10</v>
@@ -3517,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" s="12">
         <v>10</v>
@@ -3555,7 +3728,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" s="12">
         <v>10</v>
@@ -3593,7 +3766,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" s="12">
         <v>10</v>
@@ -3631,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" s="12">
         <v>10</v>
@@ -3669,7 +3842,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" s="12">
         <v>10</v>
@@ -3707,7 +3880,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="12">
         <v>10</v>
@@ -3745,7 +3918,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F34" s="12">
         <v>10</v>
@@ -3783,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F35" s="4">
         <v>10</v>
@@ -3821,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F36" s="4">
         <v>10</v>
@@ -3859,7 +4032,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F37" s="4">
         <v>10</v>
@@ -3897,7 +4070,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="4">
         <v>10</v>
@@ -3935,7 +4108,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" s="4">
         <v>10</v>
@@ -3973,7 +4146,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F40" s="4">
         <v>10</v>
@@ -4011,7 +4184,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F41" s="4">
         <v>10</v>
@@ -4049,7 +4222,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="4">
         <v>10</v>
@@ -4087,7 +4260,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" s="4">
         <v>10</v>
@@ -4125,7 +4298,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F44" s="4">
         <v>10</v>
@@ -4163,7 +4336,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F45" s="4">
         <v>10</v>
@@ -4201,7 +4374,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="4">
         <v>10</v>
@@ -4239,7 +4412,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="4">
         <v>10</v>
@@ -4277,7 +4450,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F48" s="4">
         <v>10</v>
@@ -4315,7 +4488,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="4">
         <v>10</v>
@@ -4338,6 +4511,24 @@
       <c r="L49" s="4">
         <v>12001015</v>
       </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="26">
+        <v>1003201</v>
+      </c>
+      <c r="B50" s="26">
+        <v>10032</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4347,13 +4538,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4366,20 +4557,23 @@
     <col min="6" max="6" width="14.875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="9" max="9" width="171.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="12" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33">
+    <row r="2" spans="1:13" ht="33">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -4399,10 +4593,13 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4425,13 +4622,16 @@
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -4451,8 +4651,12 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="18">
         <v>1001101</v>
       </c>
@@ -4466,19 +4670,26 @@
         <v>3</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H5" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="35" t="str" cm="1">
+        <f t="array" ref="I5">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E5, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="18">
         <v>1001102</v>
       </c>
@@ -4492,19 +4703,24 @@
         <v>3</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H6" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="35" t="str" cm="1">
+        <f t="array" ref="I6">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E6, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="18">
         <v>1001103</v>
       </c>
@@ -4518,19 +4734,24 @@
         <v>3</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H7" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="35" t="str" cm="1">
+        <f t="array" ref="I7">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E7, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="22">
         <v>1001104</v>
       </c>
@@ -4544,19 +4765,24 @@
         <v>3</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H8" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="34" t="str" cm="1">
+        <f t="array" ref="I8">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E8, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="22">
         <v>1001105</v>
       </c>
@@ -4570,19 +4796,24 @@
         <v>3</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H9" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="34" t="str" cm="1">
+        <f t="array" ref="I9">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E9, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="22">
         <v>1001106</v>
       </c>
@@ -4596,19 +4827,24 @@
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H10" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="34" t="str" cm="1">
+        <f t="array" ref="I10">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E10, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="18">
         <v>1001107</v>
       </c>
@@ -4622,19 +4858,24 @@
         <v>3</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H11" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="35" t="str" cm="1">
+        <f t="array" ref="I11">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E11, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="18">
         <v>1001108</v>
       </c>
@@ -4648,19 +4889,24 @@
         <v>3</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H12" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="35" t="str" cm="1">
+        <f t="array" ref="I12">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E12, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="18">
         <v>1001109</v>
       </c>
@@ -4674,19 +4920,24 @@
         <v>3</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H13" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="35" t="str" cm="1">
+        <f t="array" ref="I13">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E13, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="22">
         <v>1001110</v>
       </c>
@@ -4700,19 +4951,24 @@
         <v>3</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H14" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="34" t="str" cm="1">
+        <f t="array" ref="I14">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E14, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="22">
         <v>1001111</v>
       </c>
@@ -4726,19 +4982,24 @@
         <v>3</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H15" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="34" t="str" cm="1">
+        <f t="array" ref="I15">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E15, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="22">
         <v>1001112</v>
       </c>
@@ -4752,19 +5013,23 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H16" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="34" t="str" cm="1">
+        <f t="array" ref="I16">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E16, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="18">
         <v>1001113</v>
       </c>
@@ -4778,19 +5043,23 @@
         <v>3</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H17" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="35" t="str" cm="1">
+        <f t="array" ref="I17">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E17, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="18">
         <v>1001114</v>
       </c>
@@ -4804,19 +5073,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H18" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="35" t="str" cm="1">
+        <f t="array" ref="I18">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E18, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="18">
         <v>1001115</v>
       </c>
@@ -4830,19 +5103,23 @@
         <v>4</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H19" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="35" t="str" cm="1">
+        <f t="array" ref="I19">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E19, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="22">
         <v>1001116</v>
       </c>
@@ -4856,19 +5133,23 @@
         <v>3</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H20" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="34" t="str" cm="1">
+        <f t="array" ref="I20">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E20, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="22">
         <v>1001117</v>
       </c>
@@ -4882,19 +5163,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H21" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="34" t="str" cm="1">
+        <f t="array" ref="I21">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E21, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="22">
         <v>1001118</v>
       </c>
@@ -4908,19 +5193,23 @@
         <v>4</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H22" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="34" t="str" cm="1">
+        <f t="array" ref="I22">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E22, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="18">
         <v>1001119</v>
       </c>
@@ -4934,19 +5223,23 @@
         <v>3</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H23" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="35" t="str" cm="1">
+        <f t="array" ref="I23">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E23, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="18">
         <v>1001120</v>
       </c>
@@ -4960,19 +5253,23 @@
         <v>4</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H24" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="35" t="str" cm="1">
+        <f t="array" ref="I24">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E24, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="18">
         <v>1001121</v>
       </c>
@@ -4986,19 +5283,23 @@
         <v>4</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H25" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="35" t="str" cm="1">
+        <f t="array" ref="I25">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E25, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="22">
         <v>1001122</v>
       </c>
@@ -5012,19 +5313,23 @@
         <v>3</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H26" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="34" t="str" cm="1">
+        <f t="array" ref="I26">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E26, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="22">
         <v>1001123</v>
       </c>
@@ -5038,19 +5343,23 @@
         <v>4</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H27" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="34" t="str" cm="1">
+        <f t="array" ref="I27">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E27, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="22">
         <v>1001124</v>
       </c>
@@ -5064,19 +5373,23 @@
         <v>4</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H28" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="34" t="str" cm="1">
+        <f t="array" ref="I28">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E28, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="18">
         <v>1001125</v>
       </c>
@@ -5090,19 +5403,23 @@
         <v>3</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H29" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="35" t="str" cm="1">
+        <f t="array" ref="I29">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E29, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="18">
         <v>1001126</v>
       </c>
@@ -5116,19 +5433,23 @@
         <v>4</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H30" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="35" t="str" cm="1">
+        <f t="array" ref="I30">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E30, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="18">
         <v>1001127</v>
       </c>
@@ -5142,19 +5463,23 @@
         <v>4</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H31" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="35" t="str" cm="1">
+        <f t="array" ref="I31">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E31, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="22">
         <v>1001128</v>
       </c>
@@ -5168,19 +5493,23 @@
         <v>3</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H32" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="34" t="str" cm="1">
+        <f t="array" ref="I32">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E32, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="22">
         <v>1001129</v>
       </c>
@@ -5194,19 +5523,23 @@
         <v>4</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H33" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="34" t="str" cm="1">
+        <f t="array" ref="I33">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E33, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="22">
         <v>1001130</v>
       </c>
@@ -5220,19 +5553,23 @@
         <v>5</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H34" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="34" t="str" cm="1">
+        <f t="array" ref="I34">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E34, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="18">
         <v>1001131</v>
       </c>
@@ -5246,19 +5583,23 @@
         <v>3</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H35" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="35" t="str" cm="1">
+        <f t="array" ref="I35">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E35, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="18">
         <v>1001132</v>
       </c>
@@ -5272,19 +5613,23 @@
         <v>4</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H36" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="35" t="str" cm="1">
+        <f t="array" ref="I36">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E36, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="18">
         <v>1001133</v>
       </c>
@@ -5298,19 +5643,23 @@
         <v>4</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H37" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="35" t="str" cm="1">
+        <f t="array" ref="I37">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E37, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="22">
         <v>1001134</v>
       </c>
@@ -5324,19 +5673,23 @@
         <v>3</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H38" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="34" t="str" cm="1">
+        <f t="array" ref="I38">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E38, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="22">
         <v>1001135</v>
       </c>
@@ -5350,19 +5703,23 @@
         <v>4</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H39" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="34" t="str" cm="1">
+        <f t="array" ref="I39">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E39, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="22">
         <v>1001136</v>
       </c>
@@ -5376,19 +5733,23 @@
         <v>4</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H40" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="34" t="str" cm="1">
+        <f t="array" ref="I40">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E40, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="18">
         <v>1001137</v>
       </c>
@@ -5402,19 +5763,23 @@
         <v>3</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H41" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="35" t="str" cm="1">
+        <f t="array" ref="I41">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E41, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="18">
         <v>1001138</v>
       </c>
@@ -5428,19 +5793,23 @@
         <v>4</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H42" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="35" t="str" cm="1">
+        <f t="array" ref="I42">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E42, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="18">
         <v>1001139</v>
       </c>
@@ -5454,19 +5823,23 @@
         <v>4</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H43" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="35" t="str" cm="1">
+        <f t="array" ref="I43">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E43, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="22">
         <v>1001140</v>
       </c>
@@ -5480,19 +5853,23 @@
         <v>3</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H44" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="34" t="str" cm="1">
+        <f t="array" ref="I44">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E44, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="22">
         <v>1001141</v>
       </c>
@@ -5506,19 +5883,23 @@
         <v>4</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H45" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="34" t="str" cm="1">
+        <f t="array" ref="I45">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E45, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="22">
         <v>1001142</v>
       </c>
@@ -5532,19 +5913,23 @@
         <v>4</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H46" s="22">
         <v>30</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="34" t="str" cm="1">
+        <f t="array" ref="I46">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E46, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="18">
         <v>1001143</v>
       </c>
@@ -5558,19 +5943,23 @@
         <v>3</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H47" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="35" t="str" cm="1">
+        <f t="array" ref="I47">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E47, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="18">
         <v>1001144</v>
       </c>
@@ -5584,19 +5973,23 @@
         <v>4</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H48" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="35" t="str" cm="1">
+        <f t="array" ref="I48">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E48, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="18">
         <v>1001145</v>
       </c>
@@ -5610,19 +6003,23 @@
         <v>5</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H49" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" s="17" customFormat="1">
+      <c r="I49" s="35" t="str" cm="1">
+        <f t="array" ref="I49">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E49, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     베리] 탱커(정예) - 거대 안드     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="17" customFormat="1">
       <c r="A50" s="15">
         <v>1002101</v>
       </c>
@@ -5636,19 +6033,23 @@
         <v>4</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H50" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" s="17" customFormat="1">
+      <c r="I50" s="34" t="str" cm="1">
+        <f t="array" ref="I50">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E50, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="17" customFormat="1">
       <c r="A51" s="15">
         <v>1002102</v>
       </c>
@@ -5662,19 +6063,23 @@
         <v>5</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H51" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" s="17" customFormat="1">
+      <c r="I51" s="34" t="str" cm="1">
+        <f t="array" ref="I51">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E51, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="17" customFormat="1">
       <c r="A52" s="15">
         <v>1002103</v>
       </c>
@@ -5688,19 +6093,23 @@
         <v>5</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H52" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" s="17" customFormat="1">
+      <c r="I52" s="34" t="str" cm="1">
+        <f t="array" ref="I52">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E52, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="17" customFormat="1">
       <c r="A53" s="18">
         <v>1002104</v>
       </c>
@@ -5714,19 +6123,23 @@
         <v>3</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H53" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" s="17" customFormat="1">
+      <c r="I53" s="35" t="str" cm="1">
+        <f t="array" ref="I53">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E53, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="17" customFormat="1">
       <c r="A54" s="18">
         <v>1002105</v>
       </c>
@@ -5740,19 +6153,23 @@
         <v>5</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H54" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" s="17" customFormat="1">
+      <c r="I54" s="35" t="str" cm="1">
+        <f t="array" ref="I54">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E54, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="17" customFormat="1">
       <c r="A55" s="18">
         <v>1002106</v>
       </c>
@@ -5766,19 +6183,23 @@
         <v>5</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H55" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" s="17" customFormat="1">
+      <c r="I55" s="35" t="str" cm="1">
+        <f t="array" ref="I55">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E55, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="17" customFormat="1">
       <c r="A56" s="15">
         <v>1002107</v>
       </c>
@@ -5792,19 +6213,23 @@
         <v>3</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H56" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" s="17" customFormat="1">
+      <c r="I56" s="34" t="str" cm="1">
+        <f t="array" ref="I56">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E56, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="17" customFormat="1">
       <c r="A57" s="15">
         <v>1002108</v>
       </c>
@@ -5818,19 +6243,23 @@
         <v>5</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H57" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" s="17" customFormat="1">
+      <c r="I57" s="34" t="str" cm="1">
+        <f t="array" ref="I57">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E57, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="17" customFormat="1">
       <c r="A58" s="15">
         <v>1002109</v>
       </c>
@@ -5844,19 +6273,23 @@
         <v>5</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H58" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" s="17" customFormat="1">
+      <c r="I58" s="34" t="str" cm="1">
+        <f t="array" ref="I58">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E58, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="17" customFormat="1">
       <c r="A59" s="18">
         <v>1002110</v>
       </c>
@@ -5870,19 +6303,23 @@
         <v>3</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H59" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" s="17" customFormat="1">
+      <c r="I59" s="35" t="str" cm="1">
+        <f t="array" ref="I59">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E59, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="17" customFormat="1">
       <c r="A60" s="18">
         <v>1002111</v>
       </c>
@@ -5896,19 +6333,23 @@
         <v>5</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H60" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" s="17" customFormat="1">
+      <c r="I60" s="35" t="str" cm="1">
+        <f t="array" ref="I60">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E60, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="17" customFormat="1">
       <c r="A61" s="18">
         <v>1002112</v>
       </c>
@@ -5922,19 +6363,23 @@
         <v>5</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H61" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" s="17" customFormat="1">
+      <c r="I61" s="35" t="str" cm="1">
+        <f t="array" ref="I61">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E61, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="17" customFormat="1">
       <c r="A62" s="15">
         <v>1002113</v>
       </c>
@@ -5948,19 +6393,23 @@
         <v>3</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H62" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" s="17" customFormat="1">
+      <c r="I62" s="34" t="str" cm="1">
+        <f t="array" ref="I62">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E62, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="17" customFormat="1">
       <c r="A63" s="15">
         <v>1002114</v>
       </c>
@@ -5974,19 +6423,23 @@
         <v>5</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H63" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" s="17" customFormat="1">
+      <c r="I63" s="34" t="str" cm="1">
+        <f t="array" ref="I63">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E63, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="17" customFormat="1">
       <c r="A64" s="15">
         <v>1002115</v>
       </c>
@@ -6000,19 +6453,23 @@
         <v>5</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H64" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" s="17" customFormat="1">
+      <c r="I64" s="34" t="str" cm="1">
+        <f t="array" ref="I64">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E64, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="17" customFormat="1">
       <c r="A65" s="18">
         <v>1002116</v>
       </c>
@@ -6026,19 +6483,23 @@
         <v>3</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H65" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" s="17" customFormat="1">
+      <c r="I65" s="35" t="str" cm="1">
+        <f t="array" ref="I65">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E65, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="17" customFormat="1">
       <c r="A66" s="18">
         <v>1002117</v>
       </c>
@@ -6052,19 +6513,23 @@
         <v>5</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H66" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" s="17" customFormat="1">
+      <c r="I66" s="35" t="str" cm="1">
+        <f t="array" ref="I66">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E66, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="17" customFormat="1">
       <c r="A67" s="18">
         <v>1002118</v>
       </c>
@@ -6078,19 +6543,23 @@
         <v>5</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H67" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" s="17" customFormat="1">
+      <c r="I67" s="35" t="str" cm="1">
+        <f t="array" ref="I67">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E67, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="17" customFormat="1">
       <c r="A68" s="15">
         <v>1002119</v>
       </c>
@@ -6104,19 +6573,23 @@
         <v>3</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H68" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" s="17" customFormat="1">
+      <c r="I68" s="34" t="str" cm="1">
+        <f t="array" ref="I68">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E68, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="17" customFormat="1">
       <c r="A69" s="15">
         <v>1002120</v>
       </c>
@@ -6130,19 +6603,23 @@
         <v>5</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H69" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" s="17" customFormat="1">
+      <c r="I69" s="34" t="str" cm="1">
+        <f t="array" ref="I69">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E69, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="17" customFormat="1">
       <c r="A70" s="15">
         <v>1002121</v>
       </c>
@@ -6156,19 +6633,23 @@
         <v>5</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H70" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" s="17" customFormat="1">
+      <c r="I70" s="34" t="str" cm="1">
+        <f t="array" ref="I70">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E70, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="17" customFormat="1">
       <c r="A71" s="18">
         <v>1002122</v>
       </c>
@@ -6182,19 +6663,23 @@
         <v>3</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H71" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" s="17" customFormat="1">
+      <c r="I71" s="35" t="str" cm="1">
+        <f t="array" ref="I71">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E71, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="17" customFormat="1">
       <c r="A72" s="18">
         <v>1002123</v>
       </c>
@@ -6208,19 +6693,23 @@
         <v>5</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H72" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" s="17" customFormat="1">
+      <c r="I72" s="35" t="str" cm="1">
+        <f t="array" ref="I72">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E72, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="17" customFormat="1">
       <c r="A73" s="18">
         <v>1002124</v>
       </c>
@@ -6234,19 +6723,23 @@
         <v>5</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H73" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" s="17" customFormat="1">
+      <c r="I73" s="35" t="str" cm="1">
+        <f t="array" ref="I73">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E73, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="17" customFormat="1">
       <c r="A74" s="15">
         <v>1002125</v>
       </c>
@@ -6260,19 +6753,23 @@
         <v>3</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H74" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" s="17" customFormat="1">
+      <c r="I74" s="34" t="str" cm="1">
+        <f t="array" ref="I74">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E74, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="17" customFormat="1">
       <c r="A75" s="15">
         <v>1002126</v>
       </c>
@@ -6286,19 +6783,23 @@
         <v>5</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H75" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" s="17" customFormat="1">
+      <c r="I75" s="34" t="str" cm="1">
+        <f t="array" ref="I75">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E75, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="17" customFormat="1">
       <c r="A76" s="15">
         <v>1002127</v>
       </c>
@@ -6312,19 +6813,23 @@
         <v>5</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H76" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" s="17" customFormat="1">
+      <c r="I76" s="34" t="str" cm="1">
+        <f t="array" ref="I76">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E76, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="17" customFormat="1">
       <c r="A77" s="18">
         <v>1002128</v>
       </c>
@@ -6338,19 +6843,23 @@
         <v>3</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H77" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" s="17" customFormat="1">
+      <c r="I77" s="35" t="str" cm="1">
+        <f t="array" ref="I77">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E77, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="17" customFormat="1">
       <c r="A78" s="18">
         <v>1002129</v>
       </c>
@@ -6364,19 +6873,23 @@
         <v>5</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H78" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" s="17" customFormat="1">
+      <c r="I78" s="35" t="str" cm="1">
+        <f t="array" ref="I78">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E78, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="17" customFormat="1">
       <c r="A79" s="18">
         <v>1002130</v>
       </c>
@@ -6390,19 +6903,23 @@
         <v>5</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H79" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" s="17" customFormat="1">
+      <c r="I79" s="35" t="str" cm="1">
+        <f t="array" ref="I79">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E79, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="17" customFormat="1">
       <c r="A80" s="15">
         <v>1002131</v>
       </c>
@@ -6416,19 +6933,23 @@
         <v>3</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H80" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" s="17" customFormat="1">
+      <c r="I80" s="34" t="str" cm="1">
+        <f t="array" ref="I80">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E80, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="17" customFormat="1">
       <c r="A81" s="15">
         <v>1002132</v>
       </c>
@@ -6442,19 +6963,23 @@
         <v>5</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H81" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" s="17" customFormat="1">
+      <c r="I81" s="34" t="str" cm="1">
+        <f t="array" ref="I81">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E81, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="17" customFormat="1">
       <c r="A82" s="15">
         <v>1002133</v>
       </c>
@@ -6468,19 +6993,23 @@
         <v>5</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H82" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" s="17" customFormat="1">
+      <c r="I82" s="34" t="str" cm="1">
+        <f t="array" ref="I82">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E82, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="17" customFormat="1">
       <c r="A83" s="18">
         <v>1002134</v>
       </c>
@@ -6494,19 +7023,23 @@
         <v>3</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H83" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" s="17" customFormat="1">
+      <c r="I83" s="35" t="str" cm="1">
+        <f t="array" ref="I83">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E83, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="17" customFormat="1">
       <c r="A84" s="18">
         <v>1002135</v>
       </c>
@@ -6520,19 +7053,23 @@
         <v>5</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H84" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" s="17" customFormat="1">
+      <c r="I84" s="35" t="str" cm="1">
+        <f t="array" ref="I84">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E84, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="17" customFormat="1">
       <c r="A85" s="18">
         <v>1002136</v>
       </c>
@@ -6546,19 +7083,23 @@
         <v>5</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H85" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" s="17" customFormat="1">
+      <c r="I85" s="35" t="str" cm="1">
+        <f t="array" ref="I85">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E85, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="17" customFormat="1">
       <c r="A86" s="15">
         <v>1002137</v>
       </c>
@@ -6572,19 +7113,23 @@
         <v>3</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H86" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" s="17" customFormat="1">
+      <c r="I86" s="34" t="str" cm="1">
+        <f t="array" ref="I86">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E86, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="17" customFormat="1">
       <c r="A87" s="15">
         <v>1002138</v>
       </c>
@@ -6598,19 +7143,23 @@
         <v>5</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H87" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" s="17" customFormat="1">
+      <c r="I87" s="34" t="str" cm="1">
+        <f t="array" ref="I87">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E87, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="17" customFormat="1">
       <c r="A88" s="15">
         <v>1002139</v>
       </c>
@@ -6624,19 +7173,23 @@
         <v>5</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H88" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" s="17" customFormat="1">
+      <c r="I88" s="34" t="str" cm="1">
+        <f t="array" ref="I88">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E88, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="17" customFormat="1">
       <c r="A89" s="18">
         <v>1002140</v>
       </c>
@@ -6650,19 +7203,23 @@
         <v>3</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H89" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" s="17" customFormat="1">
+      <c r="I89" s="35" t="str" cm="1">
+        <f t="array" ref="I89">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E89, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="17" customFormat="1">
       <c r="A90" s="18">
         <v>1002141</v>
       </c>
@@ -6676,19 +7233,23 @@
         <v>5</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H90" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" s="17" customFormat="1">
+      <c r="I90" s="35" t="str" cm="1">
+        <f t="array" ref="I90">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E90, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="17" customFormat="1">
       <c r="A91" s="18">
         <v>1002142</v>
       </c>
@@ -6702,19 +7263,23 @@
         <v>5</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H91" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" s="17" customFormat="1">
+      <c r="I91" s="35" t="str" cm="1">
+        <f t="array" ref="I91">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E91, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="17" customFormat="1">
       <c r="A92" s="15">
         <v>1002143</v>
       </c>
@@ -6728,19 +7293,23 @@
         <v>3</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H92" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" s="17" customFormat="1">
+      <c r="I92" s="34" t="str" cm="1">
+        <f t="array" ref="I92">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E92, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="17" customFormat="1">
       <c r="A93" s="15">
         <v>1002144</v>
       </c>
@@ -6754,19 +7323,23 @@
         <v>5</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H93" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" s="17" customFormat="1">
+      <c r="I93" s="34" t="str" cm="1">
+        <f t="array" ref="I93">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E93, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="17" customFormat="1">
       <c r="A94" s="15">
         <v>1002145</v>
       </c>
@@ -6780,19 +7353,23 @@
         <v>5</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H94" s="15">
         <v>30</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="34" t="str" cm="1">
+        <f t="array" ref="I94">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E94, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     베리] 탱커(정예) - 거대 안드     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="20">
         <v>1003101</v>
       </c>
@@ -6806,19 +7383,23 @@
         <v>4</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G95" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H95" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="35" t="str" cm="1">
+        <f t="array" ref="I95">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E95, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="20">
         <v>1003102</v>
       </c>
@@ -6832,19 +7413,23 @@
         <v>5</v>
       </c>
       <c r="E96" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H96" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="35" t="str" cm="1">
+        <f t="array" ref="I96">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E96, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="20">
         <v>1003103</v>
       </c>
@@ -6858,19 +7443,23 @@
         <v>5</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H97" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="35" t="str" cm="1">
+        <f t="array" ref="I97">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E97, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="18">
         <v>1003104</v>
       </c>
@@ -6884,19 +7473,23 @@
         <v>3</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H98" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="34" t="str" cm="1">
+        <f t="array" ref="I98">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E98, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="18">
         <v>1003105</v>
       </c>
@@ -6910,19 +7503,23 @@
         <v>5</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H99" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="34" t="str" cm="1">
+        <f t="array" ref="I99">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E99, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="18">
         <v>1003106</v>
       </c>
@@ -6936,19 +7533,23 @@
         <v>5</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H100" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="34" t="str" cm="1">
+        <f t="array" ref="I100">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E100, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="20">
         <v>1003107</v>
       </c>
@@ -6962,19 +7563,23 @@
         <v>3</v>
       </c>
       <c r="E101" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H101" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="35" t="str" cm="1">
+        <f t="array" ref="I101">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E101, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="20">
         <v>1003108</v>
       </c>
@@ -6988,19 +7593,23 @@
         <v>5</v>
       </c>
       <c r="E102" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H102" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="35" t="str" cm="1">
+        <f t="array" ref="I102">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E102, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="20">
         <v>1003109</v>
       </c>
@@ -7014,19 +7623,23 @@
         <v>5</v>
       </c>
       <c r="E103" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G103" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H103" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="35" t="str" cm="1">
+        <f t="array" ref="I103">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E103, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="18">
         <v>1003110</v>
       </c>
@@ -7040,19 +7653,23 @@
         <v>3</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H104" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="34" t="str" cm="1">
+        <f t="array" ref="I104">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E104, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="18">
         <v>1003111</v>
       </c>
@@ -7066,19 +7683,23 @@
         <v>5</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H105" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="34" t="str" cm="1">
+        <f t="array" ref="I105">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E105, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="18">
         <v>1003112</v>
       </c>
@@ -7092,19 +7713,23 @@
         <v>5</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H106" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="34" t="str" cm="1">
+        <f t="array" ref="I106">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E106, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="20">
         <v>1003113</v>
       </c>
@@ -7118,19 +7743,23 @@
         <v>3</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H107" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="35" t="str" cm="1">
+        <f t="array" ref="I107">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E107, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="20">
         <v>1003114</v>
       </c>
@@ -7144,19 +7773,23 @@
         <v>5</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H108" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="35" t="str" cm="1">
+        <f t="array" ref="I108">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E108, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="20">
         <v>1003115</v>
       </c>
@@ -7170,19 +7803,23 @@
         <v>5</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H109" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="35" t="str" cm="1">
+        <f t="array" ref="I109">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E109, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="18">
         <v>1003116</v>
       </c>
@@ -7196,19 +7833,23 @@
         <v>3</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H110" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="34" t="str" cm="1">
+        <f t="array" ref="I110">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E110, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="18">
         <v>1003117</v>
       </c>
@@ -7222,19 +7863,23 @@
         <v>5</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H111" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="34" t="str" cm="1">
+        <f t="array" ref="I111">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E111, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="18">
         <v>1003118</v>
       </c>
@@ -7248,19 +7893,23 @@
         <v>5</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H112" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="34" t="str" cm="1">
+        <f t="array" ref="I112">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E112, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="20">
         <v>1003119</v>
       </c>
@@ -7274,19 +7923,23 @@
         <v>3</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G113" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H113" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="35" t="str" cm="1">
+        <f t="array" ref="I113">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E113, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="20">
         <v>1003120</v>
       </c>
@@ -7300,19 +7953,23 @@
         <v>5</v>
       </c>
       <c r="E114" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H114" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="35" t="str" cm="1">
+        <f t="array" ref="I114">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E114, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="20">
         <v>1003121</v>
       </c>
@@ -7326,19 +7983,23 @@
         <v>5</v>
       </c>
       <c r="E115" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H115" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="35" t="str" cm="1">
+        <f t="array" ref="I115">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E115, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="18">
         <v>1003122</v>
       </c>
@@ -7352,19 +8013,23 @@
         <v>3</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H116" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="34" t="str" cm="1">
+        <f t="array" ref="I116">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E116, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="18">
         <v>1003123</v>
       </c>
@@ -7378,19 +8043,23 @@
         <v>5</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H117" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="34" t="str" cm="1">
+        <f t="array" ref="I117">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E117, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="18">
         <v>1003124</v>
       </c>
@@ -7404,19 +8073,23 @@
         <v>5</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H118" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="34" t="str" cm="1">
+        <f t="array" ref="I118">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E118, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="20">
         <v>1003125</v>
       </c>
@@ -7430,19 +8103,23 @@
         <v>3</v>
       </c>
       <c r="E119" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F119" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G119" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H119" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="35" t="str" cm="1">
+        <f t="array" ref="I119">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E119, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="20">
         <v>1003126</v>
       </c>
@@ -7456,19 +8133,23 @@
         <v>5</v>
       </c>
       <c r="E120" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G120" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H120" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" s="35" t="str" cm="1">
+        <f t="array" ref="I120">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E120, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="20">
         <v>1003127</v>
       </c>
@@ -7482,19 +8163,23 @@
         <v>5</v>
       </c>
       <c r="E121" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G121" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H121" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" s="35" t="str" cm="1">
+        <f t="array" ref="I121">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E121, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="18">
         <v>1003128</v>
       </c>
@@ -7508,19 +8193,23 @@
         <v>3</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H122" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" s="34" t="str" cm="1">
+        <f t="array" ref="I122">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E122, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="18">
         <v>1003129</v>
       </c>
@@ -7534,19 +8223,23 @@
         <v>5</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H123" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" s="34" t="str" cm="1">
+        <f t="array" ref="I123">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E123, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="18">
         <v>1003130</v>
       </c>
@@ -7560,19 +8253,23 @@
         <v>5</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H124" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" s="34" t="str" cm="1">
+        <f t="array" ref="I124">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E124, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="20">
         <v>1003131</v>
       </c>
@@ -7586,19 +8283,23 @@
         <v>3</v>
       </c>
       <c r="E125" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H125" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" s="35" t="str" cm="1">
+        <f t="array" ref="I125">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E125, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="20">
         <v>1003132</v>
       </c>
@@ -7612,19 +8313,23 @@
         <v>5</v>
       </c>
       <c r="E126" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F126" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G126" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H126" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" s="35" t="str" cm="1">
+        <f t="array" ref="I126">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E126, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="20">
         <v>1003133</v>
       </c>
@@ -7638,19 +8343,23 @@
         <v>5</v>
       </c>
       <c r="E127" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H127" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" s="35" t="str" cm="1">
+        <f t="array" ref="I127">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E127, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="18">
         <v>1003134</v>
       </c>
@@ -7664,19 +8373,23 @@
         <v>3</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H128" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" s="34" t="str" cm="1">
+        <f t="array" ref="I128">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E128, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="18">
         <v>1003135</v>
       </c>
@@ -7690,19 +8403,23 @@
         <v>5</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H129" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" s="34" t="str" cm="1">
+        <f t="array" ref="I129">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E129, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="18">
         <v>1003136</v>
       </c>
@@ -7716,19 +8433,23 @@
         <v>5</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H130" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" s="34" t="str" cm="1">
+        <f t="array" ref="I130">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E130, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="20">
         <v>1003137</v>
       </c>
@@ -7742,19 +8463,23 @@
         <v>3</v>
       </c>
       <c r="E131" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G131" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H131" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" s="35" t="str" cm="1">
+        <f t="array" ref="I131">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E131, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="20">
         <v>1003138</v>
       </c>
@@ -7768,19 +8493,23 @@
         <v>5</v>
       </c>
       <c r="E132" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H132" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" s="35" t="str" cm="1">
+        <f t="array" ref="I132">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E132, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="20">
         <v>1003139</v>
       </c>
@@ -7794,19 +8523,23 @@
         <v>5</v>
       </c>
       <c r="E133" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G133" s="25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H133" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" s="35" t="str" cm="1">
+        <f t="array" ref="I133">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E133, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="18">
         <v>1003140</v>
       </c>
@@ -7820,19 +8553,23 @@
         <v>3</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H134" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" s="34" t="str" cm="1">
+        <f t="array" ref="I134">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E134, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="18">
         <v>1003141</v>
       </c>
@@ -7846,19 +8583,23 @@
         <v>5</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H135" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" s="34" t="str" cm="1">
+        <f t="array" ref="I135">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E135, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="18">
         <v>1003142</v>
       </c>
@@ -7872,19 +8613,23 @@
         <v>5</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H136" s="18">
         <v>30</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" s="34" t="str" cm="1">
+        <f t="array" ref="I136">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E136, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="20">
         <v>1003143</v>
       </c>
@@ -7898,19 +8643,23 @@
         <v>3</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G137" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H137" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" s="35" t="str" cm="1">
+        <f t="array" ref="I137">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E137, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="20">
         <v>1003144</v>
       </c>
@@ -7924,19 +8673,23 @@
         <v>5</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G138" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H138" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" s="35" t="str" cm="1">
+        <f t="array" ref="I138">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E138, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="20">
         <v>1003145</v>
       </c>
@@ -7950,120 +8703,1040 @@
         <v>5</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G139" s="25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H139" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="18">
+      <c r="I139" s="35" t="str" cm="1">
+        <f t="array" ref="I139">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E139, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     베리] 탱커(정예) - 거대 안드     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="27">
+        <v>1003201</v>
+      </c>
+      <c r="B140" s="26">
+        <v>1003201</v>
+      </c>
+      <c r="C140" s="27">
+        <v>1</v>
+      </c>
+      <c r="D140" s="27">
+        <v>4</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G140" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H140" s="27">
+        <v>30</v>
+      </c>
+      <c r="I140" s="34" t="str" cm="1">
+        <f t="array" ref="I140">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E140, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="27">
+        <v>1003202</v>
+      </c>
+      <c r="B141" s="26">
+        <v>1003201</v>
+      </c>
+      <c r="C141" s="27">
+        <v>2</v>
+      </c>
+      <c r="D141" s="27">
+        <v>5</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G141" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H141" s="27">
+        <v>30</v>
+      </c>
+      <c r="I141" s="34" t="str" cm="1">
+        <f t="array" ref="I141">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E141, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="27">
+        <v>1003203</v>
+      </c>
+      <c r="B142" s="26">
+        <v>1003201</v>
+      </c>
+      <c r="C142" s="27">
+        <v>3</v>
+      </c>
+      <c r="D142" s="27">
+        <v>5</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G142" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H142" s="27">
+        <v>30</v>
+      </c>
+      <c r="I142" s="34" t="str" cm="1">
+        <f t="array" ref="I142">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E142, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="18">
+        <v>1003204</v>
+      </c>
+      <c r="B143" s="4">
+        <v>1003202</v>
+      </c>
+      <c r="C143" s="18">
+        <v>1</v>
+      </c>
+      <c r="D143" s="18">
+        <v>3</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H143" s="18">
+        <v>30</v>
+      </c>
+      <c r="I143" s="35" t="str" cm="1">
+        <f t="array" ref="I143">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E143, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="18">
+        <v>1003205</v>
+      </c>
+      <c r="B144" s="4">
+        <v>1003202</v>
+      </c>
+      <c r="C144" s="18">
+        <v>2</v>
+      </c>
+      <c r="D144" s="18">
+        <v>5</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H144" s="18">
+        <v>30</v>
+      </c>
+      <c r="I144" s="35" t="str" cm="1">
+        <f t="array" ref="I144">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E144, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="18">
+        <v>1003206</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1003202</v>
+      </c>
+      <c r="C145" s="18">
+        <v>3</v>
+      </c>
+      <c r="D145" s="18">
+        <v>5</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F145" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H145" s="18">
+        <v>30</v>
+      </c>
+      <c r="I145" s="35" t="str" cm="1">
+        <f t="array" ref="I145">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E145, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="27">
+        <v>1003207</v>
+      </c>
+      <c r="B146" s="26">
+        <v>1003203</v>
+      </c>
+      <c r="C146" s="27">
+        <v>1</v>
+      </c>
+      <c r="D146" s="27">
+        <v>3</v>
+      </c>
+      <c r="E146" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F146" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H146" s="27">
+        <v>30</v>
+      </c>
+      <c r="I146" s="34" t="str" cm="1">
+        <f t="array" ref="I146">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E146, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="27">
+        <v>1003208</v>
+      </c>
+      <c r="B147" s="26">
+        <v>1003203</v>
+      </c>
+      <c r="C147" s="27">
+        <v>2</v>
+      </c>
+      <c r="D147" s="27">
+        <v>5</v>
+      </c>
+      <c r="E147" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F147" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G147" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H147" s="27">
+        <v>30</v>
+      </c>
+      <c r="I147" s="34" t="str" cm="1">
+        <f t="array" ref="I147">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E147, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="27">
+        <v>1003209</v>
+      </c>
+      <c r="B148" s="26">
+        <v>1003203</v>
+      </c>
+      <c r="C148" s="27">
+        <v>3</v>
+      </c>
+      <c r="D148" s="27">
+        <v>5</v>
+      </c>
+      <c r="E148" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F148" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G148" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H148" s="27">
+        <v>30</v>
+      </c>
+      <c r="I148" s="34" t="str" cm="1">
+        <f t="array" ref="I148">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E148, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="18">
+        <v>1003210</v>
+      </c>
+      <c r="B149" s="4">
+        <v>1003204</v>
+      </c>
+      <c r="C149" s="18">
+        <v>1</v>
+      </c>
+      <c r="D149" s="18">
+        <v>3</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F149" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H149" s="18">
+        <v>30</v>
+      </c>
+      <c r="I149" s="35" t="str" cm="1">
+        <f t="array" ref="I149">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E149, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="18">
+        <v>1003211</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1003204</v>
+      </c>
+      <c r="C150" s="18">
+        <v>2</v>
+      </c>
+      <c r="D150" s="18">
+        <v>5</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G150" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H150" s="18">
+        <v>30</v>
+      </c>
+      <c r="I150" s="35" t="str" cm="1">
+        <f t="array" ref="I150">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E150, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="18">
+        <v>1003212</v>
+      </c>
+      <c r="B151" s="4">
+        <v>1003204</v>
+      </c>
+      <c r="C151" s="18">
+        <v>3</v>
+      </c>
+      <c r="D151" s="18">
+        <v>5</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F151" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G151" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H151" s="18">
+        <v>30</v>
+      </c>
+      <c r="I151" s="35" t="str" cm="1">
+        <f t="array" ref="I151">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E151, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="27">
+        <v>1003213</v>
+      </c>
+      <c r="B152" s="26">
+        <v>1003205</v>
+      </c>
+      <c r="C152" s="27">
+        <v>1</v>
+      </c>
+      <c r="D152" s="27">
+        <v>3</v>
+      </c>
+      <c r="E152" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F152" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G152" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H152" s="27">
+        <v>30</v>
+      </c>
+      <c r="I152" s="34" t="str" cm="1">
+        <f t="array" ref="I152">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E152, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="27">
+        <v>1003214</v>
+      </c>
+      <c r="B153" s="26">
+        <v>1003205</v>
+      </c>
+      <c r="C153" s="27">
+        <v>2</v>
+      </c>
+      <c r="D153" s="27">
+        <v>5</v>
+      </c>
+      <c r="E153" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F153" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G153" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H153" s="27">
+        <v>30</v>
+      </c>
+      <c r="I153" s="34" t="str" cm="1">
+        <f t="array" ref="I153">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E153, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="27">
+        <v>1003215</v>
+      </c>
+      <c r="B154" s="26">
+        <v>1003205</v>
+      </c>
+      <c r="C154" s="27">
+        <v>3</v>
+      </c>
+      <c r="D154" s="27">
+        <v>5</v>
+      </c>
+      <c r="E154" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F154" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G154" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H154" s="27">
+        <v>30</v>
+      </c>
+      <c r="I154" s="34" t="str" cm="1">
+        <f t="array" ref="I154">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E154, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="18">
+        <v>1003216</v>
+      </c>
+      <c r="B155" s="4">
+        <v>1003206</v>
+      </c>
+      <c r="C155" s="18">
+        <v>1</v>
+      </c>
+      <c r="D155" s="18">
+        <v>3</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F155" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H155" s="18">
+        <v>30</v>
+      </c>
+      <c r="I155" s="35" t="str" cm="1">
+        <f t="array" ref="I155">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E155, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="18">
+        <v>1003217</v>
+      </c>
+      <c r="B156" s="4">
+        <v>1003206</v>
+      </c>
+      <c r="C156" s="18">
+        <v>2</v>
+      </c>
+      <c r="D156" s="18">
+        <v>5</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G156" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H156" s="18">
+        <v>30</v>
+      </c>
+      <c r="I156" s="35" t="str" cm="1">
+        <f t="array" ref="I156">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E156, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="18">
+        <v>1003218</v>
+      </c>
+      <c r="B157" s="4">
+        <v>1003206</v>
+      </c>
+      <c r="C157" s="18">
+        <v>3</v>
+      </c>
+      <c r="D157" s="18">
+        <v>5</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F157" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G157" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H157" s="18">
+        <v>30</v>
+      </c>
+      <c r="I157" s="35" t="str" cm="1">
+        <f t="array" ref="I157">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E157, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="27">
+        <v>1003219</v>
+      </c>
+      <c r="B158" s="26">
+        <v>1003207</v>
+      </c>
+      <c r="C158" s="27">
+        <v>1</v>
+      </c>
+      <c r="D158" s="27">
+        <v>3</v>
+      </c>
+      <c r="E158" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F158" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G158" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H158" s="27">
+        <v>30</v>
+      </c>
+      <c r="I158" s="34" t="str" cm="1">
+        <f t="array" ref="I158">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E158, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="27">
+        <v>1003220</v>
+      </c>
+      <c r="B159" s="26">
+        <v>1003207</v>
+      </c>
+      <c r="C159" s="27">
+        <v>2</v>
+      </c>
+      <c r="D159" s="27">
+        <v>5</v>
+      </c>
+      <c r="E159" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F159" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G159" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H159" s="27">
+        <v>30</v>
+      </c>
+      <c r="I159" s="34" t="str" cm="1">
+        <f t="array" ref="I159">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E159, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="27">
+        <v>1003221</v>
+      </c>
+      <c r="B160" s="26">
+        <v>1003207</v>
+      </c>
+      <c r="C160" s="27">
+        <v>3</v>
+      </c>
+      <c r="D160" s="27">
+        <v>5</v>
+      </c>
+      <c r="E160" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F160" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G160" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H160" s="27">
+        <v>30</v>
+      </c>
+      <c r="I160" s="34" t="str" cm="1">
+        <f t="array" ref="I160">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E160, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="18">
+        <v>1003222</v>
+      </c>
+      <c r="B161" s="4">
+        <v>1003208</v>
+      </c>
+      <c r="C161" s="18">
+        <v>1</v>
+      </c>
+      <c r="D161" s="18">
+        <v>3</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F161" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G161" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H161" s="18">
+        <v>30</v>
+      </c>
+      <c r="I161" s="35" t="str" cm="1">
+        <f t="array" ref="I161">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E161, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="18">
+        <v>1003223</v>
+      </c>
+      <c r="B162" s="4">
+        <v>1003208</v>
+      </c>
+      <c r="C162" s="18">
+        <v>2</v>
+      </c>
+      <c r="D162" s="18">
+        <v>5</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G162" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H162" s="18">
+        <v>30</v>
+      </c>
+      <c r="I162" s="35" t="str" cm="1">
+        <f t="array" ref="I162">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E162, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="18">
+        <v>1003224</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1003208</v>
+      </c>
+      <c r="C163" s="18">
+        <v>3</v>
+      </c>
+      <c r="D163" s="18">
+        <v>5</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F163" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G163" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H163" s="18">
+        <v>30</v>
+      </c>
+      <c r="I163" s="35" t="str" cm="1">
+        <f t="array" ref="I163">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E163, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="27">
+        <v>1003225</v>
+      </c>
+      <c r="B164" s="26">
+        <v>1003209</v>
+      </c>
+      <c r="C164" s="27">
+        <v>1</v>
+      </c>
+      <c r="D164" s="27">
+        <v>3</v>
+      </c>
+      <c r="E164" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F164" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G164" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H164" s="27">
+        <v>30</v>
+      </c>
+      <c r="I164" s="34" t="str" cm="1">
+        <f t="array" ref="I164">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E164, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="27">
+        <v>1003226</v>
+      </c>
+      <c r="B165" s="26">
+        <v>1003209</v>
+      </c>
+      <c r="C165" s="27">
+        <v>2</v>
+      </c>
+      <c r="D165" s="27">
+        <v>5</v>
+      </c>
+      <c r="E165" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F165" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H165" s="27">
+        <v>30</v>
+      </c>
+      <c r="I165" s="34" t="str" cm="1">
+        <f t="array" ref="I165">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E165, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="27">
+        <v>1003227</v>
+      </c>
+      <c r="B166" s="26">
+        <v>1003209</v>
+      </c>
+      <c r="C166" s="27">
+        <v>3</v>
+      </c>
+      <c r="D166" s="27">
+        <v>5</v>
+      </c>
+      <c r="E166" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F166" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G166" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H166" s="27">
+        <v>30</v>
+      </c>
+      <c r="I166" s="34" t="str" cm="1">
+        <f t="array" ref="I166">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E166, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="18">
+        <v>1003228</v>
+      </c>
+      <c r="B167" s="4">
+        <v>1003210</v>
+      </c>
+      <c r="C167" s="18">
+        <v>1</v>
+      </c>
+      <c r="D167" s="18">
+        <v>3</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F167" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G167" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H167" s="18">
+        <v>30</v>
+      </c>
+      <c r="I167" s="35" t="str" cm="1">
+        <f t="array" ref="I167">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E167, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="18">
+        <v>1003229</v>
+      </c>
+      <c r="B168" s="4">
+        <v>1003210</v>
+      </c>
+      <c r="C168" s="18">
+        <v>2</v>
+      </c>
+      <c r="D168" s="18">
+        <v>5</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F168" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G168" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H168" s="18">
+        <v>30</v>
+      </c>
+      <c r="I168" s="35" t="str" cm="1">
+        <f t="array" ref="I168">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E168, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="18">
+        <v>1003230</v>
+      </c>
+      <c r="B169" s="4">
+        <v>1003210</v>
+      </c>
+      <c r="C169" s="18">
+        <v>3</v>
+      </c>
+      <c r="D169" s="18">
+        <v>5</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F169" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G169" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H169" s="18">
+        <v>30</v>
+      </c>
+      <c r="I169" s="35" t="str" cm="1">
+        <f t="array" ref="I169">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E169, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="18">
         <v>9000001</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B170" s="4">
         <v>9000011</v>
       </c>
-      <c r="C140" s="18">
-        <v>1</v>
-      </c>
-      <c r="D140" s="18">
-        <v>1</v>
-      </c>
-      <c r="E140" s="18">
+      <c r="C170" s="18">
+        <v>1</v>
+      </c>
+      <c r="D170" s="18">
+        <v>1</v>
+      </c>
+      <c r="E170" s="18">
         <v>900001</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F170" s="18">
         <v>50</v>
       </c>
-      <c r="G140" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="H140" s="18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="18">
+      <c r="G170" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H170" s="18">
+        <v>30</v>
+      </c>
+      <c r="I170" s="34" t="str" cm="1">
+        <f t="array" ref="I170">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E170, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>보스_엘리자베스</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="18">
         <v>9000002</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B171" s="4">
         <v>9000012</v>
       </c>
-      <c r="C141" s="18">
-        <v>1</v>
-      </c>
-      <c r="D141" s="18">
-        <v>1</v>
-      </c>
-      <c r="E141" s="18">
+      <c r="C171" s="18">
+        <v>1</v>
+      </c>
+      <c r="D171" s="18">
+        <v>1</v>
+      </c>
+      <c r="E171" s="18">
         <v>900001</v>
       </c>
-      <c r="F141" s="18">
+      <c r="F171" s="18">
         <v>50</v>
       </c>
-      <c r="G141" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="H141" s="18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="18">
+      <c r="G171" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H171" s="18">
+        <v>30</v>
+      </c>
+      <c r="I171" s="34" t="str" cm="1">
+        <f t="array" ref="I171">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E171, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>보스_엘리자베스</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="18">
         <v>9000003</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B172" s="4">
         <v>9000013</v>
       </c>
-      <c r="C142" s="18">
-        <v>1</v>
-      </c>
-      <c r="D142" s="18">
-        <v>1</v>
-      </c>
-      <c r="E142" s="18">
+      <c r="C172" s="18">
+        <v>1</v>
+      </c>
+      <c r="D172" s="18">
+        <v>1</v>
+      </c>
+      <c r="E172" s="18">
         <v>900001</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F172" s="18">
         <v>50</v>
       </c>
-      <c r="G142" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="H142" s="18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="18">
+      <c r="G172" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H172" s="18">
+        <v>30</v>
+      </c>
+      <c r="I172" s="34" t="str" cm="1">
+        <f t="array" ref="I172">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E172, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>보스_엘리자베스</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="18">
         <v>9000004</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B173" s="4">
         <v>9000014</v>
       </c>
-      <c r="C143" s="18">
-        <v>1</v>
-      </c>
-      <c r="D143" s="18">
-        <v>1</v>
-      </c>
-      <c r="E143" s="18">
+      <c r="C173" s="18">
+        <v>1</v>
+      </c>
+      <c r="D173" s="18">
+        <v>1</v>
+      </c>
+      <c r="E173" s="18">
         <v>900001</v>
       </c>
-      <c r="F143" s="18">
+      <c r="F173" s="18">
         <v>50</v>
       </c>
-      <c r="G143" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="H143" s="18">
-        <v>30</v>
+      <c r="G173" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H173" s="18">
+        <v>30</v>
+      </c>
+      <c r="I173" s="34" t="str" cm="1">
+        <f t="array" ref="I173">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E173, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>보스_엘리자베스</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F019A632-1098-4D7A-AF81-E9156BC36987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1666E3-0C5B-4DCB-B05E-11953D88DFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="960" windowWidth="46545" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39270" yWindow="1410" windowWidth="35415" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="222">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,211 +663,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>15,15,15</t>
+  </si>
+  <si>
+    <t>1,3,5,5</t>
+  </si>
+  <si>
+    <t>1,3,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,3,5</t>
+  </si>
+  <si>
+    <t>1,3,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,3,3,12,5</t>
+  </si>
+  <si>
+    <t>11,3,3,12,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,3,5,5</t>
+  </si>
+  <si>
+    <t>11,3,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,12,5</t>
+  </si>
+  <si>
+    <t>1,3,12,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,3,12,5</t>
+  </si>
+  <si>
+    <t>11,3,12,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,12,5,5</t>
+  </si>
+  <si>
+    <t>11,11,12,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,16,16</t>
+  </si>
+  <si>
+    <t>17,17,17</t>
+  </si>
+  <si>
+    <t>17,17,17,17</t>
+  </si>
+  <si>
+    <t>18,18,18</t>
+  </si>
+  <si>
+    <t>18,18,18,18</t>
+  </si>
+  <si>
+    <t>21,21,21</t>
+  </si>
+  <si>
+    <t>22,22,22</t>
+  </si>
+  <si>
+    <t>25,25,25</t>
+  </si>
+  <si>
+    <t>25,25,25,25,25</t>
+  </si>
+  <si>
+    <t>26,26,26</t>
+  </si>
+  <si>
+    <t>27,27,27</t>
+  </si>
+  <si>
+    <t>27,27,27,27</t>
+  </si>
+  <si>
+    <t>28,28,28</t>
+  </si>
+  <si>
+    <t>28,28,28,28</t>
+  </si>
+  <si>
+    <t>30,30,30</t>
+  </si>
+  <si>
+    <t>30,30,30,30</t>
+  </si>
+  <si>
+    <t>30,30,30,30,30</t>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#enemy_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 배치 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7</t>
+  </si>
+  <si>
+    <t>7,7,7,7</t>
+  </si>
+  <si>
+    <t>7,7,7,7,7</t>
+  </si>
+  <si>
     <t>8,8,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8,8,8,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,8,8,8,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9,9,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9,9,9,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10,10,10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,11,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,11,</t>
   </si>
   <si>
     <t>11,11,11,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,12,12,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,12,12,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,15,15</t>
-  </si>
-  <si>
-    <t>15,15,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,15,15,15,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,5,5</t>
-  </si>
-  <si>
-    <t>1,3,5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,3,5</t>
-  </si>
-  <si>
-    <t>1,3,3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,3,3,12,5</t>
-  </si>
-  <si>
-    <t>11,3,3,12,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,3,5,5</t>
-  </si>
-  <si>
-    <t>11,3,5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,12,5</t>
-  </si>
-  <si>
-    <t>1,3,12,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,3,12,5</t>
-  </si>
-  <si>
-    <t>11,3,12,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,11,12,5,5</t>
-  </si>
-  <si>
-    <t>11,11,12,5,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,16,16</t>
-  </si>
-  <si>
-    <t>16,16,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,17,17</t>
-  </si>
-  <si>
-    <t>17,17,17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,17,17,17</t>
-  </si>
-  <si>
-    <t>17,17,17,17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,18,18</t>
-  </si>
-  <si>
-    <t>18,18,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,18,18,18</t>
-  </si>
-  <si>
-    <t>18,18,18,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,21,21</t>
-  </si>
-  <si>
-    <t>21,21,21,21</t>
-  </si>
-  <si>
-    <t>22,22,22</t>
-  </si>
-  <si>
-    <t>22,22,22,22</t>
-  </si>
-  <si>
-    <t>21,21,21,21,21</t>
-  </si>
-  <si>
-    <t>25,25,25</t>
-  </si>
-  <si>
-    <t>25,25,25,25,25</t>
-  </si>
-  <si>
-    <t>26,26,26</t>
-  </si>
-  <si>
-    <t>27,27,27</t>
-  </si>
-  <si>
-    <t>27,27,27,27</t>
-  </si>
-  <si>
-    <t>28,28,28</t>
-  </si>
-  <si>
-    <t>28,28,28,28</t>
-  </si>
-  <si>
-    <t>30,30,30</t>
-  </si>
-  <si>
-    <t>30,30,30,30</t>
-  </si>
-  <si>
-    <t>30,30,30,30,30</t>
-  </si>
-  <si>
-    <t>31,31,31</t>
-  </si>
-  <si>
-    <t>31,31,31,31</t>
-  </si>
-  <si>
-    <t>35,35,35</t>
-  </si>
-  <si>
-    <t>35,35,35,35,35</t>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#enemy_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 배치 정보</t>
+  </si>
+  <si>
+    <t>13,13,13</t>
+  </si>
+  <si>
+    <t>13,13,13,13,13</t>
+  </si>
+  <si>
+    <t>14,14,14</t>
+  </si>
+  <si>
+    <t>16,16,16,16</t>
+  </si>
+  <si>
+    <t>18,18,18,18,18</t>
+  </si>
+  <si>
+    <t>19,19,19</t>
+  </si>
+  <si>
+    <t>19,19,19,19</t>
+  </si>
+  <si>
+    <t>20,20,20</t>
+  </si>
+  <si>
+    <t>20,20,20,20,20</t>
+  </si>
+  <si>
+    <t>23,23,23</t>
+  </si>
+  <si>
+    <t>23,23,23,23</t>
+  </si>
+  <si>
+    <t>23,23,23,23,23</t>
+  </si>
+  <si>
+    <t>NPC 스킬 레벨 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_skill_levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>2,2,2</t>
+  </si>
+  <si>
+    <t>4,4,4,4</t>
+  </si>
+  <si>
+    <t>6,6,6</t>
+  </si>
+  <si>
+    <t>6,6,6,6</t>
+  </si>
+  <si>
+    <t>npc_ultimate_skill_levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC 궁극기 스킬 레벨 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1313,27 +1320,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1411,13 +1400,7 @@
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ATTRIBUTE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -4538,13 +4521,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4555,20 +4538,22 @@
     <col min="4" max="4" width="25.625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.25" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="171.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="7"/>
-    <col min="12" max="12" width="12" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="7" max="7" width="19.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="171.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="7"/>
+    <col min="14" max="14" width="12" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33">
+    <row r="2" spans="1:15" ht="33">
       <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
@@ -4588,16 +4573,22 @@
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="K2" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -4620,13 +4611,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
@@ -4646,17 +4643,23 @@
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="K4" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="18">
         <v>1001101</v>
       </c>
@@ -4676,20 +4679,26 @@
         <v>17</v>
       </c>
       <c r="G5" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="18">
-        <v>30</v>
-      </c>
-      <c r="I5" s="35" t="str" cm="1">
-        <f t="array" ref="I5">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E5, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J5" s="18">
+        <v>30</v>
+      </c>
+      <c r="K5" s="35" t="str" cm="1">
+        <f t="array" ref="K5">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E5, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="29"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="18">
         <v>1001102</v>
       </c>
@@ -4709,18 +4718,24 @@
         <v>17</v>
       </c>
       <c r="G6" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="18">
-        <v>30</v>
-      </c>
-      <c r="I6" s="35" t="str" cm="1">
-        <f t="array" ref="I6">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E6, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J6" s="18">
+        <v>30</v>
+      </c>
+      <c r="K6" s="35" t="str" cm="1">
+        <f t="array" ref="K6">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E6, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="30"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="18">
         <v>1001103</v>
       </c>
@@ -4740,18 +4755,24 @@
         <v>17</v>
       </c>
       <c r="G7" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="18">
-        <v>30</v>
-      </c>
-      <c r="I7" s="35" t="str" cm="1">
-        <f t="array" ref="I7">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E7, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J7" s="18">
+        <v>30</v>
+      </c>
+      <c r="K7" s="35" t="str" cm="1">
+        <f t="array" ref="K7">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E7, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="22">
         <v>1001104</v>
       </c>
@@ -4771,18 +4792,24 @@
         <v>146</v>
       </c>
       <c r="G8" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="22">
-        <v>30</v>
-      </c>
-      <c r="I8" s="34" t="str" cm="1">
-        <f t="array" ref="I8">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E8, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J8" s="22">
+        <v>30</v>
+      </c>
+      <c r="K8" s="34" t="str" cm="1">
+        <f t="array" ref="K8">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E8, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="22">
         <v>1001105</v>
       </c>
@@ -4802,18 +4829,24 @@
         <v>146</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="22">
-        <v>30</v>
-      </c>
-      <c r="I9" s="34" t="str" cm="1">
-        <f t="array" ref="I9">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E9, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J9" s="22">
+        <v>30</v>
+      </c>
+      <c r="K9" s="34" t="str" cm="1">
+        <f t="array" ref="K9">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E9, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="22">
         <v>1001106</v>
       </c>
@@ -4833,18 +4866,24 @@
         <v>146</v>
       </c>
       <c r="G10" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="22">
-        <v>30</v>
-      </c>
-      <c r="I10" s="34" t="str" cm="1">
-        <f t="array" ref="I10">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E10, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J10" s="22">
+        <v>30</v>
+      </c>
+      <c r="K10" s="34" t="str" cm="1">
+        <f t="array" ref="K10">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E10, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="18">
         <v>1001107</v>
       </c>
@@ -4864,18 +4903,24 @@
         <v>147</v>
       </c>
       <c r="G11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="18">
-        <v>30</v>
-      </c>
-      <c r="I11" s="35" t="str" cm="1">
-        <f t="array" ref="I11">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E11, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J11" s="18">
+        <v>30</v>
+      </c>
+      <c r="K11" s="35" t="str" cm="1">
+        <f t="array" ref="K11">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E11, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
-      <c r="L11" s="30"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="18">
         <v>1001108</v>
       </c>
@@ -4895,18 +4940,24 @@
         <v>147</v>
       </c>
       <c r="G12" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="18">
-        <v>30</v>
-      </c>
-      <c r="I12" s="35" t="str" cm="1">
-        <f t="array" ref="I12">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E12, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J12" s="18">
+        <v>30</v>
+      </c>
+      <c r="K12" s="35" t="str" cm="1">
+        <f t="array" ref="K12">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E12, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="18">
         <v>1001109</v>
       </c>
@@ -4926,18 +4977,24 @@
         <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="18">
-        <v>30</v>
-      </c>
-      <c r="I13" s="35" t="str" cm="1">
-        <f t="array" ref="I13">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E13, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J13" s="18">
+        <v>30</v>
+      </c>
+      <c r="K13" s="35" t="str" cm="1">
+        <f t="array" ref="K13">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E13, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="30"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="22">
         <v>1001110</v>
       </c>
@@ -4957,18 +5014,24 @@
         <v>148</v>
       </c>
       <c r="G14" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="22">
-        <v>30</v>
-      </c>
-      <c r="I14" s="34" t="str" cm="1">
-        <f t="array" ref="I14">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E14, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J14" s="22">
+        <v>30</v>
+      </c>
+      <c r="K14" s="34" t="str" cm="1">
+        <f t="array" ref="K14">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E14, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="30"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="22">
         <v>1001111</v>
       </c>
@@ -4988,18 +5051,24 @@
         <v>148</v>
       </c>
       <c r="G15" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="22">
-        <v>30</v>
-      </c>
-      <c r="I15" s="34" t="str" cm="1">
-        <f t="array" ref="I15">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E15, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J15" s="22">
+        <v>30</v>
+      </c>
+      <c r="K15" s="34" t="str" cm="1">
+        <f t="array" ref="K15">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E15, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="22">
         <v>1001112</v>
       </c>
@@ -5019,17 +5088,23 @@
         <v>148</v>
       </c>
       <c r="G16" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="22">
-        <v>30</v>
-      </c>
-      <c r="I16" s="34" t="str" cm="1">
-        <f t="array" ref="I16">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E16, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J16" s="22">
+        <v>30</v>
+      </c>
+      <c r="K16" s="34" t="str" cm="1">
+        <f t="array" ref="K16">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E16, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17" s="18">
         <v>1001113</v>
       </c>
@@ -5049,17 +5124,23 @@
         <v>149</v>
       </c>
       <c r="G17" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="18">
-        <v>30</v>
-      </c>
-      <c r="I17" s="35" t="str" cm="1">
-        <f t="array" ref="I17">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E17, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J17" s="18">
+        <v>30</v>
+      </c>
+      <c r="K17" s="35" t="str" cm="1">
+        <f t="array" ref="K17">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E17, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18" s="18">
         <v>1001114</v>
       </c>
@@ -5079,17 +5160,23 @@
         <v>150</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="18">
-        <v>30</v>
-      </c>
-      <c r="I18" s="35" t="str" cm="1">
-        <f t="array" ref="I18">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E18, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>217</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="18">
+        <v>30</v>
+      </c>
+      <c r="K18" s="35" t="str" cm="1">
+        <f t="array" ref="K18">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E18, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11">
       <c r="A19" s="18">
         <v>1001115</v>
       </c>
@@ -5109,17 +5196,23 @@
         <v>150</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="18">
-        <v>30</v>
-      </c>
-      <c r="I19" s="35" t="str" cm="1">
-        <f t="array" ref="I19">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E19, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>217</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="18">
+        <v>30</v>
+      </c>
+      <c r="K19" s="35" t="str" cm="1">
+        <f t="array" ref="K19">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E19, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:11">
       <c r="A20" s="22">
         <v>1001116</v>
       </c>
@@ -5139,17 +5232,23 @@
         <v>151</v>
       </c>
       <c r="G20" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="22">
-        <v>30</v>
-      </c>
-      <c r="I20" s="34" t="str" cm="1">
-        <f t="array" ref="I20">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E20, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J20" s="22">
+        <v>30</v>
+      </c>
+      <c r="K20" s="34" t="str" cm="1">
+        <f t="array" ref="K20">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E20, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11">
       <c r="A21" s="22">
         <v>1001117</v>
       </c>
@@ -5169,17 +5268,23 @@
         <v>152</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="22">
-        <v>30</v>
-      </c>
-      <c r="I21" s="34" t="str" cm="1">
-        <f t="array" ref="I21">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E21, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>152</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="22">
+        <v>30</v>
+      </c>
+      <c r="K21" s="34" t="str" cm="1">
+        <f t="array" ref="K21">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E21, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11">
       <c r="A22" s="22">
         <v>1001118</v>
       </c>
@@ -5199,17 +5304,23 @@
         <v>152</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" s="22">
-        <v>30</v>
-      </c>
-      <c r="I22" s="34" t="str" cm="1">
-        <f t="array" ref="I22">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E22, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>152</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" s="22">
+        <v>30</v>
+      </c>
+      <c r="K22" s="34" t="str" cm="1">
+        <f t="array" ref="K22">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E22, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="A23" s="18">
         <v>1001119</v>
       </c>
@@ -5229,17 +5340,23 @@
         <v>151</v>
       </c>
       <c r="G23" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="18">
-        <v>30</v>
-      </c>
-      <c r="I23" s="35" t="str" cm="1">
-        <f t="array" ref="I23">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E23, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J23" s="18">
+        <v>30</v>
+      </c>
+      <c r="K23" s="35" t="str" cm="1">
+        <f t="array" ref="K23">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E23, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="A24" s="18">
         <v>1001120</v>
       </c>
@@ -5259,17 +5376,23 @@
         <v>152</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="18">
-        <v>30</v>
-      </c>
-      <c r="I24" s="35" t="str" cm="1">
-        <f t="array" ref="I24">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E24, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>152</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" s="18">
+        <v>30</v>
+      </c>
+      <c r="K24" s="35" t="str" cm="1">
+        <f t="array" ref="K24">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E24, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11">
       <c r="A25" s="18">
         <v>1001121</v>
       </c>
@@ -5289,17 +5412,23 @@
         <v>152</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="18">
-        <v>30</v>
-      </c>
-      <c r="I25" s="35" t="str" cm="1">
-        <f t="array" ref="I25">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E25, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>152</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" s="18">
+        <v>30</v>
+      </c>
+      <c r="K25" s="35" t="str" cm="1">
+        <f t="array" ref="K25">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E25, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11">
       <c r="A26" s="22">
         <v>1001122</v>
       </c>
@@ -5319,17 +5448,23 @@
         <v>151</v>
       </c>
       <c r="G26" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="22">
-        <v>30</v>
-      </c>
-      <c r="I26" s="34" t="str" cm="1">
-        <f t="array" ref="I26">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E26, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J26" s="22">
+        <v>30</v>
+      </c>
+      <c r="K26" s="34" t="str" cm="1">
+        <f t="array" ref="K26">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E26, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11">
       <c r="A27" s="22">
         <v>1001123</v>
       </c>
@@ -5349,17 +5484,23 @@
         <v>152</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="22">
-        <v>30</v>
-      </c>
-      <c r="I27" s="34" t="str" cm="1">
-        <f t="array" ref="I27">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E27, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>152</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="22">
+        <v>30</v>
+      </c>
+      <c r="K27" s="34" t="str" cm="1">
+        <f t="array" ref="K27">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E27, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11">
       <c r="A28" s="22">
         <v>1001124</v>
       </c>
@@ -5379,17 +5520,23 @@
         <v>152</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="22">
-        <v>30</v>
-      </c>
-      <c r="I28" s="34" t="str" cm="1">
-        <f t="array" ref="I28">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E28, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>152</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" s="22">
+        <v>30</v>
+      </c>
+      <c r="K28" s="34" t="str" cm="1">
+        <f t="array" ref="K28">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E28, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11">
       <c r="A29" s="18">
         <v>1001125</v>
       </c>
@@ -5409,17 +5556,23 @@
         <v>153</v>
       </c>
       <c r="G29" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="I29" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="18">
-        <v>30</v>
-      </c>
-      <c r="I29" s="35" t="str" cm="1">
-        <f t="array" ref="I29">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E29, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J29" s="18">
+        <v>30</v>
+      </c>
+      <c r="K29" s="35" t="str" cm="1">
+        <f t="array" ref="K29">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E29, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11">
       <c r="A30" s="18">
         <v>1001126</v>
       </c>
@@ -5439,17 +5592,23 @@
         <v>154</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="18">
-        <v>30</v>
-      </c>
-      <c r="I30" s="35" t="str" cm="1">
-        <f t="array" ref="I30">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E30, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>219</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="18">
+        <v>30</v>
+      </c>
+      <c r="K30" s="35" t="str" cm="1">
+        <f t="array" ref="K30">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E30, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11">
       <c r="A31" s="18">
         <v>1001127</v>
       </c>
@@ -5469,17 +5628,23 @@
         <v>154</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="18">
-        <v>30</v>
-      </c>
-      <c r="I31" s="35" t="str" cm="1">
-        <f t="array" ref="I31">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E31, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>219</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="18">
+        <v>30</v>
+      </c>
+      <c r="K31" s="35" t="str" cm="1">
+        <f t="array" ref="K31">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E31, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" s="22">
         <v>1001128</v>
       </c>
@@ -5496,20 +5661,26 @@
         <v>127</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="G32" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I32" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="22">
-        <v>30</v>
-      </c>
-      <c r="I32" s="34" t="str" cm="1">
-        <f t="array" ref="I32">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E32, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J32" s="22">
+        <v>30</v>
+      </c>
+      <c r="K32" s="34" t="str" cm="1">
+        <f t="array" ref="K32">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E32, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:11">
       <c r="A33" s="22">
         <v>1001129</v>
       </c>
@@ -5526,20 +5697,26 @@
         <v>131</v>
       </c>
       <c r="F33" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H33" s="22">
-        <v>30</v>
-      </c>
-      <c r="I33" s="34" t="str" cm="1">
-        <f t="array" ref="I33">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E33, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J33" s="22">
+        <v>30</v>
+      </c>
+      <c r="K33" s="34" t="str" cm="1">
+        <f t="array" ref="K33">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E33, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:11">
       <c r="A34" s="22">
         <v>1001130</v>
       </c>
@@ -5556,20 +5733,26 @@
         <v>133</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="22">
-        <v>30</v>
-      </c>
-      <c r="I34" s="34" t="str" cm="1">
-        <f t="array" ref="I34">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E34, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>192</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" s="22">
+        <v>30</v>
+      </c>
+      <c r="K34" s="34" t="str" cm="1">
+        <f t="array" ref="K34">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E34, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11">
       <c r="A35" s="18">
         <v>1001131</v>
       </c>
@@ -5586,20 +5769,26 @@
         <v>125</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="G35" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H35" s="18">
-        <v>30</v>
-      </c>
-      <c r="I35" s="35" t="str" cm="1">
-        <f t="array" ref="I35">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E35, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J35" s="18">
+        <v>30</v>
+      </c>
+      <c r="K35" s="35" t="str" cm="1">
+        <f t="array" ref="K35">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E35, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:11">
       <c r="A36" s="18">
         <v>1001132</v>
       </c>
@@ -5616,20 +5805,26 @@
         <v>118</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="18">
-        <v>30</v>
-      </c>
-      <c r="I36" s="35" t="str" cm="1">
-        <f t="array" ref="I36">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E36, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>194</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="18">
+        <v>30</v>
+      </c>
+      <c r="K36" s="35" t="str" cm="1">
+        <f t="array" ref="K36">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E36, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11">
       <c r="A37" s="18">
         <v>1001133</v>
       </c>
@@ -5646,20 +5841,26 @@
         <v>129</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="18">
-        <v>30</v>
-      </c>
-      <c r="I37" s="35" t="str" cm="1">
-        <f t="array" ref="I37">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E37, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>194</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J37" s="18">
+        <v>30</v>
+      </c>
+      <c r="K37" s="35" t="str" cm="1">
+        <f t="array" ref="K37">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E37, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:11">
       <c r="A38" s="22">
         <v>1001134</v>
       </c>
@@ -5676,20 +5877,26 @@
         <v>125</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="G38" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H38" s="22">
-        <v>30</v>
-      </c>
-      <c r="I38" s="34" t="str" cm="1">
-        <f t="array" ref="I38">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E38, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J38" s="22">
+        <v>30</v>
+      </c>
+      <c r="K38" s="34" t="str" cm="1">
+        <f t="array" ref="K38">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E38, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11">
       <c r="A39" s="22">
         <v>1001135</v>
       </c>
@@ -5706,20 +5913,26 @@
         <v>119</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="22">
-        <v>30</v>
-      </c>
-      <c r="I39" s="34" t="str" cm="1">
-        <f t="array" ref="I39">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E39, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>196</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J39" s="22">
+        <v>30</v>
+      </c>
+      <c r="K39" s="34" t="str" cm="1">
+        <f t="array" ref="K39">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E39, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:11">
       <c r="A40" s="22">
         <v>1001136</v>
       </c>
@@ -5736,20 +5949,26 @@
         <v>135</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H40" s="22">
-        <v>30</v>
-      </c>
-      <c r="I40" s="34" t="str" cm="1">
-        <f t="array" ref="I40">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E40, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>196</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="22">
+        <v>30</v>
+      </c>
+      <c r="K40" s="34" t="str" cm="1">
+        <f t="array" ref="K40">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E40, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41" s="18">
         <v>1001137</v>
       </c>
@@ -5766,20 +5985,26 @@
         <v>137</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="G41" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="I41" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="18">
-        <v>30</v>
-      </c>
-      <c r="I41" s="35" t="str" cm="1">
-        <f t="array" ref="I41">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E41, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J41" s="18">
+        <v>30</v>
+      </c>
+      <c r="K41" s="35" t="str" cm="1">
+        <f t="array" ref="K41">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E41, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:11">
       <c r="A42" s="18">
         <v>1001138</v>
       </c>
@@ -5796,20 +6021,26 @@
         <v>139</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H42" s="18">
-        <v>30</v>
-      </c>
-      <c r="I42" s="35" t="str" cm="1">
-        <f t="array" ref="I42">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E42, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>198</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="18">
+        <v>30</v>
+      </c>
+      <c r="K42" s="35" t="str" cm="1">
+        <f t="array" ref="K42">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E42, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:11">
       <c r="A43" s="18">
         <v>1001139</v>
       </c>
@@ -5826,20 +6057,26 @@
         <v>141</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H43" s="18">
-        <v>30</v>
-      </c>
-      <c r="I43" s="35" t="str" cm="1">
-        <f t="array" ref="I43">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E43, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>198</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J43" s="18">
+        <v>30</v>
+      </c>
+      <c r="K43" s="35" t="str" cm="1">
+        <f t="array" ref="K43">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E43, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:11">
       <c r="A44" s="22">
         <v>1001140</v>
       </c>
@@ -5856,20 +6093,26 @@
         <v>137</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="G44" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="I44" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="22">
-        <v>30</v>
-      </c>
-      <c r="I44" s="34" t="str" cm="1">
-        <f t="array" ref="I44">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E44, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J44" s="22">
+        <v>30</v>
+      </c>
+      <c r="K44" s="34" t="str" cm="1">
+        <f t="array" ref="K44">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E44, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11">
       <c r="A45" s="22">
         <v>1001141</v>
       </c>
@@ -5886,20 +6129,26 @@
         <v>139</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H45" s="22">
-        <v>30</v>
-      </c>
-      <c r="I45" s="34" t="str" cm="1">
-        <f t="array" ref="I45">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E45, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>200</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J45" s="22">
+        <v>30</v>
+      </c>
+      <c r="K45" s="34" t="str" cm="1">
+        <f t="array" ref="K45">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E45, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46" s="22">
         <v>1001142</v>
       </c>
@@ -5916,20 +6165,26 @@
         <v>143</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H46" s="22">
-        <v>30</v>
-      </c>
-      <c r="I46" s="34" t="str" cm="1">
-        <f t="array" ref="I46">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E46, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>200</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J46" s="22">
+        <v>30</v>
+      </c>
+      <c r="K46" s="34" t="str" cm="1">
+        <f t="array" ref="K46">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E46, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="A47" s="18">
         <v>1001143</v>
       </c>
@@ -5946,20 +6201,26 @@
         <v>136</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="G47" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H47" s="18">
-        <v>30</v>
-      </c>
-      <c r="I47" s="35" t="str" cm="1">
-        <f t="array" ref="I47">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E47, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J47" s="18">
+        <v>30</v>
+      </c>
+      <c r="K47" s="35" t="str" cm="1">
+        <f t="array" ref="K47">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E47, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48" s="18">
         <v>1001144</v>
       </c>
@@ -5976,20 +6237,26 @@
         <v>139</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H48" s="18">
-        <v>30</v>
-      </c>
-      <c r="I48" s="35" t="str" cm="1">
-        <f t="array" ref="I48">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E48, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>201</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J48" s="18">
+        <v>30</v>
+      </c>
+      <c r="K48" s="35" t="str" cm="1">
+        <f t="array" ref="K48">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E48, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49" s="18">
         <v>1001145</v>
       </c>
@@ -6006,20 +6273,26 @@
         <v>145</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H49" s="18">
-        <v>30</v>
-      </c>
-      <c r="I49" s="35" t="str" cm="1">
-        <f t="array" ref="I49">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E49, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>202</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J49" s="18">
+        <v>30</v>
+      </c>
+      <c r="K49" s="35" t="str" cm="1">
+        <f t="array" ref="K49">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E49, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     베리] 탱커(정예) - 거대 안드     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="17" customFormat="1">
+    <row r="50" spans="1:11" s="17" customFormat="1">
       <c r="A50" s="15">
         <v>1002101</v>
       </c>
@@ -6036,20 +6309,26 @@
         <v>98</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="G50" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H50" s="15">
-        <v>30</v>
-      </c>
-      <c r="I50" s="34" t="str" cm="1">
-        <f t="array" ref="I50">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E50, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J50" s="15">
+        <v>30</v>
+      </c>
+      <c r="K50" s="34" t="str" cm="1">
+        <f t="array" ref="K50">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E50, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="17" customFormat="1">
+    <row r="51" spans="1:11" s="17" customFormat="1">
       <c r="A51" s="15">
         <v>1002102</v>
       </c>
@@ -6066,20 +6345,26 @@
         <v>100</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="G51" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I51" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H51" s="15">
-        <v>30</v>
-      </c>
-      <c r="I51" s="34" t="str" cm="1">
-        <f t="array" ref="I51">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E51, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J51" s="15">
+        <v>30</v>
+      </c>
+      <c r="K51" s="34" t="str" cm="1">
+        <f t="array" ref="K51">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E51, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="17" customFormat="1">
+    <row r="52" spans="1:11" s="17" customFormat="1">
       <c r="A52" s="15">
         <v>1002103</v>
       </c>
@@ -6096,20 +6381,26 @@
         <v>101</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="G52" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I52" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H52" s="15">
-        <v>30</v>
-      </c>
-      <c r="I52" s="34" t="str" cm="1">
-        <f t="array" ref="I52">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E52, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J52" s="15">
+        <v>30</v>
+      </c>
+      <c r="K52" s="34" t="str" cm="1">
+        <f t="array" ref="K52">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E52, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="17" customFormat="1">
+    <row r="53" spans="1:11" s="17" customFormat="1">
       <c r="A53" s="18">
         <v>1002104</v>
       </c>
@@ -6126,20 +6417,26 @@
         <v>100</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="G53" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="I53" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H53" s="18">
-        <v>30</v>
-      </c>
-      <c r="I53" s="35" t="str" cm="1">
-        <f t="array" ref="I53">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E53, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J53" s="18">
+        <v>30</v>
+      </c>
+      <c r="K53" s="35" t="str" cm="1">
+        <f t="array" ref="K53">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E53, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="17" customFormat="1">
+    <row r="54" spans="1:11" s="17" customFormat="1">
       <c r="A54" s="18">
         <v>1002105</v>
       </c>
@@ -6156,20 +6453,26 @@
         <v>99</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="G54" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="I54" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H54" s="18">
-        <v>30</v>
-      </c>
-      <c r="I54" s="35" t="str" cm="1">
-        <f t="array" ref="I54">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E54, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J54" s="18">
+        <v>30</v>
+      </c>
+      <c r="K54" s="35" t="str" cm="1">
+        <f t="array" ref="K54">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E54, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="17" customFormat="1">
+    <row r="55" spans="1:11" s="17" customFormat="1">
       <c r="A55" s="18">
         <v>1002106</v>
       </c>
@@ -6186,20 +6489,26 @@
         <v>103</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="G55" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="I55" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H55" s="18">
-        <v>30</v>
-      </c>
-      <c r="I55" s="35" t="str" cm="1">
-        <f t="array" ref="I55">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E55, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J55" s="18">
+        <v>30</v>
+      </c>
+      <c r="K55" s="35" t="str" cm="1">
+        <f t="array" ref="K55">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E55, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="17" customFormat="1">
+    <row r="56" spans="1:11" s="17" customFormat="1">
       <c r="A56" s="15">
         <v>1002107</v>
       </c>
@@ -6216,20 +6525,26 @@
         <v>101</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="G56" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I56" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H56" s="15">
-        <v>30</v>
-      </c>
-      <c r="I56" s="34" t="str" cm="1">
-        <f t="array" ref="I56">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E56, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J56" s="15">
+        <v>30</v>
+      </c>
+      <c r="K56" s="34" t="str" cm="1">
+        <f t="array" ref="K56">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E56, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="17" customFormat="1">
+    <row r="57" spans="1:11" s="17" customFormat="1">
       <c r="A57" s="15">
         <v>1002108</v>
       </c>
@@ -6246,20 +6561,26 @@
         <v>103</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G57" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H57" s="15">
-        <v>30</v>
-      </c>
-      <c r="I57" s="34" t="str" cm="1">
-        <f t="array" ref="I57">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E57, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J57" s="15">
+        <v>30</v>
+      </c>
+      <c r="K57" s="34" t="str" cm="1">
+        <f t="array" ref="K57">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E57, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="17" customFormat="1">
+    <row r="58" spans="1:11" s="17" customFormat="1">
       <c r="A58" s="15">
         <v>1002109</v>
       </c>
@@ -6276,20 +6597,26 @@
         <v>104</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G58" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I58" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H58" s="15">
-        <v>30</v>
-      </c>
-      <c r="I58" s="34" t="str" cm="1">
-        <f t="array" ref="I58">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E58, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J58" s="15">
+        <v>30</v>
+      </c>
+      <c r="K58" s="34" t="str" cm="1">
+        <f t="array" ref="K58">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E58, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="17" customFormat="1">
+    <row r="59" spans="1:11" s="17" customFormat="1">
       <c r="A59" s="18">
         <v>1002110</v>
       </c>
@@ -6306,20 +6633,26 @@
         <v>101</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G59" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I59" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H59" s="18">
-        <v>30</v>
-      </c>
-      <c r="I59" s="35" t="str" cm="1">
-        <f t="array" ref="I59">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E59, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J59" s="18">
+        <v>30</v>
+      </c>
+      <c r="K59" s="35" t="str" cm="1">
+        <f t="array" ref="K59">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E59, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="17" customFormat="1">
+    <row r="60" spans="1:11" s="17" customFormat="1">
       <c r="A60" s="18">
         <v>1002111</v>
       </c>
@@ -6336,20 +6669,26 @@
         <v>102</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G60" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H60" s="18">
-        <v>30</v>
-      </c>
-      <c r="I60" s="35" t="str" cm="1">
-        <f t="array" ref="I60">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E60, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J60" s="18">
+        <v>30</v>
+      </c>
+      <c r="K60" s="35" t="str" cm="1">
+        <f t="array" ref="K60">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E60, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="17" customFormat="1">
+    <row r="61" spans="1:11" s="17" customFormat="1">
       <c r="A61" s="18">
         <v>1002112</v>
       </c>
@@ -6366,20 +6705,26 @@
         <v>100</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G61" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I61" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H61" s="18">
-        <v>30</v>
-      </c>
-      <c r="I61" s="35" t="str" cm="1">
-        <f t="array" ref="I61">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E61, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J61" s="18">
+        <v>30</v>
+      </c>
+      <c r="K61" s="35" t="str" cm="1">
+        <f t="array" ref="K61">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E61, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="17" customFormat="1">
+    <row r="62" spans="1:11" s="17" customFormat="1">
       <c r="A62" s="15">
         <v>1002113</v>
       </c>
@@ -6396,20 +6741,26 @@
         <v>105</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G62" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I62" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H62" s="15">
-        <v>30</v>
-      </c>
-      <c r="I62" s="34" t="str" cm="1">
-        <f t="array" ref="I62">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E62, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J62" s="15">
+        <v>30</v>
+      </c>
+      <c r="K62" s="34" t="str" cm="1">
+        <f t="array" ref="K62">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E62, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="17" customFormat="1">
+    <row r="63" spans="1:11" s="17" customFormat="1">
       <c r="A63" s="15">
         <v>1002114</v>
       </c>
@@ -6426,20 +6777,26 @@
         <v>107</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H63" s="15">
-        <v>30</v>
-      </c>
-      <c r="I63" s="34" t="str" cm="1">
-        <f t="array" ref="I63">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E63, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>204</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J63" s="15">
+        <v>30</v>
+      </c>
+      <c r="K63" s="34" t="str" cm="1">
+        <f t="array" ref="K63">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E63, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="17" customFormat="1">
+    <row r="64" spans="1:11" s="17" customFormat="1">
       <c r="A64" s="15">
         <v>1002115</v>
       </c>
@@ -6456,20 +6813,26 @@
         <v>111</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H64" s="15">
-        <v>30</v>
-      </c>
-      <c r="I64" s="34" t="str" cm="1">
-        <f t="array" ref="I64">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E64, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>204</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J64" s="15">
+        <v>30</v>
+      </c>
+      <c r="K64" s="34" t="str" cm="1">
+        <f t="array" ref="K64">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E64, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="17" customFormat="1">
+    <row r="65" spans="1:11" s="17" customFormat="1">
       <c r="A65" s="18">
         <v>1002116</v>
       </c>
@@ -6486,20 +6849,26 @@
         <v>109</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G65" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I65" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H65" s="18">
-        <v>30</v>
-      </c>
-      <c r="I65" s="35" t="str" cm="1">
-        <f t="array" ref="I65">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E65, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J65" s="18">
+        <v>30</v>
+      </c>
+      <c r="K65" s="35" t="str" cm="1">
+        <f t="array" ref="K65">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E65, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="17" customFormat="1">
+    <row r="66" spans="1:11" s="17" customFormat="1">
       <c r="A66" s="18">
         <v>1002117</v>
       </c>
@@ -6516,20 +6885,26 @@
         <v>107</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H66" s="18">
-        <v>30</v>
-      </c>
-      <c r="I66" s="35" t="str" cm="1">
-        <f t="array" ref="I66">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E66, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>204</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J66" s="18">
+        <v>30</v>
+      </c>
+      <c r="K66" s="35" t="str" cm="1">
+        <f t="array" ref="K66">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E66, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="17" customFormat="1">
+    <row r="67" spans="1:11" s="17" customFormat="1">
       <c r="A67" s="18">
         <v>1002118</v>
       </c>
@@ -6546,20 +6921,26 @@
         <v>113</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H67" s="18">
-        <v>30</v>
-      </c>
-      <c r="I67" s="35" t="str" cm="1">
-        <f t="array" ref="I67">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E67, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>204</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J67" s="18">
+        <v>30</v>
+      </c>
+      <c r="K67" s="35" t="str" cm="1">
+        <f t="array" ref="K67">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E67, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="17" customFormat="1">
+    <row r="68" spans="1:11" s="17" customFormat="1">
       <c r="A68" s="15">
         <v>1002119</v>
       </c>
@@ -6576,20 +6957,26 @@
         <v>106</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G68" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I68" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H68" s="15">
-        <v>30</v>
-      </c>
-      <c r="I68" s="34" t="str" cm="1">
-        <f t="array" ref="I68">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E68, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J68" s="15">
+        <v>30</v>
+      </c>
+      <c r="K68" s="34" t="str" cm="1">
+        <f t="array" ref="K68">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E68, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="17" customFormat="1">
+    <row r="69" spans="1:11" s="17" customFormat="1">
       <c r="A69" s="15">
         <v>1002120</v>
       </c>
@@ -6606,20 +6993,26 @@
         <v>107</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H69" s="15">
-        <v>30</v>
-      </c>
-      <c r="I69" s="34" t="str" cm="1">
-        <f t="array" ref="I69">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E69, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>204</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J69" s="15">
+        <v>30</v>
+      </c>
+      <c r="K69" s="34" t="str" cm="1">
+        <f t="array" ref="K69">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E69, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="17" customFormat="1">
+    <row r="70" spans="1:11" s="17" customFormat="1">
       <c r="A70" s="15">
         <v>1002121</v>
       </c>
@@ -6636,20 +7029,26 @@
         <v>116</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="H70" s="15">
-        <v>30</v>
-      </c>
-      <c r="I70" s="34" t="str" cm="1">
-        <f t="array" ref="I70">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E70, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>204</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J70" s="15">
+        <v>30</v>
+      </c>
+      <c r="K70" s="34" t="str" cm="1">
+        <f t="array" ref="K70">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E70, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="17" customFormat="1">
+    <row r="71" spans="1:11" s="17" customFormat="1">
       <c r="A71" s="18">
         <v>1002122</v>
       </c>
@@ -6666,20 +7065,26 @@
         <v>122</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="G71" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I71" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H71" s="18">
-        <v>30</v>
-      </c>
-      <c r="I71" s="35" t="str" cm="1">
-        <f t="array" ref="I71">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E71, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J71" s="18">
+        <v>30</v>
+      </c>
+      <c r="K71" s="35" t="str" cm="1">
+        <f t="array" ref="K71">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E71, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="17" customFormat="1">
+    <row r="72" spans="1:11" s="17" customFormat="1">
       <c r="A72" s="18">
         <v>1002123</v>
       </c>
@@ -6696,20 +7101,26 @@
         <v>118</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H72" s="18">
-        <v>30</v>
-      </c>
-      <c r="I72" s="35" t="str" cm="1">
-        <f t="array" ref="I72">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E72, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>172</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J72" s="18">
+        <v>30</v>
+      </c>
+      <c r="K72" s="35" t="str" cm="1">
+        <f t="array" ref="K72">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E72, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="17" customFormat="1">
+    <row r="73" spans="1:11" s="17" customFormat="1">
       <c r="A73" s="18">
         <v>1002124</v>
       </c>
@@ -6726,20 +7137,26 @@
         <v>120</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H73" s="18">
-        <v>30</v>
-      </c>
-      <c r="I73" s="35" t="str" cm="1">
-        <f t="array" ref="I73">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E73, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>172</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J73" s="18">
+        <v>30</v>
+      </c>
+      <c r="K73" s="35" t="str" cm="1">
+        <f t="array" ref="K73">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E73, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="17" customFormat="1">
+    <row r="74" spans="1:11" s="17" customFormat="1">
       <c r="A74" s="15">
         <v>1002125</v>
       </c>
@@ -6756,20 +7173,26 @@
         <v>122</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G74" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I74" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H74" s="15">
-        <v>30</v>
-      </c>
-      <c r="I74" s="34" t="str" cm="1">
-        <f t="array" ref="I74">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E74, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J74" s="15">
+        <v>30</v>
+      </c>
+      <c r="K74" s="34" t="str" cm="1">
+        <f t="array" ref="K74">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E74, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="17" customFormat="1">
+    <row r="75" spans="1:11" s="17" customFormat="1">
       <c r="A75" s="15">
         <v>1002126</v>
       </c>
@@ -6786,20 +7209,26 @@
         <v>118</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H75" s="15">
-        <v>30</v>
-      </c>
-      <c r="I75" s="34" t="str" cm="1">
-        <f t="array" ref="I75">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E75, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>172</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J75" s="15">
+        <v>30</v>
+      </c>
+      <c r="K75" s="34" t="str" cm="1">
+        <f t="array" ref="K75">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E75, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="17" customFormat="1">
+    <row r="76" spans="1:11" s="17" customFormat="1">
       <c r="A76" s="15">
         <v>1002127</v>
       </c>
@@ -6816,20 +7245,26 @@
         <v>120</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H76" s="15">
-        <v>30</v>
-      </c>
-      <c r="I76" s="34" t="str" cm="1">
-        <f t="array" ref="I76">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E76, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>172</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J76" s="15">
+        <v>30</v>
+      </c>
+      <c r="K76" s="34" t="str" cm="1">
+        <f t="array" ref="K76">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E76, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="17" customFormat="1">
+    <row r="77" spans="1:11" s="17" customFormat="1">
       <c r="A77" s="18">
         <v>1002128</v>
       </c>
@@ -6846,20 +7281,26 @@
         <v>126</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G77" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I77" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H77" s="18">
-        <v>30</v>
-      </c>
-      <c r="I77" s="35" t="str" cm="1">
-        <f t="array" ref="I77">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E77, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J77" s="18">
+        <v>30</v>
+      </c>
+      <c r="K77" s="35" t="str" cm="1">
+        <f t="array" ref="K77">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E77, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="17" customFormat="1">
+    <row r="78" spans="1:11" s="17" customFormat="1">
       <c r="A78" s="18">
         <v>1002129</v>
       </c>
@@ -6876,20 +7317,26 @@
         <v>130</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H78" s="18">
-        <v>30</v>
-      </c>
-      <c r="I78" s="35" t="str" cm="1">
-        <f t="array" ref="I78">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E78, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>174</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J78" s="18">
+        <v>30</v>
+      </c>
+      <c r="K78" s="35" t="str" cm="1">
+        <f t="array" ref="K78">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E78, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="17" customFormat="1">
+    <row r="79" spans="1:11" s="17" customFormat="1">
       <c r="A79" s="18">
         <v>1002130</v>
       </c>
@@ -6906,20 +7353,26 @@
         <v>132</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H79" s="18">
-        <v>30</v>
-      </c>
-      <c r="I79" s="35" t="str" cm="1">
-        <f t="array" ref="I79">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E79, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>205</v>
+      </c>
+      <c r="H79" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J79" s="18">
+        <v>30</v>
+      </c>
+      <c r="K79" s="35" t="str" cm="1">
+        <f t="array" ref="K79">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E79, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="17" customFormat="1">
+    <row r="80" spans="1:11" s="17" customFormat="1">
       <c r="A80" s="15">
         <v>1002131</v>
       </c>
@@ -6936,20 +7389,26 @@
         <v>124</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G80" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I80" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="15">
-        <v>30</v>
-      </c>
-      <c r="I80" s="34" t="str" cm="1">
-        <f t="array" ref="I80">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E80, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J80" s="15">
+        <v>30</v>
+      </c>
+      <c r="K80" s="34" t="str" cm="1">
+        <f t="array" ref="K80">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E80, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="17" customFormat="1">
+    <row r="81" spans="1:11" s="17" customFormat="1">
       <c r="A81" s="15">
         <v>1002132</v>
       </c>
@@ -6966,20 +7425,26 @@
         <v>118</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H81" s="15">
-        <v>30</v>
-      </c>
-      <c r="I81" s="34" t="str" cm="1">
-        <f t="array" ref="I81">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E81, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>174</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J81" s="15">
+        <v>30</v>
+      </c>
+      <c r="K81" s="34" t="str" cm="1">
+        <f t="array" ref="K81">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E81, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="17" customFormat="1">
+    <row r="82" spans="1:11" s="17" customFormat="1">
       <c r="A82" s="15">
         <v>1002133</v>
       </c>
@@ -6996,20 +7461,26 @@
         <v>128</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H82" s="15">
-        <v>30</v>
-      </c>
-      <c r="I82" s="34" t="str" cm="1">
-        <f t="array" ref="I82">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E82, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>174</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J82" s="15">
+        <v>30</v>
+      </c>
+      <c r="K82" s="34" t="str" cm="1">
+        <f t="array" ref="K82">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E82, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="17" customFormat="1">
+    <row r="83" spans="1:11" s="17" customFormat="1">
       <c r="A83" s="18">
         <v>1002134</v>
       </c>
@@ -7026,20 +7497,26 @@
         <v>124</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G83" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H83" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I83" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H83" s="18">
-        <v>30</v>
-      </c>
-      <c r="I83" s="35" t="str" cm="1">
-        <f t="array" ref="I83">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E83, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J83" s="18">
+        <v>30</v>
+      </c>
+      <c r="K83" s="35" t="str" cm="1">
+        <f t="array" ref="K83">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E83, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="17" customFormat="1">
+    <row r="84" spans="1:11" s="17" customFormat="1">
       <c r="A84" s="18">
         <v>1002135</v>
       </c>
@@ -7056,20 +7533,26 @@
         <v>118</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H84" s="18">
-        <v>30</v>
-      </c>
-      <c r="I84" s="35" t="str" cm="1">
-        <f t="array" ref="I84">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E84, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>174</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J84" s="18">
+        <v>30</v>
+      </c>
+      <c r="K84" s="35" t="str" cm="1">
+        <f t="array" ref="K84">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E84, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="17" customFormat="1">
+    <row r="85" spans="1:11" s="17" customFormat="1">
       <c r="A85" s="18">
         <v>1002136</v>
       </c>
@@ -7086,20 +7569,26 @@
         <v>134</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H85" s="18">
-        <v>30</v>
-      </c>
-      <c r="I85" s="35" t="str" cm="1">
-        <f t="array" ref="I85">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E85, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>174</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J85" s="18">
+        <v>30</v>
+      </c>
+      <c r="K85" s="35" t="str" cm="1">
+        <f t="array" ref="K85">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E85, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="17" customFormat="1">
+    <row r="86" spans="1:11" s="17" customFormat="1">
       <c r="A86" s="15">
         <v>1002137</v>
       </c>
@@ -7116,20 +7605,26 @@
         <v>136</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="G86" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="I86" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H86" s="15">
-        <v>30</v>
-      </c>
-      <c r="I86" s="34" t="str" cm="1">
-        <f t="array" ref="I86">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E86, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J86" s="15">
+        <v>30</v>
+      </c>
+      <c r="K86" s="34" t="str" cm="1">
+        <f t="array" ref="K86">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E86, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="17" customFormat="1">
+    <row r="87" spans="1:11" s="17" customFormat="1">
       <c r="A87" s="15">
         <v>1002138</v>
       </c>
@@ -7146,20 +7641,26 @@
         <v>138</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H87" s="15">
-        <v>30</v>
-      </c>
-      <c r="I87" s="34" t="str" cm="1">
-        <f t="array" ref="I87">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E87, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>207</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J87" s="15">
+        <v>30</v>
+      </c>
+      <c r="K87" s="34" t="str" cm="1">
+        <f t="array" ref="K87">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E87, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="17" customFormat="1">
+    <row r="88" spans="1:11" s="17" customFormat="1">
       <c r="A88" s="15">
         <v>1002139</v>
       </c>
@@ -7176,20 +7677,26 @@
         <v>140</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H88" s="15">
-        <v>30</v>
-      </c>
-      <c r="I88" s="34" t="str" cm="1">
-        <f t="array" ref="I88">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E88, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>207</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J88" s="15">
+        <v>30</v>
+      </c>
+      <c r="K88" s="34" t="str" cm="1">
+        <f t="array" ref="K88">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E88, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="17" customFormat="1">
+    <row r="89" spans="1:11" s="17" customFormat="1">
       <c r="A89" s="18">
         <v>1002140</v>
       </c>
@@ -7206,20 +7713,26 @@
         <v>136</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="G89" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="I89" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H89" s="18">
-        <v>30</v>
-      </c>
-      <c r="I89" s="35" t="str" cm="1">
-        <f t="array" ref="I89">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E89, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J89" s="18">
+        <v>30</v>
+      </c>
+      <c r="K89" s="35" t="str" cm="1">
+        <f t="array" ref="K89">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E89, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="17" customFormat="1">
+    <row r="90" spans="1:11" s="17" customFormat="1">
       <c r="A90" s="18">
         <v>1002141</v>
       </c>
@@ -7236,20 +7749,26 @@
         <v>138</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H90" s="18">
-        <v>30</v>
-      </c>
-      <c r="I90" s="35" t="str" cm="1">
-        <f t="array" ref="I90">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E90, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>207</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J90" s="18">
+        <v>30</v>
+      </c>
+      <c r="K90" s="35" t="str" cm="1">
+        <f t="array" ref="K90">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E90, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="17" customFormat="1">
+    <row r="91" spans="1:11" s="17" customFormat="1">
       <c r="A91" s="18">
         <v>1002142</v>
       </c>
@@ -7266,20 +7785,26 @@
         <v>142</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="H91" s="18">
-        <v>30</v>
-      </c>
-      <c r="I91" s="35" t="str" cm="1">
-        <f t="array" ref="I91">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E91, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>207</v>
+      </c>
+      <c r="H91" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J91" s="18">
+        <v>30</v>
+      </c>
+      <c r="K91" s="35" t="str" cm="1">
+        <f t="array" ref="K91">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E91, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="17" customFormat="1">
+    <row r="92" spans="1:11" s="17" customFormat="1">
       <c r="A92" s="15">
         <v>1002143</v>
       </c>
@@ -7296,20 +7821,26 @@
         <v>136</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G92" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I92" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H92" s="15">
-        <v>30</v>
-      </c>
-      <c r="I92" s="34" t="str" cm="1">
-        <f t="array" ref="I92">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E92, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J92" s="15">
+        <v>30</v>
+      </c>
+      <c r="K92" s="34" t="str" cm="1">
+        <f t="array" ref="K92">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E92, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="17" customFormat="1">
+    <row r="93" spans="1:11" s="17" customFormat="1">
       <c r="A93" s="15">
         <v>1002144</v>
       </c>
@@ -7326,20 +7857,26 @@
         <v>138</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H93" s="15">
-        <v>30</v>
-      </c>
-      <c r="I93" s="34" t="str" cm="1">
-        <f t="array" ref="I93">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E93, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>208</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J93" s="15">
+        <v>30</v>
+      </c>
+      <c r="K93" s="34" t="str" cm="1">
+        <f t="array" ref="K93">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E93, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="17" customFormat="1">
+    <row r="94" spans="1:11" s="17" customFormat="1">
       <c r="A94" s="15">
         <v>1002145</v>
       </c>
@@ -7356,20 +7893,26 @@
         <v>144</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H94" s="15">
-        <v>30</v>
-      </c>
-      <c r="I94" s="34" t="str" cm="1">
-        <f t="array" ref="I94">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E94, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>209</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J94" s="15">
+        <v>30</v>
+      </c>
+      <c r="K94" s="34" t="str" cm="1">
+        <f t="array" ref="K94">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E94, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     베리] 탱커(정예) - 거대 안드     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:11">
       <c r="A95" s="20">
         <v>1003101</v>
       </c>
@@ -7386,20 +7929,26 @@
         <v>98</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G95" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H95" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I95" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H95" s="20">
-        <v>30</v>
-      </c>
-      <c r="I95" s="35" t="str" cm="1">
-        <f t="array" ref="I95">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E95, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J95" s="20">
+        <v>30</v>
+      </c>
+      <c r="K95" s="35" t="str" cm="1">
+        <f t="array" ref="K95">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E95, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:11">
       <c r="A96" s="20">
         <v>1003102</v>
       </c>
@@ -7416,20 +7965,26 @@
         <v>100</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G96" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I96" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H96" s="20">
-        <v>30</v>
-      </c>
-      <c r="I96" s="35" t="str" cm="1">
-        <f t="array" ref="I96">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E96, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J96" s="20">
+        <v>30</v>
+      </c>
+      <c r="K96" s="35" t="str" cm="1">
+        <f t="array" ref="K96">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E96, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:11">
       <c r="A97" s="20">
         <v>1003103</v>
       </c>
@@ -7446,20 +8001,26 @@
         <v>101</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G97" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I97" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H97" s="20">
-        <v>30</v>
-      </c>
-      <c r="I97" s="35" t="str" cm="1">
-        <f t="array" ref="I97">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E97, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J97" s="20">
+        <v>30</v>
+      </c>
+      <c r="K97" s="35" t="str" cm="1">
+        <f t="array" ref="K97">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E97, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:11">
       <c r="A98" s="18">
         <v>1003104</v>
       </c>
@@ -7476,20 +8037,26 @@
         <v>100</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G98" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I98" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H98" s="18">
-        <v>30</v>
-      </c>
-      <c r="I98" s="34" t="str" cm="1">
-        <f t="array" ref="I98">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E98, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J98" s="18">
+        <v>30</v>
+      </c>
+      <c r="K98" s="34" t="str" cm="1">
+        <f t="array" ref="K98">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E98, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:11">
       <c r="A99" s="18">
         <v>1003105</v>
       </c>
@@ -7506,20 +8073,26 @@
         <v>99</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G99" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I99" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H99" s="18">
-        <v>30</v>
-      </c>
-      <c r="I99" s="34" t="str" cm="1">
-        <f t="array" ref="I99">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E99, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J99" s="18">
+        <v>30</v>
+      </c>
+      <c r="K99" s="34" t="str" cm="1">
+        <f t="array" ref="K99">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E99, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:11">
       <c r="A100" s="18">
         <v>1003106</v>
       </c>
@@ -7536,20 +8109,26 @@
         <v>103</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G100" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I100" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H100" s="18">
-        <v>30</v>
-      </c>
-      <c r="I100" s="34" t="str" cm="1">
-        <f t="array" ref="I100">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E100, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J100" s="18">
+        <v>30</v>
+      </c>
+      <c r="K100" s="34" t="str" cm="1">
+        <f t="array" ref="K100">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E100, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:11">
       <c r="A101" s="20">
         <v>1003107</v>
       </c>
@@ -7566,20 +8145,26 @@
         <v>101</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G101" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H101" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I101" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H101" s="20">
-        <v>30</v>
-      </c>
-      <c r="I101" s="35" t="str" cm="1">
-        <f t="array" ref="I101">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E101, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J101" s="20">
+        <v>30</v>
+      </c>
+      <c r="K101" s="35" t="str" cm="1">
+        <f t="array" ref="K101">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E101, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:11">
       <c r="A102" s="20">
         <v>1003108</v>
       </c>
@@ -7596,20 +8181,26 @@
         <v>103</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G102" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I102" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H102" s="20">
-        <v>30</v>
-      </c>
-      <c r="I102" s="35" t="str" cm="1">
-        <f t="array" ref="I102">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E102, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J102" s="20">
+        <v>30</v>
+      </c>
+      <c r="K102" s="35" t="str" cm="1">
+        <f t="array" ref="K102">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E102, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:11">
       <c r="A103" s="20">
         <v>1003109</v>
       </c>
@@ -7626,20 +8217,26 @@
         <v>104</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G103" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H103" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I103" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="20">
-        <v>30</v>
-      </c>
-      <c r="I103" s="35" t="str" cm="1">
-        <f t="array" ref="I103">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E103, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J103" s="20">
+        <v>30</v>
+      </c>
+      <c r="K103" s="35" t="str" cm="1">
+        <f t="array" ref="K103">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E103, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:11">
       <c r="A104" s="18">
         <v>1003110</v>
       </c>
@@ -7656,20 +8253,26 @@
         <v>101</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G104" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H104" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I104" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H104" s="18">
-        <v>30</v>
-      </c>
-      <c r="I104" s="34" t="str" cm="1">
-        <f t="array" ref="I104">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E104, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J104" s="18">
+        <v>30</v>
+      </c>
+      <c r="K104" s="34" t="str" cm="1">
+        <f t="array" ref="K104">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E104, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:11">
       <c r="A105" s="18">
         <v>1003111</v>
       </c>
@@ -7686,20 +8289,26 @@
         <v>102</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G105" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I105" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H105" s="18">
-        <v>30</v>
-      </c>
-      <c r="I105" s="34" t="str" cm="1">
-        <f t="array" ref="I105">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E105, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J105" s="18">
+        <v>30</v>
+      </c>
+      <c r="K105" s="34" t="str" cm="1">
+        <f t="array" ref="K105">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E105, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:11">
       <c r="A106" s="18">
         <v>1003112</v>
       </c>
@@ -7716,20 +8325,26 @@
         <v>100</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G106" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I106" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H106" s="18">
-        <v>30</v>
-      </c>
-      <c r="I106" s="34" t="str" cm="1">
-        <f t="array" ref="I106">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E106, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J106" s="18">
+        <v>30</v>
+      </c>
+      <c r="K106" s="34" t="str" cm="1">
+        <f t="array" ref="K106">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E106, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:11">
       <c r="A107" s="20">
         <v>1003113</v>
       </c>
@@ -7746,20 +8361,26 @@
         <v>105</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="G107" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H107" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I107" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H107" s="20">
-        <v>30</v>
-      </c>
-      <c r="I107" s="35" t="str" cm="1">
-        <f t="array" ref="I107">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E107, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J107" s="20">
+        <v>30</v>
+      </c>
+      <c r="K107" s="35" t="str" cm="1">
+        <f t="array" ref="K107">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E107, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:11">
       <c r="A108" s="20">
         <v>1003114</v>
       </c>
@@ -7776,20 +8397,26 @@
         <v>107</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G108" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H108" s="20">
-        <v>30</v>
-      </c>
-      <c r="I108" s="35" t="str" cm="1">
-        <f t="array" ref="I108">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E108, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>176</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I108" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J108" s="20">
+        <v>30</v>
+      </c>
+      <c r="K108" s="35" t="str" cm="1">
+        <f t="array" ref="K108">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E108, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:11">
       <c r="A109" s="20">
         <v>1003115</v>
       </c>
@@ -7806,20 +8433,26 @@
         <v>111</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H109" s="20">
-        <v>30</v>
-      </c>
-      <c r="I109" s="35" t="str" cm="1">
-        <f t="array" ref="I109">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E109, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>176</v>
+      </c>
+      <c r="H109" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I109" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J109" s="20">
+        <v>30</v>
+      </c>
+      <c r="K109" s="35" t="str" cm="1">
+        <f t="array" ref="K109">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E109, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:11">
       <c r="A110" s="18">
         <v>1003116</v>
       </c>
@@ -7836,20 +8469,26 @@
         <v>109</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="G110" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I110" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="18">
-        <v>30</v>
-      </c>
-      <c r="I110" s="34" t="str" cm="1">
-        <f t="array" ref="I110">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E110, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J110" s="18">
+        <v>30</v>
+      </c>
+      <c r="K110" s="34" t="str" cm="1">
+        <f t="array" ref="K110">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E110, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:11">
       <c r="A111" s="18">
         <v>1003117</v>
       </c>
@@ -7866,20 +8505,26 @@
         <v>107</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H111" s="18">
-        <v>30</v>
-      </c>
-      <c r="I111" s="34" t="str" cm="1">
-        <f t="array" ref="I111">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E111, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>176</v>
+      </c>
+      <c r="H111" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I111" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J111" s="18">
+        <v>30</v>
+      </c>
+      <c r="K111" s="34" t="str" cm="1">
+        <f t="array" ref="K111">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E111, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:11">
       <c r="A112" s="18">
         <v>1003118</v>
       </c>
@@ -7896,20 +8541,26 @@
         <v>113</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H112" s="18">
-        <v>30</v>
-      </c>
-      <c r="I112" s="34" t="str" cm="1">
-        <f t="array" ref="I112">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E112, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>176</v>
+      </c>
+      <c r="H112" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I112" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J112" s="18">
+        <v>30</v>
+      </c>
+      <c r="K112" s="34" t="str" cm="1">
+        <f t="array" ref="K112">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E112, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:11">
       <c r="A113" s="20">
         <v>1003119</v>
       </c>
@@ -7926,20 +8577,26 @@
         <v>106</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="G113" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H113" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I113" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H113" s="20">
-        <v>30</v>
-      </c>
-      <c r="I113" s="35" t="str" cm="1">
-        <f t="array" ref="I113">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E113, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J113" s="20">
+        <v>30</v>
+      </c>
+      <c r="K113" s="35" t="str" cm="1">
+        <f t="array" ref="K113">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E113, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:11">
       <c r="A114" s="20">
         <v>1003120</v>
       </c>
@@ -7956,20 +8613,26 @@
         <v>107</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H114" s="20">
-        <v>30</v>
-      </c>
-      <c r="I114" s="35" t="str" cm="1">
-        <f t="array" ref="I114">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E114, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>176</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I114" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J114" s="20">
+        <v>30</v>
+      </c>
+      <c r="K114" s="35" t="str" cm="1">
+        <f t="array" ref="K114">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E114, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:11">
       <c r="A115" s="20">
         <v>1003121</v>
       </c>
@@ -7986,20 +8649,26 @@
         <v>116</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G115" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="H115" s="20">
-        <v>30</v>
-      </c>
-      <c r="I115" s="35" t="str" cm="1">
-        <f t="array" ref="I115">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E115, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>176</v>
+      </c>
+      <c r="H115" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I115" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J115" s="20">
+        <v>30</v>
+      </c>
+      <c r="K115" s="35" t="str" cm="1">
+        <f t="array" ref="K115">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E115, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:11">
       <c r="A116" s="18">
         <v>1003122</v>
       </c>
@@ -8016,20 +8685,26 @@
         <v>122</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="G116" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="H116" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I116" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H116" s="18">
-        <v>30</v>
-      </c>
-      <c r="I116" s="34" t="str" cm="1">
-        <f t="array" ref="I116">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E116, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J116" s="18">
+        <v>30</v>
+      </c>
+      <c r="K116" s="34" t="str" cm="1">
+        <f t="array" ref="K116">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E116, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:11">
       <c r="A117" s="18">
         <v>1003123</v>
       </c>
@@ -8046,20 +8721,26 @@
         <v>118</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H117" s="18">
-        <v>30</v>
-      </c>
-      <c r="I117" s="34" t="str" cm="1">
-        <f t="array" ref="I117">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E117, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>176</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I117" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J117" s="18">
+        <v>30</v>
+      </c>
+      <c r="K117" s="34" t="str" cm="1">
+        <f t="array" ref="K117">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E117, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:11">
       <c r="A118" s="18">
         <v>1003124</v>
       </c>
@@ -8076,20 +8757,26 @@
         <v>120</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H118" s="18">
-        <v>30</v>
-      </c>
-      <c r="I118" s="34" t="str" cm="1">
-        <f t="array" ref="I118">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E118, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>176</v>
+      </c>
+      <c r="H118" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J118" s="18">
+        <v>30</v>
+      </c>
+      <c r="K118" s="34" t="str" cm="1">
+        <f t="array" ref="K118">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E118, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:11">
       <c r="A119" s="20">
         <v>1003125</v>
       </c>
@@ -8106,20 +8793,26 @@
         <v>122</v>
       </c>
       <c r="F119" s="20" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="G119" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H119" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I119" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H119" s="20">
-        <v>30</v>
-      </c>
-      <c r="I119" s="35" t="str" cm="1">
-        <f t="array" ref="I119">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E119, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J119" s="20">
+        <v>30</v>
+      </c>
+      <c r="K119" s="35" t="str" cm="1">
+        <f t="array" ref="K119">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E119, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:11">
       <c r="A120" s="20">
         <v>1003126</v>
       </c>
@@ -8136,20 +8829,26 @@
         <v>118</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G120" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H120" s="20">
-        <v>30</v>
-      </c>
-      <c r="I120" s="35" t="str" cm="1">
-        <f t="array" ref="I120">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E120, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>176</v>
+      </c>
+      <c r="H120" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I120" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J120" s="20">
+        <v>30</v>
+      </c>
+      <c r="K120" s="35" t="str" cm="1">
+        <f t="array" ref="K120">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E120, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:11">
       <c r="A121" s="20">
         <v>1003127</v>
       </c>
@@ -8166,20 +8865,26 @@
         <v>120</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G121" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H121" s="20">
-        <v>30</v>
-      </c>
-      <c r="I121" s="35" t="str" cm="1">
-        <f t="array" ref="I121">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E121, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>176</v>
+      </c>
+      <c r="H121" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="I121" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J121" s="20">
+        <v>30</v>
+      </c>
+      <c r="K121" s="35" t="str" cm="1">
+        <f t="array" ref="K121">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E121, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:11">
       <c r="A122" s="18">
         <v>1003128</v>
       </c>
@@ -8196,20 +8901,26 @@
         <v>126</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G122" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H122" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I122" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H122" s="18">
-        <v>30</v>
-      </c>
-      <c r="I122" s="34" t="str" cm="1">
-        <f t="array" ref="I122">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E122, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J122" s="18">
+        <v>30</v>
+      </c>
+      <c r="K122" s="34" t="str" cm="1">
+        <f t="array" ref="K122">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E122, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:11">
       <c r="A123" s="18">
         <v>1003129</v>
       </c>
@@ -8226,20 +8937,26 @@
         <v>130</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H123" s="18">
-        <v>30</v>
-      </c>
-      <c r="I123" s="34" t="str" cm="1">
-        <f t="array" ref="I123">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E123, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>211</v>
+      </c>
+      <c r="H123" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I123" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J123" s="18">
+        <v>30</v>
+      </c>
+      <c r="K123" s="34" t="str" cm="1">
+        <f t="array" ref="K123">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E123, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:11">
       <c r="A124" s="18">
         <v>1003130</v>
       </c>
@@ -8256,20 +8973,26 @@
         <v>132</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H124" s="18">
-        <v>30</v>
-      </c>
-      <c r="I124" s="34" t="str" cm="1">
-        <f t="array" ref="I124">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E124, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>212</v>
+      </c>
+      <c r="H124" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I124" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J124" s="18">
+        <v>30</v>
+      </c>
+      <c r="K124" s="34" t="str" cm="1">
+        <f t="array" ref="K124">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E124, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:11">
       <c r="A125" s="20">
         <v>1003131</v>
       </c>
@@ -8286,20 +9009,26 @@
         <v>124</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G125" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="H125" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="I125" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H125" s="20">
-        <v>30</v>
-      </c>
-      <c r="I125" s="35" t="str" cm="1">
-        <f t="array" ref="I125">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E125, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J125" s="20">
+        <v>30</v>
+      </c>
+      <c r="K125" s="35" t="str" cm="1">
+        <f t="array" ref="K125">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E125, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:11">
       <c r="A126" s="20">
         <v>1003132</v>
       </c>
@@ -8316,20 +9045,26 @@
         <v>118</v>
       </c>
       <c r="F126" s="20" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G126" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H126" s="20">
-        <v>30</v>
-      </c>
-      <c r="I126" s="35" t="str" cm="1">
-        <f t="array" ref="I126">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E126, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>211</v>
+      </c>
+      <c r="H126" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="I126" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J126" s="20">
+        <v>30</v>
+      </c>
+      <c r="K126" s="35" t="str" cm="1">
+        <f t="array" ref="K126">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E126, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:11">
       <c r="A127" s="20">
         <v>1003133</v>
       </c>
@@ -8346,20 +9081,26 @@
         <v>128</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="H127" s="20">
-        <v>30</v>
-      </c>
-      <c r="I127" s="35" t="str" cm="1">
-        <f t="array" ref="I127">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E127, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>212</v>
+      </c>
+      <c r="H127" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="I127" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="J127" s="20">
+        <v>30</v>
+      </c>
+      <c r="K127" s="35" t="str" cm="1">
+        <f t="array" ref="K127">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E127, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:11">
       <c r="A128" s="18">
         <v>1003134</v>
       </c>
@@ -8376,20 +9117,26 @@
         <v>124</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G128" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H128" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I128" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H128" s="18">
-        <v>30</v>
-      </c>
-      <c r="I128" s="34" t="str" cm="1">
-        <f t="array" ref="I128">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E128, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J128" s="18">
+        <v>30</v>
+      </c>
+      <c r="K128" s="34" t="str" cm="1">
+        <f t="array" ref="K128">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E128, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:11">
       <c r="A129" s="18">
         <v>1003135</v>
       </c>
@@ -8406,20 +9153,26 @@
         <v>118</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H129" s="18">
-        <v>30</v>
-      </c>
-      <c r="I129" s="34" t="str" cm="1">
-        <f t="array" ref="I129">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E129, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>211</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I129" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J129" s="18">
+        <v>30</v>
+      </c>
+      <c r="K129" s="34" t="str" cm="1">
+        <f t="array" ref="K129">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E129, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:11">
       <c r="A130" s="18">
         <v>1003136</v>
       </c>
@@ -8436,20 +9189,26 @@
         <v>134</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H130" s="18">
-        <v>30</v>
-      </c>
-      <c r="I130" s="34" t="str" cm="1">
-        <f t="array" ref="I130">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E130, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>212</v>
+      </c>
+      <c r="H130" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I130" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J130" s="18">
+        <v>30</v>
+      </c>
+      <c r="K130" s="34" t="str" cm="1">
+        <f t="array" ref="K130">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E130, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:11">
       <c r="A131" s="20">
         <v>1003137</v>
       </c>
@@ -8466,20 +9225,26 @@
         <v>136</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G131" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="H131" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="I131" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H131" s="20">
-        <v>30</v>
-      </c>
-      <c r="I131" s="35" t="str" cm="1">
-        <f t="array" ref="I131">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E131, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J131" s="20">
+        <v>30</v>
+      </c>
+      <c r="K131" s="35" t="str" cm="1">
+        <f t="array" ref="K131">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E131, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:11">
       <c r="A132" s="20">
         <v>1003138</v>
       </c>
@@ -8496,20 +9261,26 @@
         <v>138</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H132" s="20">
-        <v>30</v>
-      </c>
-      <c r="I132" s="35" t="str" cm="1">
-        <f t="array" ref="I132">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E132, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>211</v>
+      </c>
+      <c r="H132" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="I132" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J132" s="20">
+        <v>30</v>
+      </c>
+      <c r="K132" s="35" t="str" cm="1">
+        <f t="array" ref="K132">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E132, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:11">
       <c r="A133" s="20">
         <v>1003139</v>
       </c>
@@ -8526,20 +9297,26 @@
         <v>140</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G133" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="H133" s="20">
-        <v>30</v>
-      </c>
-      <c r="I133" s="35" t="str" cm="1">
-        <f t="array" ref="I133">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E133, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>212</v>
+      </c>
+      <c r="H133" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="I133" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="J133" s="20">
+        <v>30</v>
+      </c>
+      <c r="K133" s="35" t="str" cm="1">
+        <f t="array" ref="K133">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E133, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:11">
       <c r="A134" s="18">
         <v>1003140</v>
       </c>
@@ -8556,20 +9333,26 @@
         <v>136</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G134" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="H134" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I134" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H134" s="18">
-        <v>30</v>
-      </c>
-      <c r="I134" s="34" t="str" cm="1">
-        <f t="array" ref="I134">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E134, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J134" s="18">
+        <v>30</v>
+      </c>
+      <c r="K134" s="34" t="str" cm="1">
+        <f t="array" ref="K134">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E134, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:11">
       <c r="A135" s="18">
         <v>1003141</v>
       </c>
@@ -8586,20 +9369,26 @@
         <v>138</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H135" s="18">
-        <v>30</v>
-      </c>
-      <c r="I135" s="34" t="str" cm="1">
-        <f t="array" ref="I135">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E135, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>211</v>
+      </c>
+      <c r="H135" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I135" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J135" s="18">
+        <v>30</v>
+      </c>
+      <c r="K135" s="34" t="str" cm="1">
+        <f t="array" ref="K135">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E135, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:11">
       <c r="A136" s="18">
         <v>1003142</v>
       </c>
@@ -8616,20 +9405,26 @@
         <v>142</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="H136" s="18">
-        <v>30</v>
-      </c>
-      <c r="I136" s="34" t="str" cm="1">
-        <f t="array" ref="I136">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E136, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>212</v>
+      </c>
+      <c r="H136" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I136" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J136" s="18">
+        <v>30</v>
+      </c>
+      <c r="K136" s="34" t="str" cm="1">
+        <f t="array" ref="K136">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E136, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:11">
       <c r="A137" s="20">
         <v>1003143</v>
       </c>
@@ -8646,20 +9441,26 @@
         <v>136</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="G137" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H137" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I137" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H137" s="20">
-        <v>30</v>
-      </c>
-      <c r="I137" s="35" t="str" cm="1">
-        <f t="array" ref="I137">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E137, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J137" s="20">
+        <v>30</v>
+      </c>
+      <c r="K137" s="35" t="str" cm="1">
+        <f t="array" ref="K137">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E137, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:11">
       <c r="A138" s="20">
         <v>1003144</v>
       </c>
@@ -8676,20 +9477,26 @@
         <v>138</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="G138" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H138" s="20">
-        <v>30</v>
-      </c>
-      <c r="I138" s="35" t="str" cm="1">
-        <f t="array" ref="I138">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E138, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>177</v>
+      </c>
+      <c r="H138" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I138" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J138" s="20">
+        <v>30</v>
+      </c>
+      <c r="K138" s="35" t="str" cm="1">
+        <f t="array" ref="K138">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E138, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:11">
       <c r="A139" s="20">
         <v>1003145</v>
       </c>
@@ -8706,20 +9513,26 @@
         <v>144</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="G139" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="H139" s="20">
-        <v>30</v>
-      </c>
-      <c r="I139" s="35" t="str" cm="1">
-        <f t="array" ref="I139">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E139, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>178</v>
+      </c>
+      <c r="H139" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="I139" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J139" s="20">
+        <v>30</v>
+      </c>
+      <c r="K139" s="35" t="str" cm="1">
+        <f t="array" ref="K139">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E139, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     베리] 탱커(정예) - 거대 안드     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:11">
       <c r="A140" s="27">
         <v>1003201</v>
       </c>
@@ -8736,20 +9549,26 @@
         <v>98</v>
       </c>
       <c r="F140" s="27" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G140" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H140" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I140" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H140" s="27">
-        <v>30</v>
-      </c>
-      <c r="I140" s="34" t="str" cm="1">
-        <f t="array" ref="I140">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E140, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J140" s="27">
+        <v>30</v>
+      </c>
+      <c r="K140" s="34" t="str" cm="1">
+        <f t="array" ref="K140">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E140, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:11">
       <c r="A141" s="27">
         <v>1003202</v>
       </c>
@@ -8766,20 +9585,26 @@
         <v>100</v>
       </c>
       <c r="F141" s="27" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G141" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H141" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I141" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H141" s="27">
-        <v>30</v>
-      </c>
-      <c r="I141" s="34" t="str" cm="1">
-        <f t="array" ref="I141">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E141, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J141" s="27">
+        <v>30</v>
+      </c>
+      <c r="K141" s="34" t="str" cm="1">
+        <f t="array" ref="K141">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E141, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:11">
       <c r="A142" s="27">
         <v>1003203</v>
       </c>
@@ -8796,20 +9621,26 @@
         <v>101</v>
       </c>
       <c r="F142" s="27" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G142" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="H142" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I142" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H142" s="27">
-        <v>30</v>
-      </c>
-      <c r="I142" s="34" t="str" cm="1">
-        <f t="array" ref="I142">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E142, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J142" s="27">
+        <v>30</v>
+      </c>
+      <c r="K142" s="34" t="str" cm="1">
+        <f t="array" ref="K142">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E142, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:11">
       <c r="A143" s="18">
         <v>1003204</v>
       </c>
@@ -8826,20 +9657,26 @@
         <v>100</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G143" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H143" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I143" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H143" s="18">
-        <v>30</v>
-      </c>
-      <c r="I143" s="35" t="str" cm="1">
-        <f t="array" ref="I143">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E143, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J143" s="18">
+        <v>30</v>
+      </c>
+      <c r="K143" s="35" t="str" cm="1">
+        <f t="array" ref="K143">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E143, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:11">
       <c r="A144" s="18">
         <v>1003205</v>
       </c>
@@ -8856,20 +9693,26 @@
         <v>99</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G144" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H144" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I144" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H144" s="18">
-        <v>30</v>
-      </c>
-      <c r="I144" s="35" t="str" cm="1">
-        <f t="array" ref="I144">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E144, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J144" s="18">
+        <v>30</v>
+      </c>
+      <c r="K144" s="35" t="str" cm="1">
+        <f t="array" ref="K144">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E144, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:11">
       <c r="A145" s="18">
         <v>1003206</v>
       </c>
@@ -8886,20 +9729,26 @@
         <v>103</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G145" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H145" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I145" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H145" s="18">
-        <v>30</v>
-      </c>
-      <c r="I145" s="35" t="str" cm="1">
-        <f t="array" ref="I145">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E145, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J145" s="18">
+        <v>30</v>
+      </c>
+      <c r="K145" s="35" t="str" cm="1">
+        <f t="array" ref="K145">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E145, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:11">
       <c r="A146" s="27">
         <v>1003207</v>
       </c>
@@ -8916,20 +9765,26 @@
         <v>101</v>
       </c>
       <c r="F146" s="27" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G146" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H146" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="I146" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H146" s="27">
-        <v>30</v>
-      </c>
-      <c r="I146" s="34" t="str" cm="1">
-        <f t="array" ref="I146">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E146, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J146" s="27">
+        <v>30</v>
+      </c>
+      <c r="K146" s="34" t="str" cm="1">
+        <f t="array" ref="K146">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E146, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:11">
       <c r="A147" s="27">
         <v>1003208</v>
       </c>
@@ -8946,20 +9801,26 @@
         <v>103</v>
       </c>
       <c r="F147" s="27" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G147" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H147" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="I147" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H147" s="27">
-        <v>30</v>
-      </c>
-      <c r="I147" s="34" t="str" cm="1">
-        <f t="array" ref="I147">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E147, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J147" s="27">
+        <v>30</v>
+      </c>
+      <c r="K147" s="34" t="str" cm="1">
+        <f t="array" ref="K147">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E147, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:11">
       <c r="A148" s="27">
         <v>1003209</v>
       </c>
@@ -8976,20 +9837,26 @@
         <v>104</v>
       </c>
       <c r="F148" s="27" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G148" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="H148" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="I148" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="27">
-        <v>30</v>
-      </c>
-      <c r="I148" s="34" t="str" cm="1">
-        <f t="array" ref="I148">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E148, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J148" s="27">
+        <v>30</v>
+      </c>
+      <c r="K148" s="34" t="str" cm="1">
+        <f t="array" ref="K148">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E148, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:11">
       <c r="A149" s="18">
         <v>1003210</v>
       </c>
@@ -9006,20 +9873,26 @@
         <v>101</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G149" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H149" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I149" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H149" s="18">
-        <v>30</v>
-      </c>
-      <c r="I149" s="35" t="str" cm="1">
-        <f t="array" ref="I149">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E149, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J149" s="18">
+        <v>30</v>
+      </c>
+      <c r="K149" s="35" t="str" cm="1">
+        <f t="array" ref="K149">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E149, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:11">
       <c r="A150" s="18">
         <v>1003211</v>
       </c>
@@ -9036,20 +9909,26 @@
         <v>102</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G150" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I150" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H150" s="18">
-        <v>30</v>
-      </c>
-      <c r="I150" s="35" t="str" cm="1">
-        <f t="array" ref="I150">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E150, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J150" s="18">
+        <v>30</v>
+      </c>
+      <c r="K150" s="35" t="str" cm="1">
+        <f t="array" ref="K150">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E150, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:11">
       <c r="A151" s="18">
         <v>1003212</v>
       </c>
@@ -9066,20 +9945,26 @@
         <v>100</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G151" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H151" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I151" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H151" s="18">
-        <v>30</v>
-      </c>
-      <c r="I151" s="35" t="str" cm="1">
-        <f t="array" ref="I151">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E151, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J151" s="18">
+        <v>30</v>
+      </c>
+      <c r="K151" s="35" t="str" cm="1">
+        <f t="array" ref="K151">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E151, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:11">
       <c r="A152" s="27">
         <v>1003213</v>
       </c>
@@ -9096,20 +9981,26 @@
         <v>105</v>
       </c>
       <c r="F152" s="27" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G152" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H152" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I152" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H152" s="27">
-        <v>30</v>
-      </c>
-      <c r="I152" s="34" t="str" cm="1">
-        <f t="array" ref="I152">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E152, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J152" s="27">
+        <v>30</v>
+      </c>
+      <c r="K152" s="34" t="str" cm="1">
+        <f t="array" ref="K152">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E152, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:11">
       <c r="A153" s="27">
         <v>1003214</v>
       </c>
@@ -9126,20 +10017,26 @@
         <v>107</v>
       </c>
       <c r="F153" s="27" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G153" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H153" s="27">
-        <v>30</v>
-      </c>
-      <c r="I153" s="34" t="str" cm="1">
-        <f t="array" ref="I153">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E153, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>181</v>
+      </c>
+      <c r="H153" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I153" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J153" s="27">
+        <v>30</v>
+      </c>
+      <c r="K153" s="34" t="str" cm="1">
+        <f t="array" ref="K153">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E153, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:11">
       <c r="A154" s="27">
         <v>1003215</v>
       </c>
@@ -9156,20 +10053,26 @@
         <v>111</v>
       </c>
       <c r="F154" s="27" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G154" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H154" s="27">
-        <v>30</v>
-      </c>
-      <c r="I154" s="34" t="str" cm="1">
-        <f t="array" ref="I154">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E154, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>181</v>
+      </c>
+      <c r="H154" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I154" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J154" s="27">
+        <v>30</v>
+      </c>
+      <c r="K154" s="34" t="str" cm="1">
+        <f t="array" ref="K154">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E154, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:11">
       <c r="A155" s="18">
         <v>1003216</v>
       </c>
@@ -9186,20 +10089,26 @@
         <v>109</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G155" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I155" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H155" s="18">
-        <v>30</v>
-      </c>
-      <c r="I155" s="35" t="str" cm="1">
-        <f t="array" ref="I155">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E155, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J155" s="18">
+        <v>30</v>
+      </c>
+      <c r="K155" s="35" t="str" cm="1">
+        <f t="array" ref="K155">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E155, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:11">
       <c r="A156" s="18">
         <v>1003217</v>
       </c>
@@ -9216,20 +10125,26 @@
         <v>107</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G156" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H156" s="18">
-        <v>30</v>
-      </c>
-      <c r="I156" s="35" t="str" cm="1">
-        <f t="array" ref="I156">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E156, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>181</v>
+      </c>
+      <c r="H156" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I156" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J156" s="18">
+        <v>30</v>
+      </c>
+      <c r="K156" s="35" t="str" cm="1">
+        <f t="array" ref="K156">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E156, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:11">
       <c r="A157" s="18">
         <v>1003218</v>
       </c>
@@ -9246,20 +10161,26 @@
         <v>113</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G157" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H157" s="18">
-        <v>30</v>
-      </c>
-      <c r="I157" s="35" t="str" cm="1">
-        <f t="array" ref="I157">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E157, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>181</v>
+      </c>
+      <c r="H157" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I157" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J157" s="18">
+        <v>30</v>
+      </c>
+      <c r="K157" s="35" t="str" cm="1">
+        <f t="array" ref="K157">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E157, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:11">
       <c r="A158" s="27">
         <v>1003219</v>
       </c>
@@ -9276,20 +10197,26 @@
         <v>106</v>
       </c>
       <c r="F158" s="27" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="G158" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H158" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="I158" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H158" s="27">
-        <v>30</v>
-      </c>
-      <c r="I158" s="34" t="str" cm="1">
-        <f t="array" ref="I158">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E158, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J158" s="27">
+        <v>30</v>
+      </c>
+      <c r="K158" s="34" t="str" cm="1">
+        <f t="array" ref="K158">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E158, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:11">
       <c r="A159" s="27">
         <v>1003220</v>
       </c>
@@ -9306,20 +10233,26 @@
         <v>107</v>
       </c>
       <c r="F159" s="27" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G159" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H159" s="27">
-        <v>30</v>
-      </c>
-      <c r="I159" s="34" t="str" cm="1">
-        <f t="array" ref="I159">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E159, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>181</v>
+      </c>
+      <c r="H159" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I159" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J159" s="27">
+        <v>30</v>
+      </c>
+      <c r="K159" s="34" t="str" cm="1">
+        <f t="array" ref="K159">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E159, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:11">
       <c r="A160" s="27">
         <v>1003221</v>
       </c>
@@ -9336,20 +10269,26 @@
         <v>116</v>
       </c>
       <c r="F160" s="27" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="G160" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="H160" s="27">
-        <v>30</v>
-      </c>
-      <c r="I160" s="34" t="str" cm="1">
-        <f t="array" ref="I160">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E160, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>181</v>
+      </c>
+      <c r="H160" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I160" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J160" s="27">
+        <v>30</v>
+      </c>
+      <c r="K160" s="34" t="str" cm="1">
+        <f t="array" ref="K160">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E160, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:11">
       <c r="A161" s="18">
         <v>1003222</v>
       </c>
@@ -9366,20 +10305,26 @@
         <v>122</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G161" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H161" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I161" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H161" s="18">
-        <v>30</v>
-      </c>
-      <c r="I161" s="35" t="str" cm="1">
-        <f t="array" ref="I161">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E161, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J161" s="18">
+        <v>30</v>
+      </c>
+      <c r="K161" s="35" t="str" cm="1">
+        <f t="array" ref="K161">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E161, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:11">
       <c r="A162" s="18">
         <v>1003223</v>
       </c>
@@ -9396,20 +10341,26 @@
         <v>118</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G162" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H162" s="18">
-        <v>30</v>
-      </c>
-      <c r="I162" s="35" t="str" cm="1">
-        <f t="array" ref="I162">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E162, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>183</v>
+      </c>
+      <c r="H162" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I162" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J162" s="18">
+        <v>30</v>
+      </c>
+      <c r="K162" s="35" t="str" cm="1">
+        <f t="array" ref="K162">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E162, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:11">
       <c r="A163" s="18">
         <v>1003224</v>
       </c>
@@ -9426,20 +10377,26 @@
         <v>120</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H163" s="18">
-        <v>30</v>
-      </c>
-      <c r="I163" s="35" t="str" cm="1">
-        <f t="array" ref="I163">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E163, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>183</v>
+      </c>
+      <c r="H163" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I163" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J163" s="18">
+        <v>30</v>
+      </c>
+      <c r="K163" s="35" t="str" cm="1">
+        <f t="array" ref="K163">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E163, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:11">
       <c r="A164" s="27">
         <v>1003225</v>
       </c>
@@ -9456,20 +10413,26 @@
         <v>122</v>
       </c>
       <c r="F164" s="27" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="G164" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H164" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I164" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H164" s="27">
-        <v>30</v>
-      </c>
-      <c r="I164" s="34" t="str" cm="1">
-        <f t="array" ref="I164">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E164, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J164" s="27">
+        <v>30</v>
+      </c>
+      <c r="K164" s="34" t="str" cm="1">
+        <f t="array" ref="K164">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E164, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:11">
       <c r="A165" s="27">
         <v>1003226</v>
       </c>
@@ -9486,20 +10449,26 @@
         <v>118</v>
       </c>
       <c r="F165" s="27" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H165" s="27">
-        <v>30</v>
-      </c>
-      <c r="I165" s="34" t="str" cm="1">
-        <f t="array" ref="I165">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E165, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>183</v>
+      </c>
+      <c r="H165" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I165" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J165" s="27">
+        <v>30</v>
+      </c>
+      <c r="K165" s="34" t="str" cm="1">
+        <f t="array" ref="K165">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E165, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:11">
       <c r="A166" s="27">
         <v>1003227</v>
       </c>
@@ -9516,20 +10485,26 @@
         <v>120</v>
       </c>
       <c r="F166" s="27" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G166" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H166" s="27">
-        <v>30</v>
-      </c>
-      <c r="I166" s="34" t="str" cm="1">
-        <f t="array" ref="I166">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E166, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>183</v>
+      </c>
+      <c r="H166" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I166" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J166" s="27">
+        <v>30</v>
+      </c>
+      <c r="K166" s="34" t="str" cm="1">
+        <f t="array" ref="K166">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E166, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:11">
       <c r="A167" s="18">
         <v>1003228</v>
       </c>
@@ -9546,20 +10521,26 @@
         <v>126</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G167" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H167" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I167" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H167" s="18">
-        <v>30</v>
-      </c>
-      <c r="I167" s="35" t="str" cm="1">
-        <f t="array" ref="I167">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E167, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="J167" s="18">
+        <v>30</v>
+      </c>
+      <c r="K167" s="35" t="str" cm="1">
+        <f t="array" ref="K167">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E167, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:11">
       <c r="A168" s="18">
         <v>1003229</v>
       </c>
@@ -9576,20 +10557,26 @@
         <v>130</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="G168" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H168" s="18">
-        <v>30</v>
-      </c>
-      <c r="I168" s="35" t="str" cm="1">
-        <f t="array" ref="I168">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E168, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>185</v>
+      </c>
+      <c r="H168" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I168" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J168" s="18">
+        <v>30</v>
+      </c>
+      <c r="K168" s="35" t="str" cm="1">
+        <f t="array" ref="K168">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E168, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:11">
       <c r="A169" s="18">
         <v>1003230</v>
       </c>
@@ -9606,20 +10593,26 @@
         <v>132</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H169" s="18">
-        <v>30</v>
-      </c>
-      <c r="I169" s="35" t="str" cm="1">
-        <f t="array" ref="I169">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E169, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>186</v>
+      </c>
+      <c r="H169" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I169" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J169" s="18">
+        <v>30</v>
+      </c>
+      <c r="K169" s="35" t="str" cm="1">
+        <f t="array" ref="K169">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E169, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:11">
       <c r="A170" s="18">
         <v>9000001</v>
       </c>
@@ -9636,20 +10629,26 @@
         <v>900001</v>
       </c>
       <c r="F170" s="18">
-        <v>50</v>
-      </c>
-      <c r="G170" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="H170" s="18">
-        <v>30</v>
-      </c>
-      <c r="I170" s="34" t="str" cm="1">
-        <f t="array" ref="I170">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E170, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>30</v>
+      </c>
+      <c r="G170" s="19">
+        <v>30</v>
+      </c>
+      <c r="H170" s="19">
+        <v>30</v>
+      </c>
+      <c r="I170" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J170" s="18">
+        <v>30</v>
+      </c>
+      <c r="K170" s="34" t="str" cm="1">
+        <f t="array" ref="K170">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E170, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>보스_엘리자베스</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:11">
       <c r="A171" s="18">
         <v>9000002</v>
       </c>
@@ -9668,18 +10667,24 @@
       <c r="F171" s="18">
         <v>50</v>
       </c>
-      <c r="G171" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="H171" s="18">
-        <v>30</v>
-      </c>
-      <c r="I171" s="34" t="str" cm="1">
-        <f t="array" ref="I171">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E171, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+      <c r="G171" s="19">
+        <v>50</v>
+      </c>
+      <c r="H171" s="19">
+        <v>50</v>
+      </c>
+      <c r="I171" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J171" s="18">
+        <v>30</v>
+      </c>
+      <c r="K171" s="34" t="str" cm="1">
+        <f t="array" ref="K171">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E171, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>보스_엘리자베스</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:11">
       <c r="A172" s="18">
         <v>9000003</v>
       </c>
@@ -9696,20 +10701,26 @@
         <v>900001</v>
       </c>
       <c r="F172" s="18">
-        <v>50</v>
-      </c>
-      <c r="G172" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="H172" s="18">
-        <v>30</v>
-      </c>
-      <c r="I172" s="34" t="str" cm="1">
-        <f t="array" ref="I172">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E172, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>60</v>
+      </c>
+      <c r="G172" s="19">
+        <v>60</v>
+      </c>
+      <c r="H172" s="19">
+        <v>60</v>
+      </c>
+      <c r="I172" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J172" s="18">
+        <v>30</v>
+      </c>
+      <c r="K172" s="34" t="str" cm="1">
+        <f t="array" ref="K172">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E172, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>보스_엘리자베스</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:11">
       <c r="A173" s="18">
         <v>9000004</v>
       </c>
@@ -9726,16 +10737,22 @@
         <v>900001</v>
       </c>
       <c r="F173" s="18">
-        <v>50</v>
-      </c>
-      <c r="G173" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="H173" s="18">
-        <v>30</v>
-      </c>
-      <c r="I173" s="34" t="str" cm="1">
-        <f t="array" ref="I173">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E173, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
+        <v>90</v>
+      </c>
+      <c r="G173" s="19">
+        <v>90</v>
+      </c>
+      <c r="H173" s="19">
+        <v>90</v>
+      </c>
+      <c r="I173" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J173" s="18">
+        <v>30</v>
+      </c>
+      <c r="K173" s="34" t="str" cm="1">
+        <f t="array" ref="K173">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([2]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E173, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [2]npc_battle_data!$A:$A, 0)), ""))</f>
         <v>보스_엘리자베스</v>
       </c>
     </row>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898C9E80-99E3-4C65-9826-CF2CCA3410A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C981FE0C-9D63-4D63-B7CC-DC83E2147C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1020" windowWidth="36135" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="915" yWindow="780" windowWidth="36135" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="293">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>존 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zone_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1112,6 +1108,34 @@
   </si>
   <si>
     <t>open_stage_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>story_zone_normal_001</t>
+  </si>
+  <si>
+    <t>story_zone_normal_002</t>
+  </si>
+  <si>
+    <t>story_zone_normal_003</t>
+  </si>
+  <si>
+    <t>story_zone_hard_003</t>
+  </si>
+  <si>
+    <t>1존 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2존 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3존 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3존 하드 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,7 +1143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1573,27 +1597,9 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>POSITION_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ROLE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>NPC_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1605,13 +1611,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GAME_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
@@ -1875,13 +1875,7 @@
       </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ATTRIBUTE_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -2769,7 +2763,7 @@
             <v>100001</v>
           </cell>
           <cell r="B5" t="str">
-            <v>마력] 탱커(HP:대) - 마족투사</v>
+            <v>monster_desc_0001</v>
           </cell>
         </row>
         <row r="6">
@@ -2777,7 +2771,7 @@
             <v>100002</v>
           </cell>
           <cell r="B6" t="str">
-            <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한</v>
+            <v>monster_desc_0002</v>
           </cell>
         </row>
         <row r="7">
@@ -2785,7 +2779,7 @@
             <v>100003</v>
           </cell>
           <cell r="B7" t="str">
-            <v>베리] 탱커(방어:대) - 거대 안드로이드</v>
+            <v>monster_desc_0003</v>
           </cell>
         </row>
         <row r="8">
@@ -2793,7 +2787,7 @@
             <v>100004</v>
           </cell>
           <cell r="B8" t="str">
-            <v>마력] 근딜 - 엘프 레인저</v>
+            <v>monster_desc_0017</v>
           </cell>
         </row>
         <row r="9">
@@ -2801,7 +2795,7 @@
             <v>100005</v>
           </cell>
           <cell r="B9" t="str">
-            <v>마력] 원딜 - 엘프 연금술사</v>
+            <v>monster_desc_0004</v>
           </cell>
         </row>
         <row r="10">
@@ -2809,7 +2803,7 @@
             <v>100006</v>
           </cell>
           <cell r="B10" t="str">
-            <v>베리] 근딜 - 하급 안드로이드</v>
+            <v>monster_desc_0005</v>
           </cell>
         </row>
         <row r="11">
@@ -2817,7 +2811,7 @@
             <v>100007</v>
           </cell>
           <cell r="B11" t="str">
-            <v>전기] 근딜(공:↓)- 소속대 소총병</v>
+            <v>monster_desc_0006</v>
           </cell>
         </row>
         <row r="12">
@@ -2825,7 +2819,7 @@
             <v>100008</v>
           </cell>
           <cell r="B12" t="str">
-            <v>전기] 원딜(공:↓) - 소속대 척탄병</v>
+            <v>monster_desc_0007</v>
           </cell>
         </row>
         <row r="13">
@@ -2833,7 +2827,7 @@
             <v>100009</v>
           </cell>
           <cell r="B13" t="str">
-            <v>베리] 원딜 - 고위 천사</v>
+            <v>monster_desc_0008</v>
           </cell>
         </row>
         <row r="14">
@@ -2841,7 +2835,7 @@
             <v>100010</v>
           </cell>
           <cell r="B14" t="str">
-            <v>요력] 원딜 - 꼭두각시 인형</v>
+            <v>monster_desc_0009</v>
           </cell>
         </row>
         <row r="15">
@@ -2849,7 +2843,7 @@
             <v>100011</v>
           </cell>
           <cell r="B15" t="str">
-            <v>마력] 원딜 - 엘프 연금술사(정예)</v>
+            <v>monster_desc_0010</v>
           </cell>
         </row>
         <row r="16">
@@ -2857,7 +2851,7 @@
             <v>100012</v>
           </cell>
           <cell r="B16" t="str">
-            <v>마력] 탱커(HP:대) - 마족투사(정예)</v>
+            <v>monster_desc_0011</v>
           </cell>
         </row>
         <row r="17">
@@ -2865,7 +2859,7 @@
             <v>100013</v>
           </cell>
           <cell r="B17" t="str">
-            <v>베리] 탱커(정예) - 거대 안드</v>
+            <v>monster_desc_0012</v>
           </cell>
         </row>
         <row r="18">
@@ -2873,7 +2867,7 @@
             <v>100014</v>
           </cell>
           <cell r="B18" t="str">
-            <v>전기] 탱커(HP:중, 방어:소) - 거한</v>
+            <v>monster_desc_0013</v>
           </cell>
         </row>
         <row r="19">
@@ -2881,7 +2875,7 @@
             <v>100015</v>
           </cell>
           <cell r="B19" t="str">
-            <v>전기] 근딜- 소속대 소총병</v>
+            <v>monster_desc_0014</v>
           </cell>
         </row>
         <row r="20">
@@ -2889,7 +2883,7 @@
             <v>100016</v>
           </cell>
           <cell r="B20" t="str">
-            <v>전기] 원딜 - 소속대 척탄병</v>
+            <v>monster_desc_0015</v>
           </cell>
         </row>
         <row r="21">
@@ -2897,7 +2891,7 @@
             <v>100017</v>
           </cell>
           <cell r="B21" t="str">
-            <v>요력] 서포터 - 꼭두각시 인형</v>
+            <v>monster_desc_0009</v>
           </cell>
         </row>
         <row r="22">
@@ -2905,7 +2899,7 @@
             <v>100018</v>
           </cell>
           <cell r="B22" t="str">
-            <v>전기] 탱커(정예) - 거한</v>
+            <v>monster_desc_0018</v>
           </cell>
         </row>
         <row r="23">
@@ -2913,7 +2907,7 @@
             <v>100019</v>
           </cell>
           <cell r="B23" t="str">
-            <v>전기] 원딜(정예: 방감) - 척탄병</v>
+            <v>monster_desc_0019</v>
           </cell>
         </row>
         <row r="24">
@@ -2921,7 +2915,7 @@
             <v>100020</v>
           </cell>
           <cell r="B24" t="str">
-            <v>베리] 원딜(정예) - 고위 천사</v>
+            <v>monster_desc_0020</v>
           </cell>
         </row>
         <row r="25">
@@ -2929,7 +2923,7 @@
             <v>100021</v>
           </cell>
           <cell r="B25" t="str">
-            <v>전기] 근딜(정예)- 소속대 소총병</v>
+            <v>monster_desc_0021</v>
           </cell>
         </row>
         <row r="26">
@@ -2937,7 +2931,7 @@
             <v>100022</v>
           </cell>
           <cell r="B26" t="str">
-            <v>베리] 근딜(정예) - 하급 안드로이드</v>
+            <v>monster_desc_0022</v>
           </cell>
         </row>
         <row r="27">
@@ -2945,7 +2939,7 @@
             <v>200001</v>
           </cell>
           <cell r="B27" t="str">
-            <v>보스_마네</v>
+            <v>monster_desc_0021</v>
           </cell>
         </row>
         <row r="28">
@@ -2953,7 +2947,7 @@
             <v>900001</v>
           </cell>
           <cell r="B28" t="str">
-            <v>보스_엘리자베스</v>
+            <v>monster_desc_0022</v>
           </cell>
         </row>
       </sheetData>
@@ -3283,47 +3277,47 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
     </row>
   </sheetData>
@@ -3340,7 +3334,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
@@ -3351,7 +3345,7 @@
     <col min="11" max="11" width="42.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -3365,7 +3359,7 @@
         <v>REWARD_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="str">
         <f>'[1]@tribe'!$A3</f>
         <v>type</v>
@@ -3397,7 +3391,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -3435,7 +3429,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -3473,7 +3467,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -3511,7 +3505,7 @@
         <v>1 금화(게임내 사용되는 재화)</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -3537,7 +3531,7 @@
         <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -3563,7 +3557,7 @@
         <v>3 스태미나</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -3589,7 +3583,7 @@
         <v>4 호감도</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -3615,7 +3609,7 @@
         <v>5 플레이어 경험치</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>'[1]@tribe'!$A11</f>
         <v>0</v>
@@ -3641,7 +3635,7 @@
         <v>6 캐릭터 경험치</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f>'[1]@tribe'!$A12</f>
         <v>0</v>
@@ -3667,7 +3661,7 @@
         <v>7 캐릭터</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f>'[1]@tribe'!$A13</f>
         <v>0</v>
@@ -3693,7 +3687,7 @@
         <v>8 장비</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f>'[1]@tribe'!$A14</f>
         <v>0</v>
@@ -3719,7 +3713,7 @@
         <v>9 근원 전달 횟수(플레이어 보유)</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f>'[1]@tribe'!$A15</f>
         <v>0</v>
@@ -3745,7 +3739,7 @@
         <v>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f>'[1]@tribe'!$A16</f>
         <v>0</v>
@@ -3771,7 +3765,7 @@
         <v>106 보스전 입장 횟수</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I16" s="4" t="str">
         <f>'[1]@reward_type'!A16</f>
         <v>PIECE_EQUIPMENT</v>
@@ -3785,7 +3779,7 @@
         <v>111 장비 조각</v>
       </c>
     </row>
-    <row r="17" spans="9:11">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I17" s="4" t="str">
         <f>'[1]@reward_type'!A17</f>
         <v>PIECE_CHARACTER</v>
@@ -3799,7 +3793,7 @@
         <v>112 캐릭터 조각</v>
       </c>
     </row>
-    <row r="18" spans="9:11">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I18" s="4" t="str">
         <f>'[1]@reward_type'!A18</f>
         <v>PIECE_ITEM</v>
@@ -3813,7 +3807,7 @@
         <v>113 아이템 조각</v>
       </c>
     </row>
-    <row r="19" spans="9:11">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I19" s="4" t="str">
         <f>'[1]@reward_type'!A19</f>
         <v>ITEM</v>
@@ -3837,36 +3831,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F748694-46FB-462D-ABEF-B5CE7CAEE9F7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -3875,23 +3869,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3907,11 +3901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600D8F0-1E2C-4653-85F8-329CEDF589BD}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
@@ -3926,29 +3920,29 @@
     <col min="11" max="11" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>24</v>
@@ -3957,18 +3951,18 @@
         <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -3986,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -4001,50 +3995,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>10011</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -4059,27 +4053,27 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>10021</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="20">
         <v>1</v>
@@ -4094,27 +4088,27 @@
         <v>1</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>26</v>
+        <v>290</v>
       </c>
       <c r="K6" s="20">
         <v>1001115</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>10031</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -4129,27 +4123,27 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>26</v>
+        <v>291</v>
       </c>
       <c r="K7" s="4">
         <v>1002115</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>10032</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="20">
         <v>1</v>
@@ -4164,13 +4158,13 @@
         <v>2</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="K8" s="20">
         <v>1003115</v>
@@ -4187,11 +4181,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
@@ -4209,73 +4203,73 @@
     <col min="19" max="19" width="20.625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="R2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="S2" s="30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4332,66 +4326,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="R4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="S4" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1001101</v>
       </c>
@@ -4405,10 +4399,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4">
         <v>10</v>
@@ -4442,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R5" s="4">
         <v>0</v>
@@ -4452,7 +4446,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1001102</v>
       </c>
@@ -4466,10 +4460,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4">
         <v>10</v>
@@ -4503,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R6" s="4">
         <v>0</v>
@@ -4513,7 +4507,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1001103</v>
       </c>
@@ -4527,10 +4521,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
@@ -4564,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R7" s="4">
         <v>0</v>
@@ -4574,7 +4568,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1001104</v>
       </c>
@@ -4588,10 +4582,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4">
         <v>10</v>
@@ -4625,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R8" s="4">
         <v>0</v>
@@ -4635,7 +4629,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1001105</v>
       </c>
@@ -4649,10 +4643,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="4">
         <v>10</v>
@@ -4686,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R9" s="4">
         <v>0</v>
@@ -4696,7 +4690,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1001106</v>
       </c>
@@ -4710,10 +4704,10 @@
         <v>6</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="4">
         <v>10</v>
@@ -4747,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R10" s="4">
         <v>0</v>
@@ -4757,7 +4751,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1001107</v>
       </c>
@@ -4771,10 +4765,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4">
         <v>10</v>
@@ -4808,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R11" s="4">
         <v>0</v>
@@ -4818,7 +4812,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1001108</v>
       </c>
@@ -4832,10 +4826,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="4">
         <v>10</v>
@@ -4869,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R12" s="4">
         <v>0</v>
@@ -4879,7 +4873,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1001109</v>
       </c>
@@ -4893,10 +4887,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="4">
         <v>10</v>
@@ -4930,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R13" s="4">
         <v>0</v>
@@ -4940,7 +4934,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1001110</v>
       </c>
@@ -4954,10 +4948,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="4">
         <v>10</v>
@@ -4991,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R14" s="4">
         <v>0</v>
@@ -5001,7 +4995,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1001111</v>
       </c>
@@ -5015,10 +5009,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="4">
         <v>10</v>
@@ -5052,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R15" s="4">
         <v>0</v>
@@ -5062,7 +5056,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1001112</v>
       </c>
@@ -5076,10 +5070,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="4">
         <v>10</v>
@@ -5113,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R16" s="4">
         <v>0</v>
@@ -5123,7 +5117,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1001113</v>
       </c>
@@ -5137,10 +5131,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="4">
         <v>10</v>
@@ -5174,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R17" s="4">
         <v>0</v>
@@ -5184,7 +5178,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1001114</v>
       </c>
@@ -5198,10 +5192,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="4">
         <v>10</v>
@@ -5235,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R18" s="4">
         <v>0</v>
@@ -5245,7 +5239,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1001115</v>
       </c>
@@ -5259,10 +5253,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="4">
         <v>10</v>
@@ -5296,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R19" s="4">
         <v>0</v>
@@ -5306,7 +5300,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="13" customFormat="1">
+    <row r="20" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>1002101</v>
       </c>
@@ -5320,10 +5314,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="11">
         <v>10</v>
@@ -5357,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R20" s="11">
         <v>0</v>
@@ -5367,7 +5361,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="13" customFormat="1">
+    <row r="21" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>1002102</v>
       </c>
@@ -5381,10 +5375,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="11">
         <v>10</v>
@@ -5418,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R21" s="11">
         <v>0</v>
@@ -5428,7 +5422,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="13" customFormat="1">
+    <row r="22" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>1002103</v>
       </c>
@@ -5442,10 +5436,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="11">
         <v>10</v>
@@ -5479,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R22" s="11">
         <v>0</v>
@@ -5489,7 +5483,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="13" customFormat="1">
+    <row r="23" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>1002104</v>
       </c>
@@ -5503,10 +5497,10 @@
         <v>4</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="11">
         <v>10</v>
@@ -5540,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R23" s="11">
         <v>0</v>
@@ -5550,7 +5544,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="13" customFormat="1">
+    <row r="24" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>1002105</v>
       </c>
@@ -5564,10 +5558,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="11">
         <v>10</v>
@@ -5601,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R24" s="11">
         <v>0</v>
@@ -5611,7 +5605,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="13" customFormat="1">
+    <row r="25" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>1002106</v>
       </c>
@@ -5625,10 +5619,10 @@
         <v>6</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="11">
         <v>10</v>
@@ -5662,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R25" s="11">
         <v>0</v>
@@ -5672,7 +5666,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="13" customFormat="1">
+    <row r="26" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>1002107</v>
       </c>
@@ -5686,10 +5680,10 @@
         <v>7</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G26" s="11">
         <v>10</v>
@@ -5723,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R26" s="11">
         <v>0</v>
@@ -5733,7 +5727,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="13" customFormat="1">
+    <row r="27" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>1002108</v>
       </c>
@@ -5747,10 +5741,10 @@
         <v>8</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="11">
         <v>10</v>
@@ -5784,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R27" s="11">
         <v>0</v>
@@ -5794,7 +5788,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="13" customFormat="1">
+    <row r="28" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>1002109</v>
       </c>
@@ -5808,10 +5802,10 @@
         <v>9</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="11">
         <v>10</v>
@@ -5845,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R28" s="11">
         <v>0</v>
@@ -5855,7 +5849,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="13" customFormat="1">
+    <row r="29" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>1002110</v>
       </c>
@@ -5869,10 +5863,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="11">
         <v>10</v>
@@ -5906,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R29" s="11">
         <v>0</v>
@@ -5916,7 +5910,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="13" customFormat="1">
+    <row r="30" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>1002111</v>
       </c>
@@ -5930,10 +5924,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="11">
         <v>10</v>
@@ -5967,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R30" s="11">
         <v>0</v>
@@ -5977,7 +5971,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="13" customFormat="1">
+    <row r="31" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>1002112</v>
       </c>
@@ -5991,10 +5985,10 @@
         <v>12</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" s="11">
         <v>10</v>
@@ -6028,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R31" s="11">
         <v>0</v>
@@ -6038,7 +6032,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="13" customFormat="1">
+    <row r="32" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>1002113</v>
       </c>
@@ -6052,10 +6046,10 @@
         <v>13</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="11">
         <v>10</v>
@@ -6089,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R32" s="11">
         <v>0</v>
@@ -6099,7 +6093,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="13" customFormat="1">
+    <row r="33" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>1002114</v>
       </c>
@@ -6113,10 +6107,10 @@
         <v>14</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="11">
         <v>10</v>
@@ -6150,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R33" s="11">
         <v>0</v>
@@ -6160,7 +6154,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="13" customFormat="1">
+    <row r="34" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>1002115</v>
       </c>
@@ -6174,10 +6168,10 @@
         <v>15</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="11">
         <v>10</v>
@@ -6211,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R34" s="11">
         <v>0</v>
@@ -6221,7 +6215,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1003101</v>
       </c>
@@ -6235,10 +6229,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" s="4">
         <v>10</v>
@@ -6272,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R35" s="4">
         <v>0</v>
@@ -6282,7 +6276,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>1003102</v>
       </c>
@@ -6296,10 +6290,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" s="4">
         <v>10</v>
@@ -6333,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R36" s="4">
         <v>0</v>
@@ -6343,7 +6337,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>1003103</v>
       </c>
@@ -6357,10 +6351,10 @@
         <v>3</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37" s="4">
         <v>10</v>
@@ -6394,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R37" s="4">
         <v>0</v>
@@ -6404,7 +6398,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1003104</v>
       </c>
@@ -6418,10 +6412,10 @@
         <v>4</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" s="4">
         <v>10</v>
@@ -6455,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R38" s="4">
         <v>0</v>
@@ -6465,7 +6459,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>1003105</v>
       </c>
@@ -6479,10 +6473,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G39" s="4">
         <v>10</v>
@@ -6516,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R39" s="4">
         <v>0</v>
@@ -6526,7 +6520,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>1003106</v>
       </c>
@@ -6540,10 +6534,10 @@
         <v>6</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" s="4">
         <v>10</v>
@@ -6577,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R40" s="4">
         <v>0</v>
@@ -6587,7 +6581,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>1003107</v>
       </c>
@@ -6601,10 +6595,10 @@
         <v>7</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" s="4">
         <v>10</v>
@@ -6638,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R41" s="4">
         <v>0</v>
@@ -6648,7 +6642,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>1003108</v>
       </c>
@@ -6662,10 +6656,10 @@
         <v>8</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="4">
         <v>10</v>
@@ -6699,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R42" s="4">
         <v>0</v>
@@ -6709,7 +6703,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>1003109</v>
       </c>
@@ -6723,10 +6717,10 @@
         <v>9</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="4">
         <v>10</v>
@@ -6760,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R43" s="4">
         <v>0</v>
@@ -6770,7 +6764,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>1003110</v>
       </c>
@@ -6784,10 +6778,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G44" s="4">
         <v>10</v>
@@ -6821,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R44" s="4">
         <v>0</v>
@@ -6831,7 +6825,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>1003111</v>
       </c>
@@ -6845,10 +6839,10 @@
         <v>11</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" s="4">
         <v>10</v>
@@ -6882,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R45" s="4">
         <v>0</v>
@@ -6892,7 +6886,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>1003112</v>
       </c>
@@ -6906,10 +6900,10 @@
         <v>12</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G46" s="4">
         <v>10</v>
@@ -6943,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R46" s="4">
         <v>0</v>
@@ -6953,7 +6947,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>1003113</v>
       </c>
@@ -6967,10 +6961,10 @@
         <v>13</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47" s="4">
         <v>10</v>
@@ -7004,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R47" s="4">
         <v>0</v>
@@ -7014,7 +7008,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>1003114</v>
       </c>
@@ -7028,10 +7022,10 @@
         <v>14</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" s="4">
         <v>10</v>
@@ -7065,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R48" s="4">
         <v>0</v>
@@ -7075,7 +7069,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>1003115</v>
       </c>
@@ -7089,10 +7083,10 @@
         <v>15</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49" s="4">
         <v>10</v>
@@ -7126,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R49" s="4">
         <v>0</v>
@@ -7136,7 +7130,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <v>1003201</v>
       </c>
@@ -7150,10 +7144,10 @@
         <v>1</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G50" s="25">
         <v>10</v>
@@ -7187,7 +7181,7 @@
         <v>112</v>
       </c>
       <c r="Q50" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R50" s="25">
         <v>100001</v>
@@ -7197,7 +7191,7 @@
         <v>루시아 조각</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="25">
         <v>1003202</v>
       </c>
@@ -7211,10 +7205,10 @@
         <v>2</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" s="25">
         <v>10</v>
@@ -7248,7 +7242,7 @@
         <v>112</v>
       </c>
       <c r="Q51" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R51" s="25">
         <v>100002</v>
@@ -7258,7 +7252,7 @@
         <v>라일라 조각</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
         <v>1003203</v>
       </c>
@@ -7272,10 +7266,10 @@
         <v>3</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G52" s="25">
         <v>10</v>
@@ -7309,7 +7303,7 @@
         <v>112</v>
       </c>
       <c r="Q52" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R52" s="25">
         <v>100003</v>
@@ -7319,7 +7313,7 @@
         <v>바이올렛 조각</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="25">
         <v>1003204</v>
       </c>
@@ -7333,10 +7327,10 @@
         <v>4</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G53" s="25">
         <v>10</v>
@@ -7370,7 +7364,7 @@
         <v>112</v>
       </c>
       <c r="Q53" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R53" s="25">
         <v>100004</v>
@@ -7380,7 +7374,7 @@
         <v>데이지 조각</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="25">
         <v>1003205</v>
       </c>
@@ -7394,10 +7388,10 @@
         <v>5</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G54" s="25">
         <v>10</v>
@@ -7431,7 +7425,7 @@
         <v>112</v>
       </c>
       <c r="Q54" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R54" s="25">
         <v>100005</v>
@@ -7441,7 +7435,7 @@
         <v>클레어 조각</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="25">
         <v>1003206</v>
       </c>
@@ -7455,10 +7449,10 @@
         <v>6</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55" s="25">
         <v>10</v>
@@ -7492,7 +7486,7 @@
         <v>112</v>
       </c>
       <c r="Q55" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R55" s="25">
         <v>100006</v>
@@ -7502,7 +7496,7 @@
         <v>에일린 조각</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>1003207</v>
       </c>
@@ -7516,10 +7510,10 @@
         <v>7</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G56" s="25">
         <v>10</v>
@@ -7553,7 +7547,7 @@
         <v>112</v>
       </c>
       <c r="Q56" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R56" s="25">
         <v>100007</v>
@@ -7563,7 +7557,7 @@
         <v>마네 조각</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>1003208</v>
       </c>
@@ -7577,10 +7571,10 @@
         <v>8</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G57" s="25">
         <v>10</v>
@@ -7614,7 +7608,7 @@
         <v>112</v>
       </c>
       <c r="Q57" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R57" s="25">
         <v>100008</v>
@@ -7624,7 +7618,7 @@
         <v>츠키 조각</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>1003209</v>
       </c>
@@ -7638,10 +7632,10 @@
         <v>9</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G58" s="25">
         <v>10</v>
@@ -7675,7 +7669,7 @@
         <v>112</v>
       </c>
       <c r="Q58" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R58" s="25">
         <v>100001</v>
@@ -7685,7 +7679,7 @@
         <v>루시아 조각</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>1003210</v>
       </c>
@@ -7699,10 +7693,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G59" s="25">
         <v>10</v>
@@ -7736,7 +7730,7 @@
         <v>112</v>
       </c>
       <c r="Q59" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R59" s="25">
         <v>100002</v>
@@ -7769,13 +7763,13 @@
   <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G176" sqref="G176"/>
+      <selection pane="bottomRight" activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="7" customWidth="1"/>
@@ -7793,17 +7787,17 @@
     <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="33">
+    <row r="2" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -7818,10 +7812,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>19</v>
@@ -7830,12 +7824,12 @@
         <v>10</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -7868,12 +7862,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -7888,10 +7882,10 @@
         <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>20</v>
@@ -7900,11 +7894,11 @@
         <v>9</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>1001101</v>
       </c>
@@ -7918,32 +7912,32 @@
         <v>3</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="17">
         <v>30</v>
       </c>
       <c r="K5" s="34" t="str" cm="1">
         <f t="array" ref="K5">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E5, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
       <c r="L5" s="28"/>
       <c r="N5" s="29"/>
       <c r="O5" s="28"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1001102</v>
       </c>
@@ -7957,30 +7951,30 @@
         <v>3</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" s="17">
         <v>30</v>
       </c>
       <c r="K6" s="34" t="str" cm="1">
         <f t="array" ref="K6">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E6, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
       <c r="N6" s="29"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>1001103</v>
       </c>
@@ -7994,30 +7988,30 @@
         <v>3</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" s="17">
         <v>30</v>
       </c>
       <c r="K7" s="34" t="str" cm="1">
         <f t="array" ref="K7">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E7, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>1001104</v>
       </c>
@@ -8031,30 +8025,30 @@
         <v>3</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" s="21">
         <v>30</v>
       </c>
       <c r="K8" s="33" t="str" cm="1">
         <f t="array" ref="K8">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E8, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>1001105</v>
       </c>
@@ -8068,30 +8062,30 @@
         <v>3</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="21">
         <v>30</v>
       </c>
       <c r="K9" s="33" t="str" cm="1">
         <f t="array" ref="K9">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E9, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>1001106</v>
       </c>
@@ -8105,30 +8099,30 @@
         <v>3</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="21">
         <v>30</v>
       </c>
       <c r="K10" s="33" t="str" cm="1">
         <f t="array" ref="K10">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E10, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+        <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>1001107</v>
       </c>
@@ -8142,30 +8136,30 @@
         <v>3</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" s="17">
         <v>30</v>
       </c>
       <c r="K11" s="34" t="str" cm="1">
         <f t="array" ref="K11">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E11, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
       <c r="N11" s="29"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>1001108</v>
       </c>
@@ -8179,30 +8173,30 @@
         <v>3</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" s="17">
         <v>30</v>
       </c>
       <c r="K12" s="34" t="str" cm="1">
         <f t="array" ref="K12">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E12, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
+        <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
       <c r="N12" s="29"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>1001109</v>
       </c>
@@ -8216,30 +8210,30 @@
         <v>3</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="17">
         <v>30</v>
       </c>
       <c r="K13" s="34" t="str" cm="1">
         <f t="array" ref="K13">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E13, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
+        <v>monster_desc_0001     //     monster_desc_0009     //     monster_desc_0009</v>
       </c>
       <c r="N13" s="29"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>1001110</v>
       </c>
@@ -8253,30 +8247,30 @@
         <v>3</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" s="21">
         <v>30</v>
       </c>
       <c r="K14" s="33" t="str" cm="1">
         <f t="array" ref="K14">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E14, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
       <c r="N14" s="29"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>1001111</v>
       </c>
@@ -8290,30 +8284,30 @@
         <v>3</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" s="21">
         <v>30</v>
       </c>
       <c r="K15" s="33" t="str" cm="1">
         <f t="array" ref="K15">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E15, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
+        <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0007</v>
       </c>
       <c r="N15" s="29"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>1001112</v>
       </c>
@@ -8327,29 +8321,29 @@
         <v>3</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="21">
         <v>30</v>
       </c>
       <c r="K16" s="33" t="str" cm="1">
         <f t="array" ref="K16">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E16, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>1001113</v>
       </c>
@@ -8363,29 +8357,29 @@
         <v>3</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" s="17">
         <v>30</v>
       </c>
       <c r="K17" s="34" t="str" cm="1">
         <f t="array" ref="K17">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E17, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>1001114</v>
       </c>
@@ -8399,29 +8393,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J18" s="17">
         <v>30</v>
       </c>
       <c r="K18" s="34" t="str" cm="1">
         <f t="array" ref="K18">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E18, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>1001115</v>
       </c>
@@ -8435,29 +8429,29 @@
         <v>4</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J19" s="17">
         <v>30</v>
       </c>
       <c r="K19" s="34" t="str" cm="1">
         <f t="array" ref="K19">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E19, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>1001116</v>
       </c>
@@ -8471,29 +8465,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" s="21">
         <v>30</v>
       </c>
       <c r="K20" s="33" t="str" cm="1">
         <f t="array" ref="K20">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E20, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>1001117</v>
       </c>
@@ -8507,29 +8501,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J21" s="21">
         <v>30</v>
       </c>
       <c r="K21" s="33" t="str" cm="1">
         <f t="array" ref="K21">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E21, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>1001118</v>
       </c>
@@ -8543,29 +8537,29 @@
         <v>4</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J22" s="21">
         <v>30</v>
       </c>
       <c r="K22" s="33" t="str" cm="1">
         <f t="array" ref="K22">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E22, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0009     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>1001119</v>
       </c>
@@ -8579,29 +8573,29 @@
         <v>3</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="17">
         <v>30</v>
       </c>
       <c r="K23" s="34" t="str" cm="1">
         <f t="array" ref="K23">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E23, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>1001120</v>
       </c>
@@ -8615,29 +8609,29 @@
         <v>4</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J24" s="17">
         <v>30</v>
       </c>
       <c r="K24" s="34" t="str" cm="1">
         <f t="array" ref="K24">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E24, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>1001121</v>
       </c>
@@ -8651,29 +8645,29 @@
         <v>4</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J25" s="17">
         <v>30</v>
       </c>
       <c r="K25" s="34" t="str" cm="1">
         <f t="array" ref="K25">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E25, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0006     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>1001122</v>
       </c>
@@ -8687,29 +8681,29 @@
         <v>3</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" s="21">
         <v>30</v>
       </c>
       <c r="K26" s="33" t="str" cm="1">
         <f t="array" ref="K26">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E26, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>1001123</v>
       </c>
@@ -8723,29 +8717,29 @@
         <v>4</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J27" s="21">
         <v>30</v>
       </c>
       <c r="K27" s="33" t="str" cm="1">
         <f t="array" ref="K27">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E27, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>1001124</v>
       </c>
@@ -8759,29 +8753,29 @@
         <v>4</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J28" s="21">
         <v>30</v>
       </c>
       <c r="K28" s="33" t="str" cm="1">
         <f t="array" ref="K28">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E28, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>1001125</v>
       </c>
@@ -8795,29 +8789,29 @@
         <v>3</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" s="17">
         <v>30</v>
       </c>
       <c r="K29" s="34" t="str" cm="1">
         <f t="array" ref="K29">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E29, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>1001126</v>
       </c>
@@ -8831,29 +8825,29 @@
         <v>4</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J30" s="17">
         <v>30</v>
       </c>
       <c r="K30" s="34" t="str" cm="1">
         <f t="array" ref="K30">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E30, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>1001127</v>
       </c>
@@ -8867,29 +8861,29 @@
         <v>4</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J31" s="17">
         <v>30</v>
       </c>
       <c r="K31" s="34" t="str" cm="1">
         <f t="array" ref="K31">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E31, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>1001128</v>
       </c>
@@ -8903,29 +8897,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J32" s="21">
         <v>30</v>
       </c>
       <c r="K32" s="33" t="str" cm="1">
         <f t="array" ref="K32">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E32, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>1001129</v>
       </c>
@@ -8939,29 +8933,29 @@
         <v>4</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J33" s="21">
         <v>30</v>
       </c>
       <c r="K33" s="33" t="str" cm="1">
         <f t="array" ref="K33">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E33, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0006     //     monster_desc_0010     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>1001130</v>
       </c>
@@ -8975,29 +8969,29 @@
         <v>5</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J34" s="21">
         <v>30</v>
       </c>
       <c r="K34" s="33" t="str" cm="1">
         <f t="array" ref="K34">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E34, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>1001131</v>
       </c>
@@ -9011,29 +9005,29 @@
         <v>3</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35" s="17">
         <v>30</v>
       </c>
       <c r="K35" s="34" t="str" cm="1">
         <f t="array" ref="K35">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E35, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>1001132</v>
       </c>
@@ -9047,29 +9041,29 @@
         <v>4</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J36" s="17">
         <v>30</v>
       </c>
       <c r="K36" s="34" t="str" cm="1">
         <f t="array" ref="K36">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E36, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>1001133</v>
       </c>
@@ -9083,29 +9077,29 @@
         <v>4</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J37" s="17">
         <v>30</v>
       </c>
       <c r="K37" s="34" t="str" cm="1">
         <f t="array" ref="K37">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E37, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>1001134</v>
       </c>
@@ -9119,29 +9113,29 @@
         <v>3</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J38" s="21">
         <v>30</v>
       </c>
       <c r="K38" s="33" t="str" cm="1">
         <f t="array" ref="K38">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E38, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>1001135</v>
       </c>
@@ -9155,29 +9149,29 @@
         <v>4</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J39" s="21">
         <v>30</v>
       </c>
       <c r="K39" s="33" t="str" cm="1">
         <f t="array" ref="K39">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E39, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>1001136</v>
       </c>
@@ -9191,29 +9185,29 @@
         <v>4</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J40" s="21">
         <v>30</v>
       </c>
       <c r="K40" s="33" t="str" cm="1">
         <f t="array" ref="K40">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E40, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>1001137</v>
       </c>
@@ -9227,29 +9221,29 @@
         <v>3</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J41" s="17">
         <v>30</v>
       </c>
       <c r="K41" s="34" t="str" cm="1">
         <f t="array" ref="K41">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E41, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>1001138</v>
       </c>
@@ -9263,29 +9257,29 @@
         <v>4</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J42" s="17">
         <v>30</v>
       </c>
       <c r="K42" s="34" t="str" cm="1">
         <f t="array" ref="K42">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E42, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>1001139</v>
       </c>
@@ -9299,29 +9293,29 @@
         <v>4</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J43" s="17">
         <v>30</v>
       </c>
       <c r="K43" s="34" t="str" cm="1">
         <f t="array" ref="K43">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E43, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0006     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <v>1001140</v>
       </c>
@@ -9335,29 +9329,29 @@
         <v>3</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J44" s="21">
         <v>30</v>
       </c>
       <c r="K44" s="33" t="str" cm="1">
         <f t="array" ref="K44">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E44, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>1001141</v>
       </c>
@@ -9371,29 +9365,29 @@
         <v>4</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J45" s="21">
         <v>30</v>
       </c>
       <c r="K45" s="33" t="str" cm="1">
         <f t="array" ref="K45">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E45, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>1001142</v>
       </c>
@@ -9407,29 +9401,29 @@
         <v>4</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J46" s="21">
         <v>30</v>
       </c>
       <c r="K46" s="33" t="str" cm="1">
         <f t="array" ref="K46">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E46, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0001     //     monster_desc_0010     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>1001143</v>
       </c>
@@ -9443,29 +9437,29 @@
         <v>3</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J47" s="17">
         <v>30</v>
       </c>
       <c r="K47" s="34" t="str" cm="1">
         <f t="array" ref="K47">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E47, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>1001144</v>
       </c>
@@ -9479,29 +9473,29 @@
         <v>4</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J48" s="17">
         <v>30</v>
       </c>
       <c r="K48" s="34" t="str" cm="1">
         <f t="array" ref="K48">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E48, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>1001145</v>
       </c>
@@ -9515,29 +9509,29 @@
         <v>5</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J49" s="17">
         <v>30</v>
       </c>
       <c r="K49" s="34" t="str" cm="1">
         <f t="array" ref="K49">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E49, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     베리] 탱커(정예) - 거대 안드     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0011     //     monster_desc_0012     //     monster_desc_0010     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>1002101</v>
       </c>
@@ -9551,29 +9545,29 @@
         <v>4</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J50" s="14">
         <v>30</v>
       </c>
       <c r="K50" s="33" t="str" cm="1">
         <f t="array" ref="K50">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E50, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>1002102</v>
       </c>
@@ -9587,29 +9581,29 @@
         <v>5</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J51" s="14">
         <v>30</v>
       </c>
       <c r="K51" s="33" t="str" cm="1">
         <f t="array" ref="K51">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E51, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>1002103</v>
       </c>
@@ -9623,29 +9617,29 @@
         <v>5</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J52" s="14">
         <v>30</v>
       </c>
       <c r="K52" s="33" t="str" cm="1">
         <f t="array" ref="K52">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E52, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>1002104</v>
       </c>
@@ -9659,29 +9653,29 @@
         <v>3</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J53" s="17">
         <v>30</v>
       </c>
       <c r="K53" s="34" t="str" cm="1">
         <f t="array" ref="K53">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E53, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>1002105</v>
       </c>
@@ -9695,29 +9689,29 @@
         <v>5</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J54" s="17">
         <v>30</v>
       </c>
       <c r="K54" s="34" t="str" cm="1">
         <f t="array" ref="K54">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E54, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>1002106</v>
       </c>
@@ -9731,29 +9725,29 @@
         <v>5</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" s="17">
         <v>30</v>
       </c>
       <c r="K55" s="34" t="str" cm="1">
         <f t="array" ref="K55">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E55, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>1002107</v>
       </c>
@@ -9767,29 +9761,29 @@
         <v>3</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J56" s="14">
         <v>30</v>
       </c>
       <c r="K56" s="33" t="str" cm="1">
         <f t="array" ref="K56">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E56, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>1002108</v>
       </c>
@@ -9803,29 +9797,29 @@
         <v>5</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J57" s="14">
         <v>30</v>
       </c>
       <c r="K57" s="33" t="str" cm="1">
         <f t="array" ref="K57">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E57, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>1002109</v>
       </c>
@@ -9839,29 +9833,29 @@
         <v>5</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J58" s="14">
         <v>30</v>
       </c>
       <c r="K58" s="33" t="str" cm="1">
         <f t="array" ref="K58">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E58, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0009     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>1002110</v>
       </c>
@@ -9875,29 +9869,29 @@
         <v>3</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J59" s="17">
         <v>30</v>
       </c>
       <c r="K59" s="34" t="str" cm="1">
         <f t="array" ref="K59">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E59, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>1002111</v>
       </c>
@@ -9911,29 +9905,29 @@
         <v>5</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J60" s="17">
         <v>30</v>
       </c>
       <c r="K60" s="34" t="str" cm="1">
         <f t="array" ref="K60">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E60, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>1002112</v>
       </c>
@@ -9947,29 +9941,29 @@
         <v>5</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J61" s="17">
         <v>30</v>
       </c>
       <c r="K61" s="34" t="str" cm="1">
         <f t="array" ref="K61">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E61, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>1002113</v>
       </c>
@@ -9983,29 +9977,29 @@
         <v>3</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J62" s="14">
         <v>30</v>
       </c>
       <c r="K62" s="33" t="str" cm="1">
         <f t="array" ref="K62">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E62, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>1002114</v>
       </c>
@@ -10019,29 +10013,29 @@
         <v>5</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J63" s="14">
         <v>30</v>
       </c>
       <c r="K63" s="33" t="str" cm="1">
         <f t="array" ref="K63">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E63, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>1002115</v>
       </c>
@@ -10055,29 +10049,29 @@
         <v>5</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J64" s="14">
         <v>30</v>
       </c>
       <c r="K64" s="33" t="str" cm="1">
         <f t="array" ref="K64">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E64, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>1002116</v>
       </c>
@@ -10091,29 +10085,29 @@
         <v>3</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J65" s="17">
         <v>30</v>
       </c>
       <c r="K65" s="34" t="str" cm="1">
         <f t="array" ref="K65">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E65, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>1002117</v>
       </c>
@@ -10127,29 +10121,29 @@
         <v>5</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J66" s="17">
         <v>30</v>
       </c>
       <c r="K66" s="34" t="str" cm="1">
         <f t="array" ref="K66">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E66, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>1002118</v>
       </c>
@@ -10163,29 +10157,29 @@
         <v>5</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J67" s="17">
         <v>30</v>
       </c>
       <c r="K67" s="34" t="str" cm="1">
         <f t="array" ref="K67">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E67, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0009     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>1002119</v>
       </c>
@@ -10199,29 +10193,29 @@
         <v>3</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J68" s="14">
         <v>30</v>
       </c>
       <c r="K68" s="33" t="str" cm="1">
         <f t="array" ref="K68">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E68, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>1002120</v>
       </c>
@@ -10235,29 +10229,29 @@
         <v>5</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J69" s="14">
         <v>30</v>
       </c>
       <c r="K69" s="33" t="str" cm="1">
         <f t="array" ref="K69">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E69, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>1002121</v>
       </c>
@@ -10271,29 +10265,29 @@
         <v>5</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J70" s="14">
         <v>30</v>
       </c>
       <c r="K70" s="33" t="str" cm="1">
         <f t="array" ref="K70">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E70, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0006     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>1002122</v>
       </c>
@@ -10307,29 +10301,29 @@
         <v>3</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J71" s="17">
         <v>30</v>
       </c>
       <c r="K71" s="34" t="str" cm="1">
         <f t="array" ref="K71">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E71, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17">
         <v>1002123</v>
       </c>
@@ -10343,29 +10337,29 @@
         <v>5</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J72" s="17">
         <v>30</v>
       </c>
       <c r="K72" s="34" t="str" cm="1">
         <f t="array" ref="K72">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E72, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>1002124</v>
       </c>
@@ -10379,29 +10373,29 @@
         <v>5</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J73" s="17">
         <v>30</v>
       </c>
       <c r="K73" s="34" t="str" cm="1">
         <f t="array" ref="K73">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E73, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>1002125</v>
       </c>
@@ -10415,29 +10409,29 @@
         <v>3</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J74" s="14">
         <v>30</v>
       </c>
       <c r="K74" s="33" t="str" cm="1">
         <f t="array" ref="K74">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E74, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>1002126</v>
       </c>
@@ -10451,29 +10445,29 @@
         <v>5</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J75" s="14">
         <v>30</v>
       </c>
       <c r="K75" s="33" t="str" cm="1">
         <f t="array" ref="K75">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E75, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>1002127</v>
       </c>
@@ -10487,29 +10481,29 @@
         <v>5</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J76" s="14">
         <v>30</v>
       </c>
       <c r="K76" s="33" t="str" cm="1">
         <f t="array" ref="K76">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E76, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17">
         <v>1002128</v>
       </c>
@@ -10523,29 +10517,29 @@
         <v>3</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J77" s="17">
         <v>30</v>
       </c>
       <c r="K77" s="34" t="str" cm="1">
         <f t="array" ref="K77">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E77, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17">
         <v>1002129</v>
       </c>
@@ -10559,29 +10553,29 @@
         <v>5</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J78" s="17">
         <v>30</v>
       </c>
       <c r="K78" s="34" t="str" cm="1">
         <f t="array" ref="K78">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E78, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0006     //     monster_desc_0010     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17">
         <v>1002130</v>
       </c>
@@ -10595,29 +10589,29 @@
         <v>5</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J79" s="17">
         <v>30</v>
       </c>
       <c r="K79" s="34" t="str" cm="1">
         <f t="array" ref="K79">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E79, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>1002131</v>
       </c>
@@ -10631,29 +10625,29 @@
         <v>3</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J80" s="14">
         <v>30</v>
       </c>
       <c r="K80" s="33" t="str" cm="1">
         <f t="array" ref="K80">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E80, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>1002132</v>
       </c>
@@ -10667,29 +10661,29 @@
         <v>5</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J81" s="14">
         <v>30</v>
       </c>
       <c r="K81" s="33" t="str" cm="1">
         <f t="array" ref="K81">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E81, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>1002133</v>
       </c>
@@ -10703,29 +10697,29 @@
         <v>5</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J82" s="14">
         <v>30</v>
       </c>
       <c r="K82" s="33" t="str" cm="1">
         <f t="array" ref="K82">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E82, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17">
         <v>1002134</v>
       </c>
@@ -10739,29 +10733,29 @@
         <v>3</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J83" s="17">
         <v>30</v>
       </c>
       <c r="K83" s="34" t="str" cm="1">
         <f t="array" ref="K83">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E83, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17">
         <v>1002135</v>
       </c>
@@ -10775,29 +10769,29 @@
         <v>5</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J84" s="17">
         <v>30</v>
       </c>
       <c r="K84" s="34" t="str" cm="1">
         <f t="array" ref="K84">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E84, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17">
         <v>1002136</v>
       </c>
@@ -10811,29 +10805,29 @@
         <v>5</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J85" s="17">
         <v>30</v>
       </c>
       <c r="K85" s="34" t="str" cm="1">
         <f t="array" ref="K85">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E85, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>1002137</v>
       </c>
@@ -10847,29 +10841,29 @@
         <v>3</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J86" s="14">
         <v>30</v>
       </c>
       <c r="K86" s="33" t="str" cm="1">
         <f t="array" ref="K86">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E86, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>1002138</v>
       </c>
@@ -10883,29 +10877,29 @@
         <v>5</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J87" s="14">
         <v>30</v>
       </c>
       <c r="K87" s="33" t="str" cm="1">
         <f t="array" ref="K87">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E87, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>1002139</v>
       </c>
@@ -10919,29 +10913,29 @@
         <v>5</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J88" s="14">
         <v>30</v>
       </c>
       <c r="K88" s="33" t="str" cm="1">
         <f t="array" ref="K88">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E88, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0011     //     monster_desc_0006     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="17">
         <v>1002140</v>
       </c>
@@ -10955,29 +10949,29 @@
         <v>3</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J89" s="17">
         <v>30</v>
       </c>
       <c r="K89" s="34" t="str" cm="1">
         <f t="array" ref="K89">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E89, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17">
         <v>1002141</v>
       </c>
@@ -10991,29 +10985,29 @@
         <v>5</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J90" s="17">
         <v>30</v>
       </c>
       <c r="K90" s="34" t="str" cm="1">
         <f t="array" ref="K90">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E90, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17">
         <v>1002142</v>
       </c>
@@ -11027,29 +11021,29 @@
         <v>5</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J91" s="17">
         <v>30</v>
       </c>
       <c r="K91" s="34" t="str" cm="1">
         <f t="array" ref="K91">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E91, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0011     //     monster_desc_0001     //     monster_desc_0010     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>1002143</v>
       </c>
@@ -11063,29 +11057,29 @@
         <v>3</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J92" s="14">
         <v>30</v>
       </c>
       <c r="K92" s="33" t="str" cm="1">
         <f t="array" ref="K92">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E92, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>1002144</v>
       </c>
@@ -11099,29 +11093,29 @@
         <v>5</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J93" s="14">
         <v>30</v>
       </c>
       <c r="K93" s="33" t="str" cm="1">
         <f t="array" ref="K93">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E93, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="16" customFormat="1">
+        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>1002145</v>
       </c>
@@ -11135,29 +11129,29 @@
         <v>5</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J94" s="14">
         <v>30</v>
       </c>
       <c r="K94" s="33" t="str" cm="1">
         <f t="array" ref="K94">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E94, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     베리] 탱커(정예) - 거대 안드     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0012     //     monster_desc_0010     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>1003101</v>
       </c>
@@ -11171,29 +11165,29 @@
         <v>4</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I95" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J95" s="19">
         <v>30</v>
       </c>
       <c r="K95" s="34" t="str" cm="1">
         <f t="array" ref="K95">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E95, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <v>1003102</v>
       </c>
@@ -11207,29 +11201,29 @@
         <v>5</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I96" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J96" s="19">
         <v>30</v>
       </c>
       <c r="K96" s="34" t="str" cm="1">
         <f t="array" ref="K96">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E96, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>1003103</v>
       </c>
@@ -11243,29 +11237,29 @@
         <v>5</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I97" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J97" s="19">
         <v>30</v>
       </c>
       <c r="K97" s="34" t="str" cm="1">
         <f t="array" ref="K97">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E97, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="17">
         <v>1003104</v>
       </c>
@@ -11279,29 +11273,29 @@
         <v>3</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J98" s="17">
         <v>30</v>
       </c>
       <c r="K98" s="33" t="str" cm="1">
         <f t="array" ref="K98">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E98, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="17">
         <v>1003105</v>
       </c>
@@ -11315,29 +11309,29 @@
         <v>5</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J99" s="17">
         <v>30</v>
       </c>
       <c r="K99" s="33" t="str" cm="1">
         <f t="array" ref="K99">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E99, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
         <v>1003106</v>
       </c>
@@ -11351,29 +11345,29 @@
         <v>5</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J100" s="17">
         <v>30</v>
       </c>
       <c r="K100" s="33" t="str" cm="1">
         <f t="array" ref="K100">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E100, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>1003107</v>
       </c>
@@ -11387,29 +11381,29 @@
         <v>3</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I101" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J101" s="19">
         <v>30</v>
       </c>
       <c r="K101" s="34" t="str" cm="1">
         <f t="array" ref="K101">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E101, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <v>1003108</v>
       </c>
@@ -11423,29 +11417,29 @@
         <v>5</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J102" s="19">
         <v>30</v>
       </c>
       <c r="K102" s="34" t="str" cm="1">
         <f t="array" ref="K102">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E102, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <v>1003109</v>
       </c>
@@ -11459,29 +11453,29 @@
         <v>5</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I103" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J103" s="19">
         <v>30</v>
       </c>
       <c r="K103" s="34" t="str" cm="1">
         <f t="array" ref="K103">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E103, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0009     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
         <v>1003110</v>
       </c>
@@ -11495,29 +11489,29 @@
         <v>3</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J104" s="17">
         <v>30</v>
       </c>
       <c r="K104" s="33" t="str" cm="1">
         <f t="array" ref="K104">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E104, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>1003111</v>
       </c>
@@ -11531,29 +11525,29 @@
         <v>5</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J105" s="17">
         <v>30</v>
       </c>
       <c r="K105" s="33" t="str" cm="1">
         <f t="array" ref="K105">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E105, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
         <v>1003112</v>
       </c>
@@ -11567,29 +11561,29 @@
         <v>5</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J106" s="17">
         <v>30</v>
       </c>
       <c r="K106" s="33" t="str" cm="1">
         <f t="array" ref="K106">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E106, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <v>1003113</v>
       </c>
@@ -11603,29 +11597,29 @@
         <v>3</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I107" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J107" s="19">
         <v>30</v>
       </c>
       <c r="K107" s="34" t="str" cm="1">
         <f t="array" ref="K107">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E107, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="19">
         <v>1003114</v>
       </c>
@@ -11639,29 +11633,29 @@
         <v>5</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H108" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I108" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J108" s="19">
         <v>30</v>
       </c>
       <c r="K108" s="34" t="str" cm="1">
         <f t="array" ref="K108">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E108, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="19">
         <v>1003115</v>
       </c>
@@ -11675,29 +11669,29 @@
         <v>5</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G109" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H109" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I109" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J109" s="19">
         <v>30</v>
       </c>
       <c r="K109" s="34" t="str" cm="1">
         <f t="array" ref="K109">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E109, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="17">
         <v>1003116</v>
       </c>
@@ -11711,29 +11705,29 @@
         <v>3</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J110" s="17">
         <v>30</v>
       </c>
       <c r="K110" s="33" t="str" cm="1">
         <f t="array" ref="K110">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E110, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
         <v>1003117</v>
       </c>
@@ -11747,29 +11741,29 @@
         <v>5</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F111" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J111" s="17">
         <v>30</v>
       </c>
       <c r="K111" s="33" t="str" cm="1">
         <f t="array" ref="K111">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E111, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="17">
         <v>1003118</v>
       </c>
@@ -11783,29 +11777,29 @@
         <v>5</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F112" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I112" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J112" s="17">
         <v>30</v>
       </c>
       <c r="K112" s="33" t="str" cm="1">
         <f t="array" ref="K112">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E112, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0009     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
         <v>1003119</v>
       </c>
@@ -11819,29 +11813,29 @@
         <v>3</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G113" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I113" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J113" s="19">
         <v>30</v>
       </c>
       <c r="K113" s="34" t="str" cm="1">
         <f t="array" ref="K113">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E113, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
         <v>1003120</v>
       </c>
@@ -11855,29 +11849,29 @@
         <v>5</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I114" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J114" s="19">
         <v>30</v>
       </c>
       <c r="K114" s="34" t="str" cm="1">
         <f t="array" ref="K114">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E114, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="19">
         <v>1003121</v>
       </c>
@@ -11891,29 +11885,29 @@
         <v>5</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G115" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H115" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I115" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J115" s="19">
         <v>30</v>
       </c>
       <c r="K115" s="34" t="str" cm="1">
         <f t="array" ref="K115">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E115, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0006     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="17">
         <v>1003122</v>
       </c>
@@ -11927,29 +11921,29 @@
         <v>3</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F116" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J116" s="17">
         <v>30</v>
       </c>
       <c r="K116" s="33" t="str" cm="1">
         <f t="array" ref="K116">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E116, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>1003123</v>
       </c>
@@ -11963,29 +11957,29 @@
         <v>5</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F117" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I117" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J117" s="17">
         <v>30</v>
       </c>
       <c r="K117" s="33" t="str" cm="1">
         <f t="array" ref="K117">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E117, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="17">
         <v>1003124</v>
       </c>
@@ -11999,29 +11993,29 @@
         <v>5</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F118" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H118" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J118" s="17">
         <v>30</v>
       </c>
       <c r="K118" s="33" t="str" cm="1">
         <f t="array" ref="K118">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E118, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
         <v>1003125</v>
       </c>
@@ -12035,29 +12029,29 @@
         <v>3</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I119" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J119" s="19">
         <v>30</v>
       </c>
       <c r="K119" s="34" t="str" cm="1">
         <f t="array" ref="K119">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E119, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="19">
         <v>1003126</v>
       </c>
@@ -12071,29 +12065,29 @@
         <v>5</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G120" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H120" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I120" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J120" s="19">
         <v>30</v>
       </c>
       <c r="K120" s="34" t="str" cm="1">
         <f t="array" ref="K120">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E120, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
         <v>1003127</v>
       </c>
@@ -12107,29 +12101,29 @@
         <v>5</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I121" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J121" s="19">
         <v>30</v>
       </c>
       <c r="K121" s="34" t="str" cm="1">
         <f t="array" ref="K121">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E121, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="17">
         <v>1003128</v>
       </c>
@@ -12143,29 +12137,29 @@
         <v>3</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F122" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I122" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J122" s="17">
         <v>30</v>
       </c>
       <c r="K122" s="33" t="str" cm="1">
         <f t="array" ref="K122">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E122, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
         <v>1003129</v>
       </c>
@@ -12179,29 +12173,29 @@
         <v>5</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F123" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J123" s="17">
         <v>30</v>
       </c>
       <c r="K123" s="33" t="str" cm="1">
         <f t="array" ref="K123">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E123, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0006     //     monster_desc_0010     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="17">
         <v>1003130</v>
       </c>
@@ -12215,29 +12209,29 @@
         <v>5</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H124" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J124" s="17">
         <v>30</v>
       </c>
       <c r="K124" s="33" t="str" cm="1">
         <f t="array" ref="K124">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E124, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
         <v>1003131</v>
       </c>
@@ -12251,29 +12245,29 @@
         <v>3</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I125" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J125" s="19">
         <v>30</v>
       </c>
       <c r="K125" s="34" t="str" cm="1">
         <f t="array" ref="K125">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E125, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="19">
         <v>1003132</v>
       </c>
@@ -12287,29 +12281,29 @@
         <v>5</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G126" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H126" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I126" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J126" s="19">
         <v>30</v>
       </c>
       <c r="K126" s="34" t="str" cm="1">
         <f t="array" ref="K126">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E126, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
         <v>1003133</v>
       </c>
@@ -12323,29 +12317,29 @@
         <v>5</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G127" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H127" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J127" s="19">
         <v>30</v>
       </c>
       <c r="K127" s="34" t="str" cm="1">
         <f t="array" ref="K127">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E127, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="17">
         <v>1003134</v>
       </c>
@@ -12359,29 +12353,29 @@
         <v>3</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F128" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I128" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J128" s="17">
         <v>30</v>
       </c>
       <c r="K128" s="33" t="str" cm="1">
         <f t="array" ref="K128">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E128, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="17">
         <v>1003135</v>
       </c>
@@ -12395,29 +12389,29 @@
         <v>5</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F129" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I129" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J129" s="17">
         <v>30</v>
       </c>
       <c r="K129" s="33" t="str" cm="1">
         <f t="array" ref="K129">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E129, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="17">
         <v>1003136</v>
       </c>
@@ -12431,29 +12425,29 @@
         <v>5</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H130" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J130" s="17">
         <v>30</v>
       </c>
       <c r="K130" s="33" t="str" cm="1">
         <f t="array" ref="K130">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E130, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="19">
         <v>1003137</v>
       </c>
@@ -12467,29 +12461,29 @@
         <v>3</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G131" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I131" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J131" s="19">
         <v>30</v>
       </c>
       <c r="K131" s="34" t="str" cm="1">
         <f t="array" ref="K131">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E131, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="19">
         <v>1003138</v>
       </c>
@@ -12503,29 +12497,29 @@
         <v>5</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G132" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H132" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J132" s="19">
         <v>30</v>
       </c>
       <c r="K132" s="34" t="str" cm="1">
         <f t="array" ref="K132">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E132, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="19">
         <v>1003139</v>
       </c>
@@ -12539,29 +12533,29 @@
         <v>5</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G133" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J133" s="19">
         <v>30</v>
       </c>
       <c r="K133" s="34" t="str" cm="1">
         <f t="array" ref="K133">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E133, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0006     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="17">
         <v>1003140</v>
       </c>
@@ -12575,29 +12569,29 @@
         <v>3</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G134" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J134" s="17">
         <v>30</v>
       </c>
       <c r="K134" s="33" t="str" cm="1">
         <f t="array" ref="K134">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E134, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="17">
         <v>1003141</v>
       </c>
@@ -12611,29 +12605,29 @@
         <v>5</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F135" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I135" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J135" s="17">
         <v>30</v>
       </c>
       <c r="K135" s="33" t="str" cm="1">
         <f t="array" ref="K135">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E135, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="17">
         <v>1003142</v>
       </c>
@@ -12647,29 +12641,29 @@
         <v>5</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F136" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G136" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I136" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J136" s="17">
         <v>30</v>
       </c>
       <c r="K136" s="33" t="str" cm="1">
         <f t="array" ref="K136">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E136, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0001     //     monster_desc_0010     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="19">
         <v>1003143</v>
       </c>
@@ -12683,29 +12677,29 @@
         <v>3</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G137" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H137" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J137" s="19">
         <v>30</v>
       </c>
       <c r="K137" s="34" t="str" cm="1">
         <f t="array" ref="K137">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E137, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="19">
         <v>1003144</v>
       </c>
@@ -12719,29 +12713,29 @@
         <v>5</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G138" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H138" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I138" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J138" s="19">
         <v>30</v>
       </c>
       <c r="K138" s="34" t="str" cm="1">
         <f t="array" ref="K138">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E138, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="19">
         <v>1003145</v>
       </c>
@@ -12755,29 +12749,29 @@
         <v>5</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G139" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H139" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I139" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J139" s="19">
         <v>30</v>
       </c>
       <c r="K139" s="34" t="str" cm="1">
         <f t="array" ref="K139">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E139, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     베리] 탱커(정예) - 거대 안드     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0012     //     monster_desc_0010     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>1003201</v>
       </c>
@@ -12791,29 +12785,29 @@
         <v>4</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F140" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G140" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H140" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I140" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J140" s="26">
         <v>30</v>
       </c>
       <c r="K140" s="33" t="str" cm="1">
         <f t="array" ref="K140">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E140, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>1003202</v>
       </c>
@@ -12827,29 +12821,29 @@
         <v>5</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F141" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G141" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H141" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I141" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J141" s="26">
         <v>30</v>
       </c>
       <c r="K141" s="33" t="str" cm="1">
         <f t="array" ref="K141">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E141, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>1003203</v>
       </c>
@@ -12863,29 +12857,29 @@
         <v>5</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F142" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G142" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H142" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I142" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J142" s="26">
         <v>30</v>
       </c>
       <c r="K142" s="33" t="str" cm="1">
         <f t="array" ref="K142">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E142, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="17">
         <v>1003204</v>
       </c>
@@ -12899,29 +12893,29 @@
         <v>3</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F143" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J143" s="17">
         <v>30</v>
       </c>
       <c r="K143" s="34" t="str" cm="1">
         <f t="array" ref="K143">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E143, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="17">
         <v>1003205</v>
       </c>
@@ -12935,29 +12929,29 @@
         <v>5</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F144" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I144" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J144" s="17">
         <v>30</v>
       </c>
       <c r="K144" s="34" t="str" cm="1">
         <f t="array" ref="K144">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E144, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="17">
         <v>1003206</v>
       </c>
@@ -12971,29 +12965,29 @@
         <v>5</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F145" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I145" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J145" s="17">
         <v>30</v>
       </c>
       <c r="K145" s="34" t="str" cm="1">
         <f t="array" ref="K145">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E145, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="26">
         <v>1003207</v>
       </c>
@@ -13007,29 +13001,29 @@
         <v>3</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F146" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G146" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H146" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I146" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J146" s="26">
         <v>30</v>
       </c>
       <c r="K146" s="33" t="str" cm="1">
         <f t="array" ref="K146">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E146, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="26">
         <v>1003208</v>
       </c>
@@ -13043,29 +13037,29 @@
         <v>5</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F147" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G147" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H147" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I147" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J147" s="26">
         <v>30</v>
       </c>
       <c r="K147" s="33" t="str" cm="1">
         <f t="array" ref="K147">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E147, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="26">
         <v>1003209</v>
       </c>
@@ -13079,29 +13073,29 @@
         <v>5</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F148" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G148" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H148" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I148" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J148" s="26">
         <v>30</v>
       </c>
       <c r="K148" s="33" t="str" cm="1">
         <f t="array" ref="K148">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E148, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0009     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="17">
         <v>1003210</v>
       </c>
@@ -13115,29 +13109,29 @@
         <v>3</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F149" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I149" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J149" s="17">
         <v>30</v>
       </c>
       <c r="K149" s="34" t="str" cm="1">
         <f t="array" ref="K149">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E149, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="17">
         <v>1003211</v>
       </c>
@@ -13151,29 +13145,29 @@
         <v>5</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F150" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I150" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J150" s="17">
         <v>30</v>
       </c>
       <c r="K150" s="34" t="str" cm="1">
         <f t="array" ref="K150">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E150, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="17">
         <v>1003212</v>
       </c>
@@ -13187,29 +13181,29 @@
         <v>5</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F151" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H151" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J151" s="17">
         <v>30</v>
       </c>
       <c r="K151" s="34" t="str" cm="1">
         <f t="array" ref="K151">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E151, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="26">
         <v>1003213</v>
       </c>
@@ -13223,29 +13217,29 @@
         <v>3</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F152" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G152" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H152" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I152" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J152" s="26">
         <v>30</v>
       </c>
       <c r="K152" s="33" t="str" cm="1">
         <f t="array" ref="K152">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E152, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="26">
         <v>1003214</v>
       </c>
@@ -13259,29 +13253,29 @@
         <v>5</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F153" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G153" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H153" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I153" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J153" s="26">
         <v>30</v>
       </c>
       <c r="K153" s="33" t="str" cm="1">
         <f t="array" ref="K153">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E153, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="26">
         <v>1003215</v>
       </c>
@@ -13295,29 +13289,29 @@
         <v>5</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F154" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G154" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H154" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I154" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J154" s="26">
         <v>30</v>
       </c>
       <c r="K154" s="33" t="str" cm="1">
         <f t="array" ref="K154">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E154, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="17">
         <v>1003216</v>
       </c>
@@ -13331,29 +13325,29 @@
         <v>3</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F155" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I155" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J155" s="17">
         <v>30</v>
       </c>
       <c r="K155" s="34" t="str" cm="1">
         <f t="array" ref="K155">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E155, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="17">
         <v>1003217</v>
       </c>
@@ -13367,29 +13361,29 @@
         <v>5</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F156" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I156" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J156" s="17">
         <v>30</v>
       </c>
       <c r="K156" s="34" t="str" cm="1">
         <f t="array" ref="K156">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E156, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="17">
         <v>1003218</v>
       </c>
@@ -13403,29 +13397,29 @@
         <v>5</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I157" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J157" s="17">
         <v>30</v>
       </c>
       <c r="K157" s="34" t="str" cm="1">
         <f t="array" ref="K157">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E157, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0009     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="26">
         <v>1003219</v>
       </c>
@@ -13439,29 +13433,29 @@
         <v>3</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F158" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G158" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H158" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I158" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J158" s="26">
         <v>30</v>
       </c>
       <c r="K158" s="33" t="str" cm="1">
         <f t="array" ref="K158">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E158, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="26">
         <v>1003220</v>
       </c>
@@ -13475,29 +13469,29 @@
         <v>5</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F159" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G159" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H159" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I159" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J159" s="26">
         <v>30</v>
       </c>
       <c r="K159" s="33" t="str" cm="1">
         <f t="array" ref="K159">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E159, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="26">
         <v>1003221</v>
       </c>
@@ -13511,29 +13505,29 @@
         <v>5</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F160" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G160" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H160" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I160" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J160" s="26">
         <v>30</v>
       </c>
       <c r="K160" s="33" t="str" cm="1">
         <f t="array" ref="K160">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E160, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0006     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="17">
         <v>1003222</v>
       </c>
@@ -13547,29 +13541,29 @@
         <v>3</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J161" s="17">
         <v>30</v>
       </c>
       <c r="K161" s="34" t="str" cm="1">
         <f t="array" ref="K161">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E161, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="17">
         <v>1003223</v>
       </c>
@@ -13583,29 +13577,29 @@
         <v>5</v>
       </c>
       <c r="E162" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J162" s="17">
         <v>30</v>
       </c>
       <c r="K162" s="34" t="str" cm="1">
         <f t="array" ref="K162">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E162, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="17">
         <v>1003224</v>
       </c>
@@ -13619,29 +13613,29 @@
         <v>5</v>
       </c>
       <c r="E163" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F163" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J163" s="17">
         <v>30</v>
       </c>
       <c r="K163" s="34" t="str" cm="1">
         <f t="array" ref="K163">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E163, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="26">
         <v>1003225</v>
       </c>
@@ -13655,29 +13649,29 @@
         <v>3</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F164" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G164" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H164" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I164" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J164" s="26">
         <v>30</v>
       </c>
       <c r="K164" s="33" t="str" cm="1">
         <f t="array" ref="K164">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E164, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+        <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="26">
         <v>1003226</v>
       </c>
@@ -13691,29 +13685,29 @@
         <v>5</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F165" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G165" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H165" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I165" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J165" s="26">
         <v>30</v>
       </c>
       <c r="K165" s="33" t="str" cm="1">
         <f t="array" ref="K165">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E165, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="26">
         <v>1003227</v>
       </c>
@@ -13727,29 +13721,29 @@
         <v>5</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F166" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I166" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J166" s="26">
         <v>30</v>
       </c>
       <c r="K166" s="33" t="str" cm="1">
         <f t="array" ref="K166">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E166, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="17">
         <v>1003228</v>
       </c>
@@ -13763,29 +13757,29 @@
         <v>3</v>
       </c>
       <c r="E167" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F167" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J167" s="17">
         <v>30</v>
       </c>
       <c r="K167" s="34" t="str" cm="1">
         <f t="array" ref="K167">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E167, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="17">
         <v>1003229</v>
       </c>
@@ -13799,29 +13793,29 @@
         <v>5</v>
       </c>
       <c r="E168" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F168" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G168" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J168" s="17">
         <v>30</v>
       </c>
       <c r="K168" s="34" t="str" cm="1">
         <f t="array" ref="K168">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E168, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+        <v>monster_desc_0001     //     monster_desc_0006     //     monster_desc_0010     //     monster_desc_0007</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="17">
         <v>1003230</v>
       </c>
@@ -13835,29 +13829,29 @@
         <v>5</v>
       </c>
       <c r="E169" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F169" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G169" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I169" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J169" s="17">
         <v>30</v>
       </c>
       <c r="K169" s="34" t="str" cm="1">
         <f t="array" ref="K169">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E169, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+        <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0009</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="17">
         <v>9000001</v>
       </c>
@@ -13874,26 +13868,26 @@
         <v>900001</v>
       </c>
       <c r="F170" s="17">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J170" s="17">
         <v>120</v>
       </c>
       <c r="K170" s="33" t="str" cm="1">
         <f t="array" ref="K170">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E170, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>보스_엘리자베스</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>monster_desc_0022</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="17">
         <v>9000002</v>
       </c>
@@ -13919,17 +13913,17 @@
         <v>50</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J171" s="17">
         <v>120</v>
       </c>
       <c r="K171" s="33" t="str" cm="1">
         <f t="array" ref="K171">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E171, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>보스_엘리자베스</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+        <v>monster_desc_0022</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="17">
         <v>9000003</v>
       </c>
@@ -13955,17 +13949,17 @@
         <v>60</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J172" s="17">
         <v>120</v>
       </c>
       <c r="K172" s="33" t="str" cm="1">
         <f t="array" ref="K172">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E172, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>보스_엘리자베스</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+        <v>monster_desc_0022</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="17">
         <v>9000004</v>
       </c>
@@ -13991,14 +13985,14 @@
         <v>90</v>
       </c>
       <c r="I173" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J173" s="17">
         <v>120</v>
       </c>
       <c r="K173" s="33" t="str" cm="1">
         <f t="array" ref="K173">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E173, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>보스_엘리자베스</v>
+        <v>monster_desc_0022</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C981FE0C-9D63-4D63-B7CC-DC83E2147C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B26BB84-1C0D-41AE-8C07-607C34054C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="780" windowWidth="36135" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="40095" yWindow="975" windowWidth="36135" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3277,47 +3277,47 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="6"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="6"/>
     </row>
   </sheetData>
@@ -3334,7 +3334,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
@@ -3345,7 +3345,7 @@
     <col min="11" max="11" width="42.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="str">
         <f>'[1]@tribe'!$A$1</f>
         <v>TRIBE_TYPE</v>
@@ -3359,7 +3359,7 @@
         <v>REWARD_TYPE</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="9" t="str">
         <f>'[1]@tribe'!$A3</f>
         <v>type</v>
@@ -3391,7 +3391,7 @@
       <c r="J2" s="9"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="str">
         <f>'[1]@tribe'!$A4</f>
         <v>NONE</v>
@@ -3429,7 +3429,7 @@
         <v>comment</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="str">
         <f>'[1]@tribe'!$A5</f>
         <v>HUMAN</v>
@@ -3467,7 +3467,7 @@
         <v>NONE</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="str">
         <f>'[1]@tribe'!$A6</f>
         <v>ELF</v>
@@ -3505,7 +3505,7 @@
         <v>1 금화(게임내 사용되는 재화)</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="str">
         <f>'[1]@tribe'!$A7</f>
         <v>WEREBEAST</v>
@@ -3531,7 +3531,7 @@
         <v>2 보석(게임내 사용되는 유료 재화)</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="str">
         <f>'[1]@tribe'!$A8</f>
         <v>ANDROID</v>
@@ -3557,7 +3557,7 @@
         <v>3 스태미나</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="str">
         <f>'[1]@tribe'!$A9</f>
         <v>DEVIL</v>
@@ -3583,7 +3583,7 @@
         <v>4 호감도</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="str">
         <f>'[1]@tribe'!$A10</f>
         <v>ANGEL</v>
@@ -3609,7 +3609,7 @@
         <v>5 플레이어 경험치</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <f>'[1]@tribe'!$A11</f>
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>6 캐릭터 경험치</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <f>'[1]@tribe'!$A12</f>
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>7 캐릭터</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <f>'[1]@tribe'!$A13</f>
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>8 장비</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <f>'[1]@tribe'!$A14</f>
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>9 근원 전달 횟수(플레이어 보유)</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <f>'[1]@tribe'!$A15</f>
         <v>0</v>
@@ -3739,7 +3739,7 @@
         <v>10 근원 받을 수 있는 횟수(캐릭터 공용 설정)</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <f>'[1]@tribe'!$A16</f>
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>106 보스전 입장 횟수</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="I16" s="4" t="str">
         <f>'[1]@reward_type'!A16</f>
         <v>PIECE_EQUIPMENT</v>
@@ -3779,7 +3779,7 @@
         <v>111 장비 조각</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:11">
       <c r="I17" s="4" t="str">
         <f>'[1]@reward_type'!A17</f>
         <v>PIECE_CHARACTER</v>
@@ -3793,7 +3793,7 @@
         <v>112 캐릭터 조각</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:11">
       <c r="I18" s="4" t="str">
         <f>'[1]@reward_type'!A18</f>
         <v>PIECE_ITEM</v>
@@ -3807,7 +3807,7 @@
         <v>113 아이템 조각</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:11">
       <c r="I19" s="4" t="str">
         <f>'[1]@reward_type'!A19</f>
         <v>ITEM</v>
@@ -3835,19 +3835,19 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3905,7 +3905,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
@@ -3920,12 +3920,12 @@
     <col min="11" max="11" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>10011</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="20">
         <v>10021</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1001115</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>10031</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>1002115</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="20">
         <v>10032</v>
       </c>
@@ -4185,7 +4185,7 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
@@ -4203,12 +4203,12 @@
     <col min="19" max="19" width="20.625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>1001101</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>1001102</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>1001103</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>1001104</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>1001105</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="4">
         <v>1001106</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>1001107</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="4">
         <v>1001108</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="4">
         <v>1001109</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="4">
         <v>1001110</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="4">
         <v>1001111</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="4">
         <v>1001112</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="4">
         <v>1001113</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="4">
         <v>1001114</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="4">
         <v>1001115</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="13" customFormat="1">
       <c r="A20" s="11">
         <v>1002101</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="13" customFormat="1">
       <c r="A21" s="11">
         <v>1002102</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="13" customFormat="1">
       <c r="A22" s="11">
         <v>1002103</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="13" customFormat="1">
       <c r="A23" s="11">
         <v>1002104</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="13" customFormat="1">
       <c r="A24" s="11">
         <v>1002105</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="13" customFormat="1">
       <c r="A25" s="11">
         <v>1002106</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" s="13" customFormat="1">
       <c r="A26" s="11">
         <v>1002107</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" s="13" customFormat="1">
       <c r="A27" s="11">
         <v>1002108</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="13" customFormat="1">
       <c r="A28" s="11">
         <v>1002109</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="13" customFormat="1">
       <c r="A29" s="11">
         <v>1002110</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="13" customFormat="1">
       <c r="A30" s="11">
         <v>1002111</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" s="13" customFormat="1">
       <c r="A31" s="11">
         <v>1002112</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="13" customFormat="1">
       <c r="A32" s="11">
         <v>1002113</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="13" customFormat="1">
       <c r="A33" s="11">
         <v>1002114</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="13" customFormat="1">
       <c r="A34" s="11">
         <v>1002115</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19">
       <c r="A35" s="4">
         <v>1003101</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" s="4">
         <v>1003102</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19">
       <c r="A37" s="4">
         <v>1003103</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" s="4">
         <v>1003104</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" s="4">
         <v>1003105</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19">
       <c r="A40" s="4">
         <v>1003106</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19">
       <c r="A41" s="4">
         <v>1003107</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="A42" s="4">
         <v>1003108</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" s="4">
         <v>1003109</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="A44" s="4">
         <v>1003110</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" s="4">
         <v>1003111</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" s="4">
         <v>1003112</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" s="4">
         <v>1003113</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" s="4">
         <v>1003114</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" s="4">
         <v>1003115</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>기타</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" s="25">
         <v>1003201</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>루시아 조각</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" s="25">
         <v>1003202</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>라일라 조각</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" s="25">
         <v>1003203</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>바이올렛 조각</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" s="25">
         <v>1003204</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>데이지 조각</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" s="25">
         <v>1003205</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>클레어 조각</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19">
       <c r="A55" s="25">
         <v>1003206</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>에일린 조각</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56" s="25">
         <v>1003207</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>마네 조각</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19">
       <c r="A57" s="25">
         <v>1003208</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>츠키 조각</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19">
       <c r="A58" s="25">
         <v>1003209</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>루시아 조각</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19">
       <c r="A59" s="25">
         <v>1003210</v>
       </c>
@@ -7766,10 +7766,10 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F171" sqref="F171"/>
+      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="7" customWidth="1"/>
@@ -7787,12 +7787,12 @@
     <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="33">
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="17">
         <v>1001101</v>
       </c>
@@ -7937,7 +7937,7 @@
       <c r="N5" s="29"/>
       <c r="O5" s="28"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="17">
         <v>1001102</v>
       </c>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="N6" s="29"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="17">
         <v>1001103</v>
       </c>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="21">
         <v>1001104</v>
       </c>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="21">
         <v>1001105</v>
       </c>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="21">
         <v>1001106</v>
       </c>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="17">
         <v>1001107</v>
       </c>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="N11" s="29"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="17">
         <v>1001108</v>
       </c>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="N12" s="29"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="17">
         <v>1001109</v>
       </c>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="N13" s="29"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="21">
         <v>1001110</v>
       </c>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="N14" s="29"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="21">
         <v>1001111</v>
       </c>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="N15" s="29"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="21">
         <v>1001112</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="17">
         <v>1001113</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="17">
         <v>1001114</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="17">
         <v>1001115</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="21">
         <v>1001116</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="21">
         <v>1001117</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="21">
         <v>1001118</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0009     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="17">
         <v>1001119</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="17">
         <v>1001120</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="17">
         <v>1001121</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0006     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="21">
         <v>1001122</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="21">
         <v>1001123</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="21">
         <v>1001124</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="17">
         <v>1001125</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="17">
         <v>1001126</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="17">
         <v>1001127</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="21">
         <v>1001128</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="21">
         <v>1001129</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>monster_desc_0001     //     monster_desc_0006     //     monster_desc_0010     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="21">
         <v>1001130</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="17">
         <v>1001131</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="17">
         <v>1001132</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="17">
         <v>1001133</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="21">
         <v>1001134</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="21">
         <v>1001135</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="21">
         <v>1001136</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="17">
         <v>1001137</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="17">
         <v>1001138</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="17">
         <v>1001139</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>monster_desc_0011     //     monster_desc_0006     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="21">
         <v>1001140</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="21">
         <v>1001141</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="21">
         <v>1001142</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>monster_desc_0011     //     monster_desc_0001     //     monster_desc_0010     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="17">
         <v>1001143</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="17">
         <v>1001144</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="17">
         <v>1001145</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>monster_desc_0011     //     monster_desc_0012     //     monster_desc_0010     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="16" customFormat="1">
       <c r="A50" s="14">
         <v>1002101</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="16" customFormat="1">
       <c r="A51" s="14">
         <v>1002102</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="16" customFormat="1">
       <c r="A52" s="14">
         <v>1002103</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="16" customFormat="1">
       <c r="A53" s="17">
         <v>1002104</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="16" customFormat="1">
       <c r="A54" s="17">
         <v>1002105</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="16" customFormat="1">
       <c r="A55" s="17">
         <v>1002106</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="16" customFormat="1">
       <c r="A56" s="14">
         <v>1002107</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="16" customFormat="1">
       <c r="A57" s="14">
         <v>1002108</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="16" customFormat="1">
       <c r="A58" s="14">
         <v>1002109</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>monster_desc_0001     //     monster_desc_0009     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="16" customFormat="1">
       <c r="A59" s="17">
         <v>1002110</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="16" customFormat="1">
       <c r="A60" s="17">
         <v>1002111</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="16" customFormat="1">
       <c r="A61" s="17">
         <v>1002112</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="16" customFormat="1">
       <c r="A62" s="14">
         <v>1002113</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="16" customFormat="1">
       <c r="A63" s="14">
         <v>1002114</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="16" customFormat="1">
       <c r="A64" s="14">
         <v>1002115</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="16" customFormat="1">
       <c r="A65" s="17">
         <v>1002116</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="16" customFormat="1">
       <c r="A66" s="17">
         <v>1002117</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="16" customFormat="1">
       <c r="A67" s="17">
         <v>1002118</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0009     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="16" customFormat="1">
       <c r="A68" s="14">
         <v>1002119</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="16" customFormat="1">
       <c r="A69" s="14">
         <v>1002120</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="16" customFormat="1">
       <c r="A70" s="14">
         <v>1002121</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0006     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="16" customFormat="1">
       <c r="A71" s="17">
         <v>1002122</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="16" customFormat="1">
       <c r="A72" s="17">
         <v>1002123</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="16" customFormat="1">
       <c r="A73" s="17">
         <v>1002124</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="16" customFormat="1">
       <c r="A74" s="14">
         <v>1002125</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="16" customFormat="1">
       <c r="A75" s="14">
         <v>1002126</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="16" customFormat="1">
       <c r="A76" s="14">
         <v>1002127</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="16" customFormat="1">
       <c r="A77" s="17">
         <v>1002128</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="16" customFormat="1">
       <c r="A78" s="17">
         <v>1002129</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>monster_desc_0001     //     monster_desc_0006     //     monster_desc_0010     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="16" customFormat="1">
       <c r="A79" s="17">
         <v>1002130</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="16" customFormat="1">
       <c r="A80" s="14">
         <v>1002131</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="16" customFormat="1">
       <c r="A81" s="14">
         <v>1002132</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="16" customFormat="1">
       <c r="A82" s="14">
         <v>1002133</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="16" customFormat="1">
       <c r="A83" s="17">
         <v>1002134</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="16" customFormat="1">
       <c r="A84" s="17">
         <v>1002135</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="16" customFormat="1">
       <c r="A85" s="17">
         <v>1002136</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="16" customFormat="1">
       <c r="A86" s="14">
         <v>1002137</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="16" customFormat="1">
       <c r="A87" s="14">
         <v>1002138</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="16" customFormat="1">
       <c r="A88" s="14">
         <v>1002139</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>monster_desc_0011     //     monster_desc_0006     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="16" customFormat="1">
       <c r="A89" s="17">
         <v>1002140</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="16" customFormat="1">
       <c r="A90" s="17">
         <v>1002141</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="16" customFormat="1">
       <c r="A91" s="17">
         <v>1002142</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>monster_desc_0011     //     monster_desc_0001     //     monster_desc_0010     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="16" customFormat="1">
       <c r="A92" s="14">
         <v>1002143</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="16" customFormat="1">
       <c r="A93" s="14">
         <v>1002144</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="16" customFormat="1">
       <c r="A94" s="14">
         <v>1002145</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>monster_desc_0011     //     monster_desc_0012     //     monster_desc_0010     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11">
       <c r="A95" s="19">
         <v>1003101</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="A96" s="19">
         <v>1003102</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97" s="19">
         <v>1003103</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11">
       <c r="A98" s="17">
         <v>1003104</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99" s="17">
         <v>1003105</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100" s="17">
         <v>1003106</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101" s="19">
         <v>1003107</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102" s="19">
         <v>1003108</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103" s="19">
         <v>1003109</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>monster_desc_0001     //     monster_desc_0009     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11">
       <c r="A104" s="17">
         <v>1003110</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105" s="17">
         <v>1003111</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11">
       <c r="A106" s="17">
         <v>1003112</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11">
       <c r="A107" s="19">
         <v>1003113</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108" s="19">
         <v>1003114</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109" s="19">
         <v>1003115</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110" s="17">
         <v>1003116</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11">
       <c r="A111" s="17">
         <v>1003117</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112" s="17">
         <v>1003118</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0009     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11">
       <c r="A113" s="19">
         <v>1003119</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="A114" s="19">
         <v>1003120</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115" s="19">
         <v>1003121</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0006     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11">
       <c r="A116" s="17">
         <v>1003122</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11">
       <c r="A117" s="17">
         <v>1003123</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11">
       <c r="A118" s="17">
         <v>1003124</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11">
       <c r="A119" s="19">
         <v>1003125</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11">
       <c r="A120" s="19">
         <v>1003126</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11">
       <c r="A121" s="19">
         <v>1003127</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11">
       <c r="A122" s="17">
         <v>1003128</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11">
       <c r="A123" s="17">
         <v>1003129</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>monster_desc_0001     //     monster_desc_0006     //     monster_desc_0010     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11">
       <c r="A124" s="17">
         <v>1003130</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11">
       <c r="A125" s="19">
         <v>1003131</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11">
       <c r="A126" s="19">
         <v>1003132</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11">
       <c r="A127" s="19">
         <v>1003133</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11">
       <c r="A128" s="17">
         <v>1003134</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11">
       <c r="A129" s="17">
         <v>1003135</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11">
       <c r="A130" s="17">
         <v>1003136</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11">
       <c r="A131" s="19">
         <v>1003137</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11">
       <c r="A132" s="19">
         <v>1003138</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11">
       <c r="A133" s="19">
         <v>1003139</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>monster_desc_0011     //     monster_desc_0006     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11">
       <c r="A134" s="17">
         <v>1003140</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11">
       <c r="A135" s="17">
         <v>1003141</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11">
       <c r="A136" s="17">
         <v>1003142</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>monster_desc_0011     //     monster_desc_0001     //     monster_desc_0010     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11">
       <c r="A137" s="19">
         <v>1003143</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11">
       <c r="A138" s="19">
         <v>1003144</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11">
       <c r="A139" s="19">
         <v>1003145</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>monster_desc_0011     //     monster_desc_0012     //     monster_desc_0010     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11">
       <c r="A140" s="26">
         <v>1003201</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11">
       <c r="A141" s="26">
         <v>1003202</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11">
       <c r="A142" s="26">
         <v>1003203</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11">
       <c r="A143" s="17">
         <v>1003204</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11">
       <c r="A144" s="17">
         <v>1003205</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145" s="17">
         <v>1003206</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11">
       <c r="A146" s="26">
         <v>1003207</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11">
       <c r="A147" s="26">
         <v>1003208</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11">
       <c r="A148" s="26">
         <v>1003209</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>monster_desc_0001     //     monster_desc_0009     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11">
       <c r="A149" s="17">
         <v>1003210</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11">
       <c r="A150" s="17">
         <v>1003211</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11">
       <c r="A151" s="17">
         <v>1003212</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11">
       <c r="A152" s="26">
         <v>1003213</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11">
       <c r="A153" s="26">
         <v>1003214</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11">
       <c r="A154" s="26">
         <v>1003215</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11">
       <c r="A155" s="17">
         <v>1003216</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11">
       <c r="A156" s="17">
         <v>1003217</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11">
       <c r="A157" s="17">
         <v>1003218</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0009     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11">
       <c r="A158" s="26">
         <v>1003219</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11">
       <c r="A159" s="26">
         <v>1003220</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11">
       <c r="A160" s="26">
         <v>1003221</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0006     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11">
       <c r="A161" s="17">
         <v>1003222</v>
       </c>
@@ -13563,7 +13563,7 @@
         <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11">
       <c r="A162" s="17">
         <v>1003223</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11">
       <c r="A163" s="17">
         <v>1003224</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11">
       <c r="A164" s="26">
         <v>1003225</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11">
       <c r="A165" s="26">
         <v>1003226</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11">
       <c r="A166" s="26">
         <v>1003227</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11">
       <c r="A167" s="17">
         <v>1003228</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11">
       <c r="A168" s="17">
         <v>1003229</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>monster_desc_0001     //     monster_desc_0006     //     monster_desc_0010     //     monster_desc_0007</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11">
       <c r="A169" s="17">
         <v>1003230</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0009</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11">
       <c r="A170" s="17">
         <v>9000001</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>monster_desc_0022</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11">
       <c r="A171" s="17">
         <v>9000002</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>monster_desc_0022</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11">
       <c r="A172" s="17">
         <v>9000003</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>monster_desc_0022</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11">
       <c r="A173" s="17">
         <v>9000004</v>
       </c>

--- a/Android/ExcelData/StageTable.xlsx
+++ b/Android/ExcelData/StageTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B26BB84-1C0D-41AE-8C07-607C34054C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D621B9A-3273-4550-97F9-5DAAE7119959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40095" yWindow="975" windowWidth="36135" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38940" yWindow="630" windowWidth="36780" windowHeight="19395" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1597,9 +1597,27 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -1875,7 +1893,13 @@
       </sheetData>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="32">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ATTRIBUTE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
       <sheetData sheetId="35" refreshError="1"/>
@@ -2763,7 +2787,7 @@
             <v>100001</v>
           </cell>
           <cell r="B5" t="str">
-            <v>monster_desc_0001</v>
+            <v>마력] 탱커(HP:대) - 마족투사</v>
           </cell>
         </row>
         <row r="6">
@@ -2771,7 +2795,7 @@
             <v>100002</v>
           </cell>
           <cell r="B6" t="str">
-            <v>monster_desc_0002</v>
+            <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한</v>
           </cell>
         </row>
         <row r="7">
@@ -2779,7 +2803,7 @@
             <v>100003</v>
           </cell>
           <cell r="B7" t="str">
-            <v>monster_desc_0003</v>
+            <v>베리] 탱커(방어:대) - 거대 안드로이드</v>
           </cell>
         </row>
         <row r="8">
@@ -2787,7 +2811,7 @@
             <v>100004</v>
           </cell>
           <cell r="B8" t="str">
-            <v>monster_desc_0017</v>
+            <v>마력] 근딜 - 엘프 레인저</v>
           </cell>
         </row>
         <row r="9">
@@ -2795,7 +2819,7 @@
             <v>100005</v>
           </cell>
           <cell r="B9" t="str">
-            <v>monster_desc_0004</v>
+            <v>마력] 원딜 - 엘프 연금술사</v>
           </cell>
         </row>
         <row r="10">
@@ -2803,7 +2827,7 @@
             <v>100006</v>
           </cell>
           <cell r="B10" t="str">
-            <v>monster_desc_0005</v>
+            <v>베리] 근딜 - 하급 안드로이드</v>
           </cell>
         </row>
         <row r="11">
@@ -2811,7 +2835,7 @@
             <v>100007</v>
           </cell>
           <cell r="B11" t="str">
-            <v>monster_desc_0006</v>
+            <v>전기] 근딜(공:↓)- 소속대 소총병</v>
           </cell>
         </row>
         <row r="12">
@@ -2819,7 +2843,7 @@
             <v>100008</v>
           </cell>
           <cell r="B12" t="str">
-            <v>monster_desc_0007</v>
+            <v>전기] 원딜(공:↓) - 소속대 척탄병</v>
           </cell>
         </row>
         <row r="13">
@@ -2827,7 +2851,7 @@
             <v>100009</v>
           </cell>
           <cell r="B13" t="str">
-            <v>monster_desc_0008</v>
+            <v>베리] 원딜 - 고위 천사</v>
           </cell>
         </row>
         <row r="14">
@@ -2835,7 +2859,7 @@
             <v>100010</v>
           </cell>
           <cell r="B14" t="str">
-            <v>monster_desc_0009</v>
+            <v>요력] 원딜 - 꼭두각시 인형</v>
           </cell>
         </row>
         <row r="15">
@@ -2843,7 +2867,7 @@
             <v>100011</v>
           </cell>
           <cell r="B15" t="str">
-            <v>monster_desc_0010</v>
+            <v>마력] 원딜 - 엘프 연금술사(정예)</v>
           </cell>
         </row>
         <row r="16">
@@ -2851,7 +2875,7 @@
             <v>100012</v>
           </cell>
           <cell r="B16" t="str">
-            <v>monster_desc_0011</v>
+            <v>마력] 탱커(HP:대) - 마족투사(정예)</v>
           </cell>
         </row>
         <row r="17">
@@ -2859,7 +2883,7 @@
             <v>100013</v>
           </cell>
           <cell r="B17" t="str">
-            <v>monster_desc_0012</v>
+            <v>베리] 탱커(정예) - 거대 안드</v>
           </cell>
         </row>
         <row r="18">
@@ -2867,7 +2891,7 @@
             <v>100014</v>
           </cell>
           <cell r="B18" t="str">
-            <v>monster_desc_0013</v>
+            <v>전기] 탱커(HP:중, 방어:소) - 거한</v>
           </cell>
         </row>
         <row r="19">
@@ -2875,7 +2899,7 @@
             <v>100015</v>
           </cell>
           <cell r="B19" t="str">
-            <v>monster_desc_0014</v>
+            <v>전기] 근딜- 소속대 소총병</v>
           </cell>
         </row>
         <row r="20">
@@ -2883,7 +2907,7 @@
             <v>100016</v>
           </cell>
           <cell r="B20" t="str">
-            <v>monster_desc_0015</v>
+            <v>전기] 원딜 - 소속대 척탄병</v>
           </cell>
         </row>
         <row r="21">
@@ -2891,7 +2915,7 @@
             <v>100017</v>
           </cell>
           <cell r="B21" t="str">
-            <v>monster_desc_0009</v>
+            <v>요력] 서포터 - 꼭두각시 인형</v>
           </cell>
         </row>
         <row r="22">
@@ -2899,7 +2923,7 @@
             <v>100018</v>
           </cell>
           <cell r="B22" t="str">
-            <v>monster_desc_0018</v>
+            <v>전기] 탱커(정예) - 거한</v>
           </cell>
         </row>
         <row r="23">
@@ -2907,7 +2931,7 @@
             <v>100019</v>
           </cell>
           <cell r="B23" t="str">
-            <v>monster_desc_0019</v>
+            <v>전기] 원딜(정예: 방감) - 척탄병</v>
           </cell>
         </row>
         <row r="24">
@@ -2915,7 +2939,7 @@
             <v>100020</v>
           </cell>
           <cell r="B24" t="str">
-            <v>monster_desc_0020</v>
+            <v>베리] 원딜(정예) - 고위 천사</v>
           </cell>
         </row>
         <row r="25">
@@ -2923,7 +2947,7 @@
             <v>100021</v>
           </cell>
           <cell r="B25" t="str">
-            <v>monster_desc_0021</v>
+            <v>전기] 근딜(정예)- 소속대 소총병</v>
           </cell>
         </row>
         <row r="26">
@@ -2931,7 +2955,7 @@
             <v>100022</v>
           </cell>
           <cell r="B26" t="str">
-            <v>monster_desc_0022</v>
+            <v>베리] 근딜(정예) - 하급 안드로이드</v>
           </cell>
         </row>
         <row r="27">
@@ -2939,7 +2963,7 @@
             <v>200001</v>
           </cell>
           <cell r="B27" t="str">
-            <v>monster_desc_0021</v>
+            <v>보스_마네</v>
           </cell>
         </row>
         <row r="28">
@@ -2947,7 +2971,7 @@
             <v>900001</v>
           </cell>
           <cell r="B28" t="str">
-            <v>monster_desc_0022</v>
+            <v>보스_엘리자베스</v>
           </cell>
         </row>
       </sheetData>
@@ -7763,10 +7787,10 @@
   <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D163" sqref="D163"/>
+      <selection pane="bottomRight" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7931,7 +7955,7 @@
       </c>
       <c r="K5" s="34" t="str" cm="1">
         <f t="array" ref="K5">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E5, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0004</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
       <c r="L5" s="28"/>
       <c r="N5" s="29"/>
@@ -7970,7 +7994,7 @@
       </c>
       <c r="K6" s="34" t="str" cm="1">
         <f t="array" ref="K6">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E6, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
       <c r="N6" s="29"/>
     </row>
@@ -8007,7 +8031,7 @@
       </c>
       <c r="K7" s="34" t="str" cm="1">
         <f t="array" ref="K7">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E7, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
       <c r="N7" s="29"/>
     </row>
@@ -8044,7 +8068,7 @@
       </c>
       <c r="K8" s="33" t="str" cm="1">
         <f t="array" ref="K8">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E8, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
       <c r="N8" s="29"/>
     </row>
@@ -8081,7 +8105,7 @@
       </c>
       <c r="K9" s="33" t="str" cm="1">
         <f t="array" ref="K9">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E9, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0004</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
       <c r="N9" s="29"/>
     </row>
@@ -8118,7 +8142,7 @@
       </c>
       <c r="K10" s="33" t="str" cm="1">
         <f t="array" ref="K10">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E10, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
       <c r="N10" s="29"/>
     </row>
@@ -8155,7 +8179,7 @@
       </c>
       <c r="K11" s="34" t="str" cm="1">
         <f t="array" ref="K11">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E11, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
       <c r="N11" s="29"/>
     </row>
@@ -8192,7 +8216,7 @@
       </c>
       <c r="K12" s="34" t="str" cm="1">
         <f t="array" ref="K12">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E12, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
       <c r="N12" s="29"/>
     </row>
@@ -8229,7 +8253,7 @@
       </c>
       <c r="K13" s="34" t="str" cm="1">
         <f t="array" ref="K13">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E13, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0009     //     monster_desc_0009</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
       <c r="N13" s="29"/>
     </row>
@@ -8266,7 +8290,7 @@
       </c>
       <c r="K14" s="33" t="str" cm="1">
         <f t="array" ref="K14">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E14, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
       <c r="N14" s="29"/>
     </row>
@@ -8303,7 +8327,7 @@
       </c>
       <c r="K15" s="33" t="str" cm="1">
         <f t="array" ref="K15">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E15, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0007</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
       <c r="N15" s="29"/>
     </row>
@@ -8340,7 +8364,7 @@
       </c>
       <c r="K16" s="33" t="str" cm="1">
         <f t="array" ref="K16">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E16, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8376,7 +8400,7 @@
       </c>
       <c r="K17" s="34" t="str" cm="1">
         <f t="array" ref="K17">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E17, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8412,7 +8436,7 @@
       </c>
       <c r="K18" s="34" t="str" cm="1">
         <f t="array" ref="K18">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E18, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8448,7 +8472,7 @@
       </c>
       <c r="K19" s="34" t="str" cm="1">
         <f t="array" ref="K19">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E19, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8484,7 +8508,7 @@
       </c>
       <c r="K20" s="33" t="str" cm="1">
         <f t="array" ref="K20">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E20, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0007     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 원딜(공:↓) - 소속대 척탄병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8520,7 +8544,7 @@
       </c>
       <c r="K21" s="33" t="str" cm="1">
         <f t="array" ref="K21">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E21, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8556,7 +8580,7 @@
       </c>
       <c r="K22" s="33" t="str" cm="1">
         <f t="array" ref="K22">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E22, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0003     //     monster_desc_0006     //     monster_desc_0009     //     monster_desc_0009</v>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 근딜(공:↓)- 소속대 소총병     //     요력] 원딜 - 꼭두각시 인형     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8592,7 +8616,7 @@
       </c>
       <c r="K23" s="34" t="str" cm="1">
         <f t="array" ref="K23">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E23, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -8628,7 +8652,7 @@
       </c>
       <c r="K24" s="34" t="str" cm="1">
         <f t="array" ref="K24">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E24, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0004</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8664,7 +8688,7 @@
       </c>
       <c r="K25" s="34" t="str" cm="1">
         <f t="array" ref="K25">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E25, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0006     //     monster_desc_0007</v>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8700,7 +8724,7 @@
       </c>
       <c r="K26" s="33" t="str" cm="1">
         <f t="array" ref="K26">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E26, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -8736,7 +8760,7 @@
       </c>
       <c r="K27" s="33" t="str" cm="1">
         <f t="array" ref="K27">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E27, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8772,7 +8796,7 @@
       </c>
       <c r="K28" s="33" t="str" cm="1">
         <f t="array" ref="K28">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E28, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -8808,7 +8832,7 @@
       </c>
       <c r="K29" s="34" t="str" cm="1">
         <f t="array" ref="K29">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E29, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0003     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -8844,7 +8868,7 @@
       </c>
       <c r="K30" s="34" t="str" cm="1">
         <f t="array" ref="K30">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E30, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -8880,7 +8904,7 @@
       </c>
       <c r="K31" s="34" t="str" cm="1">
         <f t="array" ref="K31">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E31, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8916,7 +8940,7 @@
       </c>
       <c r="K32" s="33" t="str" cm="1">
         <f t="array" ref="K32">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E32, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0009</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -8952,7 +8976,7 @@
       </c>
       <c r="K33" s="33" t="str" cm="1">
         <f t="array" ref="K33">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E33, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0006     //     monster_desc_0010     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8988,7 +9012,7 @@
       </c>
       <c r="K34" s="33" t="str" cm="1">
         <f t="array" ref="K34">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E34, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0009</v>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -9024,7 +9048,7 @@
       </c>
       <c r="K35" s="34" t="str" cm="1">
         <f t="array" ref="K35">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E35, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -9060,7 +9084,7 @@
       </c>
       <c r="K36" s="34" t="str" cm="1">
         <f t="array" ref="K36">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E36, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -9096,7 +9120,7 @@
       </c>
       <c r="K37" s="34" t="str" cm="1">
         <f t="array" ref="K37">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E37, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0011     //     monster_desc_0017     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -9132,7 +9156,7 @@
       </c>
       <c r="K38" s="33" t="str" cm="1">
         <f t="array" ref="K38">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E38, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0003     //     monster_desc_0017     //     monster_desc_0004</v>
+        <v>베리] 탱커(방어:대) - 거대 안드로이드     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -9168,7 +9192,7 @@
       </c>
       <c r="K39" s="33" t="str" cm="1">
         <f t="array" ref="K39">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E39, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0006     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     전기] 근딜(공:↓)- 소속대 소총병     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -9204,7 +9228,7 @@
       </c>
       <c r="K40" s="33" t="str" cm="1">
         <f t="array" ref="K40">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E40, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0017     //     monster_desc_0010     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 근딜 - 엘프 레인저     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -9240,7 +9264,7 @@
       </c>
       <c r="K41" s="34" t="str" cm="1">
         <f t="array" ref="K41">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E41, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -9276,7 +9300,7 @@
       </c>
       <c r="K42" s="34" t="str" cm="1">
         <f t="array" ref="K42">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E42, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -9312,7 +9336,7 @@
       </c>
       <c r="K43" s="34" t="str" cm="1">
         <f t="array" ref="K43">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E43, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0011     //     monster_desc_0006     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     전기] 근딜(공:↓)- 소속대 소총병     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -9348,7 +9372,7 @@
       </c>
       <c r="K44" s="33" t="str" cm="1">
         <f t="array" ref="K44">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E44, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -9384,7 +9408,7 @@
       </c>
       <c r="K45" s="33" t="str" cm="1">
         <f t="array" ref="K45">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E45, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -9420,7 +9444,7 @@
       </c>
       <c r="K46" s="33" t="str" cm="1">
         <f t="array" ref="K46">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E46, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0011     //     monster_desc_0001     //     monster_desc_0010     //     monster_desc_0009</v>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사(정예)     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -9456,7 +9480,7 @@
       </c>
       <c r="K47" s="34" t="str" cm="1">
         <f t="array" ref="K47">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E47, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0002     //     monster_desc_0004</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -9492,7 +9516,7 @@
       </c>
       <c r="K48" s="34" t="str" cm="1">
         <f t="array" ref="K48">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E48, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0002     //     monster_desc_0003     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>전기] 탱커(HP:중, 방어:소,공:↓) - 거한     //     베리] 탱커(방어:대) - 거대 안드로이드     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -9528,7 +9552,7 @@
       </c>
       <c r="K49" s="34" t="str" cm="1">
         <f t="array" ref="K49">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E49, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0011     //     monster_desc_0012     //     monster_desc_0010     //     monster_desc_0007     //     monster_desc_0009</v>
+        <v>마력] 탱커(HP:대) - 마족투사(정예)     //     베리] 탱커(정예) - 거대 안드     //     마력] 원딜 - 엘프 연금술사(정예)     //     전기] 원딜(공:↓) - 소속대 척탄병     //     요력] 원딜 - 꼭두각시 인형</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="16" customFormat="1">
@@ -9564,7 +9588,7 @@
       </c>
       <c r="K50" s="33" t="str" cm="1">
         <f t="array" ref="K50">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E50, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0004</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     마력] 원딜 - 엘프 연금술사</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="16" customFormat="1">
@@ -9600,7 +9624,7 @@
       </c>
       <c r="K51" s="33" t="str" cm="1">
         <f t="array" ref="K51">_xlfn.TEXTJOIN("     //     ", TRUE, IFERROR(INDEX([4]npc_battle_data!$B:$B, MATCH(_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;SUBSTITUTE(E51, ", ", "&lt;/s&gt;&lt;s&gt;")&amp;"&lt;/s&gt;&lt;/t&gt;", "//s"), [4]npc_battle_data!$A:$A, 0)), ""))</f>
-        <v>monster_desc_0001     //     monster_desc_0004     //     monster_desc_0007</v>
+        <v>마력] 탱커(HP:대) - 마족투사     //     마력] 원딜 - 엘프 연금술사     //     전기] 원딜(공:↓) - 소속대 척탄병</v>
       </c>
     </row>
     <row r="52" span